--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Hypermarket - CAP.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Hypermarket - CAP.xlsx
@@ -15,6 +15,8 @@
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AM$308</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AM$308</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hypermarket!$A$1:$AM$308</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Hypermarket!$A$1:$AM$308</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AM$308</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3962" uniqueCount="932">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3966" uniqueCount="932">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -3164,7 +3166,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3187,6 +3189,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3300"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
     <fill>
@@ -3246,7 +3254,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3327,6 +3335,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
@@ -3339,7 +3351,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3423,7 +3435,7 @@
       <rgbColor rgb="FF92D050"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFFF3300"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
@@ -3450,47 +3462,47 @@
   </sheetPr>
   <dimension ref="A1:AM308"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="3" sqref="F284:G286 G298 G305:G307 G1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J232" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J250" activeCellId="0" sqref="J250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="47.0242914979757"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="138.825910931174"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="45.5263157894737"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="47.7732793522267"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="141.291497975709"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="46.3805668016194"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="41.668016194332"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="29.6720647773279"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="42.3117408906883"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="30.1012145748988"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="58.0566801619433"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.6396761133603"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="50.4534412955466"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="24.4251012145749"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="87.5141700404858"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="59.0242914979757"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="51.3117408906883"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="89.1214574898785"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="1" width="10.6032388663968"/>
@@ -20254,19 +20266,29 @@
       <c r="O212" s="11"/>
       <c r="P212" s="11"/>
       <c r="Q212" s="11"/>
-      <c r="R212" s="7"/>
-      <c r="S212" s="7"/>
+      <c r="R212" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="S212" s="7" t="s">
+        <v>94</v>
+      </c>
       <c r="T212" s="7"/>
       <c r="U212" s="7"/>
       <c r="V212" s="19"/>
       <c r="W212" s="7"/>
-      <c r="X212" s="7"/>
+      <c r="X212" s="7" t="s">
+        <v>595</v>
+      </c>
       <c r="Y212" s="7"/>
       <c r="Z212" s="7"/>
-      <c r="AA212" s="7"/>
+      <c r="AA212" s="7" t="n">
+        <v>1101</v>
+      </c>
       <c r="AB212" s="7"/>
       <c r="AC212" s="7"/>
-      <c r="AD212" s="7"/>
+      <c r="AD212" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="AE212" s="10"/>
       <c r="AF212" s="7"/>
       <c r="AG212" s="7"/>
@@ -23216,10 +23238,10 @@
       </c>
       <c r="P250" s="11"/>
       <c r="Q250" s="7"/>
-      <c r="R250" s="7" t="s">
+      <c r="R250" s="20"/>
+      <c r="S250" s="20" t="s">
         <v>571</v>
       </c>
-      <c r="S250" s="7"/>
       <c r="T250" s="7"/>
       <c r="U250" s="7"/>
       <c r="V250" s="7"/>
@@ -23326,7 +23348,7 @@
       <c r="AL251" s="13" t="s">
         <v>741</v>
       </c>
-      <c r="AM251" s="20" t="n">
+      <c r="AM251" s="21" t="n">
         <v>501</v>
       </c>
     </row>
@@ -24114,7 +24136,7 @@
       <c r="AL261" s="13" t="s">
         <v>764</v>
       </c>
-      <c r="AM261" s="20" t="n">
+      <c r="AM261" s="21" t="n">
         <v>502</v>
       </c>
     </row>
@@ -24665,7 +24687,7 @@
       <c r="AL268" s="18" t="n">
         <v>252</v>
       </c>
-      <c r="AM268" s="20" t="n">
+      <c r="AM268" s="21" t="n">
         <v>503</v>
       </c>
     </row>
@@ -24900,7 +24922,7 @@
       <c r="AL271" s="13" t="s">
         <v>788</v>
       </c>
-      <c r="AM271" s="20" t="n">
+      <c r="AM271" s="21" t="n">
         <v>504</v>
       </c>
     </row>
@@ -25014,7 +25036,7 @@
       </c>
       <c r="K273" s="7"/>
       <c r="L273" s="7"/>
-      <c r="M273" s="21" t="s">
+      <c r="M273" s="22" t="s">
         <v>268</v>
       </c>
       <c r="N273" s="11" t="s">
@@ -25443,7 +25465,7 @@
         <v>261</v>
       </c>
       <c r="AL278" s="7"/>
-      <c r="AM278" s="22" t="n">
+      <c r="AM278" s="23" t="n">
         <v>312</v>
       </c>
     </row>
@@ -25469,7 +25491,7 @@
       <c r="G279" s="7" t="s">
         <v>816</v>
       </c>
-      <c r="H279" s="23" t="s">
+      <c r="H279" s="24" t="s">
         <v>817</v>
       </c>
       <c r="I279" s="7"/>
@@ -25522,7 +25544,7 @@
         <v>262</v>
       </c>
       <c r="AL279" s="7"/>
-      <c r="AM279" s="22" t="n">
+      <c r="AM279" s="23" t="n">
         <v>312</v>
       </c>
     </row>
@@ -25582,7 +25604,7 @@
       <c r="AE280" s="16" t="n">
         <v>0.01625</v>
       </c>
-      <c r="AF280" s="24"/>
+      <c r="AF280" s="25"/>
       <c r="AG280" s="7" t="n">
         <v>1</v>
       </c>
@@ -25601,7 +25623,7 @@
       <c r="AL280" s="13" t="s">
         <v>821</v>
       </c>
-      <c r="AM280" s="22" t="n">
+      <c r="AM280" s="23" t="n">
         <v>312</v>
       </c>
     </row>
@@ -25657,7 +25679,7 @@
         <v>97</v>
       </c>
       <c r="AE281" s="10"/>
-      <c r="AF281" s="24"/>
+      <c r="AF281" s="25"/>
       <c r="AG281" s="7"/>
       <c r="AH281" s="7" t="s">
         <v>824</v>
@@ -26233,7 +26255,7 @@
         <v>271</v>
       </c>
       <c r="AL288" s="7"/>
-      <c r="AM288" s="22" t="n">
+      <c r="AM288" s="23" t="n">
         <v>312</v>
       </c>
     </row>
@@ -26250,7 +26272,7 @@
       <c r="D289" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="E289" s="25" t="s">
+      <c r="E289" s="26" t="s">
         <v>586</v>
       </c>
       <c r="F289" s="7" t="s">
@@ -26306,7 +26328,7 @@
       <c r="AL289" s="18" t="n">
         <v>273</v>
       </c>
-      <c r="AM289" s="22" t="n">
+      <c r="AM289" s="23" t="n">
         <v>302</v>
       </c>
     </row>
@@ -26323,7 +26345,7 @@
       <c r="D290" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="E290" s="25" t="s">
+      <c r="E290" s="26" t="s">
         <v>586</v>
       </c>
       <c r="F290" s="7" t="s">
@@ -26450,7 +26472,7 @@
       <c r="AL291" s="13" t="s">
         <v>861</v>
       </c>
-      <c r="AM291" s="22" t="n">
+      <c r="AM291" s="23" t="n">
         <v>400</v>
       </c>
     </row>
@@ -26698,10 +26720,10 @@
       <c r="D295" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="E295" s="25" t="s">
+      <c r="E295" s="26" t="s">
         <v>874</v>
       </c>
-      <c r="F295" s="22" t="s">
+      <c r="F295" s="23" t="s">
         <v>875</v>
       </c>
       <c r="G295" s="7" t="s">
@@ -26766,10 +26788,10 @@
       <c r="E296" s="7" t="s">
         <v>881</v>
       </c>
-      <c r="F296" s="20" t="s">
+      <c r="F296" s="21" t="s">
         <v>882</v>
       </c>
-      <c r="G296" s="21" t="s">
+      <c r="G296" s="22" t="s">
         <v>883</v>
       </c>
       <c r="H296" s="7" t="s">
@@ -26828,10 +26850,10 @@
       <c r="D297" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="E297" s="25" t="s">
+      <c r="E297" s="26" t="s">
         <v>885</v>
       </c>
-      <c r="F297" s="22" t="s">
+      <c r="F297" s="23" t="s">
         <v>886</v>
       </c>
       <c r="G297" s="7" t="s">
@@ -26893,13 +26915,13 @@
       <c r="D298" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="E298" s="25" t="s">
+      <c r="E298" s="26" t="s">
         <v>889</v>
       </c>
-      <c r="F298" s="22" t="s">
+      <c r="F298" s="23" t="s">
         <v>890</v>
       </c>
-      <c r="G298" s="21" t="s">
+      <c r="G298" s="22" t="s">
         <v>891</v>
       </c>
       <c r="H298" s="7" t="s">
@@ -26958,13 +26980,13 @@
       <c r="D299" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="E299" s="25" t="s">
+      <c r="E299" s="26" t="s">
         <v>894</v>
       </c>
-      <c r="F299" s="22" t="s">
+      <c r="F299" s="23" t="s">
         <v>895</v>
       </c>
-      <c r="G299" s="21" t="s">
+      <c r="G299" s="22" t="s">
         <v>896</v>
       </c>
       <c r="H299" s="7" t="s">
@@ -27023,10 +27045,10 @@
       <c r="D300" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="E300" s="25" t="s">
+      <c r="E300" s="26" t="s">
         <v>898</v>
       </c>
-      <c r="F300" s="22" t="s">
+      <c r="F300" s="23" t="s">
         <v>899</v>
       </c>
       <c r="G300" s="7" t="s">
@@ -27088,10 +27110,10 @@
       <c r="D301" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="E301" s="25" t="s">
+      <c r="E301" s="26" t="s">
         <v>904</v>
       </c>
-      <c r="F301" s="22" t="s">
+      <c r="F301" s="23" t="s">
         <v>905</v>
       </c>
       <c r="G301" s="7" t="s">
@@ -27153,10 +27175,10 @@
       <c r="D302" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="E302" s="25" t="s">
+      <c r="E302" s="26" t="s">
         <v>910</v>
       </c>
-      <c r="F302" s="22" t="s">
+      <c r="F302" s="23" t="s">
         <v>911</v>
       </c>
       <c r="G302" s="7" t="s">
@@ -27222,10 +27244,10 @@
       <c r="D303" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="E303" s="25" t="s">
+      <c r="E303" s="26" t="s">
         <v>910</v>
       </c>
-      <c r="F303" s="22" t="s">
+      <c r="F303" s="23" t="s">
         <v>911</v>
       </c>
       <c r="G303" s="7" t="s">
@@ -27289,10 +27311,10 @@
       <c r="D304" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="E304" s="25" t="s">
+      <c r="E304" s="26" t="s">
         <v>910</v>
       </c>
-      <c r="F304" s="22" t="s">
+      <c r="F304" s="23" t="s">
         <v>911</v>
       </c>
       <c r="G304" s="7" t="s">
@@ -27356,10 +27378,10 @@
       <c r="D305" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="E305" s="25" t="s">
+      <c r="E305" s="26" t="s">
         <v>910</v>
       </c>
-      <c r="F305" s="22" t="s">
+      <c r="F305" s="23" t="s">
         <v>911</v>
       </c>
       <c r="G305" s="7" t="s">
@@ -27377,7 +27399,7 @@
       <c r="M305" s="14" t="s">
         <v>914</v>
       </c>
-      <c r="N305" s="26" t="s">
+      <c r="N305" s="27" t="s">
         <v>919</v>
       </c>
       <c r="O305" s="7"/>
@@ -27423,10 +27445,10 @@
       <c r="D306" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="E306" s="25" t="s">
+      <c r="E306" s="26" t="s">
         <v>910</v>
       </c>
-      <c r="F306" s="22" t="s">
+      <c r="F306" s="23" t="s">
         <v>911</v>
       </c>
       <c r="G306" s="7" t="s">
@@ -27444,7 +27466,7 @@
       <c r="M306" s="14" t="s">
         <v>914</v>
       </c>
-      <c r="N306" s="26" t="s">
+      <c r="N306" s="27" t="s">
         <v>921</v>
       </c>
       <c r="O306" s="7"/>
@@ -27490,10 +27512,10 @@
       <c r="D307" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="E307" s="25" t="s">
+      <c r="E307" s="26" t="s">
         <v>910</v>
       </c>
-      <c r="F307" s="22" t="s">
+      <c r="F307" s="23" t="s">
         <v>911</v>
       </c>
       <c r="G307" s="7" t="s">
@@ -27557,10 +27579,10 @@
       <c r="D308" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="E308" s="25" t="s">
+      <c r="E308" s="26" t="s">
         <v>910</v>
       </c>
-      <c r="F308" s="22" t="s">
+      <c r="F308" s="23" t="s">
         <v>911</v>
       </c>
       <c r="G308" s="7" t="s">
@@ -27632,7 +27654,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="3" sqref="F284:G286 G298 G305:G307 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -27641,48 +27663,48 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="29" t="s">
         <v>926</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="29" t="s">
         <v>927</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="29" t="s">
         <v>928</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="29" t="s">
         <v>929</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="29" t="s">
         <v>930</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="30" t="s">
         <v>931</v>
       </c>
     </row>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Hypermarket - CAP.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Hypermarket - CAP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Hypermarket" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,10 +13,10 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AM$308</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Hypermarket!$A$1:$AM$308</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">Hypermarket!$A$1:$AM$308</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AM$308</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AM$308</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hypermarket!$A$1:$AM$308</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Hypermarket!$A$1:$AM$308</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AM$308</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3966" uniqueCount="932">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3968" uniqueCount="934">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -2698,6 +2698,9 @@
     <t xml:space="preserve">number of coolers with facings target and fullness target</t>
   </si>
   <si>
+    <t xml:space="preserve">Other Coolers, Cold Shelf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cooler: Customer Cooler Doors</t>
   </si>
   <si>
@@ -2726,6 +2729,9 @@
   </si>
   <si>
     <t xml:space="preserve">Холодильники: Максимум 15 СКЮ на дверь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DUMMY</t>
   </si>
   <si>
     <t xml:space="preserve">number of SKUs/Number of cooler Doors</t>
@@ -3166,7 +3172,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3175,14 +3181,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF579D1C"/>
-        <bgColor rgb="FF808000"/>
+        <fgColor rgb="FF66FFFF"/>
+        <bgColor rgb="FF33CCCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFC000"/>
       </patternFill>
     </fill>
     <fill>
@@ -3195,6 +3201,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF3300"/>
         <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFFCC00"/>
       </patternFill>
     </fill>
     <fill>
@@ -3254,7 +3266,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3347,11 +3359,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3426,7 +3442,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FF66FFFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
@@ -3434,12 +3450,12 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF92D050"/>
       <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFFC000"/>
       <rgbColor rgb="FFFF3300"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF579D1C"/>
+      <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -3462,47 +3478,47 @@
   </sheetPr>
   <dimension ref="A1:AM308"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J232" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J250" activeCellId="0" sqref="J250"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="47.7732793522267"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="141.291497975709"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="46.3805668016194"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="48.0971659919028"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="142.574898785425"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="46.8097165991903"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="42.3117408906883"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="30.1012145748988"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="42.6315789473684"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="59.0242914979757"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="51.3117408906883"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="59.4493927125506"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="51.7368421052632"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="25.6032388663968"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="2" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="89.1214574898785"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="89.8744939271255"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="1" width="10.6032388663968"/>
@@ -25288,8 +25304,8 @@
       <c r="U276" s="7"/>
       <c r="V276" s="7"/>
       <c r="W276" s="7"/>
-      <c r="X276" s="7" t="s">
-        <v>801</v>
+      <c r="X276" s="23" t="s">
+        <v>807</v>
       </c>
       <c r="Y276" s="7"/>
       <c r="Z276" s="7"/>
@@ -25332,13 +25348,13 @@
         <v>796</v>
       </c>
       <c r="F277" s="7" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="G277" s="7" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="H277" s="7" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="I277" s="7"/>
       <c r="J277" s="7" t="n">
@@ -25407,10 +25423,10 @@
         <v>586</v>
       </c>
       <c r="F278" s="7" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="G278" s="7" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H278" s="7" t="s">
         <v>574</v>
@@ -25428,12 +25444,12 @@
       <c r="Q278" s="11"/>
       <c r="R278" s="7"/>
       <c r="S278" s="7" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="T278" s="7"/>
       <c r="U278" s="7"/>
       <c r="V278" s="7" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="W278" s="7"/>
       <c r="X278" s="7" t="s">
@@ -25453,7 +25469,7 @@
       <c r="AF278" s="7"/>
       <c r="AG278" s="7"/>
       <c r="AH278" s="7" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="AI278" s="7" t="s">
         <v>804</v>
@@ -25465,7 +25481,7 @@
         <v>261</v>
       </c>
       <c r="AL278" s="7"/>
-      <c r="AM278" s="23" t="n">
+      <c r="AM278" s="24" t="n">
         <v>312</v>
       </c>
     </row>
@@ -25486,15 +25502,17 @@
         <v>586</v>
       </c>
       <c r="F279" s="7" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="G279" s="7" t="s">
-        <v>816</v>
-      </c>
-      <c r="H279" s="24" t="s">
         <v>817</v>
       </c>
-      <c r="I279" s="7"/>
+      <c r="H279" s="25" t="s">
+        <v>818</v>
+      </c>
+      <c r="I279" s="25" t="s">
+        <v>819</v>
+      </c>
       <c r="J279" s="7"/>
       <c r="K279" s="7" t="n">
         <v>1</v>
@@ -25532,7 +25550,7 @@
       <c r="AF279" s="7"/>
       <c r="AG279" s="7"/>
       <c r="AH279" s="7" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="AI279" s="7" t="s">
         <v>804</v>
@@ -25544,7 +25562,7 @@
         <v>262</v>
       </c>
       <c r="AL279" s="7"/>
-      <c r="AM279" s="23" t="n">
+      <c r="AM279" s="24" t="n">
         <v>312</v>
       </c>
     </row>
@@ -25565,10 +25583,10 @@
         <v>586</v>
       </c>
       <c r="F280" s="7" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="G280" s="7" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="H280" s="7" t="s">
         <v>87</v>
@@ -25599,17 +25617,17 @@
       <c r="AB280" s="7"/>
       <c r="AC280" s="7"/>
       <c r="AD280" s="7" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="AE280" s="16" t="n">
         <v>0.01625</v>
       </c>
-      <c r="AF280" s="25"/>
+      <c r="AF280" s="26"/>
       <c r="AG280" s="7" t="n">
         <v>1</v>
       </c>
       <c r="AH280" s="7" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="AI280" s="7" t="s">
         <v>804</v>
@@ -25621,9 +25639,9 @@
         <v>263</v>
       </c>
       <c r="AL280" s="13" t="s">
-        <v>821</v>
-      </c>
-      <c r="AM280" s="23" t="n">
+        <v>823</v>
+      </c>
+      <c r="AM280" s="24" t="n">
         <v>312</v>
       </c>
     </row>
@@ -25642,10 +25660,10 @@
       </c>
       <c r="E281" s="7"/>
       <c r="F281" s="7" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="G281" s="7" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="H281" s="7" t="s">
         <v>87</v>
@@ -25679,10 +25697,10 @@
         <v>97</v>
       </c>
       <c r="AE281" s="10"/>
-      <c r="AF281" s="25"/>
+      <c r="AF281" s="26"/>
       <c r="AG281" s="7"/>
       <c r="AH281" s="7" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="AI281" s="7" t="s">
         <v>804</v>
@@ -25694,7 +25712,7 @@
         <v>264</v>
       </c>
       <c r="AL281" s="13" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="AM281" s="7" t="n">
         <v>263</v>
@@ -25715,10 +25733,10 @@
       </c>
       <c r="E282" s="7"/>
       <c r="F282" s="7" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="G282" s="7" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="H282" s="7" t="s">
         <v>734</v>
@@ -25730,21 +25748,21 @@
       <c r="K282" s="7"/>
       <c r="L282" s="7"/>
       <c r="M282" s="7" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="N282" s="11" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="O282" s="11"/>
       <c r="P282" s="11"/>
       <c r="Q282" s="11" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="R282" s="7" t="s">
         <v>93</v>
       </c>
       <c r="S282" s="14" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="T282" s="7"/>
       <c r="U282" s="7"/>
@@ -25754,20 +25772,20 @@
         <v>801</v>
       </c>
       <c r="Y282" s="7" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="Z282" s="7"/>
       <c r="AA282" s="7"/>
       <c r="AB282" s="7"/>
       <c r="AC282" s="7"/>
       <c r="AD282" s="7" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="AE282" s="10"/>
       <c r="AF282" s="7"/>
       <c r="AG282" s="7"/>
       <c r="AH282" s="7" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="AI282" s="7" t="s">
         <v>804</v>
@@ -25798,10 +25816,10 @@
       </c>
       <c r="E283" s="7"/>
       <c r="F283" s="7" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="G283" s="7" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="H283" s="7" t="s">
         <v>734</v>
@@ -25813,21 +25831,21 @@
       <c r="K283" s="7"/>
       <c r="L283" s="7"/>
       <c r="M283" s="7" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="N283" s="11" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="O283" s="11"/>
       <c r="P283" s="11"/>
       <c r="Q283" s="11" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="R283" s="7" t="s">
         <v>93</v>
       </c>
       <c r="S283" s="14" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="T283" s="7"/>
       <c r="U283" s="7"/>
@@ -25837,20 +25855,20 @@
         <v>801</v>
       </c>
       <c r="Y283" s="7" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="Z283" s="7"/>
       <c r="AA283" s="7"/>
       <c r="AB283" s="7"/>
       <c r="AC283" s="7"/>
       <c r="AD283" s="7" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="AE283" s="10"/>
       <c r="AF283" s="7"/>
       <c r="AG283" s="7"/>
       <c r="AH283" s="7" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="AI283" s="7" t="s">
         <v>804</v>
@@ -25881,10 +25899,10 @@
       </c>
       <c r="E284" s="7"/>
       <c r="F284" s="7" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="G284" s="7" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="H284" s="7" t="s">
         <v>739</v>
@@ -25917,7 +25935,7 @@
       <c r="AB284" s="7"/>
       <c r="AC284" s="7"/>
       <c r="AD284" s="7" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="AE284" s="10"/>
       <c r="AF284" s="7"/>
@@ -25933,7 +25951,7 @@
         <v>267</v>
       </c>
       <c r="AL284" s="13" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="AM284" s="7" t="n">
         <v>263</v>
@@ -25954,10 +25972,10 @@
       </c>
       <c r="E285" s="7"/>
       <c r="F285" s="7" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="G285" s="7" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="H285" s="7" t="s">
         <v>92</v>
@@ -25969,21 +25987,21 @@
       <c r="K285" s="7"/>
       <c r="L285" s="7"/>
       <c r="M285" s="7" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="N285" s="11" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="O285" s="11"/>
       <c r="P285" s="11"/>
       <c r="Q285" s="11" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="R285" s="7" t="s">
         <v>93</v>
       </c>
       <c r="S285" s="14" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="T285" s="7"/>
       <c r="U285" s="7"/>
@@ -26006,7 +26024,7 @@
       <c r="AF285" s="7"/>
       <c r="AG285" s="7"/>
       <c r="AH285" s="7" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="AI285" s="7" t="s">
         <v>804</v>
@@ -26037,10 +26055,10 @@
       </c>
       <c r="E286" s="7"/>
       <c r="F286" s="7" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="G286" s="7" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="H286" s="7" t="s">
         <v>92</v>
@@ -26052,21 +26070,21 @@
       <c r="K286" s="7"/>
       <c r="L286" s="7"/>
       <c r="M286" s="7" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="N286" s="11" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="O286" s="11"/>
       <c r="P286" s="11"/>
       <c r="Q286" s="11" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="R286" s="7" t="s">
         <v>93</v>
       </c>
       <c r="S286" s="14" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="T286" s="7"/>
       <c r="U286" s="7"/>
@@ -26089,7 +26107,7 @@
       <c r="AF286" s="7"/>
       <c r="AG286" s="7"/>
       <c r="AH286" s="7" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="AI286" s="7" t="s">
         <v>804</v>
@@ -26120,15 +26138,17 @@
       </c>
       <c r="E287" s="7"/>
       <c r="F287" s="7" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="G287" s="7" t="s">
-        <v>846</v>
-      </c>
-      <c r="H287" s="14" t="s">
-        <v>847</v>
-      </c>
-      <c r="I287" s="7"/>
+        <v>848</v>
+      </c>
+      <c r="H287" s="25" t="s">
+        <v>818</v>
+      </c>
+      <c r="I287" s="14" t="s">
+        <v>849</v>
+      </c>
       <c r="J287" s="7" t="n">
         <v>2</v>
       </c>
@@ -26168,7 +26188,7 @@
       <c r="AF287" s="7"/>
       <c r="AG287" s="7"/>
       <c r="AH287" s="7" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="AI287" s="7" t="s">
         <v>804</v>
@@ -26201,13 +26221,13 @@
         <v>586</v>
       </c>
       <c r="F288" s="7" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="G288" s="7" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="H288" s="7" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="I288" s="7"/>
       <c r="J288" s="7"/>
@@ -26243,7 +26263,7 @@
       <c r="AF288" s="7"/>
       <c r="AG288" s="7"/>
       <c r="AH288" s="7" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="AI288" s="7" t="s">
         <v>804</v>
@@ -26255,7 +26275,7 @@
         <v>271</v>
       </c>
       <c r="AL288" s="7"/>
-      <c r="AM288" s="23" t="n">
+      <c r="AM288" s="24" t="n">
         <v>312</v>
       </c>
     </row>
@@ -26272,14 +26292,14 @@
       <c r="D289" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="E289" s="26" t="s">
+      <c r="E289" s="27" t="s">
         <v>586</v>
       </c>
       <c r="F289" s="7" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="G289" s="7" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="H289" s="7" t="s">
         <v>799</v>
@@ -26328,7 +26348,7 @@
       <c r="AL289" s="18" t="n">
         <v>273</v>
       </c>
-      <c r="AM289" s="23" t="n">
+      <c r="AM289" s="24" t="n">
         <v>302</v>
       </c>
     </row>
@@ -26345,17 +26365,17 @@
       <c r="D290" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="E290" s="26" t="s">
+      <c r="E290" s="27" t="s">
         <v>586</v>
       </c>
       <c r="F290" s="7" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="G290" s="7" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="H290" s="7" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="I290" s="7"/>
       <c r="J290" s="7" t="n">
@@ -26391,13 +26411,13 @@
       <c r="AB290" s="7"/>
       <c r="AC290" s="7"/>
       <c r="AD290" s="7" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="AE290" s="10"/>
       <c r="AF290" s="7"/>
       <c r="AG290" s="7"/>
       <c r="AH290" s="7" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="AI290" s="7"/>
       <c r="AJ290" s="7" t="n">
@@ -26426,10 +26446,10 @@
       </c>
       <c r="E291" s="7"/>
       <c r="F291" s="7" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="G291" s="7" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="H291" s="7" t="s">
         <v>87</v>
@@ -26470,9 +26490,9 @@
         <v>274</v>
       </c>
       <c r="AL291" s="13" t="s">
-        <v>861</v>
-      </c>
-      <c r="AM291" s="23" t="n">
+        <v>863</v>
+      </c>
+      <c r="AM291" s="24" t="n">
         <v>400</v>
       </c>
     </row>
@@ -26490,16 +26510,16 @@
         <v>581</v>
       </c>
       <c r="E292" s="7" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="F292" s="7" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="G292" s="7" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="H292" s="7" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="I292" s="7"/>
       <c r="J292" s="7" t="n">
@@ -26509,7 +26529,7 @@
       <c r="L292" s="7"/>
       <c r="M292" s="7"/>
       <c r="N292" s="7" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="O292" s="11"/>
       <c r="P292" s="11"/>
@@ -26518,7 +26538,7 @@
         <v>93</v>
       </c>
       <c r="S292" s="7" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="T292" s="7"/>
       <c r="U292" s="7"/>
@@ -26526,7 +26546,7 @@
       <c r="W292" s="7"/>
       <c r="X292" s="7"/>
       <c r="Y292" s="7" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="Z292" s="7"/>
       <c r="AA292" s="18"/>
@@ -26567,16 +26587,16 @@
         <v>581</v>
       </c>
       <c r="E293" s="7" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="F293" s="7" t="s">
+        <v>869</v>
+      </c>
+      <c r="G293" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="H293" s="7" t="s">
         <v>867</v>
-      </c>
-      <c r="G293" s="7" t="s">
-        <v>868</v>
-      </c>
-      <c r="H293" s="7" t="s">
-        <v>865</v>
       </c>
       <c r="I293" s="7"/>
       <c r="J293" s="7" t="n">
@@ -26586,7 +26606,7 @@
       <c r="L293" s="7"/>
       <c r="M293" s="7"/>
       <c r="N293" s="7" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="O293" s="11"/>
       <c r="P293" s="11"/>
@@ -26595,7 +26615,7 @@
         <v>93</v>
       </c>
       <c r="S293" s="7" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="T293" s="7"/>
       <c r="U293" s="7"/>
@@ -26603,7 +26623,7 @@
       <c r="W293" s="7"/>
       <c r="X293" s="7"/>
       <c r="Y293" s="7" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="Z293" s="7"/>
       <c r="AA293" s="18"/>
@@ -26644,16 +26664,16 @@
         <v>581</v>
       </c>
       <c r="E294" s="7" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="F294" s="7" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="G294" s="7" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="H294" s="7" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="I294" s="7"/>
       <c r="J294" s="7" t="n">
@@ -26663,7 +26683,7 @@
       <c r="L294" s="7"/>
       <c r="M294" s="7"/>
       <c r="N294" s="7" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="O294" s="11"/>
       <c r="P294" s="11"/>
@@ -26672,7 +26692,7 @@
         <v>93</v>
       </c>
       <c r="S294" s="7" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="T294" s="7"/>
       <c r="U294" s="7"/>
@@ -26680,7 +26700,7 @@
       <c r="W294" s="7"/>
       <c r="X294" s="7"/>
       <c r="Y294" s="7" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="Z294" s="7"/>
       <c r="AA294" s="18"/>
@@ -26718,22 +26738,22 @@
         <v>40</v>
       </c>
       <c r="D295" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="E295" s="26" t="s">
-        <v>874</v>
-      </c>
-      <c r="F295" s="23" t="s">
         <v>875</v>
       </c>
+      <c r="E295" s="27" t="s">
+        <v>876</v>
+      </c>
+      <c r="F295" s="24" t="s">
+        <v>877</v>
+      </c>
       <c r="G295" s="7" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="H295" s="7" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="I295" s="7" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="J295" s="7"/>
       <c r="K295" s="7"/>
@@ -26745,7 +26765,7 @@
       <c r="Q295" s="7"/>
       <c r="R295" s="7"/>
       <c r="S295" s="7" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="T295" s="7"/>
       <c r="U295" s="7"/>
@@ -26768,7 +26788,7 @@
         <v>278</v>
       </c>
       <c r="AL295" s="13" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="AM295" s="7"/>
     </row>
@@ -26783,22 +26803,22 @@
         <v>40</v>
       </c>
       <c r="D296" s="7" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="E296" s="7" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="F296" s="21" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="G296" s="22" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="H296" s="7" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="I296" s="7" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="J296" s="7"/>
       <c r="K296" s="7"/>
@@ -26810,7 +26830,7 @@
       <c r="Q296" s="7"/>
       <c r="R296" s="7"/>
       <c r="S296" s="7" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="T296" s="7"/>
       <c r="U296" s="7"/>
@@ -26833,7 +26853,7 @@
         <v>279</v>
       </c>
       <c r="AL296" s="13" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="AM296" s="7"/>
     </row>
@@ -26848,22 +26868,22 @@
         <v>40</v>
       </c>
       <c r="D297" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="E297" s="26" t="s">
-        <v>885</v>
-      </c>
-      <c r="F297" s="23" t="s">
-        <v>886</v>
+        <v>875</v>
+      </c>
+      <c r="E297" s="27" t="s">
+        <v>887</v>
+      </c>
+      <c r="F297" s="24" t="s">
+        <v>888</v>
       </c>
       <c r="G297" s="7" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="H297" s="7" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="I297" s="7" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="J297" s="7"/>
       <c r="K297" s="7"/>
@@ -26875,7 +26895,7 @@
       <c r="Q297" s="7"/>
       <c r="R297" s="7"/>
       <c r="S297" s="7" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="T297" s="7"/>
       <c r="U297" s="7"/>
@@ -26898,7 +26918,7 @@
         <v>280</v>
       </c>
       <c r="AL297" s="13" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="AM297" s="7"/>
     </row>
@@ -26913,22 +26933,22 @@
         <v>40</v>
       </c>
       <c r="D298" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="E298" s="26" t="s">
-        <v>889</v>
-      </c>
-      <c r="F298" s="23" t="s">
-        <v>890</v>
+        <v>875</v>
+      </c>
+      <c r="E298" s="27" t="s">
+        <v>891</v>
+      </c>
+      <c r="F298" s="24" t="s">
+        <v>892</v>
       </c>
       <c r="G298" s="22" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="H298" s="7" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="I298" s="7" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="J298" s="7"/>
       <c r="K298" s="7"/>
@@ -26940,7 +26960,7 @@
       <c r="Q298" s="7"/>
       <c r="R298" s="7"/>
       <c r="S298" s="7" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="T298" s="7"/>
       <c r="U298" s="7"/>
@@ -26978,22 +26998,22 @@
         <v>40</v>
       </c>
       <c r="D299" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="E299" s="26" t="s">
-        <v>894</v>
-      </c>
-      <c r="F299" s="23" t="s">
+        <v>875</v>
+      </c>
+      <c r="E299" s="27" t="s">
+        <v>896</v>
+      </c>
+      <c r="F299" s="24" t="s">
+        <v>897</v>
+      </c>
+      <c r="G299" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="H299" s="7" t="s">
+        <v>899</v>
+      </c>
+      <c r="I299" s="7" t="s">
         <v>895</v>
-      </c>
-      <c r="G299" s="22" t="s">
-        <v>896</v>
-      </c>
-      <c r="H299" s="7" t="s">
-        <v>897</v>
-      </c>
-      <c r="I299" s="7" t="s">
-        <v>893</v>
       </c>
       <c r="J299" s="7"/>
       <c r="K299" s="7"/>
@@ -27005,7 +27025,7 @@
       <c r="Q299" s="7"/>
       <c r="R299" s="7"/>
       <c r="S299" s="7" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="T299" s="7"/>
       <c r="U299" s="7"/>
@@ -27043,36 +27063,36 @@
         <v>40</v>
       </c>
       <c r="D300" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="E300" s="26" t="s">
-        <v>898</v>
-      </c>
-      <c r="F300" s="23" t="s">
-        <v>899</v>
+        <v>875</v>
+      </c>
+      <c r="E300" s="27" t="s">
+        <v>900</v>
+      </c>
+      <c r="F300" s="24" t="s">
+        <v>901</v>
       </c>
       <c r="G300" s="7" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="H300" s="7" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="I300" s="7" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="J300" s="7"/>
       <c r="K300" s="7"/>
       <c r="L300" s="7"/>
       <c r="M300" s="7"/>
       <c r="N300" s="7" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="O300" s="7"/>
       <c r="P300" s="7"/>
       <c r="Q300" s="7"/>
       <c r="R300" s="7"/>
       <c r="S300" s="7" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="T300" s="7"/>
       <c r="U300" s="7"/>
@@ -27108,36 +27128,36 @@
         <v>40</v>
       </c>
       <c r="D301" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="E301" s="26" t="s">
-        <v>904</v>
-      </c>
-      <c r="F301" s="23" t="s">
-        <v>905</v>
+        <v>875</v>
+      </c>
+      <c r="E301" s="27" t="s">
+        <v>906</v>
+      </c>
+      <c r="F301" s="24" t="s">
+        <v>907</v>
       </c>
       <c r="G301" s="7" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="H301" s="7" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="I301" s="7" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="J301" s="7"/>
       <c r="K301" s="7"/>
       <c r="L301" s="7"/>
       <c r="M301" s="7"/>
       <c r="N301" s="7" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="O301" s="7"/>
       <c r="P301" s="7"/>
       <c r="Q301" s="7"/>
       <c r="R301" s="7"/>
       <c r="S301" s="7" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="T301" s="7"/>
       <c r="U301" s="7"/>
@@ -27173,38 +27193,38 @@
         <v>40</v>
       </c>
       <c r="D302" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="E302" s="26" t="s">
+        <v>875</v>
+      </c>
+      <c r="E302" s="27" t="s">
+        <v>912</v>
+      </c>
+      <c r="F302" s="24" t="s">
+        <v>913</v>
+      </c>
+      <c r="G302" s="7" t="s">
+        <v>914</v>
+      </c>
+      <c r="H302" s="7" t="s">
+        <v>915</v>
+      </c>
+      <c r="I302" s="7" t="s">
         <v>910</v>
-      </c>
-      <c r="F302" s="23" t="s">
-        <v>911</v>
-      </c>
-      <c r="G302" s="7" t="s">
-        <v>912</v>
-      </c>
-      <c r="H302" s="7" t="s">
-        <v>913</v>
-      </c>
-      <c r="I302" s="7" t="s">
-        <v>908</v>
       </c>
       <c r="J302" s="7"/>
       <c r="K302" s="7"/>
       <c r="L302" s="7"/>
       <c r="M302" s="14" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="N302" s="13" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="O302" s="7"/>
       <c r="P302" s="7"/>
       <c r="Q302" s="7"/>
       <c r="R302" s="7"/>
       <c r="S302" s="7" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="T302" s="7"/>
       <c r="U302" s="7"/>
@@ -27242,38 +27262,38 @@
         <v>40</v>
       </c>
       <c r="D303" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="E303" s="26" t="s">
+        <v>875</v>
+      </c>
+      <c r="E303" s="27" t="s">
+        <v>912</v>
+      </c>
+      <c r="F303" s="24" t="s">
+        <v>913</v>
+      </c>
+      <c r="G303" s="7" t="s">
+        <v>918</v>
+      </c>
+      <c r="H303" s="7" t="s">
+        <v>915</v>
+      </c>
+      <c r="I303" s="7" t="s">
         <v>910</v>
-      </c>
-      <c r="F303" s="23" t="s">
-        <v>911</v>
-      </c>
-      <c r="G303" s="7" t="s">
-        <v>916</v>
-      </c>
-      <c r="H303" s="7" t="s">
-        <v>913</v>
-      </c>
-      <c r="I303" s="7" t="s">
-        <v>908</v>
       </c>
       <c r="J303" s="7"/>
       <c r="K303" s="7"/>
       <c r="L303" s="7"/>
       <c r="M303" s="14" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="N303" s="13" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="O303" s="7"/>
       <c r="P303" s="7"/>
       <c r="Q303" s="7"/>
       <c r="R303" s="7"/>
       <c r="S303" s="7" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="T303" s="7"/>
       <c r="U303" s="7"/>
@@ -27309,38 +27329,38 @@
         <v>40</v>
       </c>
       <c r="D304" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="E304" s="26" t="s">
+        <v>875</v>
+      </c>
+      <c r="E304" s="27" t="s">
+        <v>912</v>
+      </c>
+      <c r="F304" s="24" t="s">
+        <v>913</v>
+      </c>
+      <c r="G304" s="7" t="s">
+        <v>919</v>
+      </c>
+      <c r="H304" s="7" t="s">
+        <v>915</v>
+      </c>
+      <c r="I304" s="7" t="s">
         <v>910</v>
-      </c>
-      <c r="F304" s="23" t="s">
-        <v>911</v>
-      </c>
-      <c r="G304" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="H304" s="7" t="s">
-        <v>913</v>
-      </c>
-      <c r="I304" s="7" t="s">
-        <v>908</v>
       </c>
       <c r="J304" s="7"/>
       <c r="K304" s="7"/>
       <c r="L304" s="7"/>
       <c r="M304" s="14" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="N304" s="13" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="O304" s="7"/>
       <c r="P304" s="7"/>
       <c r="Q304" s="7"/>
       <c r="R304" s="7"/>
       <c r="S304" s="7" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="T304" s="7"/>
       <c r="U304" s="7"/>
@@ -27376,38 +27396,38 @@
         <v>40</v>
       </c>
       <c r="D305" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="E305" s="26" t="s">
+        <v>875</v>
+      </c>
+      <c r="E305" s="27" t="s">
+        <v>912</v>
+      </c>
+      <c r="F305" s="24" t="s">
+        <v>913</v>
+      </c>
+      <c r="G305" s="7" t="s">
+        <v>920</v>
+      </c>
+      <c r="H305" s="7" t="s">
+        <v>915</v>
+      </c>
+      <c r="I305" s="7" t="s">
         <v>910</v>
-      </c>
-      <c r="F305" s="23" t="s">
-        <v>911</v>
-      </c>
-      <c r="G305" s="7" t="s">
-        <v>918</v>
-      </c>
-      <c r="H305" s="7" t="s">
-        <v>913</v>
-      </c>
-      <c r="I305" s="7" t="s">
-        <v>908</v>
       </c>
       <c r="J305" s="7"/>
       <c r="K305" s="7"/>
       <c r="L305" s="7"/>
       <c r="M305" s="14" t="s">
-        <v>914</v>
-      </c>
-      <c r="N305" s="27" t="s">
-        <v>919</v>
+        <v>916</v>
+      </c>
+      <c r="N305" s="28" t="s">
+        <v>921</v>
       </c>
       <c r="O305" s="7"/>
       <c r="P305" s="7"/>
       <c r="Q305" s="7"/>
       <c r="R305" s="7"/>
       <c r="S305" s="7" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="T305" s="7"/>
       <c r="U305" s="7"/>
@@ -27443,38 +27463,38 @@
         <v>40</v>
       </c>
       <c r="D306" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="E306" s="26" t="s">
+        <v>875</v>
+      </c>
+      <c r="E306" s="27" t="s">
+        <v>912</v>
+      </c>
+      <c r="F306" s="24" t="s">
+        <v>913</v>
+      </c>
+      <c r="G306" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="H306" s="7" t="s">
+        <v>915</v>
+      </c>
+      <c r="I306" s="7" t="s">
         <v>910</v>
-      </c>
-      <c r="F306" s="23" t="s">
-        <v>911</v>
-      </c>
-      <c r="G306" s="7" t="s">
-        <v>920</v>
-      </c>
-      <c r="H306" s="7" t="s">
-        <v>913</v>
-      </c>
-      <c r="I306" s="7" t="s">
-        <v>908</v>
       </c>
       <c r="J306" s="7"/>
       <c r="K306" s="7"/>
       <c r="L306" s="7"/>
       <c r="M306" s="14" t="s">
-        <v>914</v>
-      </c>
-      <c r="N306" s="27" t="s">
-        <v>921</v>
+        <v>916</v>
+      </c>
+      <c r="N306" s="28" t="s">
+        <v>923</v>
       </c>
       <c r="O306" s="7"/>
       <c r="P306" s="7"/>
       <c r="Q306" s="7"/>
       <c r="R306" s="7"/>
       <c r="S306" s="7" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="T306" s="7"/>
       <c r="U306" s="7"/>
@@ -27510,38 +27530,38 @@
         <v>40</v>
       </c>
       <c r="D307" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="E307" s="26" t="s">
+        <v>875</v>
+      </c>
+      <c r="E307" s="27" t="s">
+        <v>912</v>
+      </c>
+      <c r="F307" s="24" t="s">
+        <v>913</v>
+      </c>
+      <c r="G307" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="H307" s="7" t="s">
+        <v>915</v>
+      </c>
+      <c r="I307" s="7" t="s">
         <v>910</v>
-      </c>
-      <c r="F307" s="23" t="s">
-        <v>911</v>
-      </c>
-      <c r="G307" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="H307" s="7" t="s">
-        <v>913</v>
-      </c>
-      <c r="I307" s="7" t="s">
-        <v>908</v>
       </c>
       <c r="J307" s="7"/>
       <c r="K307" s="7"/>
       <c r="L307" s="7"/>
       <c r="M307" s="14" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="N307" s="13" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="O307" s="7"/>
       <c r="P307" s="7"/>
       <c r="Q307" s="7"/>
       <c r="R307" s="7"/>
       <c r="S307" s="7" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="T307" s="7"/>
       <c r="U307" s="7"/>
@@ -27577,38 +27597,38 @@
         <v>40</v>
       </c>
       <c r="D308" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="E308" s="26" t="s">
+        <v>875</v>
+      </c>
+      <c r="E308" s="27" t="s">
+        <v>912</v>
+      </c>
+      <c r="F308" s="24" t="s">
+        <v>913</v>
+      </c>
+      <c r="G308" s="7" t="s">
+        <v>926</v>
+      </c>
+      <c r="H308" s="7" t="s">
+        <v>915</v>
+      </c>
+      <c r="I308" s="7" t="s">
         <v>910</v>
-      </c>
-      <c r="F308" s="23" t="s">
-        <v>911</v>
-      </c>
-      <c r="G308" s="7" t="s">
-        <v>924</v>
-      </c>
-      <c r="H308" s="7" t="s">
-        <v>913</v>
-      </c>
-      <c r="I308" s="7" t="s">
-        <v>908</v>
       </c>
       <c r="J308" s="7"/>
       <c r="K308" s="7"/>
       <c r="L308" s="7"/>
       <c r="M308" s="14" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="N308" s="13" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="O308" s="7"/>
       <c r="P308" s="7"/>
       <c r="Q308" s="7"/>
       <c r="R308" s="7"/>
       <c r="S308" s="7" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="T308" s="7"/>
       <c r="U308" s="7"/>
@@ -27657,55 +27677,55 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="28" t="s">
+    <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="29" t="s">
-        <v>926</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>927</v>
-      </c>
-      <c r="I1" s="29" t="s">
+      <c r="G1" s="30" t="s">
+        <v>928</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>929</v>
+      </c>
+      <c r="I1" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="29" t="s">
-        <v>928</v>
-      </c>
-      <c r="L1" s="29" t="s">
-        <v>929</v>
-      </c>
-      <c r="M1" s="29" t="s">
+      <c r="K1" s="30" t="s">
         <v>930</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="30" t="s">
+      <c r="L1" s="30" t="s">
         <v>931</v>
+      </c>
+      <c r="M1" s="30" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="31" t="s">
+        <v>933</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Hypermarket - CAP.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Hypermarket - CAP.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3968" uniqueCount="934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3974" uniqueCount="932">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -286,7 +286,7 @@
     <t xml:space="preserve">Energy Shelf</t>
   </si>
   <si>
-    <t xml:space="preserve">ЭнергетикиПолка</t>
+    <t xml:space="preserve">Энергетики Полка</t>
   </si>
   <si>
     <t xml:space="preserve">NCB Displays</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">Energy Displays</t>
   </si>
   <si>
-    <t xml:space="preserve">Энергетики Дисплеи</t>
+    <t xml:space="preserve">Energy Дисплеи</t>
   </si>
   <si>
     <t xml:space="preserve">STANDARD 1</t>
@@ -916,7 +916,7 @@
     <t xml:space="preserve">Фьюз Лимон - 1.5л</t>
   </si>
   <si>
-    <t xml:space="preserve">5449000193223</t>
+    <t xml:space="preserve">5449000193223, 5449000235954</t>
   </si>
   <si>
     <t xml:space="preserve">Fuze Mango-Camomile - 0.5L</t>
@@ -925,7 +925,7 @@
     <t xml:space="preserve">Фьюз Манго-Ромашка - 0.5л</t>
   </si>
   <si>
-    <t xml:space="preserve">4607042430879</t>
+    <t xml:space="preserve">4607042430879, 5449000027450</t>
   </si>
   <si>
     <t xml:space="preserve">Fuze Lemon - 0.5L</t>
@@ -934,7 +934,7 @@
     <t xml:space="preserve">Фьюз Лимон - 0.5л</t>
   </si>
   <si>
-    <t xml:space="preserve">5449000189301</t>
+    <t xml:space="preserve">5449000189301, 5449000235947</t>
   </si>
   <si>
     <t xml:space="preserve">Fuze Peach-Rose - 1.0L</t>
@@ -943,13 +943,16 @@
     <t xml:space="preserve">Фьюз Персик-Роза - 1.0л</t>
   </si>
   <si>
+    <t xml:space="preserve">5449000193070, 5449000235794</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fuze Berry - 1L</t>
   </si>
   <si>
     <t xml:space="preserve">Фьюз Лесн.ягоды - 1л</t>
   </si>
   <si>
-    <t xml:space="preserve">5449000233509</t>
+    <t xml:space="preserve">5449000233509, 5449000259462</t>
   </si>
   <si>
     <t xml:space="preserve">Fuze Peach-Rose - 1.5L</t>
@@ -958,22 +961,22 @@
     <t xml:space="preserve">Фьюз Персик-Роза - 1.5л</t>
   </si>
   <si>
+    <t xml:space="preserve">5449000235985, 5449000189325</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fuze Green Strawberry-Raspberry - 0.5L</t>
   </si>
   <si>
     <t xml:space="preserve">Фьюз Зеленый Клубника-Малина - 0.5л</t>
   </si>
   <si>
-    <t xml:space="preserve">5449000233615</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fuze Mango-Camomile - 1L</t>
   </si>
   <si>
     <t xml:space="preserve">Фьюз Манго-Ромашка - 1л</t>
   </si>
   <si>
-    <t xml:space="preserve">4607042431722</t>
+    <t xml:space="preserve">4607042431722, 4607042431722</t>
   </si>
   <si>
     <t xml:space="preserve">Fuze Mango-Camomile - 1.5L</t>
@@ -982,7 +985,7 @@
     <t xml:space="preserve">Фьюз Манго-Ромашка - 1.5л</t>
   </si>
   <si>
-    <t xml:space="preserve">5449000665034</t>
+    <t xml:space="preserve">5449000665034, 4607042431722</t>
   </si>
   <si>
     <t xml:space="preserve">Fuze Berry - 0.5L</t>
@@ -991,7 +994,7 @@
     <t xml:space="preserve">Фьюз Лесн.ягоды - 0.5л</t>
   </si>
   <si>
-    <t xml:space="preserve">5449000193124</t>
+    <t xml:space="preserve">5449000193124, 5449000259455</t>
   </si>
   <si>
     <t xml:space="preserve">Fuze Lemon - 1L</t>
@@ -1000,7 +1003,7 @@
     <t xml:space="preserve">Фьюз Лимон - 1л</t>
   </si>
   <si>
-    <t xml:space="preserve">5449000189318</t>
+    <t xml:space="preserve">5449000189318, 5449000236241</t>
   </si>
   <si>
     <t xml:space="preserve">Fuze Green Citrus - 1.5L</t>
@@ -1018,7 +1021,7 @@
     <t xml:space="preserve">Фьюз Персик - 0.5л</t>
   </si>
   <si>
-    <t xml:space="preserve">5449000189332</t>
+    <t xml:space="preserve">5449000189332, 5449000235770</t>
   </si>
   <si>
     <t xml:space="preserve">Juice (JNSD) Availability</t>
@@ -2214,9 +2217,6 @@
     <t xml:space="preserve">Other TCCC Displays</t>
   </si>
   <si>
-    <t xml:space="preserve">Company Display Mixability</t>
-  </si>
-  <si>
     <t xml:space="preserve">208
 209
 210</t>
@@ -2420,7 +2420,7 @@
     <t xml:space="preserve">SSD Дисплей 4-й</t>
   </si>
   <si>
-    <t xml:space="preserve">102</t>
+    <t xml:space="preserve">104</t>
   </si>
   <si>
     <t xml:space="preserve">230
@@ -2649,6 +2649,9 @@
     <t xml:space="preserve">Холодный Чай полка: Фьюз Манго-Ромашка - 1л</t>
   </si>
   <si>
+    <t xml:space="preserve">5449000027450, 4607042431722</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ice Tea Shelf: Fuze Berry - 1L</t>
   </si>
   <si>
@@ -2677,9 +2680,6 @@
   </si>
   <si>
     <t xml:space="preserve">Plus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler</t>
   </si>
   <si>
     <t xml:space="preserve">Store Master Data attr15</t>
@@ -2698,16 +2698,19 @@
     <t xml:space="preserve">number of coolers with facings target and fullness target</t>
   </si>
   <si>
+    <t xml:space="preserve">Cooler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Customer Cooler Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Количество Дверей Холодильников Клиента</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facings TCCC/40</t>
+  </si>
+  <si>
     <t xml:space="preserve">Other Coolers, Cold Shelf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Customer Cooler Doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Количество Дверей Холодильников Клиента</t>
-  </si>
-  <si>
-    <t xml:space="preserve">facings TCCC/40</t>
   </si>
   <si>
     <t xml:space="preserve">Cooler: Prime Position</t>
@@ -2757,9 +2760,6 @@
     <t xml:space="preserve">Холодильники: Мерч. Стандарты. Мин % фейсов кока-кола</t>
   </si>
   <si>
-    <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors", If not passed on one cooler,score=1</t>
-  </si>
-  <si>
     <t xml:space="preserve">265
 266</t>
   </si>
@@ -2782,9 +2782,6 @@
     <t xml:space="preserve">1 door cooler</t>
   </si>
   <si>
-    <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors", If not passed on one cooler,score=0</t>
-  </si>
-  <si>
     <t xml:space="preserve">Min 30% Coca-Cola</t>
   </si>
   <si>
@@ -2829,9 +2826,6 @@
   </si>
   <si>
     <t xml:space="preserve">number of facings every TCC SKUs on Scenes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors", If not passed on one cooler,score=2</t>
   </si>
   <si>
     <t xml:space="preserve">Cooler: w/o other products</t>
@@ -3113,7 +3107,7 @@
     <numFmt numFmtId="171" formatCode="D\-MMM"/>
     <numFmt numFmtId="172" formatCode="0%"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3141,6 +3135,13 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3181,8 +3182,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF66FFFF"/>
-        <bgColor rgb="FF33CCCC"/>
+        <fgColor rgb="FFFF99FF"/>
+        <bgColor rgb="FFCC99FF"/>
       </patternFill>
     </fill>
     <fill>
@@ -3239,7 +3240,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3265,8 +3266,19 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3275,134 +3287,145 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="6" fillId="4" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="4" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="172" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Comma 2" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Normal 2" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Normal 3" xfId="22" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -3442,8 +3465,8 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF66FFFF"/>
-      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99FF"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
@@ -3479,50 +3502,51 @@
   <dimension ref="A1:AM308"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="48.0971659919028"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="142.574898785425"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="46.8097165991903"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="42.6315789473684"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="30.3157894736842"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="6.96356275303644"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="59.4493927125506"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="51.7368421052632"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="89.8744939271255"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.60728744939271"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.78542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0404858299595"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.8825910931174"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.502024291498"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="46.6396761133603"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="137.684210526316"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="45.0607287449393"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="36.2429149797571"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.9919028340081"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.9311740890688"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.4048582995951"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="41.2834008097166"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="29.4736842105263"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="18.919028340081"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.4534412955466"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.1497975708502"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.1336032388664"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.0890688259109"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="6.94736842105263"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="13.8744939271255"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="57.5101214574899"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.4372469635628"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="20.9676113360324"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="49.9473684210526"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.2307692307692"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="24.2712550607287"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.1376518218623"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="24.9028340080972"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="12.9311740890688"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.1457489878543"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.6194331983806"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="58.1376518218624"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="20.9676113360324"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.5748987854251"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="10.5708502024292"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="9.1497975708502"/>
+    <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3766,7 +3790,7 @@
       </c>
       <c r="AM3" s="11"/>
     </row>
-    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="n">
         <v>295</v>
       </c>
@@ -10367,7 +10391,7 @@
       <c r="M89" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="N89" s="11" t="s">
+      <c r="N89" s="18" t="s">
         <v>259</v>
       </c>
       <c r="O89" s="11"/>
@@ -10448,7 +10472,7 @@
       <c r="M90" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="N90" s="11" t="s">
+      <c r="N90" s="18" t="s">
         <v>262</v>
       </c>
       <c r="O90" s="11"/>
@@ -10529,7 +10553,7 @@
       <c r="M91" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="N91" s="11" t="s">
+      <c r="N91" s="18" t="s">
         <v>265</v>
       </c>
       <c r="O91" s="11"/>
@@ -10610,8 +10634,8 @@
       <c r="M92" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="N92" s="11" t="n">
-        <v>5449000235794</v>
+      <c r="N92" s="18" t="s">
+        <v>268</v>
       </c>
       <c r="O92" s="11"/>
       <c r="P92" s="11"/>
@@ -10674,10 +10698,10 @@
         <v>188</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H93" s="7" t="s">
         <v>92</v>
@@ -10689,10 +10713,10 @@
       <c r="K93" s="7"/>
       <c r="L93" s="7"/>
       <c r="M93" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="N93" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
+      </c>
+      <c r="N93" s="18" t="s">
+        <v>271</v>
       </c>
       <c r="O93" s="11"/>
       <c r="P93" s="11"/>
@@ -10755,10 +10779,10 @@
         <v>188</v>
       </c>
       <c r="F94" s="14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G94" s="15" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H94" s="7" t="s">
         <v>92</v>
@@ -10770,10 +10794,10 @@
       <c r="K94" s="7"/>
       <c r="L94" s="7"/>
       <c r="M94" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="N94" s="11" t="n">
-        <v>5449000235985</v>
+        <v>272</v>
+      </c>
+      <c r="N94" s="18" t="s">
+        <v>274</v>
       </c>
       <c r="O94" s="11"/>
       <c r="P94" s="11"/>
@@ -10836,10 +10860,10 @@
         <v>188</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H95" s="7" t="s">
         <v>92</v>
@@ -10851,10 +10875,10 @@
       <c r="K95" s="7"/>
       <c r="L95" s="7"/>
       <c r="M95" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="N95" s="11" t="s">
         <v>275</v>
+      </c>
+      <c r="N95" s="11" t="n">
+        <v>5449000233615</v>
       </c>
       <c r="O95" s="11"/>
       <c r="P95" s="11"/>
@@ -10917,10 +10941,10 @@
         <v>188</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H96" s="7" t="s">
         <v>92</v>
@@ -10932,10 +10956,10 @@
       <c r="K96" s="7"/>
       <c r="L96" s="7"/>
       <c r="M96" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N96" s="11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O96" s="11"/>
       <c r="P96" s="11"/>
@@ -10998,10 +11022,10 @@
         <v>188</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H97" s="7" t="s">
         <v>92</v>
@@ -11013,10 +11037,10 @@
       <c r="K97" s="7"/>
       <c r="L97" s="7"/>
       <c r="M97" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N97" s="11" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O97" s="11"/>
       <c r="P97" s="11"/>
@@ -11079,10 +11103,10 @@
         <v>188</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G98" s="11" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H98" s="7" t="s">
         <v>92</v>
@@ -11094,10 +11118,10 @@
       <c r="K98" s="7"/>
       <c r="L98" s="7"/>
       <c r="M98" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N98" s="11" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O98" s="11"/>
       <c r="P98" s="11"/>
@@ -11160,10 +11184,10 @@
         <v>188</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G99" s="11" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H99" s="7" t="s">
         <v>92</v>
@@ -11175,10 +11199,10 @@
       <c r="K99" s="7"/>
       <c r="L99" s="7"/>
       <c r="M99" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N99" s="11" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O99" s="11"/>
       <c r="P99" s="11"/>
@@ -11241,10 +11265,10 @@
         <v>188</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G100" s="11" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H100" s="7" t="s">
         <v>92</v>
@@ -11256,10 +11280,10 @@
       <c r="K100" s="7"/>
       <c r="L100" s="7"/>
       <c r="M100" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N100" s="11" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O100" s="11"/>
       <c r="P100" s="11"/>
@@ -11322,10 +11346,10 @@
         <v>188</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H101" s="7" t="s">
         <v>92</v>
@@ -11337,10 +11361,10 @@
       <c r="K101" s="7"/>
       <c r="L101" s="7"/>
       <c r="M101" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="N101" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
+      </c>
+      <c r="N101" s="18" t="s">
+        <v>294</v>
       </c>
       <c r="O101" s="11"/>
       <c r="P101" s="11"/>
@@ -11403,10 +11427,10 @@
         <v>188</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G102" s="11" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H102" s="7" t="s">
         <v>87</v>
@@ -11447,7 +11471,7 @@
         <v>85</v>
       </c>
       <c r="AL102" s="13" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AM102" s="15" t="n">
         <v>300</v>
@@ -11470,10 +11494,10 @@
         <v>188</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H103" s="7" t="s">
         <v>92</v>
@@ -11485,10 +11509,10 @@
       <c r="K103" s="7"/>
       <c r="L103" s="7"/>
       <c r="M103" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N103" s="11" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O103" s="11"/>
       <c r="P103" s="11"/>
@@ -11551,10 +11575,10 @@
         <v>188</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H104" s="7" t="s">
         <v>92</v>
@@ -11566,10 +11590,10 @@
       <c r="K104" s="7"/>
       <c r="L104" s="7"/>
       <c r="M104" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N104" s="11" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O104" s="11"/>
       <c r="P104" s="11"/>
@@ -11632,10 +11656,10 @@
         <v>188</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H105" s="7" t="s">
         <v>92</v>
@@ -11647,10 +11671,10 @@
       <c r="K105" s="7"/>
       <c r="L105" s="7"/>
       <c r="M105" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N105" s="11" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O105" s="11"/>
       <c r="P105" s="11"/>
@@ -11713,10 +11737,10 @@
         <v>188</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H106" s="7" t="s">
         <v>92</v>
@@ -11728,10 +11752,10 @@
       <c r="K106" s="7"/>
       <c r="L106" s="7"/>
       <c r="M106" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N106" s="11" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O106" s="11"/>
       <c r="P106" s="11"/>
@@ -11794,10 +11818,10 @@
         <v>188</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H107" s="7" t="s">
         <v>92</v>
@@ -11809,10 +11833,10 @@
       <c r="K107" s="7"/>
       <c r="L107" s="7"/>
       <c r="M107" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N107" s="11" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O107" s="11"/>
       <c r="P107" s="11"/>
@@ -11875,10 +11899,10 @@
         <v>188</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H108" s="7" t="s">
         <v>92</v>
@@ -11890,10 +11914,10 @@
       <c r="K108" s="7"/>
       <c r="L108" s="7"/>
       <c r="M108" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N108" s="11" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O108" s="11"/>
       <c r="P108" s="11"/>
@@ -11956,10 +11980,10 @@
         <v>188</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H109" s="7" t="s">
         <v>92</v>
@@ -11971,10 +11995,10 @@
       <c r="K109" s="7"/>
       <c r="L109" s="7"/>
       <c r="M109" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N109" s="11" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O109" s="11"/>
       <c r="P109" s="11"/>
@@ -12037,10 +12061,10 @@
         <v>188</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H110" s="7" t="s">
         <v>92</v>
@@ -12052,10 +12076,10 @@
       <c r="K110" s="7"/>
       <c r="L110" s="7"/>
       <c r="M110" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N110" s="11" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O110" s="11"/>
       <c r="P110" s="11"/>
@@ -12118,10 +12142,10 @@
         <v>188</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H111" s="7" t="s">
         <v>92</v>
@@ -12133,10 +12157,10 @@
       <c r="K111" s="7"/>
       <c r="L111" s="7"/>
       <c r="M111" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N111" s="11" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O111" s="11"/>
       <c r="P111" s="11"/>
@@ -12199,10 +12223,10 @@
         <v>188</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H112" s="7" t="s">
         <v>92</v>
@@ -12214,10 +12238,10 @@
       <c r="K112" s="7"/>
       <c r="L112" s="7"/>
       <c r="M112" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N112" s="11" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O112" s="11"/>
       <c r="P112" s="11"/>
@@ -12280,10 +12304,10 @@
         <v>188</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H113" s="7" t="s">
         <v>92</v>
@@ -12295,10 +12319,10 @@
       <c r="K113" s="7"/>
       <c r="L113" s="7"/>
       <c r="M113" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N113" s="11" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O113" s="11"/>
       <c r="P113" s="11"/>
@@ -12361,10 +12385,10 @@
         <v>188</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H114" s="7" t="s">
         <v>92</v>
@@ -12376,10 +12400,10 @@
       <c r="K114" s="7"/>
       <c r="L114" s="7"/>
       <c r="M114" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N114" s="11" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O114" s="11"/>
       <c r="P114" s="11"/>
@@ -12442,10 +12466,10 @@
         <v>188</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H115" s="7" t="s">
         <v>92</v>
@@ -12457,10 +12481,10 @@
       <c r="K115" s="7"/>
       <c r="L115" s="7"/>
       <c r="M115" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N115" s="11" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O115" s="11"/>
       <c r="P115" s="11"/>
@@ -12523,10 +12547,10 @@
         <v>188</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H116" s="7" t="s">
         <v>92</v>
@@ -12538,10 +12562,10 @@
       <c r="K116" s="7"/>
       <c r="L116" s="7"/>
       <c r="M116" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N116" s="11" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O116" s="11"/>
       <c r="P116" s="11"/>
@@ -12604,10 +12628,10 @@
         <v>188</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H117" s="7" t="s">
         <v>92</v>
@@ -12619,10 +12643,10 @@
       <c r="K117" s="7"/>
       <c r="L117" s="7"/>
       <c r="M117" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N117" s="11" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O117" s="11"/>
       <c r="P117" s="11"/>
@@ -12685,10 +12709,10 @@
         <v>188</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H118" s="7" t="s">
         <v>92</v>
@@ -12700,10 +12724,10 @@
       <c r="K118" s="7"/>
       <c r="L118" s="7"/>
       <c r="M118" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N118" s="11" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O118" s="11"/>
       <c r="P118" s="11"/>
@@ -12766,10 +12790,10 @@
         <v>188</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H119" s="7" t="s">
         <v>92</v>
@@ -12781,10 +12805,10 @@
       <c r="K119" s="7"/>
       <c r="L119" s="7"/>
       <c r="M119" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N119" s="11" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O119" s="11"/>
       <c r="P119" s="11"/>
@@ -12847,10 +12871,10 @@
         <v>188</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H120" s="7" t="s">
         <v>92</v>
@@ -12862,10 +12886,10 @@
       <c r="K120" s="7"/>
       <c r="L120" s="7"/>
       <c r="M120" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N120" s="11" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O120" s="11"/>
       <c r="P120" s="11"/>
@@ -12928,10 +12952,10 @@
         <v>188</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H121" s="7" t="s">
         <v>92</v>
@@ -12943,10 +12967,10 @@
       <c r="K121" s="7"/>
       <c r="L121" s="7"/>
       <c r="M121" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N121" s="11" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O121" s="11"/>
       <c r="P121" s="11"/>
@@ -13009,10 +13033,10 @@
         <v>188</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H122" s="7" t="s">
         <v>92</v>
@@ -13024,10 +13048,10 @@
       <c r="K122" s="7"/>
       <c r="L122" s="7"/>
       <c r="M122" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N122" s="11" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O122" s="11"/>
       <c r="P122" s="11"/>
@@ -13090,10 +13114,10 @@
         <v>188</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H123" s="7" t="s">
         <v>92</v>
@@ -13105,10 +13129,10 @@
       <c r="K123" s="7"/>
       <c r="L123" s="7"/>
       <c r="M123" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N123" s="11" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O123" s="11"/>
       <c r="P123" s="11"/>
@@ -13171,10 +13195,10 @@
         <v>188</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H124" s="7" t="s">
         <v>92</v>
@@ -13186,10 +13210,10 @@
       <c r="K124" s="7"/>
       <c r="L124" s="7"/>
       <c r="M124" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N124" s="11" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O124" s="11"/>
       <c r="P124" s="11"/>
@@ -13252,10 +13276,10 @@
         <v>188</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H125" s="7" t="s">
         <v>92</v>
@@ -13267,10 +13291,10 @@
       <c r="K125" s="7"/>
       <c r="L125" s="7"/>
       <c r="M125" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N125" s="11" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O125" s="11"/>
       <c r="P125" s="11"/>
@@ -13333,10 +13357,10 @@
         <v>188</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H126" s="7" t="s">
         <v>92</v>
@@ -13348,10 +13372,10 @@
       <c r="K126" s="7"/>
       <c r="L126" s="7"/>
       <c r="M126" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N126" s="11" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O126" s="11"/>
       <c r="P126" s="11"/>
@@ -13414,10 +13438,10 @@
         <v>188</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H127" s="7" t="s">
         <v>92</v>
@@ -13429,10 +13453,10 @@
       <c r="K127" s="7"/>
       <c r="L127" s="7"/>
       <c r="M127" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N127" s="11" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="O127" s="11"/>
       <c r="P127" s="11"/>
@@ -13495,10 +13519,10 @@
         <v>188</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H128" s="7" t="s">
         <v>92</v>
@@ -13510,10 +13534,10 @@
       <c r="K128" s="7"/>
       <c r="L128" s="7"/>
       <c r="M128" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N128" s="11" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O128" s="11"/>
       <c r="P128" s="11"/>
@@ -13576,10 +13600,10 @@
         <v>188</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H129" s="7" t="s">
         <v>92</v>
@@ -13591,10 +13615,10 @@
       <c r="K129" s="7"/>
       <c r="L129" s="7"/>
       <c r="M129" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N129" s="11" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O129" s="11"/>
       <c r="P129" s="11"/>
@@ -13657,10 +13681,10 @@
         <v>188</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H130" s="7" t="s">
         <v>92</v>
@@ -13672,7 +13696,7 @@
       <c r="K130" s="7"/>
       <c r="L130" s="7"/>
       <c r="M130" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N130" s="11" t="n">
         <v>4650075422922</v>
@@ -13697,7 +13721,7 @@
       <c r="Z130" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="AA130" s="18"/>
+      <c r="AA130" s="19"/>
       <c r="AB130" s="7"/>
       <c r="AC130" s="7"/>
       <c r="AD130" s="7" t="s">
@@ -13738,10 +13762,10 @@
         <v>188</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H131" s="7" t="s">
         <v>92</v>
@@ -13753,7 +13777,7 @@
       <c r="K131" s="7"/>
       <c r="L131" s="7"/>
       <c r="M131" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N131" s="11" t="n">
         <v>4650075420249</v>
@@ -13819,10 +13843,10 @@
         <v>188</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H132" s="7" t="s">
         <v>92</v>
@@ -13834,10 +13858,10 @@
       <c r="K132" s="7"/>
       <c r="L132" s="7"/>
       <c r="M132" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N132" s="11" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="O132" s="11"/>
       <c r="P132" s="11"/>
@@ -13900,10 +13924,10 @@
         <v>188</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H133" s="7" t="s">
         <v>92</v>
@@ -13915,10 +13939,10 @@
       <c r="K133" s="7"/>
       <c r="L133" s="7"/>
       <c r="M133" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N133" s="11" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="O133" s="11"/>
       <c r="P133" s="11"/>
@@ -13981,10 +14005,10 @@
         <v>188</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H134" s="7" t="s">
         <v>92</v>
@@ -13996,7 +14020,7 @@
       <c r="K134" s="7"/>
       <c r="L134" s="7"/>
       <c r="M134" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N134" s="11" t="n">
         <v>111111</v>
@@ -14062,10 +14086,10 @@
         <v>188</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H135" s="7" t="s">
         <v>92</v>
@@ -14077,7 +14101,7 @@
       <c r="K135" s="7"/>
       <c r="L135" s="7"/>
       <c r="M135" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N135" s="11" t="n">
         <v>4650075420263</v>
@@ -14143,10 +14167,10 @@
         <v>188</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H136" s="7" t="s">
         <v>92</v>
@@ -14158,7 +14182,7 @@
       <c r="K136" s="7"/>
       <c r="L136" s="7"/>
       <c r="M136" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N136" s="11" t="n">
         <v>111111</v>
@@ -14224,10 +14248,10 @@
         <v>188</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H137" s="7" t="s">
         <v>92</v>
@@ -14239,10 +14263,10 @@
       <c r="K137" s="7"/>
       <c r="L137" s="7"/>
       <c r="M137" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N137" s="11" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O137" s="11"/>
       <c r="P137" s="11"/>
@@ -14305,10 +14329,10 @@
         <v>188</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H138" s="7" t="s">
         <v>92</v>
@@ -14320,10 +14344,10 @@
       <c r="K138" s="7"/>
       <c r="L138" s="7"/>
       <c r="M138" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N138" s="11" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O138" s="11"/>
       <c r="P138" s="11"/>
@@ -14386,10 +14410,10 @@
         <v>188</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H139" s="7" t="s">
         <v>92</v>
@@ -14401,10 +14425,10 @@
       <c r="K139" s="7"/>
       <c r="L139" s="7"/>
       <c r="M139" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N139" s="11" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O139" s="11"/>
       <c r="P139" s="11"/>
@@ -14467,10 +14491,10 @@
         <v>188</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H140" s="7" t="s">
         <v>92</v>
@@ -14482,10 +14506,10 @@
       <c r="K140" s="7"/>
       <c r="L140" s="7"/>
       <c r="M140" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N140" s="11" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="O140" s="11"/>
       <c r="P140" s="11"/>
@@ -14548,10 +14572,10 @@
         <v>188</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H141" s="7" t="s">
         <v>92</v>
@@ -14563,10 +14587,10 @@
       <c r="K141" s="7"/>
       <c r="L141" s="7"/>
       <c r="M141" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N141" s="11" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O141" s="11"/>
       <c r="P141" s="11"/>
@@ -14629,10 +14653,10 @@
         <v>188</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H142" s="7" t="s">
         <v>92</v>
@@ -14644,7 +14668,7 @@
       <c r="K142" s="7"/>
       <c r="L142" s="7"/>
       <c r="M142" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N142" s="11" t="n">
         <v>111111</v>
@@ -14710,10 +14734,10 @@
         <v>188</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H143" s="7" t="s">
         <v>92</v>
@@ -14725,10 +14749,10 @@
       <c r="K143" s="7"/>
       <c r="L143" s="7"/>
       <c r="M143" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N143" s="11" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="O143" s="11"/>
       <c r="P143" s="11"/>
@@ -14788,13 +14812,13 @@
         <v>41</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H144" s="7" t="s">
         <v>92</v>
@@ -14806,10 +14830,10 @@
       <c r="K144" s="7"/>
       <c r="L144" s="7"/>
       <c r="M144" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N144" s="11" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O144" s="11"/>
       <c r="P144" s="11"/>
@@ -14872,10 +14896,10 @@
         <v>188</v>
       </c>
       <c r="F145" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H145" s="7" t="s">
         <v>92</v>
@@ -14887,10 +14911,10 @@
       <c r="K145" s="7"/>
       <c r="L145" s="7"/>
       <c r="M145" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N145" s="11" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O145" s="11"/>
       <c r="P145" s="11"/>
@@ -14953,10 +14977,10 @@
         <v>188</v>
       </c>
       <c r="F146" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G146" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H146" s="7" t="s">
         <v>92</v>
@@ -14968,10 +14992,10 @@
       <c r="K146" s="7"/>
       <c r="L146" s="7"/>
       <c r="M146" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N146" s="11" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O146" s="11"/>
       <c r="P146" s="11"/>
@@ -15034,10 +15058,10 @@
         <v>188</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G147" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H147" s="7" t="s">
         <v>92</v>
@@ -15049,10 +15073,10 @@
       <c r="K147" s="7"/>
       <c r="L147" s="7"/>
       <c r="M147" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N147" s="11" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="O147" s="11"/>
       <c r="P147" s="11"/>
@@ -15115,10 +15139,10 @@
         <v>188</v>
       </c>
       <c r="F148" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G148" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H148" s="7" t="s">
         <v>92</v>
@@ -15130,10 +15154,10 @@
       <c r="K148" s="7"/>
       <c r="L148" s="7"/>
       <c r="M148" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N148" s="11" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="O148" s="11"/>
       <c r="P148" s="11"/>
@@ -15196,10 +15220,10 @@
         <v>188</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G149" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H149" s="7" t="s">
         <v>92</v>
@@ -15211,10 +15235,10 @@
       <c r="K149" s="7"/>
       <c r="L149" s="7"/>
       <c r="M149" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N149" s="11" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="O149" s="11"/>
       <c r="P149" s="11"/>
@@ -15277,10 +15301,10 @@
         <v>188</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G150" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H150" s="7" t="s">
         <v>92</v>
@@ -15292,10 +15316,10 @@
       <c r="K150" s="7"/>
       <c r="L150" s="7"/>
       <c r="M150" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N150" s="11" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O150" s="11"/>
       <c r="P150" s="11"/>
@@ -15358,10 +15382,10 @@
         <v>188</v>
       </c>
       <c r="F151" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G151" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H151" s="7" t="s">
         <v>92</v>
@@ -15373,10 +15397,10 @@
       <c r="K151" s="7"/>
       <c r="L151" s="7"/>
       <c r="M151" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N151" s="11" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O151" s="11"/>
       <c r="P151" s="11"/>
@@ -15436,13 +15460,13 @@
         <v>41</v>
       </c>
       <c r="E152" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G152" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H152" s="7" t="s">
         <v>92</v>
@@ -15454,10 +15478,10 @@
       <c r="K152" s="7"/>
       <c r="L152" s="7"/>
       <c r="M152" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N152" s="11" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O152" s="11"/>
       <c r="P152" s="11"/>
@@ -15520,10 +15544,10 @@
         <v>188</v>
       </c>
       <c r="F153" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G153" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H153" s="7" t="s">
         <v>92</v>
@@ -15535,10 +15559,10 @@
       <c r="K153" s="7"/>
       <c r="L153" s="7"/>
       <c r="M153" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="N153" s="11" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O153" s="11"/>
       <c r="P153" s="11"/>
@@ -15601,10 +15625,10 @@
         <v>188</v>
       </c>
       <c r="F154" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G154" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H154" s="7" t="s">
         <v>92</v>
@@ -15616,10 +15640,10 @@
       <c r="K154" s="7"/>
       <c r="L154" s="7"/>
       <c r="M154" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N154" s="11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="O154" s="11"/>
       <c r="P154" s="11"/>
@@ -15682,10 +15706,10 @@
         <v>188</v>
       </c>
       <c r="F155" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G155" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H155" s="7" t="s">
         <v>92</v>
@@ -15697,10 +15721,10 @@
       <c r="K155" s="7"/>
       <c r="L155" s="7"/>
       <c r="M155" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N155" s="11" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O155" s="11"/>
       <c r="P155" s="11"/>
@@ -15763,10 +15787,10 @@
         <v>188</v>
       </c>
       <c r="F156" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G156" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H156" s="7" t="s">
         <v>92</v>
@@ -15778,7 +15802,7 @@
       <c r="K156" s="7"/>
       <c r="L156" s="7"/>
       <c r="M156" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N156" s="11" t="n">
         <v>111111</v>
@@ -15844,10 +15868,10 @@
         <v>188</v>
       </c>
       <c r="F157" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G157" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H157" s="7" t="s">
         <v>92</v>
@@ -15859,7 +15883,7 @@
       <c r="K157" s="7"/>
       <c r="L157" s="7"/>
       <c r="M157" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N157" s="11" t="n">
         <v>111111</v>
@@ -15922,13 +15946,13 @@
         <v>41</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F158" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G158" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H158" s="7" t="s">
         <v>92</v>
@@ -15940,10 +15964,10 @@
       <c r="K158" s="7"/>
       <c r="L158" s="7"/>
       <c r="M158" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N158" s="11" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="O158" s="11"/>
       <c r="P158" s="11"/>
@@ -16003,13 +16027,13 @@
         <v>41</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F159" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G159" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H159" s="7" t="s">
         <v>92</v>
@@ -16021,10 +16045,10 @@
       <c r="K159" s="7"/>
       <c r="L159" s="7"/>
       <c r="M159" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N159" s="11" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="O159" s="11"/>
       <c r="P159" s="11"/>
@@ -16087,10 +16111,10 @@
         <v>188</v>
       </c>
       <c r="F160" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="G160" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H160" s="7" t="s">
         <v>92</v>
@@ -16102,10 +16126,10 @@
       <c r="K160" s="7"/>
       <c r="L160" s="7"/>
       <c r="M160" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N160" s="11" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O160" s="11"/>
       <c r="P160" s="11"/>
@@ -16168,10 +16192,10 @@
         <v>188</v>
       </c>
       <c r="F161" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G161" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H161" s="7" t="s">
         <v>92</v>
@@ -16183,10 +16207,10 @@
       <c r="K161" s="7"/>
       <c r="L161" s="7"/>
       <c r="M161" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N161" s="11" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="O161" s="11"/>
       <c r="P161" s="11"/>
@@ -16249,10 +16273,10 @@
         <v>188</v>
       </c>
       <c r="F162" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G162" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H162" s="7" t="s">
         <v>92</v>
@@ -16264,10 +16288,10 @@
       <c r="K162" s="7"/>
       <c r="L162" s="7"/>
       <c r="M162" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N162" s="11" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="O162" s="11"/>
       <c r="P162" s="11"/>
@@ -16330,10 +16354,10 @@
         <v>188</v>
       </c>
       <c r="F163" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G163" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H163" s="7" t="s">
         <v>92</v>
@@ -16345,10 +16369,10 @@
       <c r="K163" s="7"/>
       <c r="L163" s="7"/>
       <c r="M163" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N163" s="11" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="O163" s="11"/>
       <c r="P163" s="11"/>
@@ -16411,10 +16435,10 @@
         <v>188</v>
       </c>
       <c r="F164" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="G164" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H164" s="7" t="s">
         <v>92</v>
@@ -16426,10 +16450,10 @@
       <c r="K164" s="7"/>
       <c r="L164" s="7"/>
       <c r="M164" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N164" s="11" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O164" s="11"/>
       <c r="P164" s="11"/>
@@ -16492,10 +16516,10 @@
         <v>188</v>
       </c>
       <c r="F165" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="G165" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H165" s="7" t="s">
         <v>92</v>
@@ -16507,10 +16531,10 @@
       <c r="K165" s="7"/>
       <c r="L165" s="7"/>
       <c r="M165" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="N165" s="11" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="O165" s="11"/>
       <c r="P165" s="11"/>
@@ -16573,10 +16597,10 @@
         <v>188</v>
       </c>
       <c r="F166" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G166" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H166" s="7" t="s">
         <v>92</v>
@@ -16588,10 +16612,10 @@
       <c r="K166" s="7"/>
       <c r="L166" s="7"/>
       <c r="M166" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="N166" s="11" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="O166" s="11"/>
       <c r="P166" s="11"/>
@@ -16654,10 +16678,10 @@
         <v>188</v>
       </c>
       <c r="F167" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G167" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H167" s="7" t="s">
         <v>92</v>
@@ -16669,10 +16693,10 @@
       <c r="K167" s="7"/>
       <c r="L167" s="7"/>
       <c r="M167" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N167" s="11" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O167" s="11"/>
       <c r="P167" s="11"/>
@@ -16735,10 +16759,10 @@
         <v>188</v>
       </c>
       <c r="F168" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G168" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H168" s="7" t="s">
         <v>92</v>
@@ -16750,7 +16774,7 @@
       <c r="K168" s="7"/>
       <c r="L168" s="7"/>
       <c r="M168" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="N168" s="11" t="n">
         <v>4650075422847</v>
@@ -16816,10 +16840,10 @@
         <v>188</v>
       </c>
       <c r="F169" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="G169" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H169" s="7" t="s">
         <v>92</v>
@@ -16831,10 +16855,10 @@
       <c r="K169" s="7"/>
       <c r="L169" s="7"/>
       <c r="M169" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N169" s="11" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="O169" s="11"/>
       <c r="P169" s="11"/>
@@ -16897,10 +16921,10 @@
         <v>188</v>
       </c>
       <c r="F170" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G170" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H170" s="7" t="s">
         <v>92</v>
@@ -16912,7 +16936,7 @@
       <c r="K170" s="7"/>
       <c r="L170" s="7"/>
       <c r="M170" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N170" s="11" t="n">
         <v>4650075421277</v>
@@ -16978,10 +17002,10 @@
         <v>188</v>
       </c>
       <c r="F171" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G171" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H171" s="7" t="s">
         <v>92</v>
@@ -16993,10 +17017,10 @@
       <c r="K171" s="7"/>
       <c r="L171" s="7"/>
       <c r="M171" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="N171" s="11" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="O171" s="11"/>
       <c r="P171" s="11"/>
@@ -17059,10 +17083,10 @@
         <v>188</v>
       </c>
       <c r="F172" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G172" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H172" s="7" t="s">
         <v>92</v>
@@ -17074,7 +17098,7 @@
       <c r="K172" s="7"/>
       <c r="L172" s="7"/>
       <c r="M172" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="N172" s="11" t="n">
         <v>4650075421550</v>
@@ -17140,10 +17164,10 @@
         <v>188</v>
       </c>
       <c r="F173" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="G173" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H173" s="7" t="s">
         <v>92</v>
@@ -17155,10 +17179,10 @@
       <c r="K173" s="7"/>
       <c r="L173" s="7"/>
       <c r="M173" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N173" s="11" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O173" s="11"/>
       <c r="P173" s="11"/>
@@ -17221,10 +17245,10 @@
         <v>188</v>
       </c>
       <c r="F174" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="G174" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H174" s="7" t="s">
         <v>92</v>
@@ -17236,10 +17260,10 @@
       <c r="K174" s="7"/>
       <c r="L174" s="7"/>
       <c r="M174" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N174" s="11" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="O174" s="11"/>
       <c r="P174" s="11"/>
@@ -17302,10 +17326,10 @@
         <v>188</v>
       </c>
       <c r="F175" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="G175" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H175" s="7" t="s">
         <v>92</v>
@@ -17317,10 +17341,10 @@
       <c r="K175" s="7"/>
       <c r="L175" s="7"/>
       <c r="M175" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="N175" s="11" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="O175" s="11"/>
       <c r="P175" s="11"/>
@@ -17383,10 +17407,10 @@
         <v>188</v>
       </c>
       <c r="F176" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G176" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H176" s="7" t="s">
         <v>92</v>
@@ -17398,10 +17422,10 @@
       <c r="K176" s="7"/>
       <c r="L176" s="7"/>
       <c r="M176" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="N176" s="11" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="O176" s="11"/>
       <c r="P176" s="11"/>
@@ -17464,10 +17488,10 @@
         <v>188</v>
       </c>
       <c r="F177" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="G177" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H177" s="7" t="s">
         <v>92</v>
@@ -17479,10 +17503,10 @@
       <c r="K177" s="7"/>
       <c r="L177" s="7"/>
       <c r="M177" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="N177" s="11" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O177" s="11"/>
       <c r="P177" s="11"/>
@@ -17545,10 +17569,10 @@
         <v>188</v>
       </c>
       <c r="F178" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G178" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H178" s="7" t="s">
         <v>92</v>
@@ -17560,10 +17584,10 @@
       <c r="K178" s="7"/>
       <c r="L178" s="7"/>
       <c r="M178" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="N178" s="11" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="O178" s="11"/>
       <c r="P178" s="11"/>
@@ -17626,10 +17650,10 @@
         <v>188</v>
       </c>
       <c r="F179" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="G179" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H179" s="7" t="s">
         <v>92</v>
@@ -17641,10 +17665,10 @@
       <c r="K179" s="7"/>
       <c r="L179" s="7"/>
       <c r="M179" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="N179" s="11" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="O179" s="11"/>
       <c r="P179" s="11"/>
@@ -17707,10 +17731,10 @@
         <v>188</v>
       </c>
       <c r="F180" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="G180" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H180" s="7" t="s">
         <v>92</v>
@@ -17722,10 +17746,10 @@
       <c r="K180" s="7"/>
       <c r="L180" s="7"/>
       <c r="M180" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="N180" s="11" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="O180" s="11"/>
       <c r="P180" s="11"/>
@@ -17788,10 +17812,10 @@
         <v>188</v>
       </c>
       <c r="F181" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G181" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H181" s="7" t="s">
         <v>92</v>
@@ -17803,10 +17827,10 @@
       <c r="K181" s="7"/>
       <c r="L181" s="7"/>
       <c r="M181" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="N181" s="11" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="O181" s="11"/>
       <c r="P181" s="11"/>
@@ -17869,10 +17893,10 @@
         <v>188</v>
       </c>
       <c r="F182" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G182" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H182" s="7" t="s">
         <v>92</v>
@@ -17884,10 +17908,10 @@
       <c r="K182" s="7"/>
       <c r="L182" s="7"/>
       <c r="M182" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="N182" s="11" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="O182" s="11"/>
       <c r="P182" s="11"/>
@@ -17950,10 +17974,10 @@
         <v>188</v>
       </c>
       <c r="F183" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G183" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H183" s="7" t="s">
         <v>92</v>
@@ -17965,10 +17989,10 @@
       <c r="K183" s="7"/>
       <c r="L183" s="7"/>
       <c r="M183" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="N183" s="11" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="O183" s="11"/>
       <c r="P183" s="11"/>
@@ -18031,10 +18055,10 @@
         <v>188</v>
       </c>
       <c r="F184" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="G184" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H184" s="7" t="s">
         <v>92</v>
@@ -18046,10 +18070,10 @@
       <c r="K184" s="7"/>
       <c r="L184" s="7"/>
       <c r="M184" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="N184" s="11" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="O184" s="11"/>
       <c r="P184" s="11"/>
@@ -18112,10 +18136,10 @@
         <v>188</v>
       </c>
       <c r="F185" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G185" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H185" s="7" t="s">
         <v>92</v>
@@ -18127,10 +18151,10 @@
       <c r="K185" s="7"/>
       <c r="L185" s="7"/>
       <c r="M185" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="N185" s="11" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="O185" s="11"/>
       <c r="P185" s="11"/>
@@ -18193,10 +18217,10 @@
         <v>188</v>
       </c>
       <c r="F186" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="G186" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H186" s="7" t="s">
         <v>92</v>
@@ -18208,10 +18232,10 @@
       <c r="K186" s="7"/>
       <c r="L186" s="7"/>
       <c r="M186" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="N186" s="11" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="O186" s="11"/>
       <c r="P186" s="11"/>
@@ -18274,10 +18298,10 @@
         <v>188</v>
       </c>
       <c r="F187" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G187" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H187" s="7" t="s">
         <v>92</v>
@@ -18289,10 +18313,10 @@
       <c r="K187" s="7"/>
       <c r="L187" s="7"/>
       <c r="M187" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="N187" s="11" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="O187" s="11"/>
       <c r="P187" s="11"/>
@@ -18355,10 +18379,10 @@
         <v>188</v>
       </c>
       <c r="F188" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="G188" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H188" s="7" t="s">
         <v>92</v>
@@ -18370,10 +18394,10 @@
       <c r="K188" s="7"/>
       <c r="L188" s="7"/>
       <c r="M188" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="N188" s="11" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="O188" s="11"/>
       <c r="P188" s="11"/>
@@ -18436,10 +18460,10 @@
         <v>188</v>
       </c>
       <c r="F189" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G189" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H189" s="7" t="s">
         <v>92</v>
@@ -18451,10 +18475,10 @@
       <c r="K189" s="7"/>
       <c r="L189" s="7"/>
       <c r="M189" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="N189" s="11" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="O189" s="11"/>
       <c r="P189" s="11"/>
@@ -18517,10 +18541,10 @@
         <v>188</v>
       </c>
       <c r="F190" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="G190" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H190" s="7" t="s">
         <v>92</v>
@@ -18532,10 +18556,10 @@
       <c r="K190" s="7"/>
       <c r="L190" s="7"/>
       <c r="M190" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="N190" s="11" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="O190" s="11"/>
       <c r="P190" s="11"/>
@@ -18598,10 +18622,10 @@
         <v>188</v>
       </c>
       <c r="F191" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G191" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H191" s="7" t="s">
         <v>92</v>
@@ -18613,10 +18637,10 @@
       <c r="K191" s="7"/>
       <c r="L191" s="7"/>
       <c r="M191" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="N191" s="11" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O191" s="11"/>
       <c r="P191" s="11"/>
@@ -18679,10 +18703,10 @@
         <v>188</v>
       </c>
       <c r="F192" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="G192" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H192" s="7" t="s">
         <v>92</v>
@@ -18694,10 +18718,10 @@
       <c r="K192" s="7"/>
       <c r="L192" s="7"/>
       <c r="M192" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="N192" s="11" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="O192" s="11"/>
       <c r="P192" s="11"/>
@@ -18760,10 +18784,10 @@
         <v>188</v>
       </c>
       <c r="F193" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G193" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H193" s="7" t="s">
         <v>92</v>
@@ -18775,10 +18799,10 @@
       <c r="K193" s="7"/>
       <c r="L193" s="7"/>
       <c r="M193" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="N193" s="11" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O193" s="11"/>
       <c r="P193" s="11"/>
@@ -18838,16 +18862,16 @@
         <v>41</v>
       </c>
       <c r="E194" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F194" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="G194" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H194" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="I194" s="7"/>
       <c r="J194" s="7" t="n">
@@ -18861,12 +18885,12 @@
       <c r="P194" s="11"/>
       <c r="Q194" s="11"/>
       <c r="R194" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="S194" s="7"/>
       <c r="T194" s="7"/>
       <c r="U194" s="7"/>
-      <c r="V194" s="19"/>
+      <c r="V194" s="20"/>
       <c r="W194" s="7"/>
       <c r="X194" s="7" t="s">
         <v>47</v>
@@ -18895,7 +18919,7 @@
         <v>177</v>
       </c>
       <c r="AL194" s="13" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AM194" s="15" t="n">
         <v>302</v>
@@ -18915,13 +18939,13 @@
         <v>41</v>
       </c>
       <c r="E195" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F195" s="7" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="G195" s="7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H195" s="7" t="s">
         <v>92</v>
@@ -18933,13 +18957,13 @@
       <c r="K195" s="7"/>
       <c r="L195" s="7"/>
       <c r="M195" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="N195" s="11" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="O195" s="11" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="P195" s="11"/>
       <c r="Q195" s="11"/>
@@ -18947,11 +18971,11 @@
         <v>93</v>
       </c>
       <c r="S195" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="T195" s="7"/>
       <c r="U195" s="7"/>
-      <c r="V195" s="19"/>
+      <c r="V195" s="20"/>
       <c r="W195" s="7"/>
       <c r="X195" s="7" t="s">
         <v>47</v>
@@ -18996,16 +19020,16 @@
         <v>41</v>
       </c>
       <c r="E196" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F196" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="G196" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H196" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="I196" s="7"/>
       <c r="J196" s="7" t="n">
@@ -19022,12 +19046,12 @@
         <v>93</v>
       </c>
       <c r="S196" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="T196" s="7"/>
       <c r="U196" s="7"/>
       <c r="V196" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="W196" s="7"/>
       <c r="X196" s="7" t="s">
@@ -19073,16 +19097,16 @@
         <v>41</v>
       </c>
       <c r="E197" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F197" s="7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G197" s="7" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H197" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="I197" s="7"/>
       <c r="J197" s="7"/>
@@ -19095,7 +19119,7 @@
         <v>5449000000286</v>
       </c>
       <c r="O197" s="11" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="P197" s="11"/>
       <c r="Q197" s="11"/>
@@ -19107,7 +19131,7 @@
       </c>
       <c r="T197" s="7"/>
       <c r="U197" s="7"/>
-      <c r="V197" s="19"/>
+      <c r="V197" s="20"/>
       <c r="W197" s="7"/>
       <c r="X197" s="7" t="s">
         <v>47</v>
@@ -19126,7 +19150,7 @@
       <c r="AF197" s="7"/>
       <c r="AG197" s="7"/>
       <c r="AH197" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AI197" s="7"/>
       <c r="AJ197" s="7" t="n">
@@ -19151,17 +19175,17 @@
         <v>40</v>
       </c>
       <c r="D198" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E198" s="7"/>
       <c r="F198" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="G198" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H198" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="I198" s="7"/>
       <c r="J198" s="7" t="n">
@@ -19175,12 +19199,12 @@
       <c r="P198" s="11"/>
       <c r="Q198" s="11"/>
       <c r="R198" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="S198" s="7"/>
       <c r="T198" s="7"/>
       <c r="U198" s="7"/>
-      <c r="V198" s="19"/>
+      <c r="V198" s="20"/>
       <c r="W198" s="7"/>
       <c r="X198" s="7" t="s">
         <v>47</v>
@@ -19201,10 +19225,10 @@
       <c r="AF198" s="7"/>
       <c r="AG198" s="7"/>
       <c r="AH198" s="7" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AI198" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AJ198" s="7" t="n">
         <v>2</v>
@@ -19213,7 +19237,7 @@
         <v>181</v>
       </c>
       <c r="AL198" s="13" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AM198" s="15" t="n">
         <v>302</v>
@@ -19230,16 +19254,16 @@
         <v>40</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E199" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F199" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="G199" s="7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H199" s="7" t="s">
         <v>92</v>
@@ -19267,7 +19291,7 @@
       </c>
       <c r="T199" s="7"/>
       <c r="U199" s="7"/>
-      <c r="V199" s="19"/>
+      <c r="V199" s="20"/>
       <c r="W199" s="7"/>
       <c r="X199" s="7" t="s">
         <v>47</v>
@@ -19309,16 +19333,16 @@
         <v>40</v>
       </c>
       <c r="D200" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E200" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F200" s="7" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="G200" s="7" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H200" s="7" t="s">
         <v>92</v>
@@ -19346,7 +19370,7 @@
       </c>
       <c r="T200" s="7"/>
       <c r="U200" s="7"/>
-      <c r="V200" s="19"/>
+      <c r="V200" s="20"/>
       <c r="W200" s="7"/>
       <c r="X200" s="7" t="s">
         <v>47</v>
@@ -19388,16 +19412,16 @@
         <v>40</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E201" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F201" s="7" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G201" s="7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H201" s="7" t="s">
         <v>92</v>
@@ -19425,7 +19449,7 @@
       </c>
       <c r="T201" s="7"/>
       <c r="U201" s="7"/>
-      <c r="V201" s="19"/>
+      <c r="V201" s="20"/>
       <c r="W201" s="7"/>
       <c r="X201" s="7" t="s">
         <v>47</v>
@@ -19470,16 +19494,16 @@
         <v>41</v>
       </c>
       <c r="E202" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F202" s="7" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="G202" s="7" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H202" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="I202" s="7"/>
       <c r="J202" s="7" t="n">
@@ -19493,15 +19517,15 @@
       <c r="P202" s="11"/>
       <c r="Q202" s="11"/>
       <c r="R202" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="S202" s="7"/>
       <c r="T202" s="7"/>
       <c r="U202" s="7"/>
-      <c r="V202" s="19"/>
+      <c r="V202" s="20"/>
       <c r="W202" s="7"/>
       <c r="X202" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Y202" s="7"/>
       <c r="Z202" s="7"/>
@@ -19527,7 +19551,7 @@
         <v>185</v>
       </c>
       <c r="AL202" s="13" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AM202" s="14" t="n">
         <v>303</v>
@@ -19547,13 +19571,13 @@
         <v>41</v>
       </c>
       <c r="E203" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F203" s="7" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="G203" s="7" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H203" s="7" t="s">
         <v>92</v>
@@ -19565,13 +19589,13 @@
       <c r="K203" s="7"/>
       <c r="L203" s="7"/>
       <c r="M203" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="N203" s="11" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="O203" s="11" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="P203" s="11"/>
       <c r="Q203" s="11"/>
@@ -19579,14 +19603,14 @@
         <v>93</v>
       </c>
       <c r="S203" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="T203" s="7"/>
       <c r="U203" s="7"/>
-      <c r="V203" s="19"/>
+      <c r="V203" s="20"/>
       <c r="W203" s="7"/>
       <c r="X203" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Y203" s="7"/>
       <c r="Z203" s="7"/>
@@ -19628,16 +19652,16 @@
         <v>41</v>
       </c>
       <c r="E204" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F204" s="7" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="G204" s="7" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H204" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="I204" s="7"/>
       <c r="J204" s="7" t="n">
@@ -19654,16 +19678,16 @@
         <v>93</v>
       </c>
       <c r="S204" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="T204" s="7"/>
       <c r="U204" s="7"/>
       <c r="V204" s="7" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="W204" s="7"/>
       <c r="X204" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Y204" s="7"/>
       <c r="Z204" s="7"/>
@@ -19705,16 +19729,16 @@
         <v>41</v>
       </c>
       <c r="E205" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F205" s="7" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="G205" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H205" s="7" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="I205" s="7"/>
       <c r="J205" s="7" t="n">
@@ -19733,10 +19757,10 @@
       <c r="S205" s="7"/>
       <c r="T205" s="7"/>
       <c r="U205" s="7"/>
-      <c r="V205" s="19"/>
+      <c r="V205" s="20"/>
       <c r="W205" s="7"/>
       <c r="X205" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Y205" s="7"/>
       <c r="Z205" s="7"/>
@@ -19760,7 +19784,7 @@
         <v>188</v>
       </c>
       <c r="AL205" s="13" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AM205" s="7" t="n">
         <v>185</v>
@@ -19780,23 +19804,23 @@
         <v>41</v>
       </c>
       <c r="E206" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F206" s="7" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="G206" s="7" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H206" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="I206" s="7"/>
       <c r="J206" s="7"/>
       <c r="K206" s="7"/>
       <c r="L206" s="7"/>
       <c r="M206" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N206" s="11" t="n">
         <v>4607042434877</v>
@@ -19812,10 +19836,10 @@
       </c>
       <c r="T206" s="7"/>
       <c r="U206" s="7"/>
-      <c r="V206" s="19"/>
+      <c r="V206" s="20"/>
       <c r="W206" s="7"/>
       <c r="X206" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Y206" s="7"/>
       <c r="Z206" s="7"/>
@@ -19831,7 +19855,7 @@
       <c r="AF206" s="7"/>
       <c r="AG206" s="7"/>
       <c r="AH206" s="7" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AI206" s="7"/>
       <c r="AJ206" s="7" t="n">
@@ -19859,23 +19883,23 @@
         <v>41</v>
       </c>
       <c r="E207" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F207" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="G207" s="7" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H207" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="I207" s="7"/>
       <c r="J207" s="7"/>
       <c r="K207" s="7"/>
       <c r="L207" s="7"/>
       <c r="M207" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N207" s="11" t="n">
         <v>4607042434891</v>
@@ -19891,10 +19915,10 @@
       </c>
       <c r="T207" s="7"/>
       <c r="U207" s="7"/>
-      <c r="V207" s="19"/>
+      <c r="V207" s="20"/>
       <c r="W207" s="7"/>
       <c r="X207" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Y207" s="7"/>
       <c r="Z207" s="7"/>
@@ -19910,7 +19934,7 @@
       <c r="AF207" s="7"/>
       <c r="AG207" s="7"/>
       <c r="AH207" s="7" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AI207" s="7"/>
       <c r="AJ207" s="7" t="n">
@@ -19935,19 +19959,19 @@
         <v>40</v>
       </c>
       <c r="D208" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E208" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F208" s="7" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="G208" s="7" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H208" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="I208" s="7"/>
       <c r="J208" s="7" t="n">
@@ -19961,15 +19985,15 @@
       <c r="P208" s="11"/>
       <c r="Q208" s="11"/>
       <c r="R208" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="S208" s="7"/>
       <c r="T208" s="7"/>
       <c r="U208" s="7"/>
-      <c r="V208" s="19"/>
+      <c r="V208" s="20"/>
       <c r="W208" s="7"/>
       <c r="X208" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Y208" s="7"/>
       <c r="Z208" s="7"/>
@@ -19987,10 +20011,10 @@
       <c r="AF208" s="7"/>
       <c r="AG208" s="7"/>
       <c r="AH208" s="7" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AI208" s="7" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AJ208" s="7" t="n">
         <v>2</v>
@@ -19999,7 +20023,7 @@
         <v>191</v>
       </c>
       <c r="AL208" s="13" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AM208" s="14" t="n">
         <v>303</v>
@@ -20016,16 +20040,16 @@
         <v>40</v>
       </c>
       <c r="D209" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E209" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F209" s="7" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G209" s="7" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H209" s="7" t="s">
         <v>92</v>
@@ -20037,7 +20061,7 @@
       <c r="K209" s="7"/>
       <c r="L209" s="7"/>
       <c r="M209" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N209" s="11" t="n">
         <v>4607042434877</v>
@@ -20053,10 +20077,10 @@
       </c>
       <c r="T209" s="7"/>
       <c r="U209" s="7"/>
-      <c r="V209" s="19"/>
+      <c r="V209" s="20"/>
       <c r="W209" s="7"/>
       <c r="X209" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Y209" s="7"/>
       <c r="Z209" s="7"/>
@@ -20095,16 +20119,16 @@
         <v>40</v>
       </c>
       <c r="D210" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E210" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F210" s="7" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="G210" s="7" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H210" s="7" t="s">
         <v>92</v>
@@ -20116,7 +20140,7 @@
       <c r="K210" s="7"/>
       <c r="L210" s="7"/>
       <c r="M210" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N210" s="11" t="n">
         <v>4607042434891</v>
@@ -20132,10 +20156,10 @@
       </c>
       <c r="T210" s="7"/>
       <c r="U210" s="7"/>
-      <c r="V210" s="19"/>
+      <c r="V210" s="20"/>
       <c r="W210" s="7"/>
       <c r="X210" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Y210" s="7"/>
       <c r="Z210" s="7"/>
@@ -20174,16 +20198,16 @@
         <v>40</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E211" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F211" s="7" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="G211" s="7" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H211" s="7" t="s">
         <v>92</v>
@@ -20195,7 +20219,7 @@
       <c r="K211" s="7"/>
       <c r="L211" s="7"/>
       <c r="M211" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N211" s="11" t="n">
         <v>4607042438738</v>
@@ -20211,10 +20235,10 @@
       </c>
       <c r="T211" s="7"/>
       <c r="U211" s="7"/>
-      <c r="V211" s="19"/>
+      <c r="V211" s="20"/>
       <c r="W211" s="7"/>
       <c r="X211" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Y211" s="7"/>
       <c r="Z211" s="7"/>
@@ -20253,16 +20277,16 @@
         <v>40</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E212" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F212" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="G212" s="7" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H212" s="7" t="s">
         <v>92</v>
@@ -20274,10 +20298,10 @@
       <c r="K212" s="7"/>
       <c r="L212" s="7"/>
       <c r="M212" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N212" s="11" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O212" s="11"/>
       <c r="P212" s="11"/>
@@ -20290,10 +20314,10 @@
       </c>
       <c r="T212" s="7"/>
       <c r="U212" s="7"/>
-      <c r="V212" s="19"/>
+      <c r="V212" s="20"/>
       <c r="W212" s="7"/>
       <c r="X212" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Y212" s="7"/>
       <c r="Z212" s="7"/>
@@ -20332,16 +20356,16 @@
         <v>40</v>
       </c>
       <c r="D213" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E213" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F213" s="7" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G213" s="7" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H213" s="7" t="s">
         <v>92</v>
@@ -20353,7 +20377,7 @@
       <c r="K213" s="7"/>
       <c r="L213" s="7"/>
       <c r="M213" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N213" s="11" t="n">
         <v>4607042438950</v>
@@ -20369,10 +20393,10 @@
       </c>
       <c r="T213" s="7"/>
       <c r="U213" s="7"/>
-      <c r="V213" s="19"/>
+      <c r="V213" s="20"/>
       <c r="W213" s="7"/>
       <c r="X213" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Y213" s="7"/>
       <c r="Z213" s="7"/>
@@ -20414,16 +20438,16 @@
         <v>41</v>
       </c>
       <c r="E214" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F214" s="7" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="G214" s="7" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H214" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="I214" s="7"/>
       <c r="J214" s="7" t="n">
@@ -20437,12 +20461,12 @@
       <c r="P214" s="11"/>
       <c r="Q214" s="11"/>
       <c r="R214" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="S214" s="7"/>
       <c r="T214" s="7"/>
       <c r="U214" s="7"/>
-      <c r="V214" s="19"/>
+      <c r="V214" s="20"/>
       <c r="W214" s="7"/>
       <c r="X214" s="7" t="s">
         <v>47</v>
@@ -20471,7 +20495,7 @@
         <v>197</v>
       </c>
       <c r="AL214" s="13" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AM214" s="15" t="n">
         <v>302</v>
@@ -20491,13 +20515,13 @@
         <v>41</v>
       </c>
       <c r="E215" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F215" s="7" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G215" s="7" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H215" s="7" t="s">
         <v>92</v>
@@ -20509,13 +20533,13 @@
       <c r="K215" s="7"/>
       <c r="L215" s="7"/>
       <c r="M215" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="N215" s="11" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="O215" s="11" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="P215" s="11"/>
       <c r="Q215" s="11"/>
@@ -20523,11 +20547,11 @@
         <v>93</v>
       </c>
       <c r="S215" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="T215" s="7"/>
       <c r="U215" s="7"/>
-      <c r="V215" s="19"/>
+      <c r="V215" s="20"/>
       <c r="W215" s="7"/>
       <c r="X215" s="7" t="s">
         <v>47</v>
@@ -20572,16 +20596,16 @@
         <v>41</v>
       </c>
       <c r="E216" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F216" s="7" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G216" s="7" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H216" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="I216" s="7"/>
       <c r="J216" s="7" t="n">
@@ -20598,12 +20622,12 @@
         <v>93</v>
       </c>
       <c r="S216" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="T216" s="7"/>
       <c r="U216" s="7"/>
       <c r="V216" s="7" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="W216" s="7"/>
       <c r="X216" s="7" t="s">
@@ -20649,16 +20673,16 @@
         <v>41</v>
       </c>
       <c r="E217" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F217" s="7" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="G217" s="7" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H217" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="I217" s="7"/>
       <c r="J217" s="7"/>
@@ -20671,7 +20695,7 @@
         <v>5449000000439</v>
       </c>
       <c r="O217" s="11" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="P217" s="11"/>
       <c r="Q217" s="11"/>
@@ -20683,7 +20707,7 @@
       </c>
       <c r="T217" s="7"/>
       <c r="U217" s="7"/>
-      <c r="V217" s="19"/>
+      <c r="V217" s="20"/>
       <c r="W217" s="7"/>
       <c r="X217" s="7" t="s">
         <v>47</v>
@@ -20702,7 +20726,7 @@
       <c r="AF217" s="7"/>
       <c r="AG217" s="7"/>
       <c r="AH217" s="7" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AI217" s="7"/>
       <c r="AJ217" s="7" t="n">
@@ -20730,16 +20754,16 @@
         <v>41</v>
       </c>
       <c r="E218" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F218" s="7" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="G218" s="7" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H218" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="I218" s="7"/>
       <c r="J218" s="7" t="n">
@@ -20753,15 +20777,15 @@
       <c r="P218" s="11"/>
       <c r="Q218" s="11"/>
       <c r="R218" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="S218" s="7"/>
       <c r="T218" s="7"/>
       <c r="U218" s="7"/>
-      <c r="V218" s="19"/>
+      <c r="V218" s="20"/>
       <c r="W218" s="7"/>
       <c r="X218" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Y218" s="7"/>
       <c r="Z218" s="7"/>
@@ -20787,7 +20811,7 @@
         <v>201</v>
       </c>
       <c r="AL218" s="13" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AM218" s="14" t="n">
         <v>303</v>
@@ -20807,13 +20831,13 @@
         <v>41</v>
       </c>
       <c r="E219" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F219" s="7" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="G219" s="7" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H219" s="7" t="s">
         <v>92</v>
@@ -20825,13 +20849,13 @@
       <c r="K219" s="7"/>
       <c r="L219" s="7"/>
       <c r="M219" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="N219" s="11" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="O219" s="11" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="P219" s="11"/>
       <c r="Q219" s="11"/>
@@ -20839,14 +20863,14 @@
         <v>93</v>
       </c>
       <c r="S219" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="T219" s="7"/>
       <c r="U219" s="7"/>
-      <c r="V219" s="19"/>
+      <c r="V219" s="20"/>
       <c r="W219" s="7"/>
       <c r="X219" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Y219" s="7"/>
       <c r="Z219" s="7"/>
@@ -20888,16 +20912,16 @@
         <v>41</v>
       </c>
       <c r="E220" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F220" s="7" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="G220" s="7" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H220" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="I220" s="7"/>
       <c r="J220" s="7" t="n">
@@ -20914,16 +20938,16 @@
         <v>93</v>
       </c>
       <c r="S220" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="T220" s="7"/>
       <c r="U220" s="7"/>
       <c r="V220" s="7" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="W220" s="7"/>
       <c r="X220" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Y220" s="7"/>
       <c r="Z220" s="7"/>
@@ -20965,16 +20989,16 @@
         <v>41</v>
       </c>
       <c r="E221" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F221" s="7" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="G221" s="7" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H221" s="7" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="I221" s="7"/>
       <c r="J221" s="7" t="n">
@@ -20993,10 +21017,10 @@
       <c r="S221" s="7"/>
       <c r="T221" s="7"/>
       <c r="U221" s="7"/>
-      <c r="V221" s="19"/>
+      <c r="V221" s="20"/>
       <c r="W221" s="7"/>
       <c r="X221" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Y221" s="7"/>
       <c r="Z221" s="7"/>
@@ -21020,7 +21044,7 @@
         <v>204</v>
       </c>
       <c r="AL221" s="13" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AM221" s="7" t="n">
         <v>201</v>
@@ -21040,23 +21064,23 @@
         <v>41</v>
       </c>
       <c r="E222" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F222" s="7" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="G222" s="7" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H222" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="I222" s="7"/>
       <c r="J222" s="7"/>
       <c r="K222" s="7"/>
       <c r="L222" s="7"/>
       <c r="M222" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N222" s="11" t="n">
         <v>4607042434877</v>
@@ -21072,10 +21096,10 @@
       </c>
       <c r="T222" s="7"/>
       <c r="U222" s="7"/>
-      <c r="V222" s="19"/>
+      <c r="V222" s="20"/>
       <c r="W222" s="7"/>
       <c r="X222" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Y222" s="7"/>
       <c r="Z222" s="7"/>
@@ -21091,7 +21115,7 @@
       <c r="AF222" s="7"/>
       <c r="AG222" s="7"/>
       <c r="AH222" s="7" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AI222" s="7"/>
       <c r="AJ222" s="7" t="n">
@@ -21119,23 +21143,23 @@
         <v>41</v>
       </c>
       <c r="E223" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F223" s="7" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="G223" s="7" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H223" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="I223" s="7"/>
       <c r="J223" s="7"/>
       <c r="K223" s="7"/>
       <c r="L223" s="7"/>
       <c r="M223" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N223" s="11" t="n">
         <v>4607042434891</v>
@@ -21151,10 +21175,10 @@
       </c>
       <c r="T223" s="7"/>
       <c r="U223" s="7"/>
-      <c r="V223" s="19"/>
+      <c r="V223" s="20"/>
       <c r="W223" s="7"/>
       <c r="X223" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Y223" s="7"/>
       <c r="Z223" s="7"/>
@@ -21170,7 +21194,7 @@
       <c r="AF223" s="7"/>
       <c r="AG223" s="7"/>
       <c r="AH223" s="7" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AI223" s="7"/>
       <c r="AJ223" s="7" t="n">
@@ -21198,16 +21222,16 @@
         <v>41</v>
       </c>
       <c r="E224" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F224" s="7" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="G224" s="7" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H224" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="I224" s="7"/>
       <c r="J224" s="7" t="n">
@@ -21221,18 +21245,18 @@
       <c r="P224" s="11"/>
       <c r="Q224" s="11"/>
       <c r="R224" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="S224" s="7"/>
       <c r="T224" s="7"/>
       <c r="U224" s="7"/>
-      <c r="V224" s="19"/>
+      <c r="V224" s="20"/>
       <c r="W224" s="7"/>
       <c r="X224" s="7" t="s">
-        <v>655</v>
-      </c>
-      <c r="Y224" s="7" t="s">
         <v>656</v>
+      </c>
+      <c r="Y224" s="21" t="s">
+        <v>654</v>
       </c>
       <c r="Z224" s="7"/>
       <c r="AA224" s="7"/>
@@ -21275,7 +21299,7 @@
         <v>41</v>
       </c>
       <c r="E225" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F225" s="7" t="s">
         <v>658</v>
@@ -21293,7 +21317,7 @@
       <c r="K225" s="7"/>
       <c r="L225" s="7"/>
       <c r="M225" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="N225" s="11" t="s">
         <v>660</v>
@@ -21313,13 +21337,13 @@
       </c>
       <c r="T225" s="7"/>
       <c r="U225" s="7"/>
-      <c r="V225" s="19"/>
+      <c r="V225" s="20"/>
       <c r="W225" s="7"/>
       <c r="X225" s="7" t="s">
-        <v>655</v>
-      </c>
-      <c r="Y225" s="7" t="s">
         <v>656</v>
+      </c>
+      <c r="Y225" s="21" t="s">
+        <v>654</v>
       </c>
       <c r="Z225" s="7"/>
       <c r="AA225" s="7"/>
@@ -21358,7 +21382,7 @@
         <v>41</v>
       </c>
       <c r="E226" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F226" s="7" t="s">
         <v>663</v>
@@ -21367,7 +21391,7 @@
         <v>664</v>
       </c>
       <c r="H226" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="I226" s="7"/>
       <c r="J226" s="7" t="n">
@@ -21384,7 +21408,7 @@
         <v>93</v>
       </c>
       <c r="S226" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="T226" s="7"/>
       <c r="U226" s="7"/>
@@ -21393,10 +21417,10 @@
       </c>
       <c r="W226" s="7"/>
       <c r="X226" s="7" t="s">
-        <v>655</v>
-      </c>
-      <c r="Y226" s="7" t="s">
         <v>656</v>
+      </c>
+      <c r="Y226" s="21" t="s">
+        <v>654</v>
       </c>
       <c r="Z226" s="7"/>
       <c r="AA226" s="7"/>
@@ -21435,7 +21459,7 @@
         <v>41</v>
       </c>
       <c r="E227" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F227" s="7" t="s">
         <v>666</v>
@@ -21444,7 +21468,7 @@
         <v>667</v>
       </c>
       <c r="H227" s="7" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="I227" s="7"/>
       <c r="J227" s="7" t="n">
@@ -21463,13 +21487,13 @@
       <c r="S227" s="7"/>
       <c r="T227" s="7"/>
       <c r="U227" s="7"/>
-      <c r="V227" s="19"/>
+      <c r="V227" s="20"/>
       <c r="W227" s="7"/>
       <c r="X227" s="7" t="s">
-        <v>655</v>
-      </c>
-      <c r="Y227" s="7" t="s">
         <v>656</v>
+      </c>
+      <c r="Y227" s="21" t="s">
+        <v>654</v>
       </c>
       <c r="Z227" s="7"/>
       <c r="AA227" s="7"/>
@@ -21510,7 +21534,7 @@
         <v>41</v>
       </c>
       <c r="E228" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F228" s="7" t="s">
         <v>669</v>
@@ -21519,7 +21543,7 @@
         <v>670</v>
       </c>
       <c r="H228" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="I228" s="7"/>
       <c r="J228" s="7"/>
@@ -21528,8 +21552,8 @@
       <c r="M228" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="N228" s="11" t="n">
-        <v>5449000193223</v>
+      <c r="N228" s="18" t="s">
+        <v>259</v>
       </c>
       <c r="O228" s="11"/>
       <c r="P228" s="11"/>
@@ -21542,13 +21566,13 @@
       </c>
       <c r="T228" s="7"/>
       <c r="U228" s="7"/>
-      <c r="V228" s="19"/>
+      <c r="V228" s="20"/>
       <c r="W228" s="7"/>
       <c r="X228" s="7" t="s">
-        <v>655</v>
-      </c>
-      <c r="Y228" s="7" t="s">
         <v>656</v>
+      </c>
+      <c r="Y228" s="21" t="s">
+        <v>654</v>
       </c>
       <c r="Z228" s="7"/>
       <c r="AA228" s="7"/>
@@ -21589,7 +21613,7 @@
         <v>41</v>
       </c>
       <c r="E229" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F229" s="7" t="s">
         <v>672</v>
@@ -21598,7 +21622,7 @@
         <v>673</v>
       </c>
       <c r="H229" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="I229" s="7"/>
       <c r="J229" s="7"/>
@@ -21621,13 +21645,13 @@
       </c>
       <c r="T229" s="7"/>
       <c r="U229" s="7"/>
-      <c r="V229" s="19"/>
+      <c r="V229" s="20"/>
       <c r="W229" s="7"/>
       <c r="X229" s="7" t="s">
-        <v>655</v>
-      </c>
-      <c r="Y229" s="7" t="s">
         <v>656</v>
+      </c>
+      <c r="Y229" s="21" t="s">
+        <v>654</v>
       </c>
       <c r="Z229" s="7"/>
       <c r="AA229" s="7"/>
@@ -21668,7 +21692,7 @@
         <v>41</v>
       </c>
       <c r="E230" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F230" s="7" t="s">
         <v>675</v>
@@ -21677,7 +21701,7 @@
         <v>676</v>
       </c>
       <c r="H230" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="I230" s="7"/>
       <c r="J230" s="7"/>
@@ -21700,13 +21724,13 @@
       </c>
       <c r="T230" s="7"/>
       <c r="U230" s="7"/>
-      <c r="V230" s="19"/>
+      <c r="V230" s="20"/>
       <c r="W230" s="7"/>
       <c r="X230" s="7" t="s">
-        <v>655</v>
-      </c>
-      <c r="Y230" s="7" t="s">
         <v>656</v>
+      </c>
+      <c r="Y230" s="21" t="s">
+        <v>654</v>
       </c>
       <c r="Z230" s="7"/>
       <c r="AA230" s="7"/>
@@ -21747,7 +21771,7 @@
         <v>41</v>
       </c>
       <c r="E231" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F231" s="7" t="s">
         <v>678</v>
@@ -21756,7 +21780,7 @@
         <v>679</v>
       </c>
       <c r="H231" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="I231" s="7"/>
       <c r="J231" s="7" t="n">
@@ -21770,12 +21794,12 @@
       <c r="P231" s="11"/>
       <c r="Q231" s="11"/>
       <c r="R231" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="S231" s="7"/>
       <c r="T231" s="7"/>
       <c r="U231" s="7"/>
-      <c r="V231" s="19"/>
+      <c r="V231" s="20"/>
       <c r="W231" s="7"/>
       <c r="X231" s="7" t="s">
         <v>47</v>
@@ -21824,7 +21848,7 @@
         <v>41</v>
       </c>
       <c r="E232" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F232" s="7" t="s">
         <v>681</v>
@@ -21842,13 +21866,13 @@
       <c r="K232" s="7"/>
       <c r="L232" s="7"/>
       <c r="M232" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="N232" s="11" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="O232" s="11" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="P232" s="11"/>
       <c r="Q232" s="11"/>
@@ -21856,11 +21880,11 @@
         <v>93</v>
       </c>
       <c r="S232" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="T232" s="7"/>
       <c r="U232" s="7"/>
-      <c r="V232" s="19"/>
+      <c r="V232" s="20"/>
       <c r="W232" s="7"/>
       <c r="X232" s="7" t="s">
         <v>47</v>
@@ -21905,7 +21929,7 @@
         <v>41</v>
       </c>
       <c r="E233" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F233" s="7" t="s">
         <v>683</v>
@@ -21914,7 +21938,7 @@
         <v>684</v>
       </c>
       <c r="H233" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="I233" s="7"/>
       <c r="J233" s="7" t="n">
@@ -21931,7 +21955,7 @@
         <v>93</v>
       </c>
       <c r="S233" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="T233" s="7"/>
       <c r="U233" s="7"/>
@@ -21982,7 +22006,7 @@
         <v>41</v>
       </c>
       <c r="E234" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F234" s="7" t="s">
         <v>686</v>
@@ -21991,7 +22015,7 @@
         <v>687</v>
       </c>
       <c r="H234" s="7" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="I234" s="7"/>
       <c r="J234" s="7" t="n">
@@ -22010,7 +22034,7 @@
       <c r="S234" s="7"/>
       <c r="T234" s="7"/>
       <c r="U234" s="7"/>
-      <c r="V234" s="19"/>
+      <c r="V234" s="20"/>
       <c r="W234" s="7"/>
       <c r="X234" s="7" t="s">
         <v>47</v>
@@ -22057,7 +22081,7 @@
         <v>41</v>
       </c>
       <c r="E235" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F235" s="7" t="s">
         <v>688</v>
@@ -22066,7 +22090,7 @@
         <v>133</v>
       </c>
       <c r="H235" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="I235" s="7"/>
       <c r="J235" s="7"/>
@@ -22079,7 +22103,7 @@
         <v>5449000044808</v>
       </c>
       <c r="O235" s="11" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="P235" s="11"/>
       <c r="Q235" s="11"/>
@@ -22091,7 +22115,7 @@
       </c>
       <c r="T235" s="7"/>
       <c r="U235" s="7"/>
-      <c r="V235" s="19"/>
+      <c r="V235" s="20"/>
       <c r="W235" s="7"/>
       <c r="X235" s="7" t="s">
         <v>47</v>
@@ -22138,7 +22162,7 @@
         <v>41</v>
       </c>
       <c r="E236" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F236" s="7" t="s">
         <v>690</v>
@@ -22147,7 +22171,7 @@
         <v>691</v>
       </c>
       <c r="H236" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="I236" s="7"/>
       <c r="J236" s="7" t="n">
@@ -22161,15 +22185,15 @@
       <c r="P236" s="11"/>
       <c r="Q236" s="11"/>
       <c r="R236" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="S236" s="7"/>
       <c r="T236" s="7"/>
       <c r="U236" s="7"/>
-      <c r="V236" s="19"/>
+      <c r="V236" s="20"/>
       <c r="W236" s="7"/>
       <c r="X236" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Y236" s="7"/>
       <c r="Z236" s="7"/>
@@ -22215,7 +22239,7 @@
         <v>41</v>
       </c>
       <c r="E237" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F237" s="7" t="s">
         <v>693</v>
@@ -22233,13 +22257,13 @@
       <c r="K237" s="7"/>
       <c r="L237" s="7"/>
       <c r="M237" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="N237" s="11" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="O237" s="11" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="P237" s="11"/>
       <c r="Q237" s="11"/>
@@ -22247,14 +22271,14 @@
         <v>93</v>
       </c>
       <c r="S237" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="T237" s="7"/>
       <c r="U237" s="7"/>
-      <c r="V237" s="19"/>
+      <c r="V237" s="20"/>
       <c r="W237" s="7"/>
       <c r="X237" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Y237" s="7"/>
       <c r="Z237" s="7"/>
@@ -22296,7 +22320,7 @@
         <v>41</v>
       </c>
       <c r="E238" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F238" s="7" t="s">
         <v>695</v>
@@ -22305,7 +22329,7 @@
         <v>696</v>
       </c>
       <c r="H238" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="I238" s="7"/>
       <c r="J238" s="7" t="n">
@@ -22322,7 +22346,7 @@
         <v>93</v>
       </c>
       <c r="S238" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="T238" s="7"/>
       <c r="U238" s="7"/>
@@ -22331,7 +22355,7 @@
       </c>
       <c r="W238" s="7"/>
       <c r="X238" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Y238" s="7"/>
       <c r="Z238" s="7"/>
@@ -22373,7 +22397,7 @@
         <v>41</v>
       </c>
       <c r="E239" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F239" s="7" t="s">
         <v>697</v>
@@ -22391,7 +22415,7 @@
       <c r="K239" s="7"/>
       <c r="L239" s="7"/>
       <c r="M239" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N239" s="11" t="n">
         <v>4607042439155</v>
@@ -22407,10 +22431,10 @@
       </c>
       <c r="T239" s="7"/>
       <c r="U239" s="7"/>
-      <c r="V239" s="19"/>
+      <c r="V239" s="20"/>
       <c r="W239" s="7"/>
       <c r="X239" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Y239" s="7"/>
       <c r="Z239" s="7"/>
@@ -22454,7 +22478,7 @@
         <v>41</v>
       </c>
       <c r="E240" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F240" s="7" t="s">
         <v>700</v>
@@ -22463,7 +22487,7 @@
         <v>701</v>
       </c>
       <c r="H240" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="I240" s="7"/>
       <c r="J240" s="7" t="n">
@@ -22477,12 +22501,12 @@
       <c r="P240" s="11"/>
       <c r="Q240" s="11"/>
       <c r="R240" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="S240" s="7"/>
       <c r="T240" s="7"/>
       <c r="U240" s="7"/>
-      <c r="V240" s="19"/>
+      <c r="V240" s="20"/>
       <c r="W240" s="7"/>
       <c r="X240" s="7" t="s">
         <v>82</v>
@@ -22512,7 +22536,7 @@
         <v>702</v>
       </c>
       <c r="AM240" s="14" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22529,7 +22553,7 @@
         <v>41</v>
       </c>
       <c r="E241" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F241" s="7" t="s">
         <v>703</v>
@@ -22547,7 +22571,7 @@
       <c r="K241" s="7"/>
       <c r="L241" s="7"/>
       <c r="M241" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="N241" s="11" t="s">
         <v>705</v>
@@ -22561,11 +22585,11 @@
         <v>93</v>
       </c>
       <c r="S241" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="T241" s="7"/>
       <c r="U241" s="7"/>
-      <c r="V241" s="19"/>
+      <c r="V241" s="20"/>
       <c r="W241" s="7"/>
       <c r="X241" s="7" t="s">
         <v>82</v>
@@ -22608,7 +22632,7 @@
         <v>41</v>
       </c>
       <c r="E242" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F242" s="7" t="s">
         <v>706</v>
@@ -22617,7 +22641,7 @@
         <v>707</v>
       </c>
       <c r="H242" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="I242" s="7"/>
       <c r="J242" s="7" t="n">
@@ -22634,7 +22658,7 @@
         <v>93</v>
       </c>
       <c r="S242" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="T242" s="7"/>
       <c r="U242" s="7"/>
@@ -22683,7 +22707,7 @@
         <v>41</v>
       </c>
       <c r="E243" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F243" s="7" t="s">
         <v>709</v>
@@ -22692,7 +22716,7 @@
         <v>710</v>
       </c>
       <c r="H243" s="7" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="I243" s="7"/>
       <c r="J243" s="7" t="n">
@@ -22711,7 +22735,7 @@
       <c r="S243" s="7"/>
       <c r="T243" s="7"/>
       <c r="U243" s="7"/>
-      <c r="V243" s="19"/>
+      <c r="V243" s="20"/>
       <c r="W243" s="7"/>
       <c r="X243" s="7" t="s">
         <v>82</v>
@@ -22756,7 +22780,7 @@
         <v>41</v>
       </c>
       <c r="E244" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F244" s="7" t="s">
         <v>712</v>
@@ -22765,7 +22789,7 @@
         <v>713</v>
       </c>
       <c r="H244" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="I244" s="7"/>
       <c r="J244" s="7"/>
@@ -22788,7 +22812,7 @@
       </c>
       <c r="T244" s="7"/>
       <c r="U244" s="7"/>
-      <c r="V244" s="19"/>
+      <c r="V244" s="20"/>
       <c r="W244" s="7"/>
       <c r="X244" s="7" t="s">
         <v>82</v>
@@ -22833,7 +22857,7 @@
         <v>41</v>
       </c>
       <c r="E245" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F245" s="7" t="s">
         <v>715</v>
@@ -22842,7 +22866,7 @@
         <v>716</v>
       </c>
       <c r="H245" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="I245" s="7"/>
       <c r="J245" s="7"/>
@@ -22865,7 +22889,7 @@
       </c>
       <c r="T245" s="7"/>
       <c r="U245" s="7"/>
-      <c r="V245" s="19"/>
+      <c r="V245" s="20"/>
       <c r="W245" s="7"/>
       <c r="X245" s="7" t="s">
         <v>82</v>
@@ -22910,7 +22934,7 @@
         <v>41</v>
       </c>
       <c r="E246" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F246" s="7" t="s">
         <v>718</v>
@@ -22919,7 +22943,7 @@
         <v>719</v>
       </c>
       <c r="H246" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="I246" s="7"/>
       <c r="J246" s="7" t="n">
@@ -22933,19 +22957,19 @@
       <c r="P246" s="11"/>
       <c r="Q246" s="7"/>
       <c r="R246" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="S246" s="7"/>
       <c r="T246" s="7"/>
       <c r="U246" s="7"/>
-      <c r="V246" s="19"/>
+      <c r="V246" s="20"/>
       <c r="W246" s="7"/>
       <c r="X246" s="7" t="s">
         <v>47</v>
       </c>
       <c r="Y246" s="7"/>
       <c r="Z246" s="7"/>
-      <c r="AA246" s="18" t="s">
+      <c r="AA246" s="19" t="s">
         <v>720</v>
       </c>
       <c r="AB246" s="7"/>
@@ -22987,7 +23011,7 @@
         <v>41</v>
       </c>
       <c r="E247" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F247" s="7" t="s">
         <v>722</v>
@@ -23005,13 +23029,13 @@
       <c r="K247" s="7"/>
       <c r="L247" s="7"/>
       <c r="M247" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="N247" s="11" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="O247" s="11" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="P247" s="11"/>
       <c r="Q247" s="7"/>
@@ -23019,18 +23043,18 @@
         <v>93</v>
       </c>
       <c r="S247" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="T247" s="7"/>
       <c r="U247" s="7"/>
-      <c r="V247" s="19"/>
+      <c r="V247" s="20"/>
       <c r="W247" s="7"/>
       <c r="X247" s="7" t="s">
         <v>47</v>
       </c>
       <c r="Y247" s="7"/>
       <c r="Z247" s="7"/>
-      <c r="AA247" s="18" t="s">
+      <c r="AA247" s="19" t="s">
         <v>720</v>
       </c>
       <c r="AB247" s="7"/>
@@ -23068,7 +23092,7 @@
         <v>41</v>
       </c>
       <c r="E248" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F248" s="7" t="s">
         <v>724</v>
@@ -23077,7 +23101,7 @@
         <v>725</v>
       </c>
       <c r="H248" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="I248" s="7"/>
       <c r="J248" s="7" t="n">
@@ -23094,7 +23118,7 @@
         <v>93</v>
       </c>
       <c r="S248" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="T248" s="7"/>
       <c r="U248" s="7"/>
@@ -23107,7 +23131,7 @@
       </c>
       <c r="Y248" s="7"/>
       <c r="Z248" s="7"/>
-      <c r="AA248" s="18" t="s">
+      <c r="AA248" s="19" t="s">
         <v>720</v>
       </c>
       <c r="AB248" s="7"/>
@@ -23145,7 +23169,7 @@
         <v>41</v>
       </c>
       <c r="E249" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F249" s="7" t="s">
         <v>727</v>
@@ -23154,7 +23178,7 @@
         <v>728</v>
       </c>
       <c r="H249" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="I249" s="7"/>
       <c r="J249" s="7"/>
@@ -23167,7 +23191,7 @@
         <v>102</v>
       </c>
       <c r="O249" s="11" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="P249" s="11"/>
       <c r="Q249" s="7"/>
@@ -23179,14 +23203,14 @@
       </c>
       <c r="T249" s="7"/>
       <c r="U249" s="7"/>
-      <c r="V249" s="19"/>
+      <c r="V249" s="20"/>
       <c r="W249" s="7"/>
       <c r="X249" s="7" t="s">
         <v>47</v>
       </c>
       <c r="Y249" s="7"/>
       <c r="Z249" s="7"/>
-      <c r="AA249" s="18" t="s">
+      <c r="AA249" s="19" t="s">
         <v>720</v>
       </c>
       <c r="AB249" s="7"/>
@@ -23223,7 +23247,7 @@
         <v>40</v>
       </c>
       <c r="D250" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E250" s="7" t="s">
         <v>731</v>
@@ -23244,19 +23268,19 @@
       <c r="K250" s="7"/>
       <c r="L250" s="7"/>
       <c r="M250" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="N250" s="11" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="O250" s="11" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="P250" s="11"/>
       <c r="Q250" s="7"/>
-      <c r="R250" s="20"/>
-      <c r="S250" s="20" t="s">
-        <v>571</v>
+      <c r="R250" s="22"/>
+      <c r="S250" s="22" t="s">
+        <v>572</v>
       </c>
       <c r="T250" s="7"/>
       <c r="U250" s="7"/>
@@ -23267,7 +23291,7 @@
       </c>
       <c r="Y250" s="7"/>
       <c r="Z250" s="7"/>
-      <c r="AA250" s="18"/>
+      <c r="AA250" s="19"/>
       <c r="AB250" s="7"/>
       <c r="AC250" s="7"/>
       <c r="AD250" s="7" t="s">
@@ -23302,10 +23326,10 @@
         <v>40</v>
       </c>
       <c r="D251" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E251" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F251" s="7" t="s">
         <v>737</v>
@@ -23328,7 +23352,7 @@
       <c r="P251" s="11"/>
       <c r="Q251" s="7"/>
       <c r="R251" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="S251" s="7"/>
       <c r="T251" s="7"/>
@@ -23340,7 +23364,7 @@
       </c>
       <c r="Y251" s="7"/>
       <c r="Z251" s="7"/>
-      <c r="AA251" s="18"/>
+      <c r="AA251" s="19"/>
       <c r="AB251" s="7"/>
       <c r="AC251" s="7" t="s">
         <v>740</v>
@@ -23364,7 +23388,7 @@
       <c r="AL251" s="13" t="s">
         <v>741</v>
       </c>
-      <c r="AM251" s="21" t="n">
+      <c r="AM251" s="23" t="n">
         <v>501</v>
       </c>
     </row>
@@ -23379,10 +23403,10 @@
         <v>40</v>
       </c>
       <c r="D252" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E252" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F252" s="7" t="s">
         <v>742</v>
@@ -23423,7 +23447,7 @@
       </c>
       <c r="Y252" s="7"/>
       <c r="Z252" s="7"/>
-      <c r="AA252" s="18"/>
+      <c r="AA252" s="19"/>
       <c r="AB252" s="7"/>
       <c r="AC252" s="7" t="s">
         <v>740</v>
@@ -23458,10 +23482,10 @@
         <v>40</v>
       </c>
       <c r="D253" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E253" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F253" s="7" t="s">
         <v>744</v>
@@ -23502,7 +23526,7 @@
       </c>
       <c r="Y253" s="7"/>
       <c r="Z253" s="7"/>
-      <c r="AA253" s="18"/>
+      <c r="AA253" s="19"/>
       <c r="AB253" s="7"/>
       <c r="AC253" s="7" t="s">
         <v>740</v>
@@ -23537,10 +23561,10 @@
         <v>40</v>
       </c>
       <c r="D254" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E254" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F254" s="7" t="s">
         <v>746</v>
@@ -23581,7 +23605,7 @@
       </c>
       <c r="Y254" s="7"/>
       <c r="Z254" s="7"/>
-      <c r="AA254" s="18"/>
+      <c r="AA254" s="19"/>
       <c r="AB254" s="7"/>
       <c r="AC254" s="7" t="s">
         <v>740</v>
@@ -23616,10 +23640,10 @@
         <v>40</v>
       </c>
       <c r="D255" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E255" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F255" s="7" t="s">
         <v>748</v>
@@ -23660,7 +23684,7 @@
       </c>
       <c r="Y255" s="7"/>
       <c r="Z255" s="7"/>
-      <c r="AA255" s="18"/>
+      <c r="AA255" s="19"/>
       <c r="AB255" s="7"/>
       <c r="AC255" s="7" t="s">
         <v>740</v>
@@ -23695,10 +23719,10 @@
         <v>40</v>
       </c>
       <c r="D256" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E256" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F256" s="7" t="s">
         <v>750</v>
@@ -23739,7 +23763,7 @@
       </c>
       <c r="Y256" s="7"/>
       <c r="Z256" s="7"/>
-      <c r="AA256" s="18"/>
+      <c r="AA256" s="19"/>
       <c r="AB256" s="7"/>
       <c r="AC256" s="7" t="s">
         <v>740</v>
@@ -23774,10 +23798,10 @@
         <v>40</v>
       </c>
       <c r="D257" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E257" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F257" s="7" t="s">
         <v>752</v>
@@ -23818,7 +23842,7 @@
       </c>
       <c r="Y257" s="7"/>
       <c r="Z257" s="7"/>
-      <c r="AA257" s="18"/>
+      <c r="AA257" s="19"/>
       <c r="AB257" s="7"/>
       <c r="AC257" s="7" t="s">
         <v>740</v>
@@ -23853,10 +23877,10 @@
         <v>40</v>
       </c>
       <c r="D258" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E258" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F258" s="7" t="s">
         <v>755</v>
@@ -23897,7 +23921,7 @@
       </c>
       <c r="Y258" s="7"/>
       <c r="Z258" s="7"/>
-      <c r="AA258" s="18"/>
+      <c r="AA258" s="19"/>
       <c r="AB258" s="7"/>
       <c r="AC258" s="7" t="s">
         <v>740</v>
@@ -23932,10 +23956,10 @@
         <v>40</v>
       </c>
       <c r="D259" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E259" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F259" s="7" t="s">
         <v>757</v>
@@ -23976,7 +24000,7 @@
       </c>
       <c r="Y259" s="7"/>
       <c r="Z259" s="7"/>
-      <c r="AA259" s="18"/>
+      <c r="AA259" s="19"/>
       <c r="AB259" s="7"/>
       <c r="AC259" s="7" t="s">
         <v>740</v>
@@ -24032,19 +24056,19 @@
       <c r="K260" s="7"/>
       <c r="L260" s="7"/>
       <c r="M260" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="N260" s="11" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="O260" s="11" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="P260" s="11"/>
       <c r="Q260" s="7"/>
       <c r="R260" s="7"/>
       <c r="S260" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="T260" s="7"/>
       <c r="U260" s="7"/>
@@ -24055,7 +24079,7 @@
       </c>
       <c r="Y260" s="7"/>
       <c r="Z260" s="7"/>
-      <c r="AA260" s="18"/>
+      <c r="AA260" s="19"/>
       <c r="AB260" s="7"/>
       <c r="AC260" s="7"/>
       <c r="AD260" s="7" t="s">
@@ -24090,10 +24114,10 @@
         <v>40</v>
       </c>
       <c r="D261" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E261" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F261" s="7" t="s">
         <v>762</v>
@@ -24116,7 +24140,7 @@
       <c r="P261" s="11"/>
       <c r="Q261" s="7"/>
       <c r="R261" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="S261" s="7"/>
       <c r="T261" s="7"/>
@@ -24128,7 +24152,7 @@
       </c>
       <c r="Y261" s="7"/>
       <c r="Z261" s="7"/>
-      <c r="AA261" s="18"/>
+      <c r="AA261" s="19"/>
       <c r="AB261" s="7"/>
       <c r="AC261" s="7" t="s">
         <v>740</v>
@@ -24152,7 +24176,7 @@
       <c r="AL261" s="13" t="s">
         <v>764</v>
       </c>
-      <c r="AM261" s="21" t="n">
+      <c r="AM261" s="23" t="n">
         <v>502</v>
       </c>
     </row>
@@ -24167,10 +24191,10 @@
         <v>40</v>
       </c>
       <c r="D262" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E262" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F262" s="7" t="s">
         <v>765</v>
@@ -24188,7 +24212,7 @@
       <c r="K262" s="7"/>
       <c r="L262" s="7"/>
       <c r="M262" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N262" s="11" t="n">
         <v>4607042434877</v>
@@ -24211,7 +24235,7 @@
       </c>
       <c r="Y262" s="7"/>
       <c r="Z262" s="7"/>
-      <c r="AA262" s="18"/>
+      <c r="AA262" s="19"/>
       <c r="AB262" s="7"/>
       <c r="AC262" s="7" t="s">
         <v>740</v>
@@ -24246,10 +24270,10 @@
         <v>40</v>
       </c>
       <c r="D263" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E263" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F263" s="7" t="s">
         <v>767</v>
@@ -24267,7 +24291,7 @@
       <c r="K263" s="7"/>
       <c r="L263" s="7"/>
       <c r="M263" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N263" s="11" t="n">
         <v>4607042434891</v>
@@ -24290,7 +24314,7 @@
       </c>
       <c r="Y263" s="7"/>
       <c r="Z263" s="7"/>
-      <c r="AA263" s="18"/>
+      <c r="AA263" s="19"/>
       <c r="AB263" s="7"/>
       <c r="AC263" s="7" t="s">
         <v>740</v>
@@ -24325,10 +24349,10 @@
         <v>40</v>
       </c>
       <c r="D264" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E264" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F264" s="7" t="s">
         <v>769</v>
@@ -24346,7 +24370,7 @@
       <c r="K264" s="7"/>
       <c r="L264" s="7"/>
       <c r="M264" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N264" s="11" t="n">
         <v>4607042438738</v>
@@ -24369,7 +24393,7 @@
       </c>
       <c r="Y264" s="7"/>
       <c r="Z264" s="7"/>
-      <c r="AA264" s="18"/>
+      <c r="AA264" s="19"/>
       <c r="AB264" s="7"/>
       <c r="AC264" s="7" t="s">
         <v>740</v>
@@ -24404,10 +24428,10 @@
         <v>40</v>
       </c>
       <c r="D265" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E265" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F265" s="7" t="s">
         <v>771</v>
@@ -24425,7 +24449,7 @@
       <c r="K265" s="7"/>
       <c r="L265" s="7"/>
       <c r="M265" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N265" s="11" t="n">
         <v>4607042439155</v>
@@ -24448,7 +24472,7 @@
       </c>
       <c r="Y265" s="7"/>
       <c r="Z265" s="7"/>
-      <c r="AA265" s="18"/>
+      <c r="AA265" s="19"/>
       <c r="AB265" s="7"/>
       <c r="AC265" s="7" t="s">
         <v>740</v>
@@ -24483,10 +24507,10 @@
         <v>40</v>
       </c>
       <c r="D266" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E266" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F266" s="7" t="s">
         <v>773</v>
@@ -24504,7 +24528,7 @@
       <c r="K266" s="7"/>
       <c r="L266" s="7"/>
       <c r="M266" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N266" s="11" t="n">
         <v>4607042439216</v>
@@ -24527,7 +24551,7 @@
       </c>
       <c r="Y266" s="7"/>
       <c r="Z266" s="7"/>
-      <c r="AA266" s="18"/>
+      <c r="AA266" s="19"/>
       <c r="AB266" s="7"/>
       <c r="AC266" s="7" t="s">
         <v>740</v>
@@ -24583,7 +24607,7 @@
       <c r="K267" s="7"/>
       <c r="L267" s="7"/>
       <c r="M267" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="N267" s="11" t="s">
         <v>778</v>
@@ -24595,7 +24619,7 @@
       <c r="Q267" s="7"/>
       <c r="R267" s="7"/>
       <c r="S267" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="T267" s="7"/>
       <c r="U267" s="7"/>
@@ -24606,7 +24630,7 @@
       </c>
       <c r="Y267" s="7"/>
       <c r="Z267" s="7"/>
-      <c r="AA267" s="18"/>
+      <c r="AA267" s="19"/>
       <c r="AB267" s="7"/>
       <c r="AC267" s="7"/>
       <c r="AD267" s="7" t="s">
@@ -24641,10 +24665,10 @@
         <v>40</v>
       </c>
       <c r="D268" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E268" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F268" s="7" t="s">
         <v>779</v>
@@ -24667,7 +24691,7 @@
       <c r="P268" s="11"/>
       <c r="Q268" s="7"/>
       <c r="R268" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="S268" s="7"/>
       <c r="T268" s="7"/>
@@ -24679,7 +24703,7 @@
       </c>
       <c r="Y268" s="7"/>
       <c r="Z268" s="7"/>
-      <c r="AA268" s="18"/>
+      <c r="AA268" s="19"/>
       <c r="AB268" s="7"/>
       <c r="AC268" s="7" t="s">
         <v>740</v>
@@ -24700,10 +24724,10 @@
       <c r="AK268" s="7" t="n">
         <v>251</v>
       </c>
-      <c r="AL268" s="18" t="n">
+      <c r="AL268" s="19" t="n">
         <v>252</v>
       </c>
-      <c r="AM268" s="21" t="n">
+      <c r="AM268" s="23" t="n">
         <v>503</v>
       </c>
     </row>
@@ -24718,10 +24742,10 @@
         <v>40</v>
       </c>
       <c r="D269" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E269" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F269" s="7" t="s">
         <v>781</v>
@@ -24762,7 +24786,7 @@
       </c>
       <c r="Y269" s="7"/>
       <c r="Z269" s="7"/>
-      <c r="AA269" s="18"/>
+      <c r="AA269" s="19"/>
       <c r="AB269" s="7"/>
       <c r="AC269" s="7" t="s">
         <v>740</v>
@@ -24818,7 +24842,7 @@
       <c r="K270" s="7"/>
       <c r="L270" s="7"/>
       <c r="M270" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="N270" s="11" t="s">
         <v>785</v>
@@ -24830,7 +24854,7 @@
       <c r="Q270" s="7"/>
       <c r="R270" s="7"/>
       <c r="S270" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="T270" s="7"/>
       <c r="U270" s="7"/>
@@ -24841,7 +24865,7 @@
       </c>
       <c r="Y270" s="7"/>
       <c r="Z270" s="7"/>
-      <c r="AA270" s="18"/>
+      <c r="AA270" s="19"/>
       <c r="AB270" s="7"/>
       <c r="AC270" s="7"/>
       <c r="AD270" s="7" t="s">
@@ -24876,10 +24900,10 @@
         <v>40</v>
       </c>
       <c r="D271" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E271" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F271" s="7" t="s">
         <v>786</v>
@@ -24902,7 +24926,7 @@
       <c r="P271" s="11"/>
       <c r="Q271" s="7"/>
       <c r="R271" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="S271" s="7"/>
       <c r="T271" s="7"/>
@@ -24914,7 +24938,7 @@
       </c>
       <c r="Y271" s="7"/>
       <c r="Z271" s="7"/>
-      <c r="AA271" s="18"/>
+      <c r="AA271" s="19"/>
       <c r="AB271" s="7"/>
       <c r="AC271" s="7" t="s">
         <v>740</v>
@@ -24938,7 +24962,7 @@
       <c r="AL271" s="13" t="s">
         <v>788</v>
       </c>
-      <c r="AM271" s="21" t="n">
+      <c r="AM271" s="23" t="n">
         <v>504</v>
       </c>
     </row>
@@ -24953,10 +24977,10 @@
         <v>40</v>
       </c>
       <c r="D272" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E272" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F272" s="7" t="s">
         <v>789</v>
@@ -24974,10 +24998,10 @@
       <c r="K272" s="7"/>
       <c r="L272" s="7"/>
       <c r="M272" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="N272" s="11" t="n">
-        <v>5449000027450</v>
+        <v>277</v>
+      </c>
+      <c r="N272" s="11" t="s">
+        <v>791</v>
       </c>
       <c r="O272" s="11"/>
       <c r="P272" s="11"/>
@@ -24997,7 +25021,7 @@
       </c>
       <c r="Y272" s="7"/>
       <c r="Z272" s="7"/>
-      <c r="AA272" s="18"/>
+      <c r="AA272" s="19"/>
       <c r="AB272" s="7"/>
       <c r="AC272" s="7" t="s">
         <v>740</v>
@@ -25032,16 +25056,16 @@
         <v>40</v>
       </c>
       <c r="D273" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E273" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F273" s="7" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="G273" s="7" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H273" s="7" t="s">
         <v>92</v>
@@ -25052,11 +25076,11 @@
       </c>
       <c r="K273" s="7"/>
       <c r="L273" s="7"/>
-      <c r="M273" s="22" t="s">
-        <v>268</v>
-      </c>
-      <c r="N273" s="11" t="s">
-        <v>270</v>
+      <c r="M273" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="N273" s="18" t="s">
+        <v>271</v>
       </c>
       <c r="O273" s="11"/>
       <c r="P273" s="11"/>
@@ -25076,7 +25100,7 @@
       </c>
       <c r="Y273" s="7"/>
       <c r="Z273" s="7"/>
-      <c r="AA273" s="18"/>
+      <c r="AA273" s="19"/>
       <c r="AB273" s="7"/>
       <c r="AC273" s="7" t="s">
         <v>740</v>
@@ -25114,13 +25138,13 @@
         <v>41</v>
       </c>
       <c r="E274" s="7" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="F274" s="7" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="G274" s="7" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="H274" s="7" t="s">
         <v>734</v>
@@ -25132,7 +25156,7 @@
       <c r="K274" s="7"/>
       <c r="L274" s="7"/>
       <c r="M274" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="N274" s="11" t="s">
         <v>705</v>
@@ -25144,7 +25168,7 @@
       <c r="Q274" s="7"/>
       <c r="R274" s="7"/>
       <c r="S274" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="T274" s="7"/>
       <c r="U274" s="7"/>
@@ -25155,7 +25179,7 @@
       </c>
       <c r="Y274" s="7"/>
       <c r="Z274" s="7"/>
-      <c r="AA274" s="18"/>
+      <c r="AA274" s="19"/>
       <c r="AB274" s="7"/>
       <c r="AC274" s="7"/>
       <c r="AD274" s="7" t="s">
@@ -25193,16 +25217,16 @@
         <v>41</v>
       </c>
       <c r="E275" s="7" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="F275" s="7" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="G275" s="7" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H275" s="7" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="I275" s="7"/>
       <c r="J275" s="7"/>
@@ -25214,16 +25238,14 @@
       <c r="P275" s="11"/>
       <c r="Q275" s="11"/>
       <c r="R275" s="7" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="S275" s="7"/>
       <c r="T275" s="7"/>
       <c r="U275" s="7"/>
       <c r="V275" s="7"/>
       <c r="W275" s="7"/>
-      <c r="X275" s="7" t="s">
-        <v>801</v>
-      </c>
+      <c r="X275" s="7"/>
       <c r="Y275" s="7"/>
       <c r="Z275" s="7"/>
       <c r="AA275" s="7"/>
@@ -25268,7 +25290,7 @@
         <v>41</v>
       </c>
       <c r="E276" s="7" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="F276" s="7" t="s">
         <v>804</v>
@@ -25288,7 +25310,7 @@
       </c>
       <c r="L276" s="7"/>
       <c r="M276" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="N276" s="11" t="s">
         <v>660</v>
@@ -25304,7 +25326,7 @@
       <c r="U276" s="7"/>
       <c r="V276" s="7"/>
       <c r="W276" s="7"/>
-      <c r="X276" s="23" t="s">
+      <c r="X276" s="25" t="s">
         <v>807</v>
       </c>
       <c r="Y276" s="7"/>
@@ -25345,7 +25367,7 @@
         <v>41</v>
       </c>
       <c r="E277" s="7" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="F277" s="7" t="s">
         <v>808</v>
@@ -25363,7 +25385,7 @@
       <c r="K277" s="7"/>
       <c r="L277" s="7"/>
       <c r="M277" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="N277" s="11" t="s">
         <v>660</v>
@@ -25379,8 +25401,8 @@
       <c r="U277" s="7"/>
       <c r="V277" s="7"/>
       <c r="W277" s="7"/>
-      <c r="X277" s="7" t="s">
-        <v>801</v>
+      <c r="X277" s="25" t="s">
+        <v>811</v>
       </c>
       <c r="Y277" s="7"/>
       <c r="Z277" s="7"/>
@@ -25420,16 +25442,16 @@
         <v>41</v>
       </c>
       <c r="E278" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F278" s="7" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="G278" s="7" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H278" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="I278" s="7"/>
       <c r="J278" s="7" t="n">
@@ -25444,16 +25466,16 @@
       <c r="Q278" s="11"/>
       <c r="R278" s="7"/>
       <c r="S278" s="7" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="T278" s="7"/>
       <c r="U278" s="7"/>
       <c r="V278" s="7" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="W278" s="7"/>
       <c r="X278" s="7" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="Y278" s="7"/>
       <c r="Z278" s="7"/>
@@ -25469,7 +25491,7 @@
       <c r="AF278" s="7"/>
       <c r="AG278" s="7"/>
       <c r="AH278" s="7" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="AI278" s="7" t="s">
         <v>804</v>
@@ -25481,7 +25503,7 @@
         <v>261</v>
       </c>
       <c r="AL278" s="7"/>
-      <c r="AM278" s="24" t="n">
+      <c r="AM278" s="26" t="n">
         <v>312</v>
       </c>
     </row>
@@ -25499,19 +25521,19 @@
         <v>41</v>
       </c>
       <c r="E279" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F279" s="7" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="G279" s="7" t="s">
-        <v>817</v>
-      </c>
-      <c r="H279" s="25" t="s">
         <v>818</v>
       </c>
-      <c r="I279" s="25" t="s">
+      <c r="H279" s="27" t="s">
         <v>819</v>
+      </c>
+      <c r="I279" s="27" t="s">
+        <v>820</v>
       </c>
       <c r="J279" s="7"/>
       <c r="K279" s="7" t="n">
@@ -25521,7 +25543,7 @@
         <v>15</v>
       </c>
       <c r="M279" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="N279" s="11"/>
       <c r="O279" s="11"/>
@@ -25534,7 +25556,7 @@
       <c r="V279" s="7"/>
       <c r="W279" s="7"/>
       <c r="X279" s="7" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="Y279" s="7"/>
       <c r="Z279" s="7"/>
@@ -25550,7 +25572,7 @@
       <c r="AF279" s="7"/>
       <c r="AG279" s="7"/>
       <c r="AH279" s="7" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="AI279" s="7" t="s">
         <v>804</v>
@@ -25562,7 +25584,7 @@
         <v>262</v>
       </c>
       <c r="AL279" s="7"/>
-      <c r="AM279" s="24" t="n">
+      <c r="AM279" s="26" t="n">
         <v>312</v>
       </c>
     </row>
@@ -25580,13 +25602,13 @@
         <v>41</v>
       </c>
       <c r="E280" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F280" s="7" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="G280" s="7" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="H280" s="7" t="s">
         <v>87</v>
@@ -25601,7 +25623,7 @@
       <c r="P280" s="11"/>
       <c r="Q280" s="11"/>
       <c r="R280" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="S280" s="7"/>
       <c r="T280" s="7"/>
@@ -25609,7 +25631,7 @@
       <c r="V280" s="7"/>
       <c r="W280" s="7"/>
       <c r="X280" s="7" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="Y280" s="7"/>
       <c r="Z280" s="7"/>
@@ -25617,17 +25639,17 @@
       <c r="AB280" s="7"/>
       <c r="AC280" s="7"/>
       <c r="AD280" s="7" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="AE280" s="16" t="n">
         <v>0.01625</v>
       </c>
-      <c r="AF280" s="26"/>
+      <c r="AF280" s="28"/>
       <c r="AG280" s="7" t="n">
         <v>1</v>
       </c>
       <c r="AH280" s="7" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="AI280" s="7" t="s">
         <v>804</v>
@@ -25639,9 +25661,9 @@
         <v>263</v>
       </c>
       <c r="AL280" s="13" t="s">
-        <v>823</v>
-      </c>
-      <c r="AM280" s="24" t="n">
+        <v>824</v>
+      </c>
+      <c r="AM280" s="26" t="n">
         <v>312</v>
       </c>
     </row>
@@ -25660,10 +25682,10 @@
       </c>
       <c r="E281" s="7"/>
       <c r="F281" s="7" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="G281" s="7" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H281" s="7" t="s">
         <v>87</v>
@@ -25686,7 +25708,7 @@
       <c r="V281" s="7"/>
       <c r="W281" s="7"/>
       <c r="X281" s="7" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="Y281" s="7"/>
       <c r="Z281" s="7"/>
@@ -25697,10 +25719,10 @@
         <v>97</v>
       </c>
       <c r="AE281" s="10"/>
-      <c r="AF281" s="26"/>
+      <c r="AF281" s="28"/>
       <c r="AG281" s="7"/>
       <c r="AH281" s="7" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
       <c r="AI281" s="7" t="s">
         <v>804</v>
@@ -25769,7 +25791,7 @@
       <c r="V282" s="7"/>
       <c r="W282" s="7"/>
       <c r="X282" s="7" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="Y282" s="7" t="s">
         <v>833</v>
@@ -25779,13 +25801,13 @@
       <c r="AB282" s="7"/>
       <c r="AC282" s="7"/>
       <c r="AD282" s="7" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="AE282" s="10"/>
       <c r="AF282" s="7"/>
       <c r="AG282" s="7"/>
       <c r="AH282" s="7" t="s">
-        <v>834</v>
+        <v>816</v>
       </c>
       <c r="AI282" s="7" t="s">
         <v>804</v>
@@ -25816,10 +25838,10 @@
       </c>
       <c r="E283" s="7"/>
       <c r="F283" s="7" t="s">
+        <v>834</v>
+      </c>
+      <c r="G283" s="7" t="s">
         <v>835</v>
-      </c>
-      <c r="G283" s="7" t="s">
-        <v>836</v>
       </c>
       <c r="H283" s="7" t="s">
         <v>734</v>
@@ -25852,23 +25874,23 @@
       <c r="V283" s="7"/>
       <c r="W283" s="7"/>
       <c r="X283" s="7" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="Y283" s="7" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="Z283" s="7"/>
       <c r="AA283" s="7"/>
       <c r="AB283" s="7"/>
       <c r="AC283" s="7"/>
       <c r="AD283" s="7" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="AE283" s="10"/>
       <c r="AF283" s="7"/>
       <c r="AG283" s="7"/>
       <c r="AH283" s="7" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
       <c r="AI283" s="7" t="s">
         <v>804</v>
@@ -25899,10 +25921,10 @@
       </c>
       <c r="E284" s="7"/>
       <c r="F284" s="7" t="s">
+        <v>837</v>
+      </c>
+      <c r="G284" s="7" t="s">
         <v>838</v>
-      </c>
-      <c r="G284" s="7" t="s">
-        <v>839</v>
       </c>
       <c r="H284" s="7" t="s">
         <v>739</v>
@@ -25919,7 +25941,7 @@
       <c r="P284" s="11"/>
       <c r="Q284" s="11"/>
       <c r="R284" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="S284" s="7"/>
       <c r="T284" s="7"/>
@@ -25927,7 +25949,7 @@
       <c r="V284" s="7"/>
       <c r="W284" s="7"/>
       <c r="X284" s="7" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="Y284" s="7"/>
       <c r="Z284" s="7"/>
@@ -25935,12 +25957,14 @@
       <c r="AB284" s="7"/>
       <c r="AC284" s="7"/>
       <c r="AD284" s="7" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="AE284" s="10"/>
       <c r="AF284" s="7"/>
       <c r="AG284" s="7"/>
-      <c r="AH284" s="7"/>
+      <c r="AH284" s="7" t="s">
+        <v>816</v>
+      </c>
       <c r="AI284" s="7" t="s">
         <v>804</v>
       </c>
@@ -25951,7 +25975,7 @@
         <v>267</v>
       </c>
       <c r="AL284" s="13" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="AM284" s="7" t="n">
         <v>263</v>
@@ -25972,10 +25996,10 @@
       </c>
       <c r="E285" s="7"/>
       <c r="F285" s="7" t="s">
+        <v>840</v>
+      </c>
+      <c r="G285" s="7" t="s">
         <v>841</v>
-      </c>
-      <c r="G285" s="7" t="s">
-        <v>842</v>
       </c>
       <c r="H285" s="7" t="s">
         <v>92</v>
@@ -26008,7 +26032,7 @@
       <c r="V285" s="7"/>
       <c r="W285" s="7"/>
       <c r="X285" s="7" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="Y285" s="7"/>
       <c r="Z285" s="7"/>
@@ -26024,7 +26048,7 @@
       <c r="AF285" s="7"/>
       <c r="AG285" s="7"/>
       <c r="AH285" s="7" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
       <c r="AI285" s="7" t="s">
         <v>804</v>
@@ -26055,10 +26079,10 @@
       </c>
       <c r="E286" s="7"/>
       <c r="F286" s="7" t="s">
+        <v>842</v>
+      </c>
+      <c r="G286" s="7" t="s">
         <v>843</v>
-      </c>
-      <c r="G286" s="7" t="s">
-        <v>844</v>
       </c>
       <c r="H286" s="7" t="s">
         <v>92</v>
@@ -26070,15 +26094,15 @@
       <c r="K286" s="7"/>
       <c r="L286" s="7"/>
       <c r="M286" s="7" t="s">
+        <v>844</v>
+      </c>
+      <c r="N286" s="11" t="s">
         <v>845</v>
-      </c>
-      <c r="N286" s="11" t="s">
-        <v>846</v>
       </c>
       <c r="O286" s="11"/>
       <c r="P286" s="11"/>
       <c r="Q286" s="11" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="R286" s="7" t="s">
         <v>93</v>
@@ -26091,7 +26115,7 @@
       <c r="V286" s="7"/>
       <c r="W286" s="7"/>
       <c r="X286" s="7" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="Y286" s="7"/>
       <c r="Z286" s="7"/>
@@ -26107,7 +26131,7 @@
       <c r="AF286" s="7"/>
       <c r="AG286" s="7"/>
       <c r="AH286" s="7" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
       <c r="AI286" s="7" t="s">
         <v>804</v>
@@ -26138,16 +26162,16 @@
       </c>
       <c r="E287" s="7"/>
       <c r="F287" s="7" t="s">
+        <v>846</v>
+      </c>
+      <c r="G287" s="7" t="s">
         <v>847</v>
       </c>
-      <c r="G287" s="7" t="s">
+      <c r="H287" s="27" t="s">
+        <v>819</v>
+      </c>
+      <c r="I287" s="14" t="s">
         <v>848</v>
-      </c>
-      <c r="H287" s="25" t="s">
-        <v>818</v>
-      </c>
-      <c r="I287" s="14" t="s">
-        <v>849</v>
       </c>
       <c r="J287" s="7" t="n">
         <v>2</v>
@@ -26155,7 +26179,7 @@
       <c r="K287" s="7"/>
       <c r="L287" s="7"/>
       <c r="M287" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="N287" s="11" t="s">
         <v>660</v>
@@ -26174,7 +26198,7 @@
       <c r="V287" s="7"/>
       <c r="W287" s="7"/>
       <c r="X287" s="7" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="Y287" s="7"/>
       <c r="Z287" s="7"/>
@@ -26188,7 +26212,7 @@
       <c r="AF287" s="7"/>
       <c r="AG287" s="7"/>
       <c r="AH287" s="7" t="s">
-        <v>850</v>
+        <v>816</v>
       </c>
       <c r="AI287" s="7" t="s">
         <v>804</v>
@@ -26218,16 +26242,16 @@
         <v>41</v>
       </c>
       <c r="E288" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F288" s="7" t="s">
+        <v>849</v>
+      </c>
+      <c r="G288" s="7" t="s">
+        <v>850</v>
+      </c>
+      <c r="H288" s="7" t="s">
         <v>851</v>
-      </c>
-      <c r="G288" s="7" t="s">
-        <v>852</v>
-      </c>
-      <c r="H288" s="7" t="s">
-        <v>853</v>
       </c>
       <c r="I288" s="7"/>
       <c r="J288" s="7"/>
@@ -26248,7 +26272,9 @@
       <c r="U288" s="7"/>
       <c r="V288" s="7"/>
       <c r="W288" s="7"/>
-      <c r="X288" s="7"/>
+      <c r="X288" s="7" t="s">
+        <v>807</v>
+      </c>
       <c r="Y288" s="7"/>
       <c r="Z288" s="7"/>
       <c r="AA288" s="7"/>
@@ -26263,7 +26289,7 @@
       <c r="AF288" s="7"/>
       <c r="AG288" s="7"/>
       <c r="AH288" s="7" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="AI288" s="7" t="s">
         <v>804</v>
@@ -26275,7 +26301,7 @@
         <v>271</v>
       </c>
       <c r="AL288" s="7"/>
-      <c r="AM288" s="24" t="n">
+      <c r="AM288" s="26" t="n">
         <v>312</v>
       </c>
     </row>
@@ -26290,19 +26316,19 @@
         <v>40</v>
       </c>
       <c r="D289" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="E289" s="27" t="s">
-        <v>586</v>
+        <v>582</v>
+      </c>
+      <c r="E289" s="29" t="s">
+        <v>587</v>
       </c>
       <c r="F289" s="7" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="G289" s="7" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="H289" s="7" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="I289" s="7"/>
       <c r="J289" s="7" t="n">
@@ -26323,7 +26349,9 @@
       <c r="U289" s="7"/>
       <c r="V289" s="7"/>
       <c r="W289" s="7"/>
-      <c r="X289" s="7"/>
+      <c r="X289" s="25" t="s">
+        <v>852</v>
+      </c>
       <c r="Y289" s="7"/>
       <c r="Z289" s="7"/>
       <c r="AA289" s="7"/>
@@ -26345,10 +26373,10 @@
       <c r="AK289" s="7" t="n">
         <v>272</v>
       </c>
-      <c r="AL289" s="18" t="n">
+      <c r="AL289" s="19" t="n">
         <v>273</v>
       </c>
-      <c r="AM289" s="24" t="n">
+      <c r="AM289" s="26" t="n">
         <v>302</v>
       </c>
     </row>
@@ -26363,19 +26391,19 @@
         <v>40</v>
       </c>
       <c r="D290" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="E290" s="27" t="s">
-        <v>586</v>
+        <v>582</v>
+      </c>
+      <c r="E290" s="29" t="s">
+        <v>587</v>
       </c>
       <c r="F290" s="7" t="s">
+        <v>854</v>
+      </c>
+      <c r="G290" s="7" t="s">
+        <v>855</v>
+      </c>
+      <c r="H290" s="7" t="s">
         <v>856</v>
-      </c>
-      <c r="G290" s="7" t="s">
-        <v>857</v>
-      </c>
-      <c r="H290" s="7" t="s">
-        <v>858</v>
       </c>
       <c r="I290" s="7"/>
       <c r="J290" s="7" t="n">
@@ -26386,7 +26414,7 @@
       </c>
       <c r="L290" s="7"/>
       <c r="M290" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="N290" s="11" t="s">
         <v>660</v>
@@ -26404,20 +26432,22 @@
       <c r="U290" s="7"/>
       <c r="V290" s="7"/>
       <c r="W290" s="7"/>
-      <c r="X290" s="7"/>
+      <c r="X290" s="25" t="s">
+        <v>852</v>
+      </c>
       <c r="Y290" s="7"/>
       <c r="Z290" s="7"/>
       <c r="AA290" s="7"/>
       <c r="AB290" s="7"/>
       <c r="AC290" s="7"/>
       <c r="AD290" s="7" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="AE290" s="10"/>
       <c r="AF290" s="7"/>
       <c r="AG290" s="7"/>
       <c r="AH290" s="7" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="AI290" s="7"/>
       <c r="AJ290" s="7" t="n">
@@ -26442,14 +26472,14 @@
         <v>40</v>
       </c>
       <c r="D291" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E291" s="7"/>
       <c r="F291" s="7" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G291" s="7" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="H291" s="7" t="s">
         <v>87</v>
@@ -26472,7 +26502,7 @@
       <c r="X291" s="7"/>
       <c r="Y291" s="7"/>
       <c r="Z291" s="7"/>
-      <c r="AA291" s="18"/>
+      <c r="AA291" s="19"/>
       <c r="AB291" s="7"/>
       <c r="AC291" s="7"/>
       <c r="AD291" s="7" t="s">
@@ -26490,9 +26520,9 @@
         <v>274</v>
       </c>
       <c r="AL291" s="13" t="s">
-        <v>863</v>
-      </c>
-      <c r="AM291" s="24" t="n">
+        <v>861</v>
+      </c>
+      <c r="AM291" s="26" t="n">
         <v>400</v>
       </c>
     </row>
@@ -26507,19 +26537,19 @@
         <v>40</v>
       </c>
       <c r="D292" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E292" s="7" t="s">
+        <v>862</v>
+      </c>
+      <c r="F292" s="7" t="s">
+        <v>863</v>
+      </c>
+      <c r="G292" s="7" t="s">
         <v>864</v>
       </c>
-      <c r="F292" s="7" t="s">
+      <c r="H292" s="7" t="s">
         <v>865</v>
-      </c>
-      <c r="G292" s="7" t="s">
-        <v>866</v>
-      </c>
-      <c r="H292" s="7" t="s">
-        <v>867</v>
       </c>
       <c r="I292" s="7"/>
       <c r="J292" s="7" t="n">
@@ -26529,7 +26559,7 @@
       <c r="L292" s="7"/>
       <c r="M292" s="7"/>
       <c r="N292" s="7" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="O292" s="11"/>
       <c r="P292" s="11"/>
@@ -26538,7 +26568,7 @@
         <v>93</v>
       </c>
       <c r="S292" s="7" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="T292" s="7"/>
       <c r="U292" s="7"/>
@@ -26546,10 +26576,10 @@
       <c r="W292" s="7"/>
       <c r="X292" s="7"/>
       <c r="Y292" s="7" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="Z292" s="7"/>
-      <c r="AA292" s="18"/>
+      <c r="AA292" s="19"/>
       <c r="AB292" s="7"/>
       <c r="AC292" s="7"/>
       <c r="AD292" s="7" t="s">
@@ -26584,19 +26614,19 @@
         <v>40</v>
       </c>
       <c r="D293" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E293" s="7" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F293" s="7" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="G293" s="7" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="H293" s="7" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="I293" s="7"/>
       <c r="J293" s="7" t="n">
@@ -26606,7 +26636,7 @@
       <c r="L293" s="7"/>
       <c r="M293" s="7"/>
       <c r="N293" s="7" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="O293" s="11"/>
       <c r="P293" s="11"/>
@@ -26615,7 +26645,7 @@
         <v>93</v>
       </c>
       <c r="S293" s="7" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="T293" s="7"/>
       <c r="U293" s="7"/>
@@ -26623,10 +26653,10 @@
       <c r="W293" s="7"/>
       <c r="X293" s="7"/>
       <c r="Y293" s="7" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="Z293" s="7"/>
-      <c r="AA293" s="18"/>
+      <c r="AA293" s="19"/>
       <c r="AB293" s="7"/>
       <c r="AC293" s="7"/>
       <c r="AD293" s="7" t="s">
@@ -26661,19 +26691,19 @@
         <v>40</v>
       </c>
       <c r="D294" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E294" s="7" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F294" s="7" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G294" s="7" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="H294" s="7" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="I294" s="7"/>
       <c r="J294" s="7" t="n">
@@ -26683,7 +26713,7 @@
       <c r="L294" s="7"/>
       <c r="M294" s="7"/>
       <c r="N294" s="7" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="O294" s="11"/>
       <c r="P294" s="11"/>
@@ -26692,7 +26722,7 @@
         <v>93</v>
       </c>
       <c r="S294" s="7" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="T294" s="7"/>
       <c r="U294" s="7"/>
@@ -26700,10 +26730,10 @@
       <c r="W294" s="7"/>
       <c r="X294" s="7"/>
       <c r="Y294" s="7" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="Z294" s="7"/>
-      <c r="AA294" s="18"/>
+      <c r="AA294" s="19"/>
       <c r="AB294" s="7"/>
       <c r="AC294" s="7"/>
       <c r="AD294" s="7" t="s">
@@ -26738,22 +26768,22 @@
         <v>40</v>
       </c>
       <c r="D295" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="E295" s="29" t="s">
+        <v>874</v>
+      </c>
+      <c r="F295" s="26" t="s">
         <v>875</v>
       </c>
-      <c r="E295" s="27" t="s">
+      <c r="G295" s="7" t="s">
         <v>876</v>
       </c>
-      <c r="F295" s="24" t="s">
+      <c r="H295" s="7" t="s">
         <v>877</v>
       </c>
-      <c r="G295" s="7" t="s">
+      <c r="I295" s="7" t="s">
         <v>878</v>
-      </c>
-      <c r="H295" s="7" t="s">
-        <v>879</v>
-      </c>
-      <c r="I295" s="7" t="s">
-        <v>880</v>
       </c>
       <c r="J295" s="7"/>
       <c r="K295" s="7"/>
@@ -26765,7 +26795,7 @@
       <c r="Q295" s="7"/>
       <c r="R295" s="7"/>
       <c r="S295" s="7" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="T295" s="7"/>
       <c r="U295" s="7"/>
@@ -26788,7 +26818,7 @@
         <v>278</v>
       </c>
       <c r="AL295" s="13" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="AM295" s="7"/>
     </row>
@@ -26803,22 +26833,22 @@
         <v>40</v>
       </c>
       <c r="D296" s="7" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E296" s="7" t="s">
+        <v>881</v>
+      </c>
+      <c r="F296" s="23" t="s">
+        <v>882</v>
+      </c>
+      <c r="G296" s="24" t="s">
         <v>883</v>
       </c>
-      <c r="F296" s="21" t="s">
-        <v>884</v>
-      </c>
-      <c r="G296" s="22" t="s">
-        <v>885</v>
-      </c>
       <c r="H296" s="7" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="I296" s="7" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J296" s="7"/>
       <c r="K296" s="7"/>
@@ -26830,7 +26860,7 @@
       <c r="Q296" s="7"/>
       <c r="R296" s="7"/>
       <c r="S296" s="7" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="T296" s="7"/>
       <c r="U296" s="7"/>
@@ -26853,7 +26883,7 @@
         <v>279</v>
       </c>
       <c r="AL296" s="13" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="AM296" s="7"/>
     </row>
@@ -26868,22 +26898,22 @@
         <v>40</v>
       </c>
       <c r="D297" s="7" t="s">
-        <v>875</v>
-      </c>
-      <c r="E297" s="27" t="s">
+        <v>873</v>
+      </c>
+      <c r="E297" s="29" t="s">
+        <v>885</v>
+      </c>
+      <c r="F297" s="26" t="s">
+        <v>886</v>
+      </c>
+      <c r="G297" s="7" t="s">
         <v>887</v>
       </c>
-      <c r="F297" s="24" t="s">
-        <v>888</v>
-      </c>
-      <c r="G297" s="7" t="s">
-        <v>889</v>
-      </c>
       <c r="H297" s="7" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="I297" s="7" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J297" s="7"/>
       <c r="K297" s="7"/>
@@ -26895,7 +26925,7 @@
       <c r="Q297" s="7"/>
       <c r="R297" s="7"/>
       <c r="S297" s="7" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="T297" s="7"/>
       <c r="U297" s="7"/>
@@ -26918,7 +26948,7 @@
         <v>280</v>
       </c>
       <c r="AL297" s="13" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="AM297" s="7"/>
     </row>
@@ -26933,22 +26963,22 @@
         <v>40</v>
       </c>
       <c r="D298" s="7" t="s">
-        <v>875</v>
-      </c>
-      <c r="E298" s="27" t="s">
+        <v>873</v>
+      </c>
+      <c r="E298" s="29" t="s">
+        <v>889</v>
+      </c>
+      <c r="F298" s="26" t="s">
+        <v>890</v>
+      </c>
+      <c r="G298" s="24" t="s">
         <v>891</v>
       </c>
-      <c r="F298" s="24" t="s">
+      <c r="H298" s="7" t="s">
         <v>892</v>
       </c>
-      <c r="G298" s="22" t="s">
+      <c r="I298" s="7" t="s">
         <v>893</v>
-      </c>
-      <c r="H298" s="7" t="s">
-        <v>894</v>
-      </c>
-      <c r="I298" s="7" t="s">
-        <v>895</v>
       </c>
       <c r="J298" s="7"/>
       <c r="K298" s="7"/>
@@ -26960,7 +26990,7 @@
       <c r="Q298" s="7"/>
       <c r="R298" s="7"/>
       <c r="S298" s="7" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="T298" s="7"/>
       <c r="U298" s="7"/>
@@ -26998,22 +27028,22 @@
         <v>40</v>
       </c>
       <c r="D299" s="7" t="s">
-        <v>875</v>
-      </c>
-      <c r="E299" s="27" t="s">
+        <v>873</v>
+      </c>
+      <c r="E299" s="29" t="s">
+        <v>894</v>
+      </c>
+      <c r="F299" s="26" t="s">
+        <v>895</v>
+      </c>
+      <c r="G299" s="24" t="s">
         <v>896</v>
       </c>
-      <c r="F299" s="24" t="s">
+      <c r="H299" s="7" t="s">
         <v>897</v>
       </c>
-      <c r="G299" s="22" t="s">
-        <v>898</v>
-      </c>
-      <c r="H299" s="7" t="s">
-        <v>899</v>
-      </c>
       <c r="I299" s="7" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="J299" s="7"/>
       <c r="K299" s="7"/>
@@ -27025,7 +27055,7 @@
       <c r="Q299" s="7"/>
       <c r="R299" s="7"/>
       <c r="S299" s="7" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="T299" s="7"/>
       <c r="U299" s="7"/>
@@ -27063,36 +27093,36 @@
         <v>40</v>
       </c>
       <c r="D300" s="7" t="s">
-        <v>875</v>
-      </c>
-      <c r="E300" s="27" t="s">
+        <v>873</v>
+      </c>
+      <c r="E300" s="29" t="s">
+        <v>898</v>
+      </c>
+      <c r="F300" s="26" t="s">
+        <v>899</v>
+      </c>
+      <c r="G300" s="7" t="s">
         <v>900</v>
       </c>
-      <c r="F300" s="24" t="s">
+      <c r="H300" s="7" t="s">
         <v>901</v>
       </c>
-      <c r="G300" s="7" t="s">
-        <v>902</v>
-      </c>
-      <c r="H300" s="7" t="s">
-        <v>903</v>
-      </c>
       <c r="I300" s="7" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="J300" s="7"/>
       <c r="K300" s="7"/>
       <c r="L300" s="7"/>
       <c r="M300" s="7"/>
       <c r="N300" s="7" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="O300" s="7"/>
       <c r="P300" s="7"/>
       <c r="Q300" s="7"/>
       <c r="R300" s="7"/>
       <c r="S300" s="7" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="T300" s="7"/>
       <c r="U300" s="7"/>
@@ -27128,36 +27158,36 @@
         <v>40</v>
       </c>
       <c r="D301" s="7" t="s">
-        <v>875</v>
-      </c>
-      <c r="E301" s="27" t="s">
+        <v>873</v>
+      </c>
+      <c r="E301" s="29" t="s">
+        <v>904</v>
+      </c>
+      <c r="F301" s="26" t="s">
+        <v>905</v>
+      </c>
+      <c r="G301" s="7" t="s">
         <v>906</v>
       </c>
-      <c r="F301" s="24" t="s">
+      <c r="H301" s="7" t="s">
         <v>907</v>
       </c>
-      <c r="G301" s="7" t="s">
+      <c r="I301" s="7" t="s">
         <v>908</v>
-      </c>
-      <c r="H301" s="7" t="s">
-        <v>909</v>
-      </c>
-      <c r="I301" s="7" t="s">
-        <v>910</v>
       </c>
       <c r="J301" s="7"/>
       <c r="K301" s="7"/>
       <c r="L301" s="7"/>
       <c r="M301" s="7"/>
       <c r="N301" s="7" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="O301" s="7"/>
       <c r="P301" s="7"/>
       <c r="Q301" s="7"/>
       <c r="R301" s="7"/>
       <c r="S301" s="7" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="T301" s="7"/>
       <c r="U301" s="7"/>
@@ -27193,38 +27223,38 @@
         <v>40</v>
       </c>
       <c r="D302" s="7" t="s">
-        <v>875</v>
-      </c>
-      <c r="E302" s="27" t="s">
+        <v>873</v>
+      </c>
+      <c r="E302" s="29" t="s">
+        <v>910</v>
+      </c>
+      <c r="F302" s="26" t="s">
+        <v>911</v>
+      </c>
+      <c r="G302" s="7" t="s">
         <v>912</v>
       </c>
-      <c r="F302" s="24" t="s">
+      <c r="H302" s="7" t="s">
         <v>913</v>
       </c>
-      <c r="G302" s="7" t="s">
-        <v>914</v>
-      </c>
-      <c r="H302" s="7" t="s">
-        <v>915</v>
-      </c>
       <c r="I302" s="7" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="J302" s="7"/>
       <c r="K302" s="7"/>
       <c r="L302" s="7"/>
       <c r="M302" s="14" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="N302" s="13" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="O302" s="7"/>
       <c r="P302" s="7"/>
       <c r="Q302" s="7"/>
       <c r="R302" s="7"/>
       <c r="S302" s="7" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="T302" s="7"/>
       <c r="U302" s="7"/>
@@ -27262,38 +27292,38 @@
         <v>40</v>
       </c>
       <c r="D303" s="7" t="s">
-        <v>875</v>
-      </c>
-      <c r="E303" s="27" t="s">
-        <v>912</v>
-      </c>
-      <c r="F303" s="24" t="s">
+        <v>873</v>
+      </c>
+      <c r="E303" s="29" t="s">
+        <v>910</v>
+      </c>
+      <c r="F303" s="26" t="s">
+        <v>911</v>
+      </c>
+      <c r="G303" s="7" t="s">
+        <v>916</v>
+      </c>
+      <c r="H303" s="7" t="s">
         <v>913</v>
       </c>
-      <c r="G303" s="7" t="s">
-        <v>918</v>
-      </c>
-      <c r="H303" s="7" t="s">
-        <v>915</v>
-      </c>
       <c r="I303" s="7" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="J303" s="7"/>
       <c r="K303" s="7"/>
       <c r="L303" s="7"/>
       <c r="M303" s="14" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="N303" s="13" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="O303" s="7"/>
       <c r="P303" s="7"/>
       <c r="Q303" s="7"/>
       <c r="R303" s="7"/>
       <c r="S303" s="7" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="T303" s="7"/>
       <c r="U303" s="7"/>
@@ -27329,38 +27359,38 @@
         <v>40</v>
       </c>
       <c r="D304" s="7" t="s">
-        <v>875</v>
-      </c>
-      <c r="E304" s="27" t="s">
-        <v>912</v>
-      </c>
-      <c r="F304" s="24" t="s">
+        <v>873</v>
+      </c>
+      <c r="E304" s="29" t="s">
+        <v>910</v>
+      </c>
+      <c r="F304" s="26" t="s">
+        <v>911</v>
+      </c>
+      <c r="G304" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="H304" s="7" t="s">
         <v>913</v>
       </c>
-      <c r="G304" s="7" t="s">
-        <v>919</v>
-      </c>
-      <c r="H304" s="7" t="s">
-        <v>915</v>
-      </c>
       <c r="I304" s="7" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="J304" s="7"/>
       <c r="K304" s="7"/>
       <c r="L304" s="7"/>
       <c r="M304" s="14" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="N304" s="13" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="O304" s="7"/>
       <c r="P304" s="7"/>
       <c r="Q304" s="7"/>
       <c r="R304" s="7"/>
       <c r="S304" s="7" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="T304" s="7"/>
       <c r="U304" s="7"/>
@@ -27396,38 +27426,38 @@
         <v>40</v>
       </c>
       <c r="D305" s="7" t="s">
-        <v>875</v>
-      </c>
-      <c r="E305" s="27" t="s">
-        <v>912</v>
-      </c>
-      <c r="F305" s="24" t="s">
+        <v>873</v>
+      </c>
+      <c r="E305" s="29" t="s">
+        <v>910</v>
+      </c>
+      <c r="F305" s="26" t="s">
+        <v>911</v>
+      </c>
+      <c r="G305" s="7" t="s">
+        <v>918</v>
+      </c>
+      <c r="H305" s="7" t="s">
         <v>913</v>
       </c>
-      <c r="G305" s="7" t="s">
-        <v>920</v>
-      </c>
-      <c r="H305" s="7" t="s">
-        <v>915</v>
-      </c>
       <c r="I305" s="7" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="J305" s="7"/>
       <c r="K305" s="7"/>
       <c r="L305" s="7"/>
       <c r="M305" s="14" t="s">
-        <v>916</v>
-      </c>
-      <c r="N305" s="28" t="s">
-        <v>921</v>
+        <v>914</v>
+      </c>
+      <c r="N305" s="30" t="s">
+        <v>919</v>
       </c>
       <c r="O305" s="7"/>
       <c r="P305" s="7"/>
       <c r="Q305" s="7"/>
       <c r="R305" s="7"/>
       <c r="S305" s="7" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="T305" s="7"/>
       <c r="U305" s="7"/>
@@ -27463,38 +27493,38 @@
         <v>40</v>
       </c>
       <c r="D306" s="7" t="s">
-        <v>875</v>
-      </c>
-      <c r="E306" s="27" t="s">
-        <v>912</v>
-      </c>
-      <c r="F306" s="24" t="s">
+        <v>873</v>
+      </c>
+      <c r="E306" s="29" t="s">
+        <v>910</v>
+      </c>
+      <c r="F306" s="26" t="s">
+        <v>911</v>
+      </c>
+      <c r="G306" s="7" t="s">
+        <v>920</v>
+      </c>
+      <c r="H306" s="7" t="s">
         <v>913</v>
       </c>
-      <c r="G306" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="H306" s="7" t="s">
-        <v>915</v>
-      </c>
       <c r="I306" s="7" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="J306" s="7"/>
       <c r="K306" s="7"/>
       <c r="L306" s="7"/>
       <c r="M306" s="14" t="s">
-        <v>916</v>
-      </c>
-      <c r="N306" s="28" t="s">
-        <v>923</v>
+        <v>914</v>
+      </c>
+      <c r="N306" s="30" t="s">
+        <v>921</v>
       </c>
       <c r="O306" s="7"/>
       <c r="P306" s="7"/>
       <c r="Q306" s="7"/>
       <c r="R306" s="7"/>
       <c r="S306" s="7" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="T306" s="7"/>
       <c r="U306" s="7"/>
@@ -27530,38 +27560,38 @@
         <v>40</v>
       </c>
       <c r="D307" s="7" t="s">
-        <v>875</v>
-      </c>
-      <c r="E307" s="27" t="s">
-        <v>912</v>
-      </c>
-      <c r="F307" s="24" t="s">
+        <v>873</v>
+      </c>
+      <c r="E307" s="29" t="s">
+        <v>910</v>
+      </c>
+      <c r="F307" s="26" t="s">
+        <v>911</v>
+      </c>
+      <c r="G307" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="H307" s="7" t="s">
         <v>913</v>
       </c>
-      <c r="G307" s="7" t="s">
-        <v>924</v>
-      </c>
-      <c r="H307" s="7" t="s">
-        <v>915</v>
-      </c>
       <c r="I307" s="7" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="J307" s="7"/>
       <c r="K307" s="7"/>
       <c r="L307" s="7"/>
       <c r="M307" s="14" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="N307" s="13" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="O307" s="7"/>
       <c r="P307" s="7"/>
       <c r="Q307" s="7"/>
       <c r="R307" s="7"/>
       <c r="S307" s="7" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="T307" s="7"/>
       <c r="U307" s="7"/>
@@ -27597,38 +27627,38 @@
         <v>40</v>
       </c>
       <c r="D308" s="7" t="s">
-        <v>875</v>
-      </c>
-      <c r="E308" s="27" t="s">
-        <v>912</v>
-      </c>
-      <c r="F308" s="24" t="s">
+        <v>873</v>
+      </c>
+      <c r="E308" s="29" t="s">
+        <v>910</v>
+      </c>
+      <c r="F308" s="26" t="s">
+        <v>911</v>
+      </c>
+      <c r="G308" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="H308" s="7" t="s">
         <v>913</v>
       </c>
-      <c r="G308" s="7" t="s">
-        <v>926</v>
-      </c>
-      <c r="H308" s="7" t="s">
-        <v>915</v>
-      </c>
       <c r="I308" s="7" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="J308" s="7"/>
       <c r="K308" s="7"/>
       <c r="L308" s="7"/>
       <c r="M308" s="14" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="N308" s="13" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="O308" s="7"/>
       <c r="P308" s="7"/>
       <c r="Q308" s="7"/>
       <c r="R308" s="7"/>
       <c r="S308" s="7" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="T308" s="7"/>
       <c r="U308" s="7"/>
@@ -27674,7 +27704,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27683,49 +27713,49 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="32" t="s">
+        <v>926</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>927</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="32" t="s">
         <v>928</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="L1" s="32" t="s">
         <v>929</v>
       </c>
-      <c r="I1" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="30" t="s">
+      <c r="M1" s="32" t="s">
         <v>930</v>
       </c>
-      <c r="L1" s="30" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="33" t="s">
         <v>931</v>
-      </c>
-      <c r="M1" s="30" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="31" t="s">
-        <v>933</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Hypermarket - CAP.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Hypermarket - CAP.xlsx
@@ -17,6 +17,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">Hypermarket!$A$1:$AM$308</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AM$308</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AM$308</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hypermarket!$A$1:$AM$308</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3974" uniqueCount="932">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3974" uniqueCount="931">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -2734,10 +2735,7 @@
     <t xml:space="preserve">Холодильники: Максимум 15 СКЮ на дверь</t>
   </si>
   <si>
-    <t xml:space="preserve">DUMMY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of SKUs/Number of cooler Doors</t>
+    <t xml:space="preserve">number of SKU per Door RANGE TOTAL</t>
   </si>
   <si>
     <t xml:space="preserve">Cooler: Merch Priorty STD</t>
@@ -2825,7 +2823,7 @@
     <t xml:space="preserve">Холодильники: Мерч. Стандарты. Каждое SKU min 2 facing</t>
   </si>
   <si>
-    <t xml:space="preserve">number of facings every TCC SKUs on Scenes</t>
+    <t xml:space="preserve">each SKU hits facings target</t>
   </si>
   <si>
     <t xml:space="preserve">Cooler: w/o other products</t>
@@ -3138,13 +3136,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -3155,6 +3146,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b val="true"/>
@@ -3240,7 +3238,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3266,14 +3264,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3287,67 +3278,67 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="4" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="5" fillId="4" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3355,51 +3346,51 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="172" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3416,16 +3407,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Comma 2" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal 2" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal 3" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -3501,52 +3490,53 @@
   </sheetPr>
   <dimension ref="A1:AM308"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="N287" activeCellId="0" sqref="N287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0404858299595"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.1376518218623"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.8825910931174"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.502024291498"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="46.6396761133603"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="137.684210526316"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="45.0607287449393"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="36.2429149797571"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.9919028340081"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.9311740890688"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.4048582995951"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="41.2834008097166"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="29.4736842105263"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="18.919028340081"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.4534412955466"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.1497975708502"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.1336032388664"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.0890688259109"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="6.94736842105263"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="13.8744939271255"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="57.5101214574899"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.4372469635628"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="20.9676113360324"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="49.9473684210526"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.2307692307692"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="24.2712550607287"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.1376518218623"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="24.9028340080972"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="12.9311740890688"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.1457489878543"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.6194331983806"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="58.1376518218624"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="20.9676113360324"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.5748987854251"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="47.0242914979757"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="138.931174089069"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="45.5263157894737"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.7692307692308"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="41.668016194332"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="29.6720647773279"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="6.96356275303644"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="13.9271255060729"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="58.0566801619433"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.6396761133603"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="50.4534412955466"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="24.4251012145749"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="58.5951417004049"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="10.5708502024292"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="9.1497975708502"/>
-    <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25532,9 +25522,7 @@
       <c r="H279" s="27" t="s">
         <v>819</v>
       </c>
-      <c r="I279" s="27" t="s">
-        <v>820</v>
-      </c>
+      <c r="I279" s="7"/>
       <c r="J279" s="7"/>
       <c r="K279" s="7" t="n">
         <v>1</v>
@@ -25545,12 +25533,16 @@
       <c r="M279" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="N279" s="11"/>
+      <c r="N279" s="11" t="s">
+        <v>660</v>
+      </c>
       <c r="O279" s="11"/>
       <c r="P279" s="11"/>
       <c r="Q279" s="11"/>
       <c r="R279" s="7"/>
-      <c r="S279" s="7"/>
+      <c r="S279" s="7" t="s">
+        <v>662</v>
+      </c>
       <c r="T279" s="7"/>
       <c r="U279" s="7"/>
       <c r="V279" s="7"/>
@@ -25605,10 +25597,10 @@
         <v>587</v>
       </c>
       <c r="F280" s="7" t="s">
+        <v>820</v>
+      </c>
+      <c r="G280" s="7" t="s">
         <v>821</v>
-      </c>
-      <c r="G280" s="7" t="s">
-        <v>822</v>
       </c>
       <c r="H280" s="7" t="s">
         <v>87</v>
@@ -25639,7 +25631,7 @@
       <c r="AB280" s="7"/>
       <c r="AC280" s="7"/>
       <c r="AD280" s="7" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="AE280" s="16" t="n">
         <v>0.01625</v>
@@ -25661,7 +25653,7 @@
         <v>263</v>
       </c>
       <c r="AL280" s="13" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="AM280" s="26" t="n">
         <v>312</v>
@@ -25682,10 +25674,10 @@
       </c>
       <c r="E281" s="7"/>
       <c r="F281" s="7" t="s">
+        <v>824</v>
+      </c>
+      <c r="G281" s="7" t="s">
         <v>825</v>
-      </c>
-      <c r="G281" s="7" t="s">
-        <v>826</v>
       </c>
       <c r="H281" s="7" t="s">
         <v>87</v>
@@ -25734,7 +25726,7 @@
         <v>264</v>
       </c>
       <c r="AL281" s="13" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="AM281" s="7" t="n">
         <v>263</v>
@@ -25755,10 +25747,10 @@
       </c>
       <c r="E282" s="7"/>
       <c r="F282" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="G282" s="7" t="s">
         <v>828</v>
-      </c>
-      <c r="G282" s="7" t="s">
-        <v>829</v>
       </c>
       <c r="H282" s="7" t="s">
         <v>734</v>
@@ -25770,21 +25762,21 @@
       <c r="K282" s="7"/>
       <c r="L282" s="7"/>
       <c r="M282" s="7" t="s">
+        <v>829</v>
+      </c>
+      <c r="N282" s="11" t="s">
         <v>830</v>
-      </c>
-      <c r="N282" s="11" t="s">
-        <v>831</v>
       </c>
       <c r="O282" s="11"/>
       <c r="P282" s="11"/>
       <c r="Q282" s="11" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="R282" s="7" t="s">
         <v>93</v>
       </c>
       <c r="S282" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="T282" s="7"/>
       <c r="U282" s="7"/>
@@ -25794,14 +25786,14 @@
         <v>807</v>
       </c>
       <c r="Y282" s="7" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="Z282" s="7"/>
       <c r="AA282" s="7"/>
       <c r="AB282" s="7"/>
       <c r="AC282" s="7"/>
       <c r="AD282" s="7" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="AE282" s="10"/>
       <c r="AF282" s="7"/>
@@ -25838,10 +25830,10 @@
       </c>
       <c r="E283" s="7"/>
       <c r="F283" s="7" t="s">
+        <v>833</v>
+      </c>
+      <c r="G283" s="7" t="s">
         <v>834</v>
-      </c>
-      <c r="G283" s="7" t="s">
-        <v>835</v>
       </c>
       <c r="H283" s="7" t="s">
         <v>734</v>
@@ -25853,21 +25845,21 @@
       <c r="K283" s="7"/>
       <c r="L283" s="7"/>
       <c r="M283" s="7" t="s">
+        <v>829</v>
+      </c>
+      <c r="N283" s="11" t="s">
         <v>830</v>
-      </c>
-      <c r="N283" s="11" t="s">
-        <v>831</v>
       </c>
       <c r="O283" s="11"/>
       <c r="P283" s="11"/>
       <c r="Q283" s="11" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="R283" s="7" t="s">
         <v>93</v>
       </c>
       <c r="S283" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="T283" s="7"/>
       <c r="U283" s="7"/>
@@ -25877,14 +25869,14 @@
         <v>807</v>
       </c>
       <c r="Y283" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="Z283" s="7"/>
       <c r="AA283" s="7"/>
       <c r="AB283" s="7"/>
       <c r="AC283" s="7"/>
       <c r="AD283" s="7" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="AE283" s="10"/>
       <c r="AF283" s="7"/>
@@ -25921,10 +25913,10 @@
       </c>
       <c r="E284" s="7"/>
       <c r="F284" s="7" t="s">
+        <v>836</v>
+      </c>
+      <c r="G284" s="7" t="s">
         <v>837</v>
-      </c>
-      <c r="G284" s="7" t="s">
-        <v>838</v>
       </c>
       <c r="H284" s="7" t="s">
         <v>739</v>
@@ -25957,7 +25949,7 @@
       <c r="AB284" s="7"/>
       <c r="AC284" s="7"/>
       <c r="AD284" s="7" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="AE284" s="10"/>
       <c r="AF284" s="7"/>
@@ -25975,7 +25967,7 @@
         <v>267</v>
       </c>
       <c r="AL284" s="13" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="AM284" s="7" t="n">
         <v>263</v>
@@ -25996,10 +25988,10 @@
       </c>
       <c r="E285" s="7"/>
       <c r="F285" s="7" t="s">
+        <v>839</v>
+      </c>
+      <c r="G285" s="7" t="s">
         <v>840</v>
-      </c>
-      <c r="G285" s="7" t="s">
-        <v>841</v>
       </c>
       <c r="H285" s="7" t="s">
         <v>92</v>
@@ -26011,21 +26003,21 @@
       <c r="K285" s="7"/>
       <c r="L285" s="7"/>
       <c r="M285" s="7" t="s">
+        <v>829</v>
+      </c>
+      <c r="N285" s="11" t="s">
         <v>830</v>
-      </c>
-      <c r="N285" s="11" t="s">
-        <v>831</v>
       </c>
       <c r="O285" s="11"/>
       <c r="P285" s="11"/>
       <c r="Q285" s="11" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="R285" s="7" t="s">
         <v>93</v>
       </c>
       <c r="S285" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="T285" s="7"/>
       <c r="U285" s="7"/>
@@ -26079,10 +26071,10 @@
       </c>
       <c r="E286" s="7"/>
       <c r="F286" s="7" t="s">
+        <v>841</v>
+      </c>
+      <c r="G286" s="7" t="s">
         <v>842</v>
-      </c>
-      <c r="G286" s="7" t="s">
-        <v>843</v>
       </c>
       <c r="H286" s="7" t="s">
         <v>92</v>
@@ -26094,21 +26086,21 @@
       <c r="K286" s="7"/>
       <c r="L286" s="7"/>
       <c r="M286" s="7" t="s">
+        <v>843</v>
+      </c>
+      <c r="N286" s="11" t="s">
         <v>844</v>
-      </c>
-      <c r="N286" s="11" t="s">
-        <v>845</v>
       </c>
       <c r="O286" s="11"/>
       <c r="P286" s="11"/>
       <c r="Q286" s="11" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="R286" s="7" t="s">
         <v>93</v>
       </c>
       <c r="S286" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="T286" s="7"/>
       <c r="U286" s="7"/>
@@ -26162,17 +26154,15 @@
       </c>
       <c r="E287" s="7"/>
       <c r="F287" s="7" t="s">
+        <v>845</v>
+      </c>
+      <c r="G287" s="7" t="s">
         <v>846</v>
       </c>
-      <c r="G287" s="7" t="s">
+      <c r="H287" s="27" t="s">
         <v>847</v>
       </c>
-      <c r="H287" s="27" t="s">
-        <v>819</v>
-      </c>
-      <c r="I287" s="14" t="s">
-        <v>848</v>
-      </c>
+      <c r="I287" s="7"/>
       <c r="J287" s="7" t="n">
         <v>2</v>
       </c>
@@ -26191,7 +26181,7 @@
         <v>93</v>
       </c>
       <c r="S287" s="14" t="s">
-        <v>94</v>
+        <v>662</v>
       </c>
       <c r="T287" s="7"/>
       <c r="U287" s="7"/>
@@ -26245,13 +26235,13 @@
         <v>587</v>
       </c>
       <c r="F288" s="7" t="s">
+        <v>848</v>
+      </c>
+      <c r="G288" s="7" t="s">
         <v>849</v>
       </c>
-      <c r="G288" s="7" t="s">
+      <c r="H288" s="7" t="s">
         <v>850</v>
-      </c>
-      <c r="H288" s="7" t="s">
-        <v>851</v>
       </c>
       <c r="I288" s="7"/>
       <c r="J288" s="7"/>
@@ -26322,10 +26312,10 @@
         <v>587</v>
       </c>
       <c r="F289" s="7" t="s">
+        <v>851</v>
+      </c>
+      <c r="G289" s="7" t="s">
         <v>852</v>
-      </c>
-      <c r="G289" s="7" t="s">
-        <v>853</v>
       </c>
       <c r="H289" s="7" t="s">
         <v>800</v>
@@ -26350,7 +26340,7 @@
       <c r="V289" s="7"/>
       <c r="W289" s="7"/>
       <c r="X289" s="25" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="Y289" s="7"/>
       <c r="Z289" s="7"/>
@@ -26397,13 +26387,13 @@
         <v>587</v>
       </c>
       <c r="F290" s="7" t="s">
+        <v>853</v>
+      </c>
+      <c r="G290" s="7" t="s">
         <v>854</v>
       </c>
-      <c r="G290" s="7" t="s">
+      <c r="H290" s="7" t="s">
         <v>855</v>
-      </c>
-      <c r="H290" s="7" t="s">
-        <v>856</v>
       </c>
       <c r="I290" s="7"/>
       <c r="J290" s="7" t="n">
@@ -26433,7 +26423,7 @@
       <c r="V290" s="7"/>
       <c r="W290" s="7"/>
       <c r="X290" s="25" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="Y290" s="7"/>
       <c r="Z290" s="7"/>
@@ -26441,13 +26431,13 @@
       <c r="AB290" s="7"/>
       <c r="AC290" s="7"/>
       <c r="AD290" s="7" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="AE290" s="10"/>
       <c r="AF290" s="7"/>
       <c r="AG290" s="7"/>
       <c r="AH290" s="7" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="AI290" s="7"/>
       <c r="AJ290" s="7" t="n">
@@ -26476,10 +26466,10 @@
       </c>
       <c r="E291" s="7"/>
       <c r="F291" s="7" t="s">
+        <v>858</v>
+      </c>
+      <c r="G291" s="7" t="s">
         <v>859</v>
-      </c>
-      <c r="G291" s="7" t="s">
-        <v>860</v>
       </c>
       <c r="H291" s="7" t="s">
         <v>87</v>
@@ -26520,7 +26510,7 @@
         <v>274</v>
       </c>
       <c r="AL291" s="13" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="AM291" s="26" t="n">
         <v>400</v>
@@ -26540,16 +26530,16 @@
         <v>582</v>
       </c>
       <c r="E292" s="7" t="s">
+        <v>861</v>
+      </c>
+      <c r="F292" s="7" t="s">
         <v>862</v>
       </c>
-      <c r="F292" s="7" t="s">
+      <c r="G292" s="7" t="s">
         <v>863</v>
       </c>
-      <c r="G292" s="7" t="s">
+      <c r="H292" s="7" t="s">
         <v>864</v>
-      </c>
-      <c r="H292" s="7" t="s">
-        <v>865</v>
       </c>
       <c r="I292" s="7"/>
       <c r="J292" s="7" t="n">
@@ -26559,7 +26549,7 @@
       <c r="L292" s="7"/>
       <c r="M292" s="7"/>
       <c r="N292" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="O292" s="11"/>
       <c r="P292" s="11"/>
@@ -26576,7 +26566,7 @@
       <c r="W292" s="7"/>
       <c r="X292" s="7"/>
       <c r="Y292" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="Z292" s="7"/>
       <c r="AA292" s="19"/>
@@ -26617,16 +26607,16 @@
         <v>582</v>
       </c>
       <c r="E293" s="7" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F293" s="7" t="s">
+        <v>866</v>
+      </c>
+      <c r="G293" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="G293" s="7" t="s">
-        <v>868</v>
-      </c>
       <c r="H293" s="7" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="I293" s="7"/>
       <c r="J293" s="7" t="n">
@@ -26636,7 +26626,7 @@
       <c r="L293" s="7"/>
       <c r="M293" s="7"/>
       <c r="N293" s="7" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="O293" s="11"/>
       <c r="P293" s="11"/>
@@ -26653,7 +26643,7 @@
       <c r="W293" s="7"/>
       <c r="X293" s="7"/>
       <c r="Y293" s="7" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="Z293" s="7"/>
       <c r="AA293" s="19"/>
@@ -26694,16 +26684,16 @@
         <v>582</v>
       </c>
       <c r="E294" s="7" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F294" s="7" t="s">
+        <v>869</v>
+      </c>
+      <c r="G294" s="7" t="s">
         <v>870</v>
       </c>
-      <c r="G294" s="7" t="s">
-        <v>871</v>
-      </c>
       <c r="H294" s="7" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="I294" s="7"/>
       <c r="J294" s="7" t="n">
@@ -26713,7 +26703,7 @@
       <c r="L294" s="7"/>
       <c r="M294" s="7"/>
       <c r="N294" s="7" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="O294" s="11"/>
       <c r="P294" s="11"/>
@@ -26730,7 +26720,7 @@
       <c r="W294" s="7"/>
       <c r="X294" s="7"/>
       <c r="Y294" s="7" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="Z294" s="7"/>
       <c r="AA294" s="19"/>
@@ -26768,22 +26758,22 @@
         <v>40</v>
       </c>
       <c r="D295" s="7" t="s">
+        <v>872</v>
+      </c>
+      <c r="E295" s="29" t="s">
         <v>873</v>
       </c>
-      <c r="E295" s="29" t="s">
+      <c r="F295" s="26" t="s">
         <v>874</v>
       </c>
-      <c r="F295" s="26" t="s">
+      <c r="G295" s="7" t="s">
         <v>875</v>
       </c>
-      <c r="G295" s="7" t="s">
+      <c r="H295" s="7" t="s">
         <v>876</v>
       </c>
-      <c r="H295" s="7" t="s">
+      <c r="I295" s="7" t="s">
         <v>877</v>
-      </c>
-      <c r="I295" s="7" t="s">
-        <v>878</v>
       </c>
       <c r="J295" s="7"/>
       <c r="K295" s="7"/>
@@ -26795,7 +26785,7 @@
       <c r="Q295" s="7"/>
       <c r="R295" s="7"/>
       <c r="S295" s="7" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="T295" s="7"/>
       <c r="U295" s="7"/>
@@ -26818,7 +26808,7 @@
         <v>278</v>
       </c>
       <c r="AL295" s="13" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="AM295" s="7"/>
     </row>
@@ -26833,22 +26823,22 @@
         <v>40</v>
       </c>
       <c r="D296" s="7" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E296" s="7" t="s">
+        <v>880</v>
+      </c>
+      <c r="F296" s="23" t="s">
         <v>881</v>
       </c>
-      <c r="F296" s="23" t="s">
+      <c r="G296" s="24" t="s">
         <v>882</v>
       </c>
-      <c r="G296" s="24" t="s">
-        <v>883</v>
-      </c>
       <c r="H296" s="7" t="s">
+        <v>876</v>
+      </c>
+      <c r="I296" s="7" t="s">
         <v>877</v>
-      </c>
-      <c r="I296" s="7" t="s">
-        <v>878</v>
       </c>
       <c r="J296" s="7"/>
       <c r="K296" s="7"/>
@@ -26860,7 +26850,7 @@
       <c r="Q296" s="7"/>
       <c r="R296" s="7"/>
       <c r="S296" s="7" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="T296" s="7"/>
       <c r="U296" s="7"/>
@@ -26883,7 +26873,7 @@
         <v>279</v>
       </c>
       <c r="AL296" s="13" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="AM296" s="7"/>
     </row>
@@ -26898,22 +26888,22 @@
         <v>40</v>
       </c>
       <c r="D297" s="7" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E297" s="29" t="s">
+        <v>884</v>
+      </c>
+      <c r="F297" s="26" t="s">
         <v>885</v>
       </c>
-      <c r="F297" s="26" t="s">
+      <c r="G297" s="7" t="s">
         <v>886</v>
       </c>
-      <c r="G297" s="7" t="s">
-        <v>887</v>
-      </c>
       <c r="H297" s="7" t="s">
+        <v>876</v>
+      </c>
+      <c r="I297" s="7" t="s">
         <v>877</v>
-      </c>
-      <c r="I297" s="7" t="s">
-        <v>878</v>
       </c>
       <c r="J297" s="7"/>
       <c r="K297" s="7"/>
@@ -26925,7 +26915,7 @@
       <c r="Q297" s="7"/>
       <c r="R297" s="7"/>
       <c r="S297" s="7" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="T297" s="7"/>
       <c r="U297" s="7"/>
@@ -26948,7 +26938,7 @@
         <v>280</v>
       </c>
       <c r="AL297" s="13" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="AM297" s="7"/>
     </row>
@@ -26963,22 +26953,22 @@
         <v>40</v>
       </c>
       <c r="D298" s="7" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E298" s="29" t="s">
+        <v>888</v>
+      </c>
+      <c r="F298" s="26" t="s">
         <v>889</v>
       </c>
-      <c r="F298" s="26" t="s">
+      <c r="G298" s="24" t="s">
         <v>890</v>
       </c>
-      <c r="G298" s="24" t="s">
+      <c r="H298" s="7" t="s">
         <v>891</v>
       </c>
-      <c r="H298" s="7" t="s">
+      <c r="I298" s="7" t="s">
         <v>892</v>
-      </c>
-      <c r="I298" s="7" t="s">
-        <v>893</v>
       </c>
       <c r="J298" s="7"/>
       <c r="K298" s="7"/>
@@ -26990,7 +26980,7 @@
       <c r="Q298" s="7"/>
       <c r="R298" s="7"/>
       <c r="S298" s="7" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="T298" s="7"/>
       <c r="U298" s="7"/>
@@ -27028,22 +27018,22 @@
         <v>40</v>
       </c>
       <c r="D299" s="7" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E299" s="29" t="s">
+        <v>893</v>
+      </c>
+      <c r="F299" s="26" t="s">
         <v>894</v>
       </c>
-      <c r="F299" s="26" t="s">
+      <c r="G299" s="24" t="s">
         <v>895</v>
       </c>
-      <c r="G299" s="24" t="s">
+      <c r="H299" s="7" t="s">
         <v>896</v>
       </c>
-      <c r="H299" s="7" t="s">
-        <v>897</v>
-      </c>
       <c r="I299" s="7" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="J299" s="7"/>
       <c r="K299" s="7"/>
@@ -27055,7 +27045,7 @@
       <c r="Q299" s="7"/>
       <c r="R299" s="7"/>
       <c r="S299" s="7" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="T299" s="7"/>
       <c r="U299" s="7"/>
@@ -27093,36 +27083,36 @@
         <v>40</v>
       </c>
       <c r="D300" s="7" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E300" s="29" t="s">
+        <v>897</v>
+      </c>
+      <c r="F300" s="26" t="s">
         <v>898</v>
       </c>
-      <c r="F300" s="26" t="s">
+      <c r="G300" s="7" t="s">
         <v>899</v>
       </c>
-      <c r="G300" s="7" t="s">
+      <c r="H300" s="7" t="s">
         <v>900</v>
       </c>
-      <c r="H300" s="7" t="s">
-        <v>901</v>
-      </c>
       <c r="I300" s="7" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="J300" s="7"/>
       <c r="K300" s="7"/>
       <c r="L300" s="7"/>
       <c r="M300" s="7"/>
       <c r="N300" s="7" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="O300" s="7"/>
       <c r="P300" s="7"/>
       <c r="Q300" s="7"/>
       <c r="R300" s="7"/>
       <c r="S300" s="7" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="T300" s="7"/>
       <c r="U300" s="7"/>
@@ -27158,36 +27148,36 @@
         <v>40</v>
       </c>
       <c r="D301" s="7" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E301" s="29" t="s">
+        <v>903</v>
+      </c>
+      <c r="F301" s="26" t="s">
         <v>904</v>
       </c>
-      <c r="F301" s="26" t="s">
+      <c r="G301" s="7" t="s">
         <v>905</v>
       </c>
-      <c r="G301" s="7" t="s">
+      <c r="H301" s="7" t="s">
         <v>906</v>
       </c>
-      <c r="H301" s="7" t="s">
+      <c r="I301" s="7" t="s">
         <v>907</v>
-      </c>
-      <c r="I301" s="7" t="s">
-        <v>908</v>
       </c>
       <c r="J301" s="7"/>
       <c r="K301" s="7"/>
       <c r="L301" s="7"/>
       <c r="M301" s="7"/>
       <c r="N301" s="7" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="O301" s="7"/>
       <c r="P301" s="7"/>
       <c r="Q301" s="7"/>
       <c r="R301" s="7"/>
       <c r="S301" s="7" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="T301" s="7"/>
       <c r="U301" s="7"/>
@@ -27223,38 +27213,38 @@
         <v>40</v>
       </c>
       <c r="D302" s="7" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E302" s="29" t="s">
+        <v>909</v>
+      </c>
+      <c r="F302" s="26" t="s">
         <v>910</v>
       </c>
-      <c r="F302" s="26" t="s">
+      <c r="G302" s="7" t="s">
         <v>911</v>
       </c>
-      <c r="G302" s="7" t="s">
+      <c r="H302" s="7" t="s">
         <v>912</v>
       </c>
-      <c r="H302" s="7" t="s">
-        <v>913</v>
-      </c>
       <c r="I302" s="7" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="J302" s="7"/>
       <c r="K302" s="7"/>
       <c r="L302" s="7"/>
       <c r="M302" s="14" t="s">
+        <v>913</v>
+      </c>
+      <c r="N302" s="13" t="s">
         <v>914</v>
-      </c>
-      <c r="N302" s="13" t="s">
-        <v>915</v>
       </c>
       <c r="O302" s="7"/>
       <c r="P302" s="7"/>
       <c r="Q302" s="7"/>
       <c r="R302" s="7"/>
       <c r="S302" s="7" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="T302" s="7"/>
       <c r="U302" s="7"/>
@@ -27292,38 +27282,38 @@
         <v>40</v>
       </c>
       <c r="D303" s="7" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E303" s="29" t="s">
+        <v>909</v>
+      </c>
+      <c r="F303" s="26" t="s">
         <v>910</v>
       </c>
-      <c r="F303" s="26" t="s">
-        <v>911</v>
-      </c>
       <c r="G303" s="7" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H303" s="7" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="I303" s="7" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="J303" s="7"/>
       <c r="K303" s="7"/>
       <c r="L303" s="7"/>
       <c r="M303" s="14" t="s">
+        <v>913</v>
+      </c>
+      <c r="N303" s="13" t="s">
         <v>914</v>
-      </c>
-      <c r="N303" s="13" t="s">
-        <v>915</v>
       </c>
       <c r="O303" s="7"/>
       <c r="P303" s="7"/>
       <c r="Q303" s="7"/>
       <c r="R303" s="7"/>
       <c r="S303" s="7" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="T303" s="7"/>
       <c r="U303" s="7"/>
@@ -27359,38 +27349,38 @@
         <v>40</v>
       </c>
       <c r="D304" s="7" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E304" s="29" t="s">
+        <v>909</v>
+      </c>
+      <c r="F304" s="26" t="s">
         <v>910</v>
       </c>
-      <c r="F304" s="26" t="s">
-        <v>911</v>
-      </c>
       <c r="G304" s="7" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H304" s="7" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="I304" s="7" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="J304" s="7"/>
       <c r="K304" s="7"/>
       <c r="L304" s="7"/>
       <c r="M304" s="14" t="s">
+        <v>913</v>
+      </c>
+      <c r="N304" s="13" t="s">
         <v>914</v>
-      </c>
-      <c r="N304" s="13" t="s">
-        <v>915</v>
       </c>
       <c r="O304" s="7"/>
       <c r="P304" s="7"/>
       <c r="Q304" s="7"/>
       <c r="R304" s="7"/>
       <c r="S304" s="7" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="T304" s="7"/>
       <c r="U304" s="7"/>
@@ -27426,38 +27416,38 @@
         <v>40</v>
       </c>
       <c r="D305" s="7" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E305" s="29" t="s">
+        <v>909</v>
+      </c>
+      <c r="F305" s="26" t="s">
         <v>910</v>
       </c>
-      <c r="F305" s="26" t="s">
-        <v>911</v>
-      </c>
       <c r="G305" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H305" s="7" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="I305" s="7" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="J305" s="7"/>
       <c r="K305" s="7"/>
       <c r="L305" s="7"/>
       <c r="M305" s="14" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="N305" s="30" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="O305" s="7"/>
       <c r="P305" s="7"/>
       <c r="Q305" s="7"/>
       <c r="R305" s="7"/>
       <c r="S305" s="7" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="T305" s="7"/>
       <c r="U305" s="7"/>
@@ -27493,38 +27483,38 @@
         <v>40</v>
       </c>
       <c r="D306" s="7" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E306" s="29" t="s">
+        <v>909</v>
+      </c>
+      <c r="F306" s="26" t="s">
         <v>910</v>
       </c>
-      <c r="F306" s="26" t="s">
-        <v>911</v>
-      </c>
       <c r="G306" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H306" s="7" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="I306" s="7" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="J306" s="7"/>
       <c r="K306" s="7"/>
       <c r="L306" s="7"/>
       <c r="M306" s="14" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="N306" s="30" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="O306" s="7"/>
       <c r="P306" s="7"/>
       <c r="Q306" s="7"/>
       <c r="R306" s="7"/>
       <c r="S306" s="7" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="T306" s="7"/>
       <c r="U306" s="7"/>
@@ -27560,38 +27550,38 @@
         <v>40</v>
       </c>
       <c r="D307" s="7" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E307" s="29" t="s">
+        <v>909</v>
+      </c>
+      <c r="F307" s="26" t="s">
         <v>910</v>
       </c>
-      <c r="F307" s="26" t="s">
-        <v>911</v>
-      </c>
       <c r="G307" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H307" s="7" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="I307" s="7" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="J307" s="7"/>
       <c r="K307" s="7"/>
       <c r="L307" s="7"/>
       <c r="M307" s="14" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="N307" s="13" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="O307" s="7"/>
       <c r="P307" s="7"/>
       <c r="Q307" s="7"/>
       <c r="R307" s="7"/>
       <c r="S307" s="7" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="T307" s="7"/>
       <c r="U307" s="7"/>
@@ -27627,38 +27617,38 @@
         <v>40</v>
       </c>
       <c r="D308" s="7" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E308" s="29" t="s">
+        <v>909</v>
+      </c>
+      <c r="F308" s="26" t="s">
         <v>910</v>
       </c>
-      <c r="F308" s="26" t="s">
-        <v>911</v>
-      </c>
       <c r="G308" s="7" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H308" s="7" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="I308" s="7" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="J308" s="7"/>
       <c r="K308" s="7"/>
       <c r="L308" s="7"/>
       <c r="M308" s="14" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="N308" s="13" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="O308" s="7"/>
       <c r="P308" s="7"/>
       <c r="Q308" s="7"/>
       <c r="R308" s="7"/>
       <c r="S308" s="7" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="T308" s="7"/>
       <c r="U308" s="7"/>
@@ -27704,7 +27694,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27732,10 +27722,10 @@
         <v>12</v>
       </c>
       <c r="G1" s="32" t="s">
+        <v>925</v>
+      </c>
+      <c r="H1" s="32" t="s">
         <v>926</v>
-      </c>
-      <c r="H1" s="32" t="s">
-        <v>927</v>
       </c>
       <c r="I1" s="32" t="s">
         <v>33</v>
@@ -27744,18 +27734,18 @@
         <v>30</v>
       </c>
       <c r="K1" s="32" t="s">
+        <v>927</v>
+      </c>
+      <c r="L1" s="32" t="s">
         <v>928</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="M1" s="32" t="s">
         <v>929</v>
-      </c>
-      <c r="M1" s="32" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="33" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Hypermarket - CAP.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Hypermarket - CAP.xlsx
@@ -16,8 +16,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Hypermarket!$A$1:$AM$308</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">Hypermarket!$A$1:$AM$308</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AM$308</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AM$308</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hypermarket!$A$1:$AM$308</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$amk$308</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3974" uniqueCount="931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3967" uniqueCount="930">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -177,7 +176,8 @@
     <t xml:space="preserve">302
 303
 272
-320</t>
+320
+321</t>
   </si>
   <si>
     <t xml:space="preserve">SSD Displays</t>
@@ -839,10 +839,10 @@
     <t xml:space="preserve">Монстер Хаос - 0.5л</t>
   </si>
   <si>
-    <t xml:space="preserve">NEW SKU 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Монстер Манго - 0.5л</t>
+    <t xml:space="preserve">Monster Ultra - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Монстер Ультра - 0.5л</t>
   </si>
   <si>
     <t xml:space="preserve">Burn Lemon Ice - 0.5L</t>
@@ -893,13 +893,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Fuze Berry - 1.5L</t>
+    <t xml:space="preserve">Fuze Berry-Hibiscus - 1.5L</t>
   </si>
   <si>
     <t xml:space="preserve">Фьюз Лесн.ягоды - 1.5л</t>
   </si>
   <si>
-    <t xml:space="preserve">5449000193155</t>
+    <t xml:space="preserve">5449000193155, 5449000259479</t>
   </si>
   <si>
     <t xml:space="preserve">Fuze Green Strawberry-Raspberry - 1.5L</t>
@@ -911,7 +911,7 @@
     <t xml:space="preserve">5449000233592</t>
   </si>
   <si>
-    <t xml:space="preserve">Fuze Lemon - 1.5L</t>
+    <t xml:space="preserve">Fuze Lemon-Lemongrass - 1.5L</t>
   </si>
   <si>
     <t xml:space="preserve">Фьюз Лимон - 1.5л</t>
@@ -929,7 +929,7 @@
     <t xml:space="preserve">4607042430879, 5449000027450</t>
   </si>
   <si>
-    <t xml:space="preserve">Fuze Lemon - 0.5L</t>
+    <t xml:space="preserve">Fuze Lemon-Lemongrass - 0.5L</t>
   </si>
   <si>
     <t xml:space="preserve">Фьюз Лимон - 0.5л</t>
@@ -947,7 +947,7 @@
     <t xml:space="preserve">5449000193070, 5449000235794</t>
   </si>
   <si>
-    <t xml:space="preserve">Fuze Berry - 1L</t>
+    <t xml:space="preserve">Fuze Berry-Hibiscus - 1L</t>
   </si>
   <si>
     <t xml:space="preserve">Фьюз Лесн.ягоды - 1л</t>
@@ -989,7 +989,7 @@
     <t xml:space="preserve">5449000665034, 4607042431722</t>
   </si>
   <si>
-    <t xml:space="preserve">Fuze Berry - 0.5L</t>
+    <t xml:space="preserve">Fuze Berry-Hibiscus - 0.5L</t>
   </si>
   <si>
     <t xml:space="preserve">Фьюз Лесн.ягоды - 0.5л</t>
@@ -998,7 +998,7 @@
     <t xml:space="preserve">5449000193124, 5449000259455</t>
   </si>
   <si>
-    <t xml:space="preserve">Fuze Lemon - 1L</t>
+    <t xml:space="preserve">Fuze Lemon-Lemongrass - 1L</t>
   </si>
   <si>
     <t xml:space="preserve">Фьюз Лимон - 1л</t>
@@ -1016,7 +1016,7 @@
     <t xml:space="preserve">5449000233493</t>
   </si>
   <si>
-    <t xml:space="preserve">Fuze Peach - 0.5L</t>
+    <t xml:space="preserve">Fuze Peach-Rose  - 0.5L</t>
   </si>
   <si>
     <t xml:space="preserve">Фьюз Персик - 0.5л</t>
@@ -2215,9 +2215,6 @@
     <t xml:space="preserve">NCB Дисплей </t>
   </si>
   <si>
-    <t xml:space="preserve">Other TCCC Displays</t>
-  </si>
-  <si>
     <t xml:space="preserve">208
 209
 210</t>
@@ -2259,13 +2256,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">NCB Display: Lead Fuze Lemon - 1.5L</t>
+    <t xml:space="preserve">NCB Display: Lead Fuze Lemon-Lemongrass - 1.5L</t>
   </si>
   <si>
     <t xml:space="preserve">NCB Дисплей: Основной Фьюз Лимон - 1.5л</t>
   </si>
   <si>
-    <t xml:space="preserve">Fuze Lemon - 1.5L share on Display</t>
+    <t xml:space="preserve">Fuze Lemon-Lemongrass - 1.5L share on Display</t>
   </si>
   <si>
     <t xml:space="preserve">NCB Display: Lead Fuze Green Strawberry-Raspberry - 1.5L</t>
@@ -2653,7 +2650,7 @@
     <t xml:space="preserve">5449000027450, 4607042431722</t>
   </si>
   <si>
-    <t xml:space="preserve">Ice Tea Shelf: Fuze Berry - 1L</t>
+    <t xml:space="preserve">Ice Tea Shelf: Fuze Berry-Hibiscus - 1L</t>
   </si>
   <si>
     <t xml:space="preserve">Холодный Чай полка: Фьюз Лесн.ягоды - 1л</t>
@@ -2799,13 +2796,13 @@
 269</t>
   </si>
   <si>
+    <t xml:space="preserve">Cooler: Merch Priorty STD Coca - Cola shelf 2-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Мерч. Стандарты. Кока-Кола на 2-3 полке</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cooler: Merch Priorty STD Fuze shelf 2-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Мерч. Стандарты. Кока-Кола на 2-3 полке</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Merch Priorty STD Coca - Cola shelf 2-3</t>
   </si>
   <si>
     <t xml:space="preserve">Холодильники: Мерч. Стандарты. Фьюз на 2-3 полке</t>
@@ -3180,8 +3177,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF99FF"/>
-        <bgColor rgb="FFCC99FF"/>
+        <fgColor rgb="FFCCFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -3211,7 +3208,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFCCFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -3444,7 +3441,7 @@
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFCCFF00"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -3455,7 +3452,7 @@
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99FF"/>
+      <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
@@ -3490,53 +3487,54 @@
   </sheetPr>
   <dimension ref="A1:AM308"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="N287" activeCellId="0" sqref="N287"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.85425101214575"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="47.0242914979757"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="138.931174089069"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="45.5263157894737"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.78542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0404858299595"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.8825910931174"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.502024291498"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="46.6396761133603"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="137.684210526316"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="45.0607287449393"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.7692307692308"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="41.668016194332"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="29.6720647773279"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="6.96356275303644"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="58.0566801619433"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.6396761133603"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="50.4534412955466"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="24.4251012145749"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="58.5951417004049"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.60728744939271"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.9919028340081"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.9311740890688"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.4048582995951"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="41.2834008097166"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="29.4736842105263"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="18.919028340081"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.4534412955466"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.1497975708502"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.1336032388664"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.0890688259109"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="6.94736842105263"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="13.8744939271255"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="57.5101214574899"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.4372469635628"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="20.9676113360324"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="49.9473684210526"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.2307692307692"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="24.2712550607287"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.1376518218623"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="24.9028340080972"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="12.9311740890688"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.1457489878543"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.6194331983806"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="58.1376518218624"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="20.9676113360324"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.5748987854251"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="10.5708502024292"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="9.1497975708502"/>
+    <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9829,7 +9827,7 @@
         <v>238</v>
       </c>
       <c r="N82" s="11" t="n">
-        <v>111111</v>
+        <v>5060517888794</v>
       </c>
       <c r="O82" s="11"/>
       <c r="P82" s="11"/>
@@ -21242,12 +21240,10 @@
       <c r="U224" s="7"/>
       <c r="V224" s="20"/>
       <c r="W224" s="7"/>
-      <c r="X224" s="7" t="s">
-        <v>656</v>
-      </c>
-      <c r="Y224" s="21" t="s">
-        <v>654</v>
-      </c>
+      <c r="X224" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y224" s="0"/>
       <c r="Z224" s="7"/>
       <c r="AA224" s="7"/>
       <c r="AB224" s="7"/>
@@ -21269,7 +21265,7 @@
         <v>207</v>
       </c>
       <c r="AL224" s="13" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AM224" s="14" t="n">
         <v>320</v>
@@ -21292,10 +21288,10 @@
         <v>562</v>
       </c>
       <c r="F225" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="G225" s="7" t="s">
         <v>658</v>
-      </c>
-      <c r="G225" s="7" t="s">
-        <v>659</v>
       </c>
       <c r="H225" s="7" t="s">
         <v>92</v>
@@ -21310,31 +21306,29 @@
         <v>570</v>
       </c>
       <c r="N225" s="11" t="s">
+        <v>659</v>
+      </c>
+      <c r="O225" s="11" t="s">
         <v>660</v>
       </c>
-      <c r="O225" s="11" t="s">
-        <v>661</v>
-      </c>
       <c r="P225" s="11" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="Q225" s="11"/>
       <c r="R225" s="7" t="s">
         <v>93</v>
       </c>
       <c r="S225" s="7" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="T225" s="7"/>
       <c r="U225" s="7"/>
       <c r="V225" s="20"/>
       <c r="W225" s="7"/>
-      <c r="X225" s="7" t="s">
-        <v>656</v>
-      </c>
-      <c r="Y225" s="21" t="s">
-        <v>654</v>
-      </c>
+      <c r="X225" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y225" s="0"/>
       <c r="Z225" s="7"/>
       <c r="AA225" s="7"/>
       <c r="AB225" s="7"/>
@@ -21375,10 +21369,10 @@
         <v>562</v>
       </c>
       <c r="F226" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="G226" s="7" t="s">
         <v>663</v>
-      </c>
-      <c r="G226" s="7" t="s">
-        <v>664</v>
       </c>
       <c r="H226" s="7" t="s">
         <v>575</v>
@@ -21403,15 +21397,13 @@
       <c r="T226" s="7"/>
       <c r="U226" s="7"/>
       <c r="V226" s="7" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="W226" s="7"/>
-      <c r="X226" s="7" t="s">
-        <v>656</v>
-      </c>
-      <c r="Y226" s="21" t="s">
-        <v>654</v>
-      </c>
+      <c r="X226" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y226" s="0"/>
       <c r="Z226" s="7"/>
       <c r="AA226" s="7"/>
       <c r="AB226" s="7"/>
@@ -21452,10 +21444,10 @@
         <v>562</v>
       </c>
       <c r="F227" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="G227" s="7" t="s">
         <v>666</v>
-      </c>
-      <c r="G227" s="7" t="s">
-        <v>667</v>
       </c>
       <c r="H227" s="7" t="s">
         <v>606</v>
@@ -21479,12 +21471,10 @@
       <c r="U227" s="7"/>
       <c r="V227" s="20"/>
       <c r="W227" s="7"/>
-      <c r="X227" s="7" t="s">
-        <v>656</v>
-      </c>
-      <c r="Y227" s="21" t="s">
-        <v>654</v>
-      </c>
+      <c r="X227" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y227" s="0"/>
       <c r="Z227" s="7"/>
       <c r="AA227" s="7"/>
       <c r="AB227" s="7"/>
@@ -21504,7 +21494,7 @@
         <v>210</v>
       </c>
       <c r="AL227" s="13" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="AM227" s="7" t="n">
         <v>207</v>
@@ -21527,10 +21517,10 @@
         <v>562</v>
       </c>
       <c r="F228" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="G228" s="11" t="s">
         <v>669</v>
-      </c>
-      <c r="G228" s="11" t="s">
-        <v>670</v>
       </c>
       <c r="H228" s="7" t="s">
         <v>580</v>
@@ -21558,12 +21548,10 @@
       <c r="U228" s="7"/>
       <c r="V228" s="20"/>
       <c r="W228" s="7"/>
-      <c r="X228" s="7" t="s">
-        <v>656</v>
-      </c>
-      <c r="Y228" s="21" t="s">
-        <v>654</v>
-      </c>
+      <c r="X228" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y228" s="0"/>
       <c r="Z228" s="7"/>
       <c r="AA228" s="7"/>
       <c r="AB228" s="7"/>
@@ -21575,7 +21563,7 @@
       <c r="AF228" s="7"/>
       <c r="AG228" s="7"/>
       <c r="AH228" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AI228" s="7"/>
       <c r="AJ228" s="7" t="n">
@@ -21606,10 +21594,10 @@
         <v>562</v>
       </c>
       <c r="F229" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="G229" s="11" t="s">
         <v>672</v>
-      </c>
-      <c r="G229" s="11" t="s">
-        <v>673</v>
       </c>
       <c r="H229" s="7" t="s">
         <v>580</v>
@@ -21637,12 +21625,10 @@
       <c r="U229" s="7"/>
       <c r="V229" s="20"/>
       <c r="W229" s="7"/>
-      <c r="X229" s="7" t="s">
-        <v>656</v>
-      </c>
-      <c r="Y229" s="21" t="s">
-        <v>654</v>
-      </c>
+      <c r="X229" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y229" s="0"/>
       <c r="Z229" s="7"/>
       <c r="AA229" s="7"/>
       <c r="AB229" s="7"/>
@@ -21654,7 +21640,7 @@
       <c r="AF229" s="7"/>
       <c r="AG229" s="7"/>
       <c r="AH229" s="7" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AI229" s="7"/>
       <c r="AJ229" s="7" t="n">
@@ -21685,10 +21671,10 @@
         <v>562</v>
       </c>
       <c r="F230" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="G230" s="11" t="s">
         <v>675</v>
-      </c>
-      <c r="G230" s="11" t="s">
-        <v>676</v>
       </c>
       <c r="H230" s="7" t="s">
         <v>580</v>
@@ -21716,12 +21702,10 @@
       <c r="U230" s="7"/>
       <c r="V230" s="20"/>
       <c r="W230" s="7"/>
-      <c r="X230" s="7" t="s">
-        <v>656</v>
-      </c>
-      <c r="Y230" s="21" t="s">
-        <v>654</v>
-      </c>
+      <c r="X230" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y230" s="0"/>
       <c r="Z230" s="7"/>
       <c r="AA230" s="7"/>
       <c r="AB230" s="7"/>
@@ -21733,7 +21717,7 @@
       <c r="AF230" s="7"/>
       <c r="AG230" s="7"/>
       <c r="AH230" s="7" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AI230" s="7"/>
       <c r="AJ230" s="7" t="n">
@@ -21764,10 +21748,10 @@
         <v>562</v>
       </c>
       <c r="F231" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="G231" s="7" t="s">
         <v>678</v>
-      </c>
-      <c r="G231" s="7" t="s">
-        <v>679</v>
       </c>
       <c r="H231" s="7" t="s">
         <v>565</v>
@@ -21818,7 +21802,7 @@
         <v>214</v>
       </c>
       <c r="AL231" s="13" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AM231" s="15" t="n">
         <v>302</v>
@@ -21841,10 +21825,10 @@
         <v>562</v>
       </c>
       <c r="F232" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="G232" s="7" t="s">
         <v>681</v>
-      </c>
-      <c r="G232" s="7" t="s">
-        <v>682</v>
       </c>
       <c r="H232" s="7" t="s">
         <v>92</v>
@@ -21922,10 +21906,10 @@
         <v>562</v>
       </c>
       <c r="F233" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="G233" s="7" t="s">
         <v>683</v>
-      </c>
-      <c r="G233" s="7" t="s">
-        <v>684</v>
       </c>
       <c r="H233" s="7" t="s">
         <v>575</v>
@@ -21950,7 +21934,7 @@
       <c r="T233" s="7"/>
       <c r="U233" s="7"/>
       <c r="V233" s="7" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="W233" s="7"/>
       <c r="X233" s="7" t="s">
@@ -21999,10 +21983,10 @@
         <v>562</v>
       </c>
       <c r="F234" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="G234" s="7" t="s">
         <v>686</v>
-      </c>
-      <c r="G234" s="7" t="s">
-        <v>687</v>
       </c>
       <c r="H234" s="7" t="s">
         <v>606</v>
@@ -22074,7 +22058,7 @@
         <v>562</v>
       </c>
       <c r="F235" s="7" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G235" s="11" t="s">
         <v>133</v>
@@ -22124,7 +22108,7 @@
       <c r="AF235" s="7"/>
       <c r="AG235" s="7"/>
       <c r="AH235" s="7" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="AI235" s="7"/>
       <c r="AJ235" s="7" t="n">
@@ -22155,10 +22139,10 @@
         <v>562</v>
       </c>
       <c r="F236" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="G236" s="7" t="s">
         <v>690</v>
-      </c>
-      <c r="G236" s="7" t="s">
-        <v>691</v>
       </c>
       <c r="H236" s="7" t="s">
         <v>565</v>
@@ -22209,7 +22193,7 @@
         <v>219</v>
       </c>
       <c r="AL236" s="13" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="AM236" s="14" t="n">
         <v>303</v>
@@ -22232,10 +22216,10 @@
         <v>562</v>
       </c>
       <c r="F237" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="G237" s="7" t="s">
         <v>693</v>
-      </c>
-      <c r="G237" s="7" t="s">
-        <v>694</v>
       </c>
       <c r="H237" s="7" t="s">
         <v>92</v>
@@ -22313,10 +22297,10 @@
         <v>562</v>
       </c>
       <c r="F238" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="G238" s="7" t="s">
         <v>695</v>
-      </c>
-      <c r="G238" s="7" t="s">
-        <v>696</v>
       </c>
       <c r="H238" s="7" t="s">
         <v>575</v>
@@ -22341,7 +22325,7 @@
       <c r="T238" s="7"/>
       <c r="U238" s="7"/>
       <c r="V238" s="7" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="W238" s="7"/>
       <c r="X238" s="7" t="s">
@@ -22390,10 +22374,10 @@
         <v>562</v>
       </c>
       <c r="F239" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="G239" s="11" t="s">
         <v>697</v>
-      </c>
-      <c r="G239" s="11" t="s">
-        <v>698</v>
       </c>
       <c r="H239" s="7" t="s">
         <v>92</v>
@@ -22440,7 +22424,7 @@
       <c r="AF239" s="7"/>
       <c r="AG239" s="7"/>
       <c r="AH239" s="7" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AI239" s="7"/>
       <c r="AJ239" s="7" t="n">
@@ -22471,10 +22455,10 @@
         <v>562</v>
       </c>
       <c r="F240" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="G240" s="7" t="s">
         <v>700</v>
-      </c>
-      <c r="G240" s="7" t="s">
-        <v>701</v>
       </c>
       <c r="H240" s="7" t="s">
         <v>565</v>
@@ -22523,7 +22507,7 @@
         <v>223</v>
       </c>
       <c r="AL240" s="13" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AM240" s="14" t="n">
         <v>321</v>
@@ -22546,10 +22530,10 @@
         <v>562</v>
       </c>
       <c r="F241" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="G241" s="7" t="s">
         <v>703</v>
-      </c>
-      <c r="G241" s="7" t="s">
-        <v>704</v>
       </c>
       <c r="H241" s="7" t="s">
         <v>92</v>
@@ -22564,10 +22548,10 @@
         <v>570</v>
       </c>
       <c r="N241" s="11" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="O241" s="11" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="P241" s="11"/>
       <c r="Q241" s="11"/>
@@ -22625,10 +22609,10 @@
         <v>562</v>
       </c>
       <c r="F242" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="G242" s="7" t="s">
         <v>706</v>
-      </c>
-      <c r="G242" s="7" t="s">
-        <v>707</v>
       </c>
       <c r="H242" s="7" t="s">
         <v>575</v>
@@ -22653,7 +22637,7 @@
       <c r="T242" s="7"/>
       <c r="U242" s="7"/>
       <c r="V242" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W242" s="7"/>
       <c r="X242" s="7" t="s">
@@ -22700,10 +22684,10 @@
         <v>562</v>
       </c>
       <c r="F243" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="G243" s="7" t="s">
         <v>709</v>
-      </c>
-      <c r="G243" s="7" t="s">
-        <v>710</v>
       </c>
       <c r="H243" s="7" t="s">
         <v>606</v>
@@ -22750,7 +22734,7 @@
         <v>226</v>
       </c>
       <c r="AL243" s="13" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AM243" s="7" t="n">
         <v>223</v>
@@ -22773,10 +22757,10 @@
         <v>562</v>
       </c>
       <c r="F244" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="G244" s="7" t="s">
         <v>712</v>
-      </c>
-      <c r="G244" s="7" t="s">
-        <v>713</v>
       </c>
       <c r="H244" s="7" t="s">
         <v>580</v>
@@ -22819,7 +22803,7 @@
       <c r="AF244" s="7"/>
       <c r="AG244" s="7"/>
       <c r="AH244" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="AI244" s="7"/>
       <c r="AJ244" s="7" t="n">
@@ -22850,10 +22834,10 @@
         <v>562</v>
       </c>
       <c r="F245" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="G245" s="7" t="s">
         <v>715</v>
-      </c>
-      <c r="G245" s="7" t="s">
-        <v>716</v>
       </c>
       <c r="H245" s="7" t="s">
         <v>580</v>
@@ -22896,7 +22880,7 @@
       <c r="AF245" s="7"/>
       <c r="AG245" s="7"/>
       <c r="AH245" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AI245" s="7"/>
       <c r="AJ245" s="7" t="n">
@@ -22927,10 +22911,10 @@
         <v>562</v>
       </c>
       <c r="F246" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="G246" s="7" t="s">
         <v>718</v>
-      </c>
-      <c r="G246" s="7" t="s">
-        <v>719</v>
       </c>
       <c r="H246" s="7" t="s">
         <v>565</v>
@@ -22960,7 +22944,7 @@
       <c r="Y246" s="7"/>
       <c r="Z246" s="7"/>
       <c r="AA246" s="19" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AB246" s="7"/>
       <c r="AC246" s="7"/>
@@ -22981,7 +22965,7 @@
         <v>229</v>
       </c>
       <c r="AL246" s="13" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="AM246" s="15" t="n">
         <v>302</v>
@@ -23004,10 +22988,10 @@
         <v>562</v>
       </c>
       <c r="F247" s="7" t="s">
+        <v>721</v>
+      </c>
+      <c r="G247" s="7" t="s">
         <v>722</v>
-      </c>
-      <c r="G247" s="7" t="s">
-        <v>723</v>
       </c>
       <c r="H247" s="7" t="s">
         <v>92</v>
@@ -23045,7 +23029,7 @@
       <c r="Y247" s="7"/>
       <c r="Z247" s="7"/>
       <c r="AA247" s="19" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AB247" s="7"/>
       <c r="AC247" s="7"/>
@@ -23085,10 +23069,10 @@
         <v>562</v>
       </c>
       <c r="F248" s="7" t="s">
+        <v>723</v>
+      </c>
+      <c r="G248" s="7" t="s">
         <v>724</v>
-      </c>
-      <c r="G248" s="7" t="s">
-        <v>725</v>
       </c>
       <c r="H248" s="7" t="s">
         <v>575</v>
@@ -23113,7 +23097,7 @@
       <c r="T248" s="7"/>
       <c r="U248" s="7"/>
       <c r="V248" s="7" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="W248" s="7"/>
       <c r="X248" s="7" t="s">
@@ -23122,7 +23106,7 @@
       <c r="Y248" s="7"/>
       <c r="Z248" s="7"/>
       <c r="AA248" s="19" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AB248" s="7"/>
       <c r="AC248" s="7"/>
@@ -23162,10 +23146,10 @@
         <v>562</v>
       </c>
       <c r="F249" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="G249" s="7" t="s">
         <v>727</v>
-      </c>
-      <c r="G249" s="7" t="s">
-        <v>728</v>
       </c>
       <c r="H249" s="7" t="s">
         <v>580</v>
@@ -23175,7 +23159,7 @@
       <c r="K249" s="7"/>
       <c r="L249" s="7"/>
       <c r="M249" s="7" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="N249" s="11" t="s">
         <v>102</v>
@@ -23201,7 +23185,7 @@
       <c r="Y249" s="7"/>
       <c r="Z249" s="7"/>
       <c r="AA249" s="19" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AB249" s="7"/>
       <c r="AC249" s="7"/>
@@ -23212,7 +23196,7 @@
       <c r="AF249" s="7"/>
       <c r="AG249" s="7"/>
       <c r="AH249" s="7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AI249" s="7"/>
       <c r="AJ249" s="7" t="n">
@@ -23240,16 +23224,16 @@
         <v>582</v>
       </c>
       <c r="E250" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="F250" s="7" t="s">
         <v>731</v>
       </c>
-      <c r="F250" s="7" t="s">
+      <c r="G250" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G250" s="7" t="s">
+      <c r="H250" s="7" t="s">
         <v>733</v>
-      </c>
-      <c r="H250" s="7" t="s">
-        <v>734</v>
       </c>
       <c r="I250" s="7"/>
       <c r="J250" s="8" t="n">
@@ -23277,7 +23261,7 @@
       <c r="V250" s="7"/>
       <c r="W250" s="7"/>
       <c r="X250" s="7" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="Y250" s="7"/>
       <c r="Z250" s="7"/>
@@ -23285,7 +23269,7 @@
       <c r="AB250" s="7"/>
       <c r="AC250" s="7"/>
       <c r="AD250" s="7" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AE250" s="16" t="n">
         <v>0.0725</v>
@@ -23322,13 +23306,13 @@
         <v>587</v>
       </c>
       <c r="F251" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="G251" s="7" t="s">
         <v>737</v>
       </c>
-      <c r="G251" s="7" t="s">
+      <c r="H251" s="7" t="s">
         <v>738</v>
-      </c>
-      <c r="H251" s="7" t="s">
-        <v>739</v>
       </c>
       <c r="I251" s="7"/>
       <c r="J251" s="7" t="n">
@@ -23350,14 +23334,14 @@
       <c r="V251" s="7"/>
       <c r="W251" s="7"/>
       <c r="X251" s="7" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="Y251" s="7"/>
       <c r="Z251" s="7"/>
       <c r="AA251" s="19"/>
       <c r="AB251" s="7"/>
       <c r="AC251" s="7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="AD251" s="7" t="s">
         <v>97</v>
@@ -23376,7 +23360,7 @@
         <v>234</v>
       </c>
       <c r="AL251" s="13" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="AM251" s="23" t="n">
         <v>501</v>
@@ -23399,10 +23383,10 @@
         <v>587</v>
       </c>
       <c r="F252" s="7" t="s">
+        <v>741</v>
+      </c>
+      <c r="G252" s="7" t="s">
         <v>742</v>
-      </c>
-      <c r="G252" s="7" t="s">
-        <v>743</v>
       </c>
       <c r="H252" s="7" t="s">
         <v>92</v>
@@ -23433,14 +23417,14 @@
       <c r="V252" s="7"/>
       <c r="W252" s="7"/>
       <c r="X252" s="7" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="Y252" s="7"/>
       <c r="Z252" s="7"/>
       <c r="AA252" s="19"/>
       <c r="AB252" s="7"/>
       <c r="AC252" s="7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="AD252" s="7" t="s">
         <v>97</v>
@@ -23478,10 +23462,10 @@
         <v>587</v>
       </c>
       <c r="F253" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="G253" s="7" t="s">
         <v>744</v>
-      </c>
-      <c r="G253" s="7" t="s">
-        <v>745</v>
       </c>
       <c r="H253" s="7" t="s">
         <v>92</v>
@@ -23493,7 +23477,7 @@
       <c r="K253" s="7"/>
       <c r="L253" s="7"/>
       <c r="M253" s="7" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="N253" s="11" t="s">
         <v>102</v>
@@ -23512,14 +23496,14 @@
       <c r="V253" s="7"/>
       <c r="W253" s="7"/>
       <c r="X253" s="7" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="Y253" s="7"/>
       <c r="Z253" s="7"/>
       <c r="AA253" s="19"/>
       <c r="AB253" s="7"/>
       <c r="AC253" s="7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="AD253" s="7" t="s">
         <v>97</v>
@@ -23557,10 +23541,10 @@
         <v>587</v>
       </c>
       <c r="F254" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="G254" s="7" t="s">
         <v>746</v>
-      </c>
-      <c r="G254" s="7" t="s">
-        <v>747</v>
       </c>
       <c r="H254" s="7" t="s">
         <v>92</v>
@@ -23591,14 +23575,14 @@
       <c r="V254" s="7"/>
       <c r="W254" s="7"/>
       <c r="X254" s="7" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="Y254" s="7"/>
       <c r="Z254" s="7"/>
       <c r="AA254" s="19"/>
       <c r="AB254" s="7"/>
       <c r="AC254" s="7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="AD254" s="7" t="s">
         <v>97</v>
@@ -23636,10 +23620,10 @@
         <v>587</v>
       </c>
       <c r="F255" s="7" t="s">
+        <v>747</v>
+      </c>
+      <c r="G255" s="7" t="s">
         <v>748</v>
-      </c>
-      <c r="G255" s="7" t="s">
-        <v>749</v>
       </c>
       <c r="H255" s="7" t="s">
         <v>92</v>
@@ -23670,14 +23654,14 @@
       <c r="V255" s="7"/>
       <c r="W255" s="7"/>
       <c r="X255" s="7" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="Y255" s="7"/>
       <c r="Z255" s="7"/>
       <c r="AA255" s="19"/>
       <c r="AB255" s="7"/>
       <c r="AC255" s="7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="AD255" s="7" t="s">
         <v>97</v>
@@ -23715,10 +23699,10 @@
         <v>587</v>
       </c>
       <c r="F256" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="G256" s="7" t="s">
         <v>750</v>
-      </c>
-      <c r="G256" s="7" t="s">
-        <v>751</v>
       </c>
       <c r="H256" s="7" t="s">
         <v>92</v>
@@ -23749,14 +23733,14 @@
       <c r="V256" s="7"/>
       <c r="W256" s="7"/>
       <c r="X256" s="7" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="Y256" s="7"/>
       <c r="Z256" s="7"/>
       <c r="AA256" s="19"/>
       <c r="AB256" s="7"/>
       <c r="AC256" s="7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="AD256" s="7" t="s">
         <v>97</v>
@@ -23794,10 +23778,10 @@
         <v>587</v>
       </c>
       <c r="F257" s="7" t="s">
+        <v>751</v>
+      </c>
+      <c r="G257" s="7" t="s">
         <v>752</v>
-      </c>
-      <c r="G257" s="7" t="s">
-        <v>753</v>
       </c>
       <c r="H257" s="7" t="s">
         <v>92</v>
@@ -23809,7 +23793,7 @@
       <c r="K257" s="7"/>
       <c r="L257" s="7"/>
       <c r="M257" s="7" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="N257" s="11" t="s">
         <v>138</v>
@@ -23828,14 +23812,14 @@
       <c r="V257" s="7"/>
       <c r="W257" s="7"/>
       <c r="X257" s="7" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="Y257" s="7"/>
       <c r="Z257" s="7"/>
       <c r="AA257" s="19"/>
       <c r="AB257" s="7"/>
       <c r="AC257" s="7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="AD257" s="7" t="s">
         <v>97</v>
@@ -23873,10 +23857,10 @@
         <v>587</v>
       </c>
       <c r="F258" s="7" t="s">
+        <v>754</v>
+      </c>
+      <c r="G258" s="7" t="s">
         <v>755</v>
-      </c>
-      <c r="G258" s="7" t="s">
-        <v>756</v>
       </c>
       <c r="H258" s="7" t="s">
         <v>92</v>
@@ -23907,14 +23891,14 @@
       <c r="V258" s="7"/>
       <c r="W258" s="7"/>
       <c r="X258" s="7" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="Y258" s="7"/>
       <c r="Z258" s="7"/>
       <c r="AA258" s="19"/>
       <c r="AB258" s="7"/>
       <c r="AC258" s="7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="AD258" s="7" t="s">
         <v>97</v>
@@ -23952,10 +23936,10 @@
         <v>587</v>
       </c>
       <c r="F259" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="G259" s="7" t="s">
         <v>757</v>
-      </c>
-      <c r="G259" s="7" t="s">
-        <v>758</v>
       </c>
       <c r="H259" s="7" t="s">
         <v>92</v>
@@ -23986,14 +23970,14 @@
       <c r="V259" s="7"/>
       <c r="W259" s="7"/>
       <c r="X259" s="7" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="Y259" s="7"/>
       <c r="Z259" s="7"/>
       <c r="AA259" s="19"/>
       <c r="AB259" s="7"/>
       <c r="AC259" s="7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="AD259" s="7" t="s">
         <v>97</v>
@@ -24028,16 +24012,16 @@
         <v>41</v>
       </c>
       <c r="E260" s="7" t="s">
+        <v>758</v>
+      </c>
+      <c r="F260" s="7" t="s">
         <v>759</v>
       </c>
-      <c r="F260" s="7" t="s">
+      <c r="G260" s="7" t="s">
         <v>760</v>
       </c>
-      <c r="G260" s="7" t="s">
-        <v>761</v>
-      </c>
       <c r="H260" s="7" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I260" s="7"/>
       <c r="J260" s="8" t="n">
@@ -24065,7 +24049,7 @@
       <c r="V260" s="7"/>
       <c r="W260" s="7"/>
       <c r="X260" s="7" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="Y260" s="7"/>
       <c r="Z260" s="7"/>
@@ -24073,7 +24057,7 @@
       <c r="AB260" s="7"/>
       <c r="AC260" s="7"/>
       <c r="AD260" s="7" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AE260" s="16" t="n">
         <v>0.0625</v>
@@ -24110,13 +24094,13 @@
         <v>587</v>
       </c>
       <c r="F261" s="7" t="s">
+        <v>761</v>
+      </c>
+      <c r="G261" s="7" t="s">
         <v>762</v>
       </c>
-      <c r="G261" s="7" t="s">
-        <v>763</v>
-      </c>
       <c r="H261" s="7" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="I261" s="7"/>
       <c r="J261" s="7" t="n">
@@ -24138,14 +24122,14 @@
       <c r="V261" s="7"/>
       <c r="W261" s="7"/>
       <c r="X261" s="7" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="Y261" s="7"/>
       <c r="Z261" s="7"/>
       <c r="AA261" s="19"/>
       <c r="AB261" s="7"/>
       <c r="AC261" s="7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="AD261" s="7" t="s">
         <v>97</v>
@@ -24164,7 +24148,7 @@
         <v>244</v>
       </c>
       <c r="AL261" s="13" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="AM261" s="23" t="n">
         <v>502</v>
@@ -24187,10 +24171,10 @@
         <v>587</v>
       </c>
       <c r="F262" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="G262" s="7" t="s">
         <v>765</v>
-      </c>
-      <c r="G262" s="7" t="s">
-        <v>766</v>
       </c>
       <c r="H262" s="7" t="s">
         <v>92</v>
@@ -24221,14 +24205,14 @@
       <c r="V262" s="7"/>
       <c r="W262" s="7"/>
       <c r="X262" s="7" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="Y262" s="7"/>
       <c r="Z262" s="7"/>
       <c r="AA262" s="19"/>
       <c r="AB262" s="7"/>
       <c r="AC262" s="7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="AD262" s="7" t="s">
         <v>97</v>
@@ -24266,10 +24250,10 @@
         <v>587</v>
       </c>
       <c r="F263" s="7" t="s">
+        <v>766</v>
+      </c>
+      <c r="G263" s="7" t="s">
         <v>767</v>
-      </c>
-      <c r="G263" s="7" t="s">
-        <v>768</v>
       </c>
       <c r="H263" s="7" t="s">
         <v>92</v>
@@ -24300,14 +24284,14 @@
       <c r="V263" s="7"/>
       <c r="W263" s="7"/>
       <c r="X263" s="7" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="Y263" s="7"/>
       <c r="Z263" s="7"/>
       <c r="AA263" s="19"/>
       <c r="AB263" s="7"/>
       <c r="AC263" s="7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="AD263" s="7" t="s">
         <v>97</v>
@@ -24345,10 +24329,10 @@
         <v>587</v>
       </c>
       <c r="F264" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="G264" s="7" t="s">
         <v>769</v>
-      </c>
-      <c r="G264" s="7" t="s">
-        <v>770</v>
       </c>
       <c r="H264" s="7" t="s">
         <v>92</v>
@@ -24379,14 +24363,14 @@
       <c r="V264" s="7"/>
       <c r="W264" s="7"/>
       <c r="X264" s="7" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="Y264" s="7"/>
       <c r="Z264" s="7"/>
       <c r="AA264" s="19"/>
       <c r="AB264" s="7"/>
       <c r="AC264" s="7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="AD264" s="7" t="s">
         <v>97</v>
@@ -24424,10 +24408,10 @@
         <v>587</v>
       </c>
       <c r="F265" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="G265" s="7" t="s">
         <v>771</v>
-      </c>
-      <c r="G265" s="7" t="s">
-        <v>772</v>
       </c>
       <c r="H265" s="7" t="s">
         <v>92</v>
@@ -24458,14 +24442,14 @@
       <c r="V265" s="7"/>
       <c r="W265" s="7"/>
       <c r="X265" s="7" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="Y265" s="7"/>
       <c r="Z265" s="7"/>
       <c r="AA265" s="19"/>
       <c r="AB265" s="7"/>
       <c r="AC265" s="7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="AD265" s="7" t="s">
         <v>97</v>
@@ -24503,10 +24487,10 @@
         <v>587</v>
       </c>
       <c r="F266" s="7" t="s">
+        <v>772</v>
+      </c>
+      <c r="G266" s="7" t="s">
         <v>773</v>
-      </c>
-      <c r="G266" s="7" t="s">
-        <v>774</v>
       </c>
       <c r="H266" s="7" t="s">
         <v>92</v>
@@ -24537,14 +24521,14 @@
       <c r="V266" s="7"/>
       <c r="W266" s="7"/>
       <c r="X266" s="7" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="Y266" s="7"/>
       <c r="Z266" s="7"/>
       <c r="AA266" s="19"/>
       <c r="AB266" s="7"/>
       <c r="AC266" s="7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="AD266" s="7" t="s">
         <v>97</v>
@@ -24579,16 +24563,16 @@
         <v>41</v>
       </c>
       <c r="E267" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="F267" s="7" t="s">
         <v>775</v>
       </c>
-      <c r="F267" s="7" t="s">
+      <c r="G267" s="7" t="s">
         <v>776</v>
       </c>
-      <c r="G267" s="7" t="s">
-        <v>777</v>
-      </c>
       <c r="H267" s="7" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I267" s="7"/>
       <c r="J267" s="8" t="n">
@@ -24600,10 +24584,10 @@
         <v>570</v>
       </c>
       <c r="N267" s="11" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="O267" s="11" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="P267" s="11"/>
       <c r="Q267" s="7"/>
@@ -24616,7 +24600,7 @@
       <c r="V267" s="7"/>
       <c r="W267" s="7"/>
       <c r="X267" s="7" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="Y267" s="7"/>
       <c r="Z267" s="7"/>
@@ -24624,7 +24608,7 @@
       <c r="AB267" s="7"/>
       <c r="AC267" s="7"/>
       <c r="AD267" s="7" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AE267" s="16" t="n">
         <v>0.0225</v>
@@ -24661,13 +24645,13 @@
         <v>587</v>
       </c>
       <c r="F268" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="G268" s="7" t="s">
         <v>779</v>
       </c>
-      <c r="G268" s="7" t="s">
-        <v>780</v>
-      </c>
       <c r="H268" s="7" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="I268" s="7"/>
       <c r="J268" s="7" t="n">
@@ -24689,14 +24673,14 @@
       <c r="V268" s="7"/>
       <c r="W268" s="7"/>
       <c r="X268" s="7" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="Y268" s="7"/>
       <c r="Z268" s="7"/>
       <c r="AA268" s="19"/>
       <c r="AB268" s="7"/>
       <c r="AC268" s="7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="AD268" s="7" t="s">
         <v>97</v>
@@ -24738,7 +24722,7 @@
         <v>587</v>
       </c>
       <c r="F269" s="7" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G269" s="7" t="s">
         <v>197</v>
@@ -24772,14 +24756,14 @@
       <c r="V269" s="7"/>
       <c r="W269" s="7"/>
       <c r="X269" s="7" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="Y269" s="7"/>
       <c r="Z269" s="7"/>
       <c r="AA269" s="19"/>
       <c r="AB269" s="7"/>
       <c r="AC269" s="7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="AD269" s="7" t="s">
         <v>97</v>
@@ -24814,16 +24798,16 @@
         <v>41</v>
       </c>
       <c r="E270" s="7" t="s">
+        <v>781</v>
+      </c>
+      <c r="F270" s="7" t="s">
         <v>782</v>
       </c>
-      <c r="F270" s="7" t="s">
+      <c r="G270" s="7" t="s">
         <v>783</v>
       </c>
-      <c r="G270" s="7" t="s">
-        <v>784</v>
-      </c>
       <c r="H270" s="7" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I270" s="7"/>
       <c r="J270" s="8" t="n">
@@ -24835,10 +24819,10 @@
         <v>570</v>
       </c>
       <c r="N270" s="11" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="O270" s="11" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="P270" s="11"/>
       <c r="Q270" s="7"/>
@@ -24851,7 +24835,7 @@
       <c r="V270" s="7"/>
       <c r="W270" s="7"/>
       <c r="X270" s="7" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="Y270" s="7"/>
       <c r="Z270" s="7"/>
@@ -24859,7 +24843,7 @@
       <c r="AB270" s="7"/>
       <c r="AC270" s="7"/>
       <c r="AD270" s="7" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AE270" s="16" t="n">
         <v>0.0425</v>
@@ -24896,13 +24880,13 @@
         <v>587</v>
       </c>
       <c r="F271" s="7" t="s">
+        <v>785</v>
+      </c>
+      <c r="G271" s="7" t="s">
         <v>786</v>
       </c>
-      <c r="G271" s="7" t="s">
-        <v>787</v>
-      </c>
       <c r="H271" s="7" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="I271" s="7"/>
       <c r="J271" s="7" t="n">
@@ -24924,14 +24908,14 @@
       <c r="V271" s="7"/>
       <c r="W271" s="7"/>
       <c r="X271" s="7" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="Y271" s="7"/>
       <c r="Z271" s="7"/>
       <c r="AA271" s="19"/>
       <c r="AB271" s="7"/>
       <c r="AC271" s="7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="AD271" s="7" t="s">
         <v>97</v>
@@ -24950,7 +24934,7 @@
         <v>254</v>
       </c>
       <c r="AL271" s="13" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="AM271" s="23" t="n">
         <v>504</v>
@@ -24973,10 +24957,10 @@
         <v>587</v>
       </c>
       <c r="F272" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="G272" s="7" t="s">
         <v>789</v>
-      </c>
-      <c r="G272" s="7" t="s">
-        <v>790</v>
       </c>
       <c r="H272" s="7" t="s">
         <v>92</v>
@@ -24991,7 +24975,7 @@
         <v>277</v>
       </c>
       <c r="N272" s="11" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="O272" s="11"/>
       <c r="P272" s="11"/>
@@ -25007,14 +24991,14 @@
       <c r="V272" s="7"/>
       <c r="W272" s="7"/>
       <c r="X272" s="7" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="Y272" s="7"/>
       <c r="Z272" s="7"/>
       <c r="AA272" s="19"/>
       <c r="AB272" s="7"/>
       <c r="AC272" s="7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="AD272" s="7" t="s">
         <v>97</v>
@@ -25052,10 +25036,10 @@
         <v>587</v>
       </c>
       <c r="F273" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="G273" s="7" t="s">
         <v>792</v>
-      </c>
-      <c r="G273" s="7" t="s">
-        <v>793</v>
       </c>
       <c r="H273" s="7" t="s">
         <v>92</v>
@@ -25086,14 +25070,14 @@
       <c r="V273" s="7"/>
       <c r="W273" s="7"/>
       <c r="X273" s="7" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="Y273" s="7"/>
       <c r="Z273" s="7"/>
       <c r="AA273" s="19"/>
       <c r="AB273" s="7"/>
       <c r="AC273" s="7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="AD273" s="7" t="s">
         <v>97</v>
@@ -25128,16 +25112,16 @@
         <v>41</v>
       </c>
       <c r="E274" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="F274" s="7" t="s">
         <v>794</v>
       </c>
-      <c r="F274" s="7" t="s">
+      <c r="G274" s="7" t="s">
         <v>795</v>
       </c>
-      <c r="G274" s="7" t="s">
-        <v>796</v>
-      </c>
       <c r="H274" s="7" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I274" s="7"/>
       <c r="J274" s="8" t="n">
@@ -25149,10 +25133,10 @@
         <v>570</v>
       </c>
       <c r="N274" s="11" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="O274" s="11" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="P274" s="11"/>
       <c r="Q274" s="7"/>
@@ -25165,7 +25149,7 @@
       <c r="V274" s="7"/>
       <c r="W274" s="7"/>
       <c r="X274" s="7" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="Y274" s="7"/>
       <c r="Z274" s="7"/>
@@ -25173,7 +25157,7 @@
       <c r="AB274" s="7"/>
       <c r="AC274" s="7"/>
       <c r="AD274" s="7" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AE274" s="16" t="n">
         <v>0.04</v>
@@ -25207,16 +25191,16 @@
         <v>41</v>
       </c>
       <c r="E275" s="7" t="s">
+        <v>796</v>
+      </c>
+      <c r="F275" s="7" t="s">
         <v>797</v>
       </c>
-      <c r="F275" s="7" t="s">
+      <c r="G275" s="7" t="s">
         <v>798</v>
       </c>
-      <c r="G275" s="7" t="s">
+      <c r="H275" s="7" t="s">
         <v>799</v>
-      </c>
-      <c r="H275" s="7" t="s">
-        <v>800</v>
       </c>
       <c r="I275" s="7"/>
       <c r="J275" s="7"/>
@@ -25228,7 +25212,7 @@
       <c r="P275" s="11"/>
       <c r="Q275" s="11"/>
       <c r="R275" s="7" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="S275" s="7"/>
       <c r="T275" s="7"/>
@@ -25242,7 +25226,7 @@
       <c r="AB275" s="7"/>
       <c r="AC275" s="7"/>
       <c r="AD275" s="7" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AE275" s="16" t="n">
         <v>0.065</v>
@@ -25250,7 +25234,7 @@
       <c r="AF275" s="7"/>
       <c r="AG275" s="7"/>
       <c r="AH275" s="7" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="AI275" s="7"/>
       <c r="AJ275" s="7" t="n">
@@ -25260,7 +25244,7 @@
         <v>258</v>
       </c>
       <c r="AL275" s="13" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="AM275" s="14" t="n">
         <v>311</v>
@@ -25280,16 +25264,16 @@
         <v>41</v>
       </c>
       <c r="E276" s="7" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F276" s="7" t="s">
+        <v>803</v>
+      </c>
+      <c r="G276" s="7" t="s">
         <v>804</v>
       </c>
-      <c r="G276" s="7" t="s">
+      <c r="H276" s="7" t="s">
         <v>805</v>
-      </c>
-      <c r="H276" s="7" t="s">
-        <v>806</v>
       </c>
       <c r="I276" s="7"/>
       <c r="J276" s="7" t="n">
@@ -25303,21 +25287,21 @@
         <v>570</v>
       </c>
       <c r="N276" s="11" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="O276" s="11"/>
       <c r="P276" s="11"/>
       <c r="Q276" s="11"/>
       <c r="R276" s="7"/>
       <c r="S276" s="7" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="T276" s="7"/>
       <c r="U276" s="7"/>
       <c r="V276" s="7"/>
       <c r="W276" s="7"/>
       <c r="X276" s="25" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="Y276" s="7"/>
       <c r="Z276" s="7"/>
@@ -25357,16 +25341,16 @@
         <v>41</v>
       </c>
       <c r="E277" s="7" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F277" s="7" t="s">
+        <v>807</v>
+      </c>
+      <c r="G277" s="7" t="s">
         <v>808</v>
       </c>
-      <c r="G277" s="7" t="s">
+      <c r="H277" s="7" t="s">
         <v>809</v>
-      </c>
-      <c r="H277" s="7" t="s">
-        <v>810</v>
       </c>
       <c r="I277" s="7"/>
       <c r="J277" s="7" t="n">
@@ -25378,21 +25362,21 @@
         <v>570</v>
       </c>
       <c r="N277" s="11" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="O277" s="11"/>
       <c r="P277" s="11"/>
       <c r="Q277" s="11"/>
       <c r="R277" s="7"/>
       <c r="S277" s="7" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="T277" s="7"/>
       <c r="U277" s="7"/>
       <c r="V277" s="7"/>
       <c r="W277" s="7"/>
       <c r="X277" s="25" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="Y277" s="7"/>
       <c r="Z277" s="7"/>
@@ -25435,10 +25419,10 @@
         <v>587</v>
       </c>
       <c r="F278" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="G278" s="7" t="s">
         <v>812</v>
-      </c>
-      <c r="G278" s="7" t="s">
-        <v>813</v>
       </c>
       <c r="H278" s="7" t="s">
         <v>575</v>
@@ -25456,16 +25440,16 @@
       <c r="Q278" s="11"/>
       <c r="R278" s="7"/>
       <c r="S278" s="7" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="T278" s="7"/>
       <c r="U278" s="7"/>
       <c r="V278" s="7" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="W278" s="7"/>
       <c r="X278" s="7" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="Y278" s="7"/>
       <c r="Z278" s="7"/>
@@ -25481,10 +25465,10 @@
       <c r="AF278" s="7"/>
       <c r="AG278" s="7"/>
       <c r="AH278" s="7" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="AI278" s="7" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="AJ278" s="7" t="n">
         <v>2</v>
@@ -25514,13 +25498,13 @@
         <v>587</v>
       </c>
       <c r="F279" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="G279" s="7" t="s">
         <v>817</v>
       </c>
-      <c r="G279" s="7" t="s">
+      <c r="H279" s="27" t="s">
         <v>818</v>
-      </c>
-      <c r="H279" s="27" t="s">
-        <v>819</v>
       </c>
       <c r="I279" s="7"/>
       <c r="J279" s="7"/>
@@ -25534,21 +25518,21 @@
         <v>570</v>
       </c>
       <c r="N279" s="11" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="O279" s="11"/>
       <c r="P279" s="11"/>
       <c r="Q279" s="11"/>
       <c r="R279" s="7"/>
       <c r="S279" s="7" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="T279" s="7"/>
       <c r="U279" s="7"/>
       <c r="V279" s="7"/>
       <c r="W279" s="7"/>
       <c r="X279" s="7" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="Y279" s="7"/>
       <c r="Z279" s="7"/>
@@ -25564,10 +25548,10 @@
       <c r="AF279" s="7"/>
       <c r="AG279" s="7"/>
       <c r="AH279" s="7" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="AI279" s="7" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="AJ279" s="7" t="n">
         <v>2</v>
@@ -25597,10 +25581,10 @@
         <v>587</v>
       </c>
       <c r="F280" s="7" t="s">
+        <v>819</v>
+      </c>
+      <c r="G280" s="7" t="s">
         <v>820</v>
-      </c>
-      <c r="G280" s="7" t="s">
-        <v>821</v>
       </c>
       <c r="H280" s="7" t="s">
         <v>87</v>
@@ -25623,7 +25607,7 @@
       <c r="V280" s="7"/>
       <c r="W280" s="7"/>
       <c r="X280" s="7" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="Y280" s="7"/>
       <c r="Z280" s="7"/>
@@ -25631,7 +25615,7 @@
       <c r="AB280" s="7"/>
       <c r="AC280" s="7"/>
       <c r="AD280" s="7" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AE280" s="16" t="n">
         <v>0.01625</v>
@@ -25641,10 +25625,10 @@
         <v>1</v>
       </c>
       <c r="AH280" s="7" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="AI280" s="7" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="AJ280" s="7" t="n">
         <v>2</v>
@@ -25653,7 +25637,7 @@
         <v>263</v>
       </c>
       <c r="AL280" s="13" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="AM280" s="26" t="n">
         <v>312</v>
@@ -25674,10 +25658,10 @@
       </c>
       <c r="E281" s="7"/>
       <c r="F281" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="G281" s="7" t="s">
         <v>824</v>
-      </c>
-      <c r="G281" s="7" t="s">
-        <v>825</v>
       </c>
       <c r="H281" s="7" t="s">
         <v>87</v>
@@ -25700,7 +25684,7 @@
       <c r="V281" s="7"/>
       <c r="W281" s="7"/>
       <c r="X281" s="7" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="Y281" s="7"/>
       <c r="Z281" s="7"/>
@@ -25714,10 +25698,10 @@
       <c r="AF281" s="28"/>
       <c r="AG281" s="7"/>
       <c r="AH281" s="7" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="AI281" s="7" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="AJ281" s="7" t="n">
         <v>3</v>
@@ -25726,7 +25710,7 @@
         <v>264</v>
       </c>
       <c r="AL281" s="13" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="AM281" s="7" t="n">
         <v>263</v>
@@ -25747,13 +25731,13 @@
       </c>
       <c r="E282" s="7"/>
       <c r="F282" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="G282" s="7" t="s">
         <v>827</v>
       </c>
-      <c r="G282" s="7" t="s">
-        <v>828</v>
-      </c>
       <c r="H282" s="7" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I282" s="7"/>
       <c r="J282" s="7" t="n">
@@ -25762,47 +25746,47 @@
       <c r="K282" s="7"/>
       <c r="L282" s="7"/>
       <c r="M282" s="7" t="s">
+        <v>828</v>
+      </c>
+      <c r="N282" s="11" t="s">
         <v>829</v>
-      </c>
-      <c r="N282" s="11" t="s">
-        <v>830</v>
       </c>
       <c r="O282" s="11"/>
       <c r="P282" s="11"/>
       <c r="Q282" s="11" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="R282" s="7" t="s">
         <v>93</v>
       </c>
       <c r="S282" s="14" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="T282" s="7"/>
       <c r="U282" s="7"/>
       <c r="V282" s="7"/>
       <c r="W282" s="7"/>
       <c r="X282" s="7" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="Y282" s="7" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="Z282" s="7"/>
       <c r="AA282" s="7"/>
       <c r="AB282" s="7"/>
       <c r="AC282" s="7"/>
       <c r="AD282" s="7" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AE282" s="10"/>
       <c r="AF282" s="7"/>
       <c r="AG282" s="7"/>
       <c r="AH282" s="7" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="AI282" s="7" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="AJ282" s="7" t="n">
         <v>4</v>
@@ -25830,13 +25814,13 @@
       </c>
       <c r="E283" s="7"/>
       <c r="F283" s="7" t="s">
+        <v>832</v>
+      </c>
+      <c r="G283" s="7" t="s">
         <v>833</v>
       </c>
-      <c r="G283" s="7" t="s">
-        <v>834</v>
-      </c>
       <c r="H283" s="7" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I283" s="7"/>
       <c r="J283" s="7" t="n">
@@ -25845,47 +25829,47 @@
       <c r="K283" s="7"/>
       <c r="L283" s="7"/>
       <c r="M283" s="7" t="s">
+        <v>828</v>
+      </c>
+      <c r="N283" s="11" t="s">
         <v>829</v>
-      </c>
-      <c r="N283" s="11" t="s">
-        <v>830</v>
       </c>
       <c r="O283" s="11"/>
       <c r="P283" s="11"/>
       <c r="Q283" s="11" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="R283" s="7" t="s">
         <v>93</v>
       </c>
       <c r="S283" s="14" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="T283" s="7"/>
       <c r="U283" s="7"/>
       <c r="V283" s="7"/>
       <c r="W283" s="7"/>
       <c r="X283" s="7" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="Y283" s="7" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="Z283" s="7"/>
       <c r="AA283" s="7"/>
       <c r="AB283" s="7"/>
       <c r="AC283" s="7"/>
       <c r="AD283" s="7" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AE283" s="10"/>
       <c r="AF283" s="7"/>
       <c r="AG283" s="7"/>
       <c r="AH283" s="7" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="AI283" s="7" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="AJ283" s="7" t="n">
         <v>4</v>
@@ -25913,13 +25897,13 @@
       </c>
       <c r="E284" s="7"/>
       <c r="F284" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="G284" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="G284" s="7" t="s">
-        <v>837</v>
-      </c>
       <c r="H284" s="7" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="I284" s="7"/>
       <c r="J284" s="7" t="n">
@@ -25941,7 +25925,7 @@
       <c r="V284" s="7"/>
       <c r="W284" s="7"/>
       <c r="X284" s="7" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="Y284" s="7"/>
       <c r="Z284" s="7"/>
@@ -25949,16 +25933,16 @@
       <c r="AB284" s="7"/>
       <c r="AC284" s="7"/>
       <c r="AD284" s="7" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AE284" s="10"/>
       <c r="AF284" s="7"/>
       <c r="AG284" s="7"/>
       <c r="AH284" s="7" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="AI284" s="7" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="AJ284" s="7" t="n">
         <v>3</v>
@@ -25967,7 +25951,7 @@
         <v>267</v>
       </c>
       <c r="AL284" s="13" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="AM284" s="7" t="n">
         <v>263</v>
@@ -25988,10 +25972,10 @@
       </c>
       <c r="E285" s="7"/>
       <c r="F285" s="7" t="s">
+        <v>838</v>
+      </c>
+      <c r="G285" s="7" t="s">
         <v>839</v>
-      </c>
-      <c r="G285" s="7" t="s">
-        <v>840</v>
       </c>
       <c r="H285" s="7" t="s">
         <v>92</v>
@@ -26003,35 +25987,35 @@
       <c r="K285" s="7"/>
       <c r="L285" s="7"/>
       <c r="M285" s="7" t="s">
+        <v>828</v>
+      </c>
+      <c r="N285" s="11" t="s">
         <v>829</v>
-      </c>
-      <c r="N285" s="11" t="s">
-        <v>830</v>
       </c>
       <c r="O285" s="11"/>
       <c r="P285" s="11"/>
       <c r="Q285" s="11" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="R285" s="7" t="s">
         <v>93</v>
       </c>
       <c r="S285" s="14" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="T285" s="7"/>
       <c r="U285" s="7"/>
       <c r="V285" s="7"/>
       <c r="W285" s="7"/>
       <c r="X285" s="7" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="Y285" s="7"/>
       <c r="Z285" s="7"/>
       <c r="AA285" s="7"/>
       <c r="AB285" s="7"/>
       <c r="AC285" s="7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="AD285" s="7" t="s">
         <v>97</v>
@@ -26040,10 +26024,10 @@
       <c r="AF285" s="7"/>
       <c r="AG285" s="7"/>
       <c r="AH285" s="7" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="AI285" s="7" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="AJ285" s="7" t="n">
         <v>4</v>
@@ -26069,12 +26053,12 @@
       <c r="D286" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E286" s="7"/>
+      <c r="E286" s="0"/>
       <c r="F286" s="7" t="s">
+        <v>840</v>
+      </c>
+      <c r="G286" s="7" t="s">
         <v>841</v>
-      </c>
-      <c r="G286" s="7" t="s">
-        <v>842</v>
       </c>
       <c r="H286" s="7" t="s">
         <v>92</v>
@@ -26086,35 +26070,35 @@
       <c r="K286" s="7"/>
       <c r="L286" s="7"/>
       <c r="M286" s="7" t="s">
+        <v>842</v>
+      </c>
+      <c r="N286" s="11" t="s">
         <v>843</v>
-      </c>
-      <c r="N286" s="11" t="s">
-        <v>844</v>
       </c>
       <c r="O286" s="11"/>
       <c r="P286" s="11"/>
       <c r="Q286" s="11" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="R286" s="7" t="s">
         <v>93</v>
       </c>
       <c r="S286" s="14" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="T286" s="7"/>
       <c r="U286" s="7"/>
       <c r="V286" s="7"/>
       <c r="W286" s="7"/>
       <c r="X286" s="7" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="Y286" s="7"/>
       <c r="Z286" s="7"/>
       <c r="AA286" s="7"/>
       <c r="AB286" s="7"/>
       <c r="AC286" s="7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="AD286" s="7" t="s">
         <v>97</v>
@@ -26123,10 +26107,10 @@
       <c r="AF286" s="7"/>
       <c r="AG286" s="7"/>
       <c r="AH286" s="7" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="AI286" s="7" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="AJ286" s="7" t="n">
         <v>4</v>
@@ -26154,13 +26138,13 @@
       </c>
       <c r="E287" s="7"/>
       <c r="F287" s="7" t="s">
+        <v>844</v>
+      </c>
+      <c r="G287" s="7" t="s">
         <v>845</v>
       </c>
-      <c r="G287" s="7" t="s">
+      <c r="H287" s="27" t="s">
         <v>846</v>
-      </c>
-      <c r="H287" s="27" t="s">
-        <v>847</v>
       </c>
       <c r="I287" s="7"/>
       <c r="J287" s="7" t="n">
@@ -26172,7 +26156,7 @@
         <v>570</v>
       </c>
       <c r="N287" s="11" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="O287" s="11"/>
       <c r="P287" s="11"/>
@@ -26181,14 +26165,14 @@
         <v>93</v>
       </c>
       <c r="S287" s="14" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="T287" s="7"/>
       <c r="U287" s="7"/>
       <c r="V287" s="7"/>
       <c r="W287" s="7"/>
       <c r="X287" s="7" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="Y287" s="7"/>
       <c r="Z287" s="7"/>
@@ -26202,10 +26186,10 @@
       <c r="AF287" s="7"/>
       <c r="AG287" s="7"/>
       <c r="AH287" s="7" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="AI287" s="7" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="AJ287" s="7" t="n">
         <v>3</v>
@@ -26235,13 +26219,13 @@
         <v>587</v>
       </c>
       <c r="F288" s="7" t="s">
+        <v>847</v>
+      </c>
+      <c r="G288" s="7" t="s">
         <v>848</v>
       </c>
-      <c r="G288" s="7" t="s">
+      <c r="H288" s="7" t="s">
         <v>849</v>
-      </c>
-      <c r="H288" s="7" t="s">
-        <v>850</v>
       </c>
       <c r="I288" s="7"/>
       <c r="J288" s="7"/>
@@ -26249,21 +26233,21 @@
       <c r="L288" s="7"/>
       <c r="M288" s="7"/>
       <c r="N288" s="11" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="O288" s="11"/>
       <c r="P288" s="11"/>
       <c r="Q288" s="11"/>
       <c r="R288" s="7"/>
       <c r="S288" s="7" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="T288" s="7"/>
       <c r="U288" s="7"/>
       <c r="V288" s="7"/>
       <c r="W288" s="7"/>
       <c r="X288" s="7" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="Y288" s="7"/>
       <c r="Z288" s="7"/>
@@ -26271,7 +26255,7 @@
       <c r="AB288" s="7"/>
       <c r="AC288" s="7"/>
       <c r="AD288" s="7" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AE288" s="16" t="n">
         <v>0.01625</v>
@@ -26279,10 +26263,10 @@
       <c r="AF288" s="7"/>
       <c r="AG288" s="7"/>
       <c r="AH288" s="7" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="AI288" s="7" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="AJ288" s="7" t="n">
         <v>2</v>
@@ -26312,13 +26296,13 @@
         <v>587</v>
       </c>
       <c r="F289" s="7" t="s">
+        <v>850</v>
+      </c>
+      <c r="G289" s="7" t="s">
         <v>851</v>
       </c>
-      <c r="G289" s="7" t="s">
-        <v>852</v>
-      </c>
       <c r="H289" s="7" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="I289" s="7"/>
       <c r="J289" s="7" t="n">
@@ -26340,7 +26324,7 @@
       <c r="V289" s="7"/>
       <c r="W289" s="7"/>
       <c r="X289" s="25" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="Y289" s="7"/>
       <c r="Z289" s="7"/>
@@ -26348,7 +26332,7 @@
       <c r="AB289" s="7"/>
       <c r="AC289" s="7"/>
       <c r="AD289" s="7" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AE289" s="16" t="n">
         <v>0.03</v>
@@ -26367,7 +26351,7 @@
         <v>273</v>
       </c>
       <c r="AM289" s="26" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26387,13 +26371,13 @@
         <v>587</v>
       </c>
       <c r="F290" s="7" t="s">
+        <v>852</v>
+      </c>
+      <c r="G290" s="7" t="s">
         <v>853</v>
       </c>
-      <c r="G290" s="7" t="s">
+      <c r="H290" s="7" t="s">
         <v>854</v>
-      </c>
-      <c r="H290" s="7" t="s">
-        <v>855</v>
       </c>
       <c r="I290" s="7"/>
       <c r="J290" s="7" t="n">
@@ -26407,7 +26391,7 @@
         <v>570</v>
       </c>
       <c r="N290" s="11" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="O290" s="11"/>
       <c r="P290" s="11"/>
@@ -26416,14 +26400,14 @@
         <v>93</v>
       </c>
       <c r="S290" s="7" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="T290" s="7"/>
       <c r="U290" s="7"/>
       <c r="V290" s="7"/>
       <c r="W290" s="7"/>
       <c r="X290" s="25" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="Y290" s="7"/>
       <c r="Z290" s="7"/>
@@ -26431,13 +26415,13 @@
       <c r="AB290" s="7"/>
       <c r="AC290" s="7"/>
       <c r="AD290" s="7" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AE290" s="10"/>
       <c r="AF290" s="7"/>
       <c r="AG290" s="7"/>
       <c r="AH290" s="7" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="AI290" s="7"/>
       <c r="AJ290" s="7" t="n">
@@ -26466,10 +26450,10 @@
       </c>
       <c r="E291" s="7"/>
       <c r="F291" s="7" t="s">
+        <v>857</v>
+      </c>
+      <c r="G291" s="7" t="s">
         <v>858</v>
-      </c>
-      <c r="G291" s="7" t="s">
-        <v>859</v>
       </c>
       <c r="H291" s="7" t="s">
         <v>87</v>
@@ -26510,7 +26494,7 @@
         <v>274</v>
       </c>
       <c r="AL291" s="13" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AM291" s="26" t="n">
         <v>400</v>
@@ -26530,16 +26514,16 @@
         <v>582</v>
       </c>
       <c r="E292" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="F292" s="7" t="s">
         <v>861</v>
       </c>
-      <c r="F292" s="7" t="s">
+      <c r="G292" s="7" t="s">
         <v>862</v>
       </c>
-      <c r="G292" s="7" t="s">
+      <c r="H292" s="7" t="s">
         <v>863</v>
-      </c>
-      <c r="H292" s="7" t="s">
-        <v>864</v>
       </c>
       <c r="I292" s="7"/>
       <c r="J292" s="7" t="n">
@@ -26549,7 +26533,7 @@
       <c r="L292" s="7"/>
       <c r="M292" s="7"/>
       <c r="N292" s="7" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="O292" s="11"/>
       <c r="P292" s="11"/>
@@ -26558,7 +26542,7 @@
         <v>93</v>
       </c>
       <c r="S292" s="7" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="T292" s="7"/>
       <c r="U292" s="7"/>
@@ -26566,7 +26550,7 @@
       <c r="W292" s="7"/>
       <c r="X292" s="7"/>
       <c r="Y292" s="7" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="Z292" s="7"/>
       <c r="AA292" s="19"/>
@@ -26607,16 +26591,16 @@
         <v>582</v>
       </c>
       <c r="E293" s="7" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F293" s="7" t="s">
+        <v>865</v>
+      </c>
+      <c r="G293" s="7" t="s">
         <v>866</v>
       </c>
-      <c r="G293" s="7" t="s">
-        <v>867</v>
-      </c>
       <c r="H293" s="7" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="I293" s="7"/>
       <c r="J293" s="7" t="n">
@@ -26626,7 +26610,7 @@
       <c r="L293" s="7"/>
       <c r="M293" s="7"/>
       <c r="N293" s="7" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="O293" s="11"/>
       <c r="P293" s="11"/>
@@ -26635,7 +26619,7 @@
         <v>93</v>
       </c>
       <c r="S293" s="7" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="T293" s="7"/>
       <c r="U293" s="7"/>
@@ -26643,7 +26627,7 @@
       <c r="W293" s="7"/>
       <c r="X293" s="7"/>
       <c r="Y293" s="7" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="Z293" s="7"/>
       <c r="AA293" s="19"/>
@@ -26684,16 +26668,16 @@
         <v>582</v>
       </c>
       <c r="E294" s="7" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F294" s="7" t="s">
+        <v>868</v>
+      </c>
+      <c r="G294" s="7" t="s">
         <v>869</v>
       </c>
-      <c r="G294" s="7" t="s">
-        <v>870</v>
-      </c>
       <c r="H294" s="7" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="I294" s="7"/>
       <c r="J294" s="7" t="n">
@@ -26703,7 +26687,7 @@
       <c r="L294" s="7"/>
       <c r="M294" s="7"/>
       <c r="N294" s="7" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="O294" s="11"/>
       <c r="P294" s="11"/>
@@ -26712,7 +26696,7 @@
         <v>93</v>
       </c>
       <c r="S294" s="7" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="T294" s="7"/>
       <c r="U294" s="7"/>
@@ -26720,7 +26704,7 @@
       <c r="W294" s="7"/>
       <c r="X294" s="7"/>
       <c r="Y294" s="7" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="Z294" s="7"/>
       <c r="AA294" s="19"/>
@@ -26758,22 +26742,22 @@
         <v>40</v>
       </c>
       <c r="D295" s="7" t="s">
+        <v>871</v>
+      </c>
+      <c r="E295" s="29" t="s">
         <v>872</v>
       </c>
-      <c r="E295" s="29" t="s">
+      <c r="F295" s="26" t="s">
         <v>873</v>
       </c>
-      <c r="F295" s="26" t="s">
+      <c r="G295" s="7" t="s">
         <v>874</v>
       </c>
-      <c r="G295" s="7" t="s">
+      <c r="H295" s="7" t="s">
         <v>875</v>
       </c>
-      <c r="H295" s="7" t="s">
+      <c r="I295" s="7" t="s">
         <v>876</v>
-      </c>
-      <c r="I295" s="7" t="s">
-        <v>877</v>
       </c>
       <c r="J295" s="7"/>
       <c r="K295" s="7"/>
@@ -26785,7 +26769,7 @@
       <c r="Q295" s="7"/>
       <c r="R295" s="7"/>
       <c r="S295" s="7" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="T295" s="7"/>
       <c r="U295" s="7"/>
@@ -26808,7 +26792,7 @@
         <v>278</v>
       </c>
       <c r="AL295" s="13" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="AM295" s="7"/>
     </row>
@@ -26823,22 +26807,22 @@
         <v>40</v>
       </c>
       <c r="D296" s="7" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E296" s="7" t="s">
+        <v>879</v>
+      </c>
+      <c r="F296" s="23" t="s">
         <v>880</v>
       </c>
-      <c r="F296" s="23" t="s">
+      <c r="G296" s="24" t="s">
         <v>881</v>
       </c>
-      <c r="G296" s="24" t="s">
-        <v>882</v>
-      </c>
       <c r="H296" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="I296" s="7" t="s">
         <v>876</v>
-      </c>
-      <c r="I296" s="7" t="s">
-        <v>877</v>
       </c>
       <c r="J296" s="7"/>
       <c r="K296" s="7"/>
@@ -26850,7 +26834,7 @@
       <c r="Q296" s="7"/>
       <c r="R296" s="7"/>
       <c r="S296" s="7" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="T296" s="7"/>
       <c r="U296" s="7"/>
@@ -26873,7 +26857,7 @@
         <v>279</v>
       </c>
       <c r="AL296" s="13" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="AM296" s="7"/>
     </row>
@@ -26888,22 +26872,22 @@
         <v>40</v>
       </c>
       <c r="D297" s="7" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E297" s="29" t="s">
+        <v>883</v>
+      </c>
+      <c r="F297" s="26" t="s">
         <v>884</v>
       </c>
-      <c r="F297" s="26" t="s">
+      <c r="G297" s="7" t="s">
         <v>885</v>
       </c>
-      <c r="G297" s="7" t="s">
-        <v>886</v>
-      </c>
       <c r="H297" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="I297" s="7" t="s">
         <v>876</v>
-      </c>
-      <c r="I297" s="7" t="s">
-        <v>877</v>
       </c>
       <c r="J297" s="7"/>
       <c r="K297" s="7"/>
@@ -26915,7 +26899,7 @@
       <c r="Q297" s="7"/>
       <c r="R297" s="7"/>
       <c r="S297" s="7" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="T297" s="7"/>
       <c r="U297" s="7"/>
@@ -26938,7 +26922,7 @@
         <v>280</v>
       </c>
       <c r="AL297" s="13" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="AM297" s="7"/>
     </row>
@@ -26953,22 +26937,22 @@
         <v>40</v>
       </c>
       <c r="D298" s="7" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E298" s="29" t="s">
+        <v>887</v>
+      </c>
+      <c r="F298" s="26" t="s">
         <v>888</v>
       </c>
-      <c r="F298" s="26" t="s">
+      <c r="G298" s="24" t="s">
         <v>889</v>
       </c>
-      <c r="G298" s="24" t="s">
+      <c r="H298" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="H298" s="7" t="s">
+      <c r="I298" s="7" t="s">
         <v>891</v>
-      </c>
-      <c r="I298" s="7" t="s">
-        <v>892</v>
       </c>
       <c r="J298" s="7"/>
       <c r="K298" s="7"/>
@@ -26980,7 +26964,7 @@
       <c r="Q298" s="7"/>
       <c r="R298" s="7"/>
       <c r="S298" s="7" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="T298" s="7"/>
       <c r="U298" s="7"/>
@@ -27018,22 +27002,22 @@
         <v>40</v>
       </c>
       <c r="D299" s="7" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E299" s="29" t="s">
+        <v>892</v>
+      </c>
+      <c r="F299" s="26" t="s">
         <v>893</v>
       </c>
-      <c r="F299" s="26" t="s">
+      <c r="G299" s="24" t="s">
         <v>894</v>
       </c>
-      <c r="G299" s="24" t="s">
+      <c r="H299" s="7" t="s">
         <v>895</v>
       </c>
-      <c r="H299" s="7" t="s">
-        <v>896</v>
-      </c>
       <c r="I299" s="7" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="J299" s="7"/>
       <c r="K299" s="7"/>
@@ -27045,7 +27029,7 @@
       <c r="Q299" s="7"/>
       <c r="R299" s="7"/>
       <c r="S299" s="7" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="T299" s="7"/>
       <c r="U299" s="7"/>
@@ -27083,36 +27067,36 @@
         <v>40</v>
       </c>
       <c r="D300" s="7" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E300" s="29" t="s">
+        <v>896</v>
+      </c>
+      <c r="F300" s="26" t="s">
         <v>897</v>
       </c>
-      <c r="F300" s="26" t="s">
+      <c r="G300" s="7" t="s">
         <v>898</v>
       </c>
-      <c r="G300" s="7" t="s">
+      <c r="H300" s="7" t="s">
         <v>899</v>
       </c>
-      <c r="H300" s="7" t="s">
-        <v>900</v>
-      </c>
       <c r="I300" s="7" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="J300" s="7"/>
       <c r="K300" s="7"/>
       <c r="L300" s="7"/>
       <c r="M300" s="7"/>
       <c r="N300" s="7" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="O300" s="7"/>
       <c r="P300" s="7"/>
       <c r="Q300" s="7"/>
       <c r="R300" s="7"/>
       <c r="S300" s="7" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="T300" s="7"/>
       <c r="U300" s="7"/>
@@ -27148,36 +27132,36 @@
         <v>40</v>
       </c>
       <c r="D301" s="7" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E301" s="29" t="s">
+        <v>902</v>
+      </c>
+      <c r="F301" s="26" t="s">
         <v>903</v>
       </c>
-      <c r="F301" s="26" t="s">
+      <c r="G301" s="7" t="s">
         <v>904</v>
       </c>
-      <c r="G301" s="7" t="s">
+      <c r="H301" s="7" t="s">
         <v>905</v>
       </c>
-      <c r="H301" s="7" t="s">
+      <c r="I301" s="7" t="s">
         <v>906</v>
-      </c>
-      <c r="I301" s="7" t="s">
-        <v>907</v>
       </c>
       <c r="J301" s="7"/>
       <c r="K301" s="7"/>
       <c r="L301" s="7"/>
       <c r="M301" s="7"/>
       <c r="N301" s="7" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="O301" s="7"/>
       <c r="P301" s="7"/>
       <c r="Q301" s="7"/>
       <c r="R301" s="7"/>
       <c r="S301" s="7" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="T301" s="7"/>
       <c r="U301" s="7"/>
@@ -27213,38 +27197,38 @@
         <v>40</v>
       </c>
       <c r="D302" s="7" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E302" s="29" t="s">
+        <v>908</v>
+      </c>
+      <c r="F302" s="26" t="s">
         <v>909</v>
       </c>
-      <c r="F302" s="26" t="s">
+      <c r="G302" s="7" t="s">
         <v>910</v>
       </c>
-      <c r="G302" s="7" t="s">
+      <c r="H302" s="7" t="s">
         <v>911</v>
       </c>
-      <c r="H302" s="7" t="s">
-        <v>912</v>
-      </c>
       <c r="I302" s="7" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="J302" s="7"/>
       <c r="K302" s="7"/>
       <c r="L302" s="7"/>
       <c r="M302" s="14" t="s">
+        <v>912</v>
+      </c>
+      <c r="N302" s="13" t="s">
         <v>913</v>
-      </c>
-      <c r="N302" s="13" t="s">
-        <v>914</v>
       </c>
       <c r="O302" s="7"/>
       <c r="P302" s="7"/>
       <c r="Q302" s="7"/>
       <c r="R302" s="7"/>
       <c r="S302" s="7" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="T302" s="7"/>
       <c r="U302" s="7"/>
@@ -27282,38 +27266,38 @@
         <v>40</v>
       </c>
       <c r="D303" s="7" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E303" s="29" t="s">
+        <v>908</v>
+      </c>
+      <c r="F303" s="26" t="s">
         <v>909</v>
       </c>
-      <c r="F303" s="26" t="s">
-        <v>910</v>
-      </c>
       <c r="G303" s="7" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H303" s="7" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="I303" s="7" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="J303" s="7"/>
       <c r="K303" s="7"/>
       <c r="L303" s="7"/>
       <c r="M303" s="14" t="s">
+        <v>912</v>
+      </c>
+      <c r="N303" s="13" t="s">
         <v>913</v>
-      </c>
-      <c r="N303" s="13" t="s">
-        <v>914</v>
       </c>
       <c r="O303" s="7"/>
       <c r="P303" s="7"/>
       <c r="Q303" s="7"/>
       <c r="R303" s="7"/>
       <c r="S303" s="7" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="T303" s="7"/>
       <c r="U303" s="7"/>
@@ -27349,38 +27333,38 @@
         <v>40</v>
       </c>
       <c r="D304" s="7" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E304" s="29" t="s">
+        <v>908</v>
+      </c>
+      <c r="F304" s="26" t="s">
         <v>909</v>
       </c>
-      <c r="F304" s="26" t="s">
-        <v>910</v>
-      </c>
       <c r="G304" s="7" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H304" s="7" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="I304" s="7" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="J304" s="7"/>
       <c r="K304" s="7"/>
       <c r="L304" s="7"/>
       <c r="M304" s="14" t="s">
+        <v>912</v>
+      </c>
+      <c r="N304" s="13" t="s">
         <v>913</v>
-      </c>
-      <c r="N304" s="13" t="s">
-        <v>914</v>
       </c>
       <c r="O304" s="7"/>
       <c r="P304" s="7"/>
       <c r="Q304" s="7"/>
       <c r="R304" s="7"/>
       <c r="S304" s="7" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="T304" s="7"/>
       <c r="U304" s="7"/>
@@ -27416,38 +27400,38 @@
         <v>40</v>
       </c>
       <c r="D305" s="7" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E305" s="29" t="s">
+        <v>908</v>
+      </c>
+      <c r="F305" s="26" t="s">
         <v>909</v>
       </c>
-      <c r="F305" s="26" t="s">
-        <v>910</v>
-      </c>
       <c r="G305" s="7" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H305" s="7" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="I305" s="7" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="J305" s="7"/>
       <c r="K305" s="7"/>
       <c r="L305" s="7"/>
       <c r="M305" s="14" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N305" s="30" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="O305" s="7"/>
       <c r="P305" s="7"/>
       <c r="Q305" s="7"/>
       <c r="R305" s="7"/>
       <c r="S305" s="7" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="T305" s="7"/>
       <c r="U305" s="7"/>
@@ -27483,38 +27467,38 @@
         <v>40</v>
       </c>
       <c r="D306" s="7" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E306" s="29" t="s">
+        <v>908</v>
+      </c>
+      <c r="F306" s="26" t="s">
         <v>909</v>
       </c>
-      <c r="F306" s="26" t="s">
-        <v>910</v>
-      </c>
       <c r="G306" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H306" s="7" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="I306" s="7" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="J306" s="7"/>
       <c r="K306" s="7"/>
       <c r="L306" s="7"/>
       <c r="M306" s="14" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N306" s="30" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="O306" s="7"/>
       <c r="P306" s="7"/>
       <c r="Q306" s="7"/>
       <c r="R306" s="7"/>
       <c r="S306" s="7" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="T306" s="7"/>
       <c r="U306" s="7"/>
@@ -27550,38 +27534,38 @@
         <v>40</v>
       </c>
       <c r="D307" s="7" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E307" s="29" t="s">
+        <v>908</v>
+      </c>
+      <c r="F307" s="26" t="s">
         <v>909</v>
       </c>
-      <c r="F307" s="26" t="s">
-        <v>910</v>
-      </c>
       <c r="G307" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H307" s="7" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="I307" s="7" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="J307" s="7"/>
       <c r="K307" s="7"/>
       <c r="L307" s="7"/>
       <c r="M307" s="14" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N307" s="13" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="O307" s="7"/>
       <c r="P307" s="7"/>
       <c r="Q307" s="7"/>
       <c r="R307" s="7"/>
       <c r="S307" s="7" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="T307" s="7"/>
       <c r="U307" s="7"/>
@@ -27617,38 +27601,38 @@
         <v>40</v>
       </c>
       <c r="D308" s="7" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E308" s="29" t="s">
+        <v>908</v>
+      </c>
+      <c r="F308" s="26" t="s">
         <v>909</v>
       </c>
-      <c r="F308" s="26" t="s">
-        <v>910</v>
-      </c>
       <c r="G308" s="7" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H308" s="7" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="I308" s="7" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="J308" s="7"/>
       <c r="K308" s="7"/>
       <c r="L308" s="7"/>
       <c r="M308" s="14" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N308" s="13" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="O308" s="7"/>
       <c r="P308" s="7"/>
       <c r="Q308" s="7"/>
       <c r="R308" s="7"/>
       <c r="S308" s="7" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="T308" s="7"/>
       <c r="U308" s="7"/>
@@ -27722,10 +27706,10 @@
         <v>12</v>
       </c>
       <c r="G1" s="32" t="s">
+        <v>924</v>
+      </c>
+      <c r="H1" s="32" t="s">
         <v>925</v>
-      </c>
-      <c r="H1" s="32" t="s">
-        <v>926</v>
       </c>
       <c r="I1" s="32" t="s">
         <v>33</v>
@@ -27734,18 +27718,18 @@
         <v>30</v>
       </c>
       <c r="K1" s="32" t="s">
+        <v>926</v>
+      </c>
+      <c r="L1" s="32" t="s">
         <v>927</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="M1" s="32" t="s">
         <v>928</v>
-      </c>
-      <c r="M1" s="32" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="33" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Hypermarket - CAP.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Hypermarket - CAP.xlsx
@@ -12,11 +12,11 @@
     <sheet name="Alcomarket" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AM$308</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Hypermarket!$A$1:$AM$308</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">Hypermarket!$A$1:$AM$308</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AM$308</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$amk$308</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AM$308</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hypermarket!$A$1:$amk$308</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3967" uniqueCount="930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3967" uniqueCount="931">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1016,10 +1016,13 @@
     <t xml:space="preserve">5449000233493</t>
   </si>
   <si>
+    <t xml:space="preserve">Fuze Peach-Rose - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Персик - 0.5л</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fuze Peach-Rose  - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фьюз Персик - 0.5л</t>
   </si>
   <si>
     <t xml:space="preserve">5449000189332, 5449000235770</t>
@@ -3476,10 +3479,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -3488,53 +3487,52 @@
   <dimension ref="A1:AM308"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="F102" activeCellId="0" sqref="F102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0404858299595"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.1376518218623"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.8825910931174"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.502024291498"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="46.6396761133603"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="137.684210526316"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="45.0607287449393"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.7692307692308"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.9919028340081"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.9311740890688"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.4048582995951"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="41.2834008097166"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="29.4736842105263"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="18.919028340081"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.4534412955466"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.1497975708502"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.1336032388664"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.0890688259109"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="6.94736842105263"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="13.8744939271255"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="57.5101214574899"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.4372469635628"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="20.9676113360324"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="49.9473684210526"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.2307692307692"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="24.2712550607287"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.1376518218623"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="24.9028340080972"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="12.9311740890688"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.1457489878543"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.6194331983806"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="58.1376518218624"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="20.9676113360324"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.5748987854251"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="47.0242914979757"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="138.931174089069"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="45.5263157894737"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="41.668016194332"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="29.6720647773279"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="6.96356275303644"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="13.9271255060729"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="58.0566801619433"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.6396761133603"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="50.4534412955466"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="24.4251012145749"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="58.5951417004049"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="10.5708502024292"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="9.1497975708502"/>
-    <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11349,10 +11347,10 @@
       <c r="K101" s="7"/>
       <c r="L101" s="7"/>
       <c r="M101" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="N101" s="18" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O101" s="11"/>
       <c r="P101" s="11"/>
@@ -11415,10 +11413,10 @@
         <v>188</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G102" s="11" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H102" s="7" t="s">
         <v>87</v>
@@ -11459,7 +11457,7 @@
         <v>85</v>
       </c>
       <c r="AL102" s="13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM102" s="15" t="n">
         <v>300</v>
@@ -11482,10 +11480,10 @@
         <v>188</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H103" s="7" t="s">
         <v>92</v>
@@ -11497,10 +11495,10 @@
       <c r="K103" s="7"/>
       <c r="L103" s="7"/>
       <c r="M103" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N103" s="11" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O103" s="11"/>
       <c r="P103" s="11"/>
@@ -11563,10 +11561,10 @@
         <v>188</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H104" s="7" t="s">
         <v>92</v>
@@ -11578,10 +11576,10 @@
       <c r="K104" s="7"/>
       <c r="L104" s="7"/>
       <c r="M104" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N104" s="11" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O104" s="11"/>
       <c r="P104" s="11"/>
@@ -11644,10 +11642,10 @@
         <v>188</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H105" s="7" t="s">
         <v>92</v>
@@ -11659,10 +11657,10 @@
       <c r="K105" s="7"/>
       <c r="L105" s="7"/>
       <c r="M105" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N105" s="11" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O105" s="11"/>
       <c r="P105" s="11"/>
@@ -11725,10 +11723,10 @@
         <v>188</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H106" s="7" t="s">
         <v>92</v>
@@ -11740,10 +11738,10 @@
       <c r="K106" s="7"/>
       <c r="L106" s="7"/>
       <c r="M106" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N106" s="11" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O106" s="11"/>
       <c r="P106" s="11"/>
@@ -11806,10 +11804,10 @@
         <v>188</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H107" s="7" t="s">
         <v>92</v>
@@ -11821,10 +11819,10 @@
       <c r="K107" s="7"/>
       <c r="L107" s="7"/>
       <c r="M107" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N107" s="11" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O107" s="11"/>
       <c r="P107" s="11"/>
@@ -11887,10 +11885,10 @@
         <v>188</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H108" s="7" t="s">
         <v>92</v>
@@ -11902,10 +11900,10 @@
       <c r="K108" s="7"/>
       <c r="L108" s="7"/>
       <c r="M108" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N108" s="11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O108" s="11"/>
       <c r="P108" s="11"/>
@@ -11968,10 +11966,10 @@
         <v>188</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H109" s="7" t="s">
         <v>92</v>
@@ -11983,10 +11981,10 @@
       <c r="K109" s="7"/>
       <c r="L109" s="7"/>
       <c r="M109" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N109" s="11" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O109" s="11"/>
       <c r="P109" s="11"/>
@@ -12049,10 +12047,10 @@
         <v>188</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H110" s="7" t="s">
         <v>92</v>
@@ -12064,10 +12062,10 @@
       <c r="K110" s="7"/>
       <c r="L110" s="7"/>
       <c r="M110" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N110" s="11" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O110" s="11"/>
       <c r="P110" s="11"/>
@@ -12130,10 +12128,10 @@
         <v>188</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H111" s="7" t="s">
         <v>92</v>
@@ -12145,10 +12143,10 @@
       <c r="K111" s="7"/>
       <c r="L111" s="7"/>
       <c r="M111" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N111" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O111" s="11"/>
       <c r="P111" s="11"/>
@@ -12211,10 +12209,10 @@
         <v>188</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H112" s="7" t="s">
         <v>92</v>
@@ -12226,10 +12224,10 @@
       <c r="K112" s="7"/>
       <c r="L112" s="7"/>
       <c r="M112" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N112" s="11" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O112" s="11"/>
       <c r="P112" s="11"/>
@@ -12292,10 +12290,10 @@
         <v>188</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H113" s="7" t="s">
         <v>92</v>
@@ -12307,10 +12305,10 @@
       <c r="K113" s="7"/>
       <c r="L113" s="7"/>
       <c r="M113" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N113" s="11" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O113" s="11"/>
       <c r="P113" s="11"/>
@@ -12373,10 +12371,10 @@
         <v>188</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H114" s="7" t="s">
         <v>92</v>
@@ -12388,10 +12386,10 @@
       <c r="K114" s="7"/>
       <c r="L114" s="7"/>
       <c r="M114" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N114" s="11" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O114" s="11"/>
       <c r="P114" s="11"/>
@@ -12454,10 +12452,10 @@
         <v>188</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H115" s="7" t="s">
         <v>92</v>
@@ -12469,10 +12467,10 @@
       <c r="K115" s="7"/>
       <c r="L115" s="7"/>
       <c r="M115" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N115" s="11" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O115" s="11"/>
       <c r="P115" s="11"/>
@@ -12535,10 +12533,10 @@
         <v>188</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H116" s="7" t="s">
         <v>92</v>
@@ -12550,10 +12548,10 @@
       <c r="K116" s="7"/>
       <c r="L116" s="7"/>
       <c r="M116" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N116" s="11" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O116" s="11"/>
       <c r="P116" s="11"/>
@@ -12616,10 +12614,10 @@
         <v>188</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H117" s="7" t="s">
         <v>92</v>
@@ -12631,10 +12629,10 @@
       <c r="K117" s="7"/>
       <c r="L117" s="7"/>
       <c r="M117" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N117" s="11" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O117" s="11"/>
       <c r="P117" s="11"/>
@@ -12697,10 +12695,10 @@
         <v>188</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H118" s="7" t="s">
         <v>92</v>
@@ -12712,10 +12710,10 @@
       <c r="K118" s="7"/>
       <c r="L118" s="7"/>
       <c r="M118" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N118" s="11" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O118" s="11"/>
       <c r="P118" s="11"/>
@@ -12778,10 +12776,10 @@
         <v>188</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H119" s="7" t="s">
         <v>92</v>
@@ -12793,10 +12791,10 @@
       <c r="K119" s="7"/>
       <c r="L119" s="7"/>
       <c r="M119" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N119" s="11" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="O119" s="11"/>
       <c r="P119" s="11"/>
@@ -12859,10 +12857,10 @@
         <v>188</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H120" s="7" t="s">
         <v>92</v>
@@ -12874,10 +12872,10 @@
       <c r="K120" s="7"/>
       <c r="L120" s="7"/>
       <c r="M120" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N120" s="11" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O120" s="11"/>
       <c r="P120" s="11"/>
@@ -12940,10 +12938,10 @@
         <v>188</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H121" s="7" t="s">
         <v>92</v>
@@ -12955,10 +12953,10 @@
       <c r="K121" s="7"/>
       <c r="L121" s="7"/>
       <c r="M121" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N121" s="11" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O121" s="11"/>
       <c r="P121" s="11"/>
@@ -13021,10 +13019,10 @@
         <v>188</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H122" s="7" t="s">
         <v>92</v>
@@ -13036,10 +13034,10 @@
       <c r="K122" s="7"/>
       <c r="L122" s="7"/>
       <c r="M122" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N122" s="11" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O122" s="11"/>
       <c r="P122" s="11"/>
@@ -13102,10 +13100,10 @@
         <v>188</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H123" s="7" t="s">
         <v>92</v>
@@ -13117,10 +13115,10 @@
       <c r="K123" s="7"/>
       <c r="L123" s="7"/>
       <c r="M123" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N123" s="11" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="O123" s="11"/>
       <c r="P123" s="11"/>
@@ -13183,10 +13181,10 @@
         <v>188</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H124" s="7" t="s">
         <v>92</v>
@@ -13198,10 +13196,10 @@
       <c r="K124" s="7"/>
       <c r="L124" s="7"/>
       <c r="M124" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N124" s="11" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O124" s="11"/>
       <c r="P124" s="11"/>
@@ -13264,10 +13262,10 @@
         <v>188</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H125" s="7" t="s">
         <v>92</v>
@@ -13279,10 +13277,10 @@
       <c r="K125" s="7"/>
       <c r="L125" s="7"/>
       <c r="M125" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N125" s="11" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O125" s="11"/>
       <c r="P125" s="11"/>
@@ -13345,10 +13343,10 @@
         <v>188</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H126" s="7" t="s">
         <v>92</v>
@@ -13360,10 +13358,10 @@
       <c r="K126" s="7"/>
       <c r="L126" s="7"/>
       <c r="M126" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N126" s="11" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="O126" s="11"/>
       <c r="P126" s="11"/>
@@ -13426,10 +13424,10 @@
         <v>188</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H127" s="7" t="s">
         <v>92</v>
@@ -13441,10 +13439,10 @@
       <c r="K127" s="7"/>
       <c r="L127" s="7"/>
       <c r="M127" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N127" s="11" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O127" s="11"/>
       <c r="P127" s="11"/>
@@ -13507,10 +13505,10 @@
         <v>188</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H128" s="7" t="s">
         <v>92</v>
@@ -13522,10 +13520,10 @@
       <c r="K128" s="7"/>
       <c r="L128" s="7"/>
       <c r="M128" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N128" s="11" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O128" s="11"/>
       <c r="P128" s="11"/>
@@ -13588,10 +13586,10 @@
         <v>188</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H129" s="7" t="s">
         <v>92</v>
@@ -13603,10 +13601,10 @@
       <c r="K129" s="7"/>
       <c r="L129" s="7"/>
       <c r="M129" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N129" s="11" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="O129" s="11"/>
       <c r="P129" s="11"/>
@@ -13669,10 +13667,10 @@
         <v>188</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H130" s="7" t="s">
         <v>92</v>
@@ -13684,7 +13682,7 @@
       <c r="K130" s="7"/>
       <c r="L130" s="7"/>
       <c r="M130" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N130" s="11" t="n">
         <v>4650075422922</v>
@@ -13750,10 +13748,10 @@
         <v>188</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H131" s="7" t="s">
         <v>92</v>
@@ -13765,7 +13763,7 @@
       <c r="K131" s="7"/>
       <c r="L131" s="7"/>
       <c r="M131" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N131" s="11" t="n">
         <v>4650075420249</v>
@@ -13831,10 +13829,10 @@
         <v>188</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H132" s="7" t="s">
         <v>92</v>
@@ -13846,10 +13844,10 @@
       <c r="K132" s="7"/>
       <c r="L132" s="7"/>
       <c r="M132" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N132" s="11" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O132" s="11"/>
       <c r="P132" s="11"/>
@@ -13912,10 +13910,10 @@
         <v>188</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H133" s="7" t="s">
         <v>92</v>
@@ -13927,10 +13925,10 @@
       <c r="K133" s="7"/>
       <c r="L133" s="7"/>
       <c r="M133" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N133" s="11" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O133" s="11"/>
       <c r="P133" s="11"/>
@@ -13993,10 +13991,10 @@
         <v>188</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H134" s="7" t="s">
         <v>92</v>
@@ -14008,7 +14006,7 @@
       <c r="K134" s="7"/>
       <c r="L134" s="7"/>
       <c r="M134" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N134" s="11" t="n">
         <v>111111</v>
@@ -14074,10 +14072,10 @@
         <v>188</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H135" s="7" t="s">
         <v>92</v>
@@ -14089,7 +14087,7 @@
       <c r="K135" s="7"/>
       <c r="L135" s="7"/>
       <c r="M135" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N135" s="11" t="n">
         <v>4650075420263</v>
@@ -14155,10 +14153,10 @@
         <v>188</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H136" s="7" t="s">
         <v>92</v>
@@ -14170,7 +14168,7 @@
       <c r="K136" s="7"/>
       <c r="L136" s="7"/>
       <c r="M136" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N136" s="11" t="n">
         <v>111111</v>
@@ -14236,10 +14234,10 @@
         <v>188</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H137" s="7" t="s">
         <v>92</v>
@@ -14251,10 +14249,10 @@
       <c r="K137" s="7"/>
       <c r="L137" s="7"/>
       <c r="M137" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N137" s="11" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O137" s="11"/>
       <c r="P137" s="11"/>
@@ -14317,10 +14315,10 @@
         <v>188</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H138" s="7" t="s">
         <v>92</v>
@@ -14332,10 +14330,10 @@
       <c r="K138" s="7"/>
       <c r="L138" s="7"/>
       <c r="M138" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N138" s="11" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O138" s="11"/>
       <c r="P138" s="11"/>
@@ -14398,10 +14396,10 @@
         <v>188</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H139" s="7" t="s">
         <v>92</v>
@@ -14413,10 +14411,10 @@
       <c r="K139" s="7"/>
       <c r="L139" s="7"/>
       <c r="M139" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N139" s="11" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O139" s="11"/>
       <c r="P139" s="11"/>
@@ -14479,10 +14477,10 @@
         <v>188</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H140" s="7" t="s">
         <v>92</v>
@@ -14494,10 +14492,10 @@
       <c r="K140" s="7"/>
       <c r="L140" s="7"/>
       <c r="M140" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N140" s="11" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O140" s="11"/>
       <c r="P140" s="11"/>
@@ -14560,10 +14558,10 @@
         <v>188</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H141" s="7" t="s">
         <v>92</v>
@@ -14575,10 +14573,10 @@
       <c r="K141" s="7"/>
       <c r="L141" s="7"/>
       <c r="M141" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N141" s="11" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O141" s="11"/>
       <c r="P141" s="11"/>
@@ -14641,10 +14639,10 @@
         <v>188</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H142" s="7" t="s">
         <v>92</v>
@@ -14656,7 +14654,7 @@
       <c r="K142" s="7"/>
       <c r="L142" s="7"/>
       <c r="M142" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N142" s="11" t="n">
         <v>111111</v>
@@ -14722,10 +14720,10 @@
         <v>188</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H143" s="7" t="s">
         <v>92</v>
@@ -14737,10 +14735,10 @@
       <c r="K143" s="7"/>
       <c r="L143" s="7"/>
       <c r="M143" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N143" s="11" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="O143" s="11"/>
       <c r="P143" s="11"/>
@@ -14800,13 +14798,13 @@
         <v>41</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H144" s="7" t="s">
         <v>92</v>
@@ -14818,10 +14816,10 @@
       <c r="K144" s="7"/>
       <c r="L144" s="7"/>
       <c r="M144" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N144" s="11" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="O144" s="11"/>
       <c r="P144" s="11"/>
@@ -14884,10 +14882,10 @@
         <v>188</v>
       </c>
       <c r="F145" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H145" s="7" t="s">
         <v>92</v>
@@ -14899,10 +14897,10 @@
       <c r="K145" s="7"/>
       <c r="L145" s="7"/>
       <c r="M145" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N145" s="11" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O145" s="11"/>
       <c r="P145" s="11"/>
@@ -14965,10 +14963,10 @@
         <v>188</v>
       </c>
       <c r="F146" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G146" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H146" s="7" t="s">
         <v>92</v>
@@ -14980,10 +14978,10 @@
       <c r="K146" s="7"/>
       <c r="L146" s="7"/>
       <c r="M146" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N146" s="11" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O146" s="11"/>
       <c r="P146" s="11"/>
@@ -15046,10 +15044,10 @@
         <v>188</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G147" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H147" s="7" t="s">
         <v>92</v>
@@ -15061,10 +15059,10 @@
       <c r="K147" s="7"/>
       <c r="L147" s="7"/>
       <c r="M147" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N147" s="11" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O147" s="11"/>
       <c r="P147" s="11"/>
@@ -15127,10 +15125,10 @@
         <v>188</v>
       </c>
       <c r="F148" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G148" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H148" s="7" t="s">
         <v>92</v>
@@ -15142,10 +15140,10 @@
       <c r="K148" s="7"/>
       <c r="L148" s="7"/>
       <c r="M148" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N148" s="11" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O148" s="11"/>
       <c r="P148" s="11"/>
@@ -15208,10 +15206,10 @@
         <v>188</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G149" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H149" s="7" t="s">
         <v>92</v>
@@ -15223,10 +15221,10 @@
       <c r="K149" s="7"/>
       <c r="L149" s="7"/>
       <c r="M149" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N149" s="11" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O149" s="11"/>
       <c r="P149" s="11"/>
@@ -15289,10 +15287,10 @@
         <v>188</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G150" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H150" s="7" t="s">
         <v>92</v>
@@ -15304,10 +15302,10 @@
       <c r="K150" s="7"/>
       <c r="L150" s="7"/>
       <c r="M150" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N150" s="11" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O150" s="11"/>
       <c r="P150" s="11"/>
@@ -15370,10 +15368,10 @@
         <v>188</v>
       </c>
       <c r="F151" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G151" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H151" s="7" t="s">
         <v>92</v>
@@ -15385,10 +15383,10 @@
       <c r="K151" s="7"/>
       <c r="L151" s="7"/>
       <c r="M151" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N151" s="11" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="O151" s="11"/>
       <c r="P151" s="11"/>
@@ -15448,13 +15446,13 @@
         <v>41</v>
       </c>
       <c r="E152" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G152" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H152" s="7" t="s">
         <v>92</v>
@@ -15466,10 +15464,10 @@
       <c r="K152" s="7"/>
       <c r="L152" s="7"/>
       <c r="M152" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N152" s="11" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="O152" s="11"/>
       <c r="P152" s="11"/>
@@ -15532,10 +15530,10 @@
         <v>188</v>
       </c>
       <c r="F153" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G153" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H153" s="7" t="s">
         <v>92</v>
@@ -15547,10 +15545,10 @@
       <c r="K153" s="7"/>
       <c r="L153" s="7"/>
       <c r="M153" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N153" s="11" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="O153" s="11"/>
       <c r="P153" s="11"/>
@@ -15613,10 +15611,10 @@
         <v>188</v>
       </c>
       <c r="F154" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="G154" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H154" s="7" t="s">
         <v>92</v>
@@ -15628,10 +15626,10 @@
       <c r="K154" s="7"/>
       <c r="L154" s="7"/>
       <c r="M154" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N154" s="11" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O154" s="11"/>
       <c r="P154" s="11"/>
@@ -15694,10 +15692,10 @@
         <v>188</v>
       </c>
       <c r="F155" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G155" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H155" s="7" t="s">
         <v>92</v>
@@ -15709,10 +15707,10 @@
       <c r="K155" s="7"/>
       <c r="L155" s="7"/>
       <c r="M155" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N155" s="11" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O155" s="11"/>
       <c r="P155" s="11"/>
@@ -15775,10 +15773,10 @@
         <v>188</v>
       </c>
       <c r="F156" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="G156" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H156" s="7" t="s">
         <v>92</v>
@@ -15790,7 +15788,7 @@
       <c r="K156" s="7"/>
       <c r="L156" s="7"/>
       <c r="M156" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N156" s="11" t="n">
         <v>111111</v>
@@ -15856,10 +15854,10 @@
         <v>188</v>
       </c>
       <c r="F157" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G157" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H157" s="7" t="s">
         <v>92</v>
@@ -15871,7 +15869,7 @@
       <c r="K157" s="7"/>
       <c r="L157" s="7"/>
       <c r="M157" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N157" s="11" t="n">
         <v>111111</v>
@@ -15934,13 +15932,13 @@
         <v>41</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F158" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G158" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H158" s="7" t="s">
         <v>92</v>
@@ -15952,10 +15950,10 @@
       <c r="K158" s="7"/>
       <c r="L158" s="7"/>
       <c r="M158" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N158" s="11" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="O158" s="11"/>
       <c r="P158" s="11"/>
@@ -16015,13 +16013,13 @@
         <v>41</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F159" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G159" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H159" s="7" t="s">
         <v>92</v>
@@ -16033,10 +16031,10 @@
       <c r="K159" s="7"/>
       <c r="L159" s="7"/>
       <c r="M159" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="N159" s="11" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O159" s="11"/>
       <c r="P159" s="11"/>
@@ -16099,10 +16097,10 @@
         <v>188</v>
       </c>
       <c r="F160" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G160" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H160" s="7" t="s">
         <v>92</v>
@@ -16114,10 +16112,10 @@
       <c r="K160" s="7"/>
       <c r="L160" s="7"/>
       <c r="M160" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N160" s="11" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O160" s="11"/>
       <c r="P160" s="11"/>
@@ -16180,10 +16178,10 @@
         <v>188</v>
       </c>
       <c r="F161" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G161" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H161" s="7" t="s">
         <v>92</v>
@@ -16195,10 +16193,10 @@
       <c r="K161" s="7"/>
       <c r="L161" s="7"/>
       <c r="M161" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N161" s="11" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O161" s="11"/>
       <c r="P161" s="11"/>
@@ -16261,10 +16259,10 @@
         <v>188</v>
       </c>
       <c r="F162" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="G162" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H162" s="7" t="s">
         <v>92</v>
@@ -16276,10 +16274,10 @@
       <c r="K162" s="7"/>
       <c r="L162" s="7"/>
       <c r="M162" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N162" s="11" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O162" s="11"/>
       <c r="P162" s="11"/>
@@ -16342,10 +16340,10 @@
         <v>188</v>
       </c>
       <c r="F163" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G163" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H163" s="7" t="s">
         <v>92</v>
@@ -16357,10 +16355,10 @@
       <c r="K163" s="7"/>
       <c r="L163" s="7"/>
       <c r="M163" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="N163" s="11" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="O163" s="11"/>
       <c r="P163" s="11"/>
@@ -16423,10 +16421,10 @@
         <v>188</v>
       </c>
       <c r="F164" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G164" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H164" s="7" t="s">
         <v>92</v>
@@ -16438,10 +16436,10 @@
       <c r="K164" s="7"/>
       <c r="L164" s="7"/>
       <c r="M164" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N164" s="11" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O164" s="11"/>
       <c r="P164" s="11"/>
@@ -16504,10 +16502,10 @@
         <v>188</v>
       </c>
       <c r="F165" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G165" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H165" s="7" t="s">
         <v>92</v>
@@ -16519,10 +16517,10 @@
       <c r="K165" s="7"/>
       <c r="L165" s="7"/>
       <c r="M165" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N165" s="11" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="O165" s="11"/>
       <c r="P165" s="11"/>
@@ -16585,10 +16583,10 @@
         <v>188</v>
       </c>
       <c r="F166" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="G166" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H166" s="7" t="s">
         <v>92</v>
@@ -16600,10 +16598,10 @@
       <c r="K166" s="7"/>
       <c r="L166" s="7"/>
       <c r="M166" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="N166" s="11" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="O166" s="11"/>
       <c r="P166" s="11"/>
@@ -16666,10 +16664,10 @@
         <v>188</v>
       </c>
       <c r="F167" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G167" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H167" s="7" t="s">
         <v>92</v>
@@ -16681,10 +16679,10 @@
       <c r="K167" s="7"/>
       <c r="L167" s="7"/>
       <c r="M167" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N167" s="11" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="O167" s="11"/>
       <c r="P167" s="11"/>
@@ -16747,10 +16745,10 @@
         <v>188</v>
       </c>
       <c r="F168" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="G168" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H168" s="7" t="s">
         <v>92</v>
@@ -16762,7 +16760,7 @@
       <c r="K168" s="7"/>
       <c r="L168" s="7"/>
       <c r="M168" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N168" s="11" t="n">
         <v>4650075422847</v>
@@ -16828,10 +16826,10 @@
         <v>188</v>
       </c>
       <c r="F169" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="G169" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H169" s="7" t="s">
         <v>92</v>
@@ -16843,10 +16841,10 @@
       <c r="K169" s="7"/>
       <c r="L169" s="7"/>
       <c r="M169" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="N169" s="11" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O169" s="11"/>
       <c r="P169" s="11"/>
@@ -16909,10 +16907,10 @@
         <v>188</v>
       </c>
       <c r="F170" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G170" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H170" s="7" t="s">
         <v>92</v>
@@ -16924,7 +16922,7 @@
       <c r="K170" s="7"/>
       <c r="L170" s="7"/>
       <c r="M170" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N170" s="11" t="n">
         <v>4650075421277</v>
@@ -16990,10 +16988,10 @@
         <v>188</v>
       </c>
       <c r="F171" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="G171" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H171" s="7" t="s">
         <v>92</v>
@@ -17005,10 +17003,10 @@
       <c r="K171" s="7"/>
       <c r="L171" s="7"/>
       <c r="M171" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="N171" s="11" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="O171" s="11"/>
       <c r="P171" s="11"/>
@@ -17071,10 +17069,10 @@
         <v>188</v>
       </c>
       <c r="F172" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="G172" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H172" s="7" t="s">
         <v>92</v>
@@ -17086,7 +17084,7 @@
       <c r="K172" s="7"/>
       <c r="L172" s="7"/>
       <c r="M172" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="N172" s="11" t="n">
         <v>4650075421550</v>
@@ -17152,10 +17150,10 @@
         <v>188</v>
       </c>
       <c r="F173" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G173" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H173" s="7" t="s">
         <v>92</v>
@@ -17167,10 +17165,10 @@
       <c r="K173" s="7"/>
       <c r="L173" s="7"/>
       <c r="M173" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N173" s="11" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="O173" s="11"/>
       <c r="P173" s="11"/>
@@ -17233,10 +17231,10 @@
         <v>188</v>
       </c>
       <c r="F174" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="G174" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H174" s="7" t="s">
         <v>92</v>
@@ -17248,10 +17246,10 @@
       <c r="K174" s="7"/>
       <c r="L174" s="7"/>
       <c r="M174" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="N174" s="11" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="O174" s="11"/>
       <c r="P174" s="11"/>
@@ -17314,10 +17312,10 @@
         <v>188</v>
       </c>
       <c r="F175" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G175" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H175" s="7" t="s">
         <v>92</v>
@@ -17329,10 +17327,10 @@
       <c r="K175" s="7"/>
       <c r="L175" s="7"/>
       <c r="M175" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="N175" s="11" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O175" s="11"/>
       <c r="P175" s="11"/>
@@ -17395,10 +17393,10 @@
         <v>188</v>
       </c>
       <c r="F176" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G176" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H176" s="7" t="s">
         <v>92</v>
@@ -17410,10 +17408,10 @@
       <c r="K176" s="7"/>
       <c r="L176" s="7"/>
       <c r="M176" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="N176" s="11" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O176" s="11"/>
       <c r="P176" s="11"/>
@@ -17476,10 +17474,10 @@
         <v>188</v>
       </c>
       <c r="F177" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G177" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H177" s="7" t="s">
         <v>92</v>
@@ -17491,10 +17489,10 @@
       <c r="K177" s="7"/>
       <c r="L177" s="7"/>
       <c r="M177" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N177" s="11" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O177" s="11"/>
       <c r="P177" s="11"/>
@@ -17557,10 +17555,10 @@
         <v>188</v>
       </c>
       <c r="F178" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G178" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H178" s="7" t="s">
         <v>92</v>
@@ -17572,10 +17570,10 @@
       <c r="K178" s="7"/>
       <c r="L178" s="7"/>
       <c r="M178" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="N178" s="11" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="O178" s="11"/>
       <c r="P178" s="11"/>
@@ -17638,10 +17636,10 @@
         <v>188</v>
       </c>
       <c r="F179" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="G179" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H179" s="7" t="s">
         <v>92</v>
@@ -17653,10 +17651,10 @@
       <c r="K179" s="7"/>
       <c r="L179" s="7"/>
       <c r="M179" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N179" s="11" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="O179" s="11"/>
       <c r="P179" s="11"/>
@@ -17719,10 +17717,10 @@
         <v>188</v>
       </c>
       <c r="F180" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G180" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H180" s="7" t="s">
         <v>92</v>
@@ -17734,10 +17732,10 @@
       <c r="K180" s="7"/>
       <c r="L180" s="7"/>
       <c r="M180" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="N180" s="11" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="O180" s="11"/>
       <c r="P180" s="11"/>
@@ -17800,10 +17798,10 @@
         <v>188</v>
       </c>
       <c r="F181" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G181" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H181" s="7" t="s">
         <v>92</v>
@@ -17815,10 +17813,10 @@
       <c r="K181" s="7"/>
       <c r="L181" s="7"/>
       <c r="M181" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="N181" s="11" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="O181" s="11"/>
       <c r="P181" s="11"/>
@@ -17881,10 +17879,10 @@
         <v>188</v>
       </c>
       <c r="F182" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G182" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H182" s="7" t="s">
         <v>92</v>
@@ -17896,10 +17894,10 @@
       <c r="K182" s="7"/>
       <c r="L182" s="7"/>
       <c r="M182" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="N182" s="11" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="O182" s="11"/>
       <c r="P182" s="11"/>
@@ -17962,10 +17960,10 @@
         <v>188</v>
       </c>
       <c r="F183" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="G183" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H183" s="7" t="s">
         <v>92</v>
@@ -17977,10 +17975,10 @@
       <c r="K183" s="7"/>
       <c r="L183" s="7"/>
       <c r="M183" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="N183" s="11" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="O183" s="11"/>
       <c r="P183" s="11"/>
@@ -18043,10 +18041,10 @@
         <v>188</v>
       </c>
       <c r="F184" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G184" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H184" s="7" t="s">
         <v>92</v>
@@ -18058,10 +18056,10 @@
       <c r="K184" s="7"/>
       <c r="L184" s="7"/>
       <c r="M184" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="N184" s="11" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="O184" s="11"/>
       <c r="P184" s="11"/>
@@ -18124,10 +18122,10 @@
         <v>188</v>
       </c>
       <c r="F185" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G185" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H185" s="7" t="s">
         <v>92</v>
@@ -18139,10 +18137,10 @@
       <c r="K185" s="7"/>
       <c r="L185" s="7"/>
       <c r="M185" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="N185" s="11" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="O185" s="11"/>
       <c r="P185" s="11"/>
@@ -18205,10 +18203,10 @@
         <v>188</v>
       </c>
       <c r="F186" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="G186" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H186" s="7" t="s">
         <v>92</v>
@@ -18220,10 +18218,10 @@
       <c r="K186" s="7"/>
       <c r="L186" s="7"/>
       <c r="M186" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="N186" s="11" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="O186" s="11"/>
       <c r="P186" s="11"/>
@@ -18286,10 +18284,10 @@
         <v>188</v>
       </c>
       <c r="F187" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G187" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H187" s="7" t="s">
         <v>92</v>
@@ -18301,10 +18299,10 @@
       <c r="K187" s="7"/>
       <c r="L187" s="7"/>
       <c r="M187" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="N187" s="11" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="O187" s="11"/>
       <c r="P187" s="11"/>
@@ -18367,10 +18365,10 @@
         <v>188</v>
       </c>
       <c r="F188" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="G188" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H188" s="7" t="s">
         <v>92</v>
@@ -18382,10 +18380,10 @@
       <c r="K188" s="7"/>
       <c r="L188" s="7"/>
       <c r="M188" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="N188" s="11" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="O188" s="11"/>
       <c r="P188" s="11"/>
@@ -18448,10 +18446,10 @@
         <v>188</v>
       </c>
       <c r="F189" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="G189" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H189" s="7" t="s">
         <v>92</v>
@@ -18463,10 +18461,10 @@
       <c r="K189" s="7"/>
       <c r="L189" s="7"/>
       <c r="M189" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="N189" s="11" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="O189" s="11"/>
       <c r="P189" s="11"/>
@@ -18529,10 +18527,10 @@
         <v>188</v>
       </c>
       <c r="F190" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="G190" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H190" s="7" t="s">
         <v>92</v>
@@ -18544,10 +18542,10 @@
       <c r="K190" s="7"/>
       <c r="L190" s="7"/>
       <c r="M190" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N190" s="11" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="O190" s="11"/>
       <c r="P190" s="11"/>
@@ -18610,10 +18608,10 @@
         <v>188</v>
       </c>
       <c r="F191" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G191" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H191" s="7" t="s">
         <v>92</v>
@@ -18625,10 +18623,10 @@
       <c r="K191" s="7"/>
       <c r="L191" s="7"/>
       <c r="M191" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="N191" s="11" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="O191" s="11"/>
       <c r="P191" s="11"/>
@@ -18691,10 +18689,10 @@
         <v>188</v>
       </c>
       <c r="F192" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="G192" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H192" s="7" t="s">
         <v>92</v>
@@ -18706,10 +18704,10 @@
       <c r="K192" s="7"/>
       <c r="L192" s="7"/>
       <c r="M192" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="N192" s="11" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="O192" s="11"/>
       <c r="P192" s="11"/>
@@ -18772,10 +18770,10 @@
         <v>188</v>
       </c>
       <c r="F193" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G193" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H193" s="7" t="s">
         <v>92</v>
@@ -18787,10 +18785,10 @@
       <c r="K193" s="7"/>
       <c r="L193" s="7"/>
       <c r="M193" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="N193" s="11" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="O193" s="11"/>
       <c r="P193" s="11"/>
@@ -18850,16 +18848,16 @@
         <v>41</v>
       </c>
       <c r="E194" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F194" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="G194" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H194" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="I194" s="7"/>
       <c r="J194" s="7" t="n">
@@ -18873,7 +18871,7 @@
       <c r="P194" s="11"/>
       <c r="Q194" s="11"/>
       <c r="R194" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="S194" s="7"/>
       <c r="T194" s="7"/>
@@ -18907,7 +18905,7 @@
         <v>177</v>
       </c>
       <c r="AL194" s="13" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AM194" s="15" t="n">
         <v>302</v>
@@ -18927,13 +18925,13 @@
         <v>41</v>
       </c>
       <c r="E195" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F195" s="7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="G195" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H195" s="7" t="s">
         <v>92</v>
@@ -18945,13 +18943,13 @@
       <c r="K195" s="7"/>
       <c r="L195" s="7"/>
       <c r="M195" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N195" s="11" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="O195" s="11" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="P195" s="11"/>
       <c r="Q195" s="11"/>
@@ -18959,7 +18957,7 @@
         <v>93</v>
       </c>
       <c r="S195" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="T195" s="7"/>
       <c r="U195" s="7"/>
@@ -19008,16 +19006,16 @@
         <v>41</v>
       </c>
       <c r="E196" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F196" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="G196" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H196" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="I196" s="7"/>
       <c r="J196" s="7" t="n">
@@ -19034,12 +19032,12 @@
         <v>93</v>
       </c>
       <c r="S196" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="T196" s="7"/>
       <c r="U196" s="7"/>
       <c r="V196" s="7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="W196" s="7"/>
       <c r="X196" s="7" t="s">
@@ -19085,16 +19083,16 @@
         <v>41</v>
       </c>
       <c r="E197" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F197" s="7" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="G197" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H197" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="I197" s="7"/>
       <c r="J197" s="7"/>
@@ -19107,7 +19105,7 @@
         <v>5449000000286</v>
       </c>
       <c r="O197" s="11" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="P197" s="11"/>
       <c r="Q197" s="11"/>
@@ -19138,7 +19136,7 @@
       <c r="AF197" s="7"/>
       <c r="AG197" s="7"/>
       <c r="AH197" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AI197" s="7"/>
       <c r="AJ197" s="7" t="n">
@@ -19163,17 +19161,17 @@
         <v>40</v>
       </c>
       <c r="D198" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E198" s="7"/>
       <c r="F198" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="G198" s="7" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H198" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="I198" s="7"/>
       <c r="J198" s="7" t="n">
@@ -19187,7 +19185,7 @@
       <c r="P198" s="11"/>
       <c r="Q198" s="11"/>
       <c r="R198" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="S198" s="7"/>
       <c r="T198" s="7"/>
@@ -19213,10 +19211,10 @@
       <c r="AF198" s="7"/>
       <c r="AG198" s="7"/>
       <c r="AH198" s="7" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AI198" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AJ198" s="7" t="n">
         <v>2</v>
@@ -19225,7 +19223,7 @@
         <v>181</v>
       </c>
       <c r="AL198" s="13" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AM198" s="15" t="n">
         <v>302</v>
@@ -19242,16 +19240,16 @@
         <v>40</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E199" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F199" s="7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="G199" s="7" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H199" s="7" t="s">
         <v>92</v>
@@ -19321,16 +19319,16 @@
         <v>40</v>
       </c>
       <c r="D200" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E200" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F200" s="7" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="G200" s="7" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H200" s="7" t="s">
         <v>92</v>
@@ -19400,16 +19398,16 @@
         <v>40</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E201" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F201" s="7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="G201" s="7" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H201" s="7" t="s">
         <v>92</v>
@@ -19482,16 +19480,16 @@
         <v>41</v>
       </c>
       <c r="E202" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F202" s="7" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="G202" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H202" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="I202" s="7"/>
       <c r="J202" s="7" t="n">
@@ -19505,7 +19503,7 @@
       <c r="P202" s="11"/>
       <c r="Q202" s="11"/>
       <c r="R202" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="S202" s="7"/>
       <c r="T202" s="7"/>
@@ -19513,7 +19511,7 @@
       <c r="V202" s="20"/>
       <c r="W202" s="7"/>
       <c r="X202" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Y202" s="7"/>
       <c r="Z202" s="7"/>
@@ -19539,7 +19537,7 @@
         <v>185</v>
       </c>
       <c r="AL202" s="13" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AM202" s="14" t="n">
         <v>303</v>
@@ -19559,13 +19557,13 @@
         <v>41</v>
       </c>
       <c r="E203" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F203" s="7" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="G203" s="7" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H203" s="7" t="s">
         <v>92</v>
@@ -19577,13 +19575,13 @@
       <c r="K203" s="7"/>
       <c r="L203" s="7"/>
       <c r="M203" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N203" s="11" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="O203" s="11" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="P203" s="11"/>
       <c r="Q203" s="11"/>
@@ -19591,14 +19589,14 @@
         <v>93</v>
       </c>
       <c r="S203" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="T203" s="7"/>
       <c r="U203" s="7"/>
       <c r="V203" s="20"/>
       <c r="W203" s="7"/>
       <c r="X203" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Y203" s="7"/>
       <c r="Z203" s="7"/>
@@ -19640,16 +19638,16 @@
         <v>41</v>
       </c>
       <c r="E204" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F204" s="7" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="G204" s="7" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H204" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="I204" s="7"/>
       <c r="J204" s="7" t="n">
@@ -19666,16 +19664,16 @@
         <v>93</v>
       </c>
       <c r="S204" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="T204" s="7"/>
       <c r="U204" s="7"/>
       <c r="V204" s="7" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="W204" s="7"/>
       <c r="X204" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Y204" s="7"/>
       <c r="Z204" s="7"/>
@@ -19717,16 +19715,16 @@
         <v>41</v>
       </c>
       <c r="E205" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F205" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="G205" s="7" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H205" s="7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="I205" s="7"/>
       <c r="J205" s="7" t="n">
@@ -19748,7 +19746,7 @@
       <c r="V205" s="20"/>
       <c r="W205" s="7"/>
       <c r="X205" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Y205" s="7"/>
       <c r="Z205" s="7"/>
@@ -19772,7 +19770,7 @@
         <v>188</v>
       </c>
       <c r="AL205" s="13" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AM205" s="7" t="n">
         <v>185</v>
@@ -19792,23 +19790,23 @@
         <v>41</v>
       </c>
       <c r="E206" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F206" s="7" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="G206" s="7" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H206" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="I206" s="7"/>
       <c r="J206" s="7"/>
       <c r="K206" s="7"/>
       <c r="L206" s="7"/>
       <c r="M206" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N206" s="11" t="n">
         <v>4607042434877</v>
@@ -19827,7 +19825,7 @@
       <c r="V206" s="20"/>
       <c r="W206" s="7"/>
       <c r="X206" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Y206" s="7"/>
       <c r="Z206" s="7"/>
@@ -19843,7 +19841,7 @@
       <c r="AF206" s="7"/>
       <c r="AG206" s="7"/>
       <c r="AH206" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AI206" s="7"/>
       <c r="AJ206" s="7" t="n">
@@ -19871,23 +19869,23 @@
         <v>41</v>
       </c>
       <c r="E207" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F207" s="7" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="G207" s="7" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H207" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="I207" s="7"/>
       <c r="J207" s="7"/>
       <c r="K207" s="7"/>
       <c r="L207" s="7"/>
       <c r="M207" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N207" s="11" t="n">
         <v>4607042434891</v>
@@ -19906,7 +19904,7 @@
       <c r="V207" s="20"/>
       <c r="W207" s="7"/>
       <c r="X207" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Y207" s="7"/>
       <c r="Z207" s="7"/>
@@ -19922,7 +19920,7 @@
       <c r="AF207" s="7"/>
       <c r="AG207" s="7"/>
       <c r="AH207" s="7" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AI207" s="7"/>
       <c r="AJ207" s="7" t="n">
@@ -19947,19 +19945,19 @@
         <v>40</v>
       </c>
       <c r="D208" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E208" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F208" s="7" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G208" s="7" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H208" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="I208" s="7"/>
       <c r="J208" s="7" t="n">
@@ -19973,7 +19971,7 @@
       <c r="P208" s="11"/>
       <c r="Q208" s="11"/>
       <c r="R208" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="S208" s="7"/>
       <c r="T208" s="7"/>
@@ -19981,7 +19979,7 @@
       <c r="V208" s="20"/>
       <c r="W208" s="7"/>
       <c r="X208" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Y208" s="7"/>
       <c r="Z208" s="7"/>
@@ -19999,10 +19997,10 @@
       <c r="AF208" s="7"/>
       <c r="AG208" s="7"/>
       <c r="AH208" s="7" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AI208" s="7" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AJ208" s="7" t="n">
         <v>2</v>
@@ -20011,7 +20009,7 @@
         <v>191</v>
       </c>
       <c r="AL208" s="13" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AM208" s="14" t="n">
         <v>303</v>
@@ -20028,16 +20026,16 @@
         <v>40</v>
       </c>
       <c r="D209" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E209" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F209" s="7" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="G209" s="7" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H209" s="7" t="s">
         <v>92</v>
@@ -20049,7 +20047,7 @@
       <c r="K209" s="7"/>
       <c r="L209" s="7"/>
       <c r="M209" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N209" s="11" t="n">
         <v>4607042434877</v>
@@ -20068,7 +20066,7 @@
       <c r="V209" s="20"/>
       <c r="W209" s="7"/>
       <c r="X209" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Y209" s="7"/>
       <c r="Z209" s="7"/>
@@ -20107,16 +20105,16 @@
         <v>40</v>
       </c>
       <c r="D210" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E210" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F210" s="7" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G210" s="7" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H210" s="7" t="s">
         <v>92</v>
@@ -20128,7 +20126,7 @@
       <c r="K210" s="7"/>
       <c r="L210" s="7"/>
       <c r="M210" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N210" s="11" t="n">
         <v>4607042434891</v>
@@ -20147,7 +20145,7 @@
       <c r="V210" s="20"/>
       <c r="W210" s="7"/>
       <c r="X210" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Y210" s="7"/>
       <c r="Z210" s="7"/>
@@ -20186,16 +20184,16 @@
         <v>40</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E211" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F211" s="7" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="G211" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H211" s="7" t="s">
         <v>92</v>
@@ -20207,7 +20205,7 @@
       <c r="K211" s="7"/>
       <c r="L211" s="7"/>
       <c r="M211" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N211" s="11" t="n">
         <v>4607042438738</v>
@@ -20226,7 +20224,7 @@
       <c r="V211" s="20"/>
       <c r="W211" s="7"/>
       <c r="X211" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Y211" s="7"/>
       <c r="Z211" s="7"/>
@@ -20265,16 +20263,16 @@
         <v>40</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E212" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F212" s="7" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G212" s="7" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H212" s="7" t="s">
         <v>92</v>
@@ -20286,10 +20284,10 @@
       <c r="K212" s="7"/>
       <c r="L212" s="7"/>
       <c r="M212" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N212" s="11" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O212" s="11"/>
       <c r="P212" s="11"/>
@@ -20305,7 +20303,7 @@
       <c r="V212" s="20"/>
       <c r="W212" s="7"/>
       <c r="X212" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Y212" s="7"/>
       <c r="Z212" s="7"/>
@@ -20344,16 +20342,16 @@
         <v>40</v>
       </c>
       <c r="D213" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E213" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F213" s="7" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="G213" s="7" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H213" s="7" t="s">
         <v>92</v>
@@ -20365,7 +20363,7 @@
       <c r="K213" s="7"/>
       <c r="L213" s="7"/>
       <c r="M213" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N213" s="11" t="n">
         <v>4607042438950</v>
@@ -20384,7 +20382,7 @@
       <c r="V213" s="20"/>
       <c r="W213" s="7"/>
       <c r="X213" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Y213" s="7"/>
       <c r="Z213" s="7"/>
@@ -20426,16 +20424,16 @@
         <v>41</v>
       </c>
       <c r="E214" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F214" s="7" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G214" s="7" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H214" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="I214" s="7"/>
       <c r="J214" s="7" t="n">
@@ -20449,7 +20447,7 @@
       <c r="P214" s="11"/>
       <c r="Q214" s="11"/>
       <c r="R214" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="S214" s="7"/>
       <c r="T214" s="7"/>
@@ -20483,7 +20481,7 @@
         <v>197</v>
       </c>
       <c r="AL214" s="13" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AM214" s="15" t="n">
         <v>302</v>
@@ -20503,13 +20501,13 @@
         <v>41</v>
       </c>
       <c r="E215" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F215" s="7" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G215" s="7" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H215" s="7" t="s">
         <v>92</v>
@@ -20521,13 +20519,13 @@
       <c r="K215" s="7"/>
       <c r="L215" s="7"/>
       <c r="M215" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N215" s="11" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="O215" s="11" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="P215" s="11"/>
       <c r="Q215" s="11"/>
@@ -20535,7 +20533,7 @@
         <v>93</v>
       </c>
       <c r="S215" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="T215" s="7"/>
       <c r="U215" s="7"/>
@@ -20584,16 +20582,16 @@
         <v>41</v>
       </c>
       <c r="E216" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F216" s="7" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="G216" s="7" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H216" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="I216" s="7"/>
       <c r="J216" s="7" t="n">
@@ -20610,12 +20608,12 @@
         <v>93</v>
       </c>
       <c r="S216" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="T216" s="7"/>
       <c r="U216" s="7"/>
       <c r="V216" s="7" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="W216" s="7"/>
       <c r="X216" s="7" t="s">
@@ -20661,16 +20659,16 @@
         <v>41</v>
       </c>
       <c r="E217" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F217" s="7" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="G217" s="7" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H217" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="I217" s="7"/>
       <c r="J217" s="7"/>
@@ -20683,7 +20681,7 @@
         <v>5449000000439</v>
       </c>
       <c r="O217" s="11" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="P217" s="11"/>
       <c r="Q217" s="11"/>
@@ -20714,7 +20712,7 @@
       <c r="AF217" s="7"/>
       <c r="AG217" s="7"/>
       <c r="AH217" s="7" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AI217" s="7"/>
       <c r="AJ217" s="7" t="n">
@@ -20742,16 +20740,16 @@
         <v>41</v>
       </c>
       <c r="E218" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F218" s="7" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="G218" s="7" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H218" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="I218" s="7"/>
       <c r="J218" s="7" t="n">
@@ -20765,7 +20763,7 @@
       <c r="P218" s="11"/>
       <c r="Q218" s="11"/>
       <c r="R218" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="S218" s="7"/>
       <c r="T218" s="7"/>
@@ -20773,7 +20771,7 @@
       <c r="V218" s="20"/>
       <c r="W218" s="7"/>
       <c r="X218" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Y218" s="7"/>
       <c r="Z218" s="7"/>
@@ -20799,7 +20797,7 @@
         <v>201</v>
       </c>
       <c r="AL218" s="13" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AM218" s="14" t="n">
         <v>303</v>
@@ -20819,13 +20817,13 @@
         <v>41</v>
       </c>
       <c r="E219" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F219" s="7" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="G219" s="7" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H219" s="7" t="s">
         <v>92</v>
@@ -20837,13 +20835,13 @@
       <c r="K219" s="7"/>
       <c r="L219" s="7"/>
       <c r="M219" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N219" s="11" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="O219" s="11" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="P219" s="11"/>
       <c r="Q219" s="11"/>
@@ -20851,14 +20849,14 @@
         <v>93</v>
       </c>
       <c r="S219" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="T219" s="7"/>
       <c r="U219" s="7"/>
       <c r="V219" s="20"/>
       <c r="W219" s="7"/>
       <c r="X219" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Y219" s="7"/>
       <c r="Z219" s="7"/>
@@ -20900,16 +20898,16 @@
         <v>41</v>
       </c>
       <c r="E220" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F220" s="7" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="G220" s="7" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H220" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="I220" s="7"/>
       <c r="J220" s="7" t="n">
@@ -20926,16 +20924,16 @@
         <v>93</v>
       </c>
       <c r="S220" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="T220" s="7"/>
       <c r="U220" s="7"/>
       <c r="V220" s="7" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="W220" s="7"/>
       <c r="X220" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Y220" s="7"/>
       <c r="Z220" s="7"/>
@@ -20977,16 +20975,16 @@
         <v>41</v>
       </c>
       <c r="E221" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F221" s="7" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="G221" s="7" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H221" s="7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="I221" s="7"/>
       <c r="J221" s="7" t="n">
@@ -21008,7 +21006,7 @@
       <c r="V221" s="20"/>
       <c r="W221" s="7"/>
       <c r="X221" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Y221" s="7"/>
       <c r="Z221" s="7"/>
@@ -21032,7 +21030,7 @@
         <v>204</v>
       </c>
       <c r="AL221" s="13" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AM221" s="7" t="n">
         <v>201</v>
@@ -21052,23 +21050,23 @@
         <v>41</v>
       </c>
       <c r="E222" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F222" s="7" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G222" s="7" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H222" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="I222" s="7"/>
       <c r="J222" s="7"/>
       <c r="K222" s="7"/>
       <c r="L222" s="7"/>
       <c r="M222" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N222" s="11" t="n">
         <v>4607042434877</v>
@@ -21087,7 +21085,7 @@
       <c r="V222" s="20"/>
       <c r="W222" s="7"/>
       <c r="X222" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Y222" s="7"/>
       <c r="Z222" s="7"/>
@@ -21103,7 +21101,7 @@
       <c r="AF222" s="7"/>
       <c r="AG222" s="7"/>
       <c r="AH222" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AI222" s="7"/>
       <c r="AJ222" s="7" t="n">
@@ -21131,23 +21129,23 @@
         <v>41</v>
       </c>
       <c r="E223" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F223" s="7" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="G223" s="7" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H223" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="I223" s="7"/>
       <c r="J223" s="7"/>
       <c r="K223" s="7"/>
       <c r="L223" s="7"/>
       <c r="M223" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N223" s="11" t="n">
         <v>4607042434891</v>
@@ -21166,7 +21164,7 @@
       <c r="V223" s="20"/>
       <c r="W223" s="7"/>
       <c r="X223" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Y223" s="7"/>
       <c r="Z223" s="7"/>
@@ -21182,7 +21180,7 @@
       <c r="AF223" s="7"/>
       <c r="AG223" s="7"/>
       <c r="AH223" s="7" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AI223" s="7"/>
       <c r="AJ223" s="7" t="n">
@@ -21210,16 +21208,16 @@
         <v>41</v>
       </c>
       <c r="E224" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F224" s="7" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="G224" s="7" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H224" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="I224" s="7"/>
       <c r="J224" s="7" t="n">
@@ -21233,7 +21231,7 @@
       <c r="P224" s="11"/>
       <c r="Q224" s="11"/>
       <c r="R224" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="S224" s="7"/>
       <c r="T224" s="7"/>
@@ -21265,7 +21263,7 @@
         <v>207</v>
       </c>
       <c r="AL224" s="13" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AM224" s="14" t="n">
         <v>320</v>
@@ -21285,13 +21283,13 @@
         <v>41</v>
       </c>
       <c r="E225" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F225" s="7" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="G225" s="7" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H225" s="7" t="s">
         <v>92</v>
@@ -21303,23 +21301,23 @@
       <c r="K225" s="7"/>
       <c r="L225" s="7"/>
       <c r="M225" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N225" s="11" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="O225" s="11" t="s">
+        <v>661</v>
+      </c>
+      <c r="P225" s="11" t="s">
         <v>660</v>
-      </c>
-      <c r="P225" s="11" t="s">
-        <v>659</v>
       </c>
       <c r="Q225" s="11"/>
       <c r="R225" s="7" t="s">
         <v>93</v>
       </c>
       <c r="S225" s="7" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="T225" s="7"/>
       <c r="U225" s="7"/>
@@ -21366,16 +21364,16 @@
         <v>41</v>
       </c>
       <c r="E226" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F226" s="7" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="G226" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H226" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="I226" s="7"/>
       <c r="J226" s="7" t="n">
@@ -21392,12 +21390,12 @@
         <v>93</v>
       </c>
       <c r="S226" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="T226" s="7"/>
       <c r="U226" s="7"/>
       <c r="V226" s="7" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="W226" s="7"/>
       <c r="X226" s="21" t="s">
@@ -21441,16 +21439,16 @@
         <v>41</v>
       </c>
       <c r="E227" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F227" s="7" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="G227" s="7" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H227" s="7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="I227" s="7"/>
       <c r="J227" s="7" t="n">
@@ -21494,7 +21492,7 @@
         <v>210</v>
       </c>
       <c r="AL227" s="13" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AM227" s="7" t="n">
         <v>207</v>
@@ -21514,16 +21512,16 @@
         <v>41</v>
       </c>
       <c r="E228" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F228" s="7" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="G228" s="11" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H228" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="I228" s="7"/>
       <c r="J228" s="7"/>
@@ -21563,7 +21561,7 @@
       <c r="AF228" s="7"/>
       <c r="AG228" s="7"/>
       <c r="AH228" s="7" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AI228" s="7"/>
       <c r="AJ228" s="7" t="n">
@@ -21591,16 +21589,16 @@
         <v>41</v>
       </c>
       <c r="E229" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F229" s="7" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="G229" s="11" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H229" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="I229" s="7"/>
       <c r="J229" s="7"/>
@@ -21640,7 +21638,7 @@
       <c r="AF229" s="7"/>
       <c r="AG229" s="7"/>
       <c r="AH229" s="7" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AI229" s="7"/>
       <c r="AJ229" s="7" t="n">
@@ -21668,16 +21666,16 @@
         <v>41</v>
       </c>
       <c r="E230" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F230" s="7" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="G230" s="11" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H230" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="I230" s="7"/>
       <c r="J230" s="7"/>
@@ -21717,7 +21715,7 @@
       <c r="AF230" s="7"/>
       <c r="AG230" s="7"/>
       <c r="AH230" s="7" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AI230" s="7"/>
       <c r="AJ230" s="7" t="n">
@@ -21745,16 +21743,16 @@
         <v>41</v>
       </c>
       <c r="E231" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F231" s="7" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="G231" s="7" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H231" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="I231" s="7"/>
       <c r="J231" s="7" t="n">
@@ -21768,7 +21766,7 @@
       <c r="P231" s="11"/>
       <c r="Q231" s="11"/>
       <c r="R231" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="S231" s="7"/>
       <c r="T231" s="7"/>
@@ -21802,7 +21800,7 @@
         <v>214</v>
       </c>
       <c r="AL231" s="13" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AM231" s="15" t="n">
         <v>302</v>
@@ -21822,13 +21820,13 @@
         <v>41</v>
       </c>
       <c r="E232" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F232" s="7" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="G232" s="7" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H232" s="7" t="s">
         <v>92</v>
@@ -21840,13 +21838,13 @@
       <c r="K232" s="7"/>
       <c r="L232" s="7"/>
       <c r="M232" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N232" s="11" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="O232" s="11" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="P232" s="11"/>
       <c r="Q232" s="11"/>
@@ -21854,7 +21852,7 @@
         <v>93</v>
       </c>
       <c r="S232" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="T232" s="7"/>
       <c r="U232" s="7"/>
@@ -21903,16 +21901,16 @@
         <v>41</v>
       </c>
       <c r="E233" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F233" s="7" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="G233" s="7" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H233" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="I233" s="7"/>
       <c r="J233" s="7" t="n">
@@ -21929,12 +21927,12 @@
         <v>93</v>
       </c>
       <c r="S233" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="T233" s="7"/>
       <c r="U233" s="7"/>
       <c r="V233" s="7" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="W233" s="7"/>
       <c r="X233" s="7" t="s">
@@ -21980,16 +21978,16 @@
         <v>41</v>
       </c>
       <c r="E234" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F234" s="7" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="G234" s="7" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H234" s="7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="I234" s="7"/>
       <c r="J234" s="7" t="n">
@@ -22055,16 +22053,16 @@
         <v>41</v>
       </c>
       <c r="E235" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F235" s="7" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="G235" s="11" t="s">
         <v>133</v>
       </c>
       <c r="H235" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="I235" s="7"/>
       <c r="J235" s="7"/>
@@ -22077,7 +22075,7 @@
         <v>5449000044808</v>
       </c>
       <c r="O235" s="11" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="P235" s="11"/>
       <c r="Q235" s="11"/>
@@ -22108,7 +22106,7 @@
       <c r="AF235" s="7"/>
       <c r="AG235" s="7"/>
       <c r="AH235" s="7" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AI235" s="7"/>
       <c r="AJ235" s="7" t="n">
@@ -22136,16 +22134,16 @@
         <v>41</v>
       </c>
       <c r="E236" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F236" s="7" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="G236" s="7" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H236" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="I236" s="7"/>
       <c r="J236" s="7" t="n">
@@ -22159,7 +22157,7 @@
       <c r="P236" s="11"/>
       <c r="Q236" s="11"/>
       <c r="R236" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="S236" s="7"/>
       <c r="T236" s="7"/>
@@ -22167,7 +22165,7 @@
       <c r="V236" s="20"/>
       <c r="W236" s="7"/>
       <c r="X236" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Y236" s="7"/>
       <c r="Z236" s="7"/>
@@ -22193,7 +22191,7 @@
         <v>219</v>
       </c>
       <c r="AL236" s="13" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AM236" s="14" t="n">
         <v>303</v>
@@ -22213,13 +22211,13 @@
         <v>41</v>
       </c>
       <c r="E237" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F237" s="7" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="G237" s="7" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H237" s="7" t="s">
         <v>92</v>
@@ -22231,13 +22229,13 @@
       <c r="K237" s="7"/>
       <c r="L237" s="7"/>
       <c r="M237" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N237" s="11" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="O237" s="11" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="P237" s="11"/>
       <c r="Q237" s="11"/>
@@ -22245,14 +22243,14 @@
         <v>93</v>
       </c>
       <c r="S237" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="T237" s="7"/>
       <c r="U237" s="7"/>
       <c r="V237" s="20"/>
       <c r="W237" s="7"/>
       <c r="X237" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Y237" s="7"/>
       <c r="Z237" s="7"/>
@@ -22294,16 +22292,16 @@
         <v>41</v>
       </c>
       <c r="E238" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F238" s="7" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="G238" s="7" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H238" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="I238" s="7"/>
       <c r="J238" s="7" t="n">
@@ -22320,16 +22318,16 @@
         <v>93</v>
       </c>
       <c r="S238" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="T238" s="7"/>
       <c r="U238" s="7"/>
       <c r="V238" s="7" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="W238" s="7"/>
       <c r="X238" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Y238" s="7"/>
       <c r="Z238" s="7"/>
@@ -22371,13 +22369,13 @@
         <v>41</v>
       </c>
       <c r="E239" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F239" s="7" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="G239" s="11" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H239" s="7" t="s">
         <v>92</v>
@@ -22389,7 +22387,7 @@
       <c r="K239" s="7"/>
       <c r="L239" s="7"/>
       <c r="M239" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N239" s="11" t="n">
         <v>4607042439155</v>
@@ -22408,7 +22406,7 @@
       <c r="V239" s="20"/>
       <c r="W239" s="7"/>
       <c r="X239" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Y239" s="7"/>
       <c r="Z239" s="7"/>
@@ -22424,7 +22422,7 @@
       <c r="AF239" s="7"/>
       <c r="AG239" s="7"/>
       <c r="AH239" s="7" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AI239" s="7"/>
       <c r="AJ239" s="7" t="n">
@@ -22452,16 +22450,16 @@
         <v>41</v>
       </c>
       <c r="E240" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F240" s="7" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="G240" s="7" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H240" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="I240" s="7"/>
       <c r="J240" s="7" t="n">
@@ -22475,7 +22473,7 @@
       <c r="P240" s="11"/>
       <c r="Q240" s="11"/>
       <c r="R240" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="S240" s="7"/>
       <c r="T240" s="7"/>
@@ -22507,7 +22505,7 @@
         <v>223</v>
       </c>
       <c r="AL240" s="13" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AM240" s="14" t="n">
         <v>321</v>
@@ -22527,13 +22525,13 @@
         <v>41</v>
       </c>
       <c r="E241" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F241" s="7" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="G241" s="7" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H241" s="7" t="s">
         <v>92</v>
@@ -22545,13 +22543,13 @@
       <c r="K241" s="7"/>
       <c r="L241" s="7"/>
       <c r="M241" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N241" s="11" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="O241" s="11" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="P241" s="11"/>
       <c r="Q241" s="11"/>
@@ -22559,7 +22557,7 @@
         <v>93</v>
       </c>
       <c r="S241" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="T241" s="7"/>
       <c r="U241" s="7"/>
@@ -22606,16 +22604,16 @@
         <v>41</v>
       </c>
       <c r="E242" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F242" s="7" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G242" s="7" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H242" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="I242" s="7"/>
       <c r="J242" s="7" t="n">
@@ -22632,12 +22630,12 @@
         <v>93</v>
       </c>
       <c r="S242" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="T242" s="7"/>
       <c r="U242" s="7"/>
       <c r="V242" s="7" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="W242" s="7"/>
       <c r="X242" s="7" t="s">
@@ -22681,16 +22679,16 @@
         <v>41</v>
       </c>
       <c r="E243" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F243" s="7" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="G243" s="7" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H243" s="7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="I243" s="7"/>
       <c r="J243" s="7" t="n">
@@ -22734,7 +22732,7 @@
         <v>226</v>
       </c>
       <c r="AL243" s="13" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AM243" s="7" t="n">
         <v>223</v>
@@ -22754,16 +22752,16 @@
         <v>41</v>
       </c>
       <c r="E244" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F244" s="7" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G244" s="7" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H244" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="I244" s="7"/>
       <c r="J244" s="7"/>
@@ -22803,7 +22801,7 @@
       <c r="AF244" s="7"/>
       <c r="AG244" s="7"/>
       <c r="AH244" s="7" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="AI244" s="7"/>
       <c r="AJ244" s="7" t="n">
@@ -22831,16 +22829,16 @@
         <v>41</v>
       </c>
       <c r="E245" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F245" s="7" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G245" s="7" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H245" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="I245" s="7"/>
       <c r="J245" s="7"/>
@@ -22880,7 +22878,7 @@
       <c r="AF245" s="7"/>
       <c r="AG245" s="7"/>
       <c r="AH245" s="7" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="AI245" s="7"/>
       <c r="AJ245" s="7" t="n">
@@ -22908,16 +22906,16 @@
         <v>41</v>
       </c>
       <c r="E246" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F246" s="7" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G246" s="7" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H246" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="I246" s="7"/>
       <c r="J246" s="7" t="n">
@@ -22931,7 +22929,7 @@
       <c r="P246" s="11"/>
       <c r="Q246" s="7"/>
       <c r="R246" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="S246" s="7"/>
       <c r="T246" s="7"/>
@@ -22944,7 +22942,7 @@
       <c r="Y246" s="7"/>
       <c r="Z246" s="7"/>
       <c r="AA246" s="19" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="AB246" s="7"/>
       <c r="AC246" s="7"/>
@@ -22965,7 +22963,7 @@
         <v>229</v>
       </c>
       <c r="AL246" s="13" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="AM246" s="15" t="n">
         <v>302</v>
@@ -22985,13 +22983,13 @@
         <v>41</v>
       </c>
       <c r="E247" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F247" s="7" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G247" s="7" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H247" s="7" t="s">
         <v>92</v>
@@ -23003,13 +23001,13 @@
       <c r="K247" s="7"/>
       <c r="L247" s="7"/>
       <c r="M247" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N247" s="11" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="O247" s="11" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="P247" s="11"/>
       <c r="Q247" s="7"/>
@@ -23017,7 +23015,7 @@
         <v>93</v>
       </c>
       <c r="S247" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="T247" s="7"/>
       <c r="U247" s="7"/>
@@ -23029,7 +23027,7 @@
       <c r="Y247" s="7"/>
       <c r="Z247" s="7"/>
       <c r="AA247" s="19" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="AB247" s="7"/>
       <c r="AC247" s="7"/>
@@ -23066,16 +23064,16 @@
         <v>41</v>
       </c>
       <c r="E248" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F248" s="7" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G248" s="7" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H248" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="I248" s="7"/>
       <c r="J248" s="7" t="n">
@@ -23092,12 +23090,12 @@
         <v>93</v>
       </c>
       <c r="S248" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="T248" s="7"/>
       <c r="U248" s="7"/>
       <c r="V248" s="7" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="W248" s="7"/>
       <c r="X248" s="7" t="s">
@@ -23106,7 +23104,7 @@
       <c r="Y248" s="7"/>
       <c r="Z248" s="7"/>
       <c r="AA248" s="19" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="AB248" s="7"/>
       <c r="AC248" s="7"/>
@@ -23143,29 +23141,29 @@
         <v>41</v>
       </c>
       <c r="E249" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F249" s="7" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G249" s="7" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H249" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="I249" s="7"/>
       <c r="J249" s="7"/>
       <c r="K249" s="7"/>
       <c r="L249" s="7"/>
       <c r="M249" s="7" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="N249" s="11" t="s">
         <v>102</v>
       </c>
       <c r="O249" s="11" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="P249" s="11"/>
       <c r="Q249" s="7"/>
@@ -23185,7 +23183,7 @@
       <c r="Y249" s="7"/>
       <c r="Z249" s="7"/>
       <c r="AA249" s="19" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="AB249" s="7"/>
       <c r="AC249" s="7"/>
@@ -23196,7 +23194,7 @@
       <c r="AF249" s="7"/>
       <c r="AG249" s="7"/>
       <c r="AH249" s="7" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="AI249" s="7"/>
       <c r="AJ249" s="7" t="n">
@@ -23221,19 +23219,19 @@
         <v>40</v>
       </c>
       <c r="D250" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E250" s="7" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="F250" s="7" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G250" s="7" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H250" s="7" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="I250" s="7"/>
       <c r="J250" s="8" t="n">
@@ -23242,26 +23240,26 @@
       <c r="K250" s="7"/>
       <c r="L250" s="7"/>
       <c r="M250" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N250" s="11" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="O250" s="11" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="P250" s="11"/>
       <c r="Q250" s="7"/>
       <c r="R250" s="22"/>
       <c r="S250" s="22" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="T250" s="7"/>
       <c r="U250" s="7"/>
       <c r="V250" s="7"/>
       <c r="W250" s="7"/>
       <c r="X250" s="7" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="Y250" s="7"/>
       <c r="Z250" s="7"/>
@@ -23269,7 +23267,7 @@
       <c r="AB250" s="7"/>
       <c r="AC250" s="7"/>
       <c r="AD250" s="7" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AE250" s="16" t="n">
         <v>0.0725</v>
@@ -23300,19 +23298,19 @@
         <v>40</v>
       </c>
       <c r="D251" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E251" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F251" s="7" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G251" s="7" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H251" s="7" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="I251" s="7"/>
       <c r="J251" s="7" t="n">
@@ -23326,7 +23324,7 @@
       <c r="P251" s="11"/>
       <c r="Q251" s="7"/>
       <c r="R251" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="S251" s="7"/>
       <c r="T251" s="7"/>
@@ -23334,14 +23332,14 @@
       <c r="V251" s="7"/>
       <c r="W251" s="7"/>
       <c r="X251" s="7" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="Y251" s="7"/>
       <c r="Z251" s="7"/>
       <c r="AA251" s="19"/>
       <c r="AB251" s="7"/>
       <c r="AC251" s="7" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="AD251" s="7" t="s">
         <v>97</v>
@@ -23360,7 +23358,7 @@
         <v>234</v>
       </c>
       <c r="AL251" s="13" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="AM251" s="23" t="n">
         <v>501</v>
@@ -23377,16 +23375,16 @@
         <v>40</v>
       </c>
       <c r="D252" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E252" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F252" s="7" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G252" s="7" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H252" s="7" t="s">
         <v>92</v>
@@ -23417,14 +23415,14 @@
       <c r="V252" s="7"/>
       <c r="W252" s="7"/>
       <c r="X252" s="7" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="Y252" s="7"/>
       <c r="Z252" s="7"/>
       <c r="AA252" s="19"/>
       <c r="AB252" s="7"/>
       <c r="AC252" s="7" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="AD252" s="7" t="s">
         <v>97</v>
@@ -23456,16 +23454,16 @@
         <v>40</v>
       </c>
       <c r="D253" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E253" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F253" s="7" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G253" s="7" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H253" s="7" t="s">
         <v>92</v>
@@ -23477,7 +23475,7 @@
       <c r="K253" s="7"/>
       <c r="L253" s="7"/>
       <c r="M253" s="7" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="N253" s="11" t="s">
         <v>102</v>
@@ -23496,14 +23494,14 @@
       <c r="V253" s="7"/>
       <c r="W253" s="7"/>
       <c r="X253" s="7" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="Y253" s="7"/>
       <c r="Z253" s="7"/>
       <c r="AA253" s="19"/>
       <c r="AB253" s="7"/>
       <c r="AC253" s="7" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="AD253" s="7" t="s">
         <v>97</v>
@@ -23535,16 +23533,16 @@
         <v>40</v>
       </c>
       <c r="D254" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E254" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F254" s="7" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="G254" s="7" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H254" s="7" t="s">
         <v>92</v>
@@ -23575,14 +23573,14 @@
       <c r="V254" s="7"/>
       <c r="W254" s="7"/>
       <c r="X254" s="7" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="Y254" s="7"/>
       <c r="Z254" s="7"/>
       <c r="AA254" s="19"/>
       <c r="AB254" s="7"/>
       <c r="AC254" s="7" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="AD254" s="7" t="s">
         <v>97</v>
@@ -23614,16 +23612,16 @@
         <v>40</v>
       </c>
       <c r="D255" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E255" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F255" s="7" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="G255" s="7" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H255" s="7" t="s">
         <v>92</v>
@@ -23654,14 +23652,14 @@
       <c r="V255" s="7"/>
       <c r="W255" s="7"/>
       <c r="X255" s="7" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="Y255" s="7"/>
       <c r="Z255" s="7"/>
       <c r="AA255" s="19"/>
       <c r="AB255" s="7"/>
       <c r="AC255" s="7" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="AD255" s="7" t="s">
         <v>97</v>
@@ -23693,16 +23691,16 @@
         <v>40</v>
       </c>
       <c r="D256" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E256" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F256" s="7" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="G256" s="7" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H256" s="7" t="s">
         <v>92</v>
@@ -23733,14 +23731,14 @@
       <c r="V256" s="7"/>
       <c r="W256" s="7"/>
       <c r="X256" s="7" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="Y256" s="7"/>
       <c r="Z256" s="7"/>
       <c r="AA256" s="19"/>
       <c r="AB256" s="7"/>
       <c r="AC256" s="7" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="AD256" s="7" t="s">
         <v>97</v>
@@ -23772,16 +23770,16 @@
         <v>40</v>
       </c>
       <c r="D257" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E257" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F257" s="7" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G257" s="7" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H257" s="7" t="s">
         <v>92</v>
@@ -23793,7 +23791,7 @@
       <c r="K257" s="7"/>
       <c r="L257" s="7"/>
       <c r="M257" s="7" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="N257" s="11" t="s">
         <v>138</v>
@@ -23812,14 +23810,14 @@
       <c r="V257" s="7"/>
       <c r="W257" s="7"/>
       <c r="X257" s="7" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="Y257" s="7"/>
       <c r="Z257" s="7"/>
       <c r="AA257" s="19"/>
       <c r="AB257" s="7"/>
       <c r="AC257" s="7" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="AD257" s="7" t="s">
         <v>97</v>
@@ -23851,16 +23849,16 @@
         <v>40</v>
       </c>
       <c r="D258" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E258" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F258" s="7" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G258" s="7" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H258" s="7" t="s">
         <v>92</v>
@@ -23891,14 +23889,14 @@
       <c r="V258" s="7"/>
       <c r="W258" s="7"/>
       <c r="X258" s="7" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="Y258" s="7"/>
       <c r="Z258" s="7"/>
       <c r="AA258" s="19"/>
       <c r="AB258" s="7"/>
       <c r="AC258" s="7" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="AD258" s="7" t="s">
         <v>97</v>
@@ -23930,16 +23928,16 @@
         <v>40</v>
       </c>
       <c r="D259" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E259" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F259" s="7" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G259" s="7" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H259" s="7" t="s">
         <v>92</v>
@@ -23970,14 +23968,14 @@
       <c r="V259" s="7"/>
       <c r="W259" s="7"/>
       <c r="X259" s="7" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="Y259" s="7"/>
       <c r="Z259" s="7"/>
       <c r="AA259" s="19"/>
       <c r="AB259" s="7"/>
       <c r="AC259" s="7" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="AD259" s="7" t="s">
         <v>97</v>
@@ -24012,16 +24010,16 @@
         <v>41</v>
       </c>
       <c r="E260" s="7" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="F260" s="7" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G260" s="7" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H260" s="7" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="I260" s="7"/>
       <c r="J260" s="8" t="n">
@@ -24030,26 +24028,26 @@
       <c r="K260" s="7"/>
       <c r="L260" s="7"/>
       <c r="M260" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N260" s="11" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="O260" s="11" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="P260" s="11"/>
       <c r="Q260" s="7"/>
       <c r="R260" s="7"/>
       <c r="S260" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="T260" s="7"/>
       <c r="U260" s="7"/>
       <c r="V260" s="7"/>
       <c r="W260" s="7"/>
       <c r="X260" s="7" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="Y260" s="7"/>
       <c r="Z260" s="7"/>
@@ -24057,7 +24055,7 @@
       <c r="AB260" s="7"/>
       <c r="AC260" s="7"/>
       <c r="AD260" s="7" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AE260" s="16" t="n">
         <v>0.0625</v>
@@ -24088,19 +24086,19 @@
         <v>40</v>
       </c>
       <c r="D261" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E261" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F261" s="7" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G261" s="7" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H261" s="7" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="I261" s="7"/>
       <c r="J261" s="7" t="n">
@@ -24114,7 +24112,7 @@
       <c r="P261" s="11"/>
       <c r="Q261" s="7"/>
       <c r="R261" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="S261" s="7"/>
       <c r="T261" s="7"/>
@@ -24122,14 +24120,14 @@
       <c r="V261" s="7"/>
       <c r="W261" s="7"/>
       <c r="X261" s="7" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="Y261" s="7"/>
       <c r="Z261" s="7"/>
       <c r="AA261" s="19"/>
       <c r="AB261" s="7"/>
       <c r="AC261" s="7" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="AD261" s="7" t="s">
         <v>97</v>
@@ -24148,7 +24146,7 @@
         <v>244</v>
       </c>
       <c r="AL261" s="13" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="AM261" s="23" t="n">
         <v>502</v>
@@ -24165,16 +24163,16 @@
         <v>40</v>
       </c>
       <c r="D262" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E262" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F262" s="7" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="G262" s="7" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H262" s="7" t="s">
         <v>92</v>
@@ -24186,7 +24184,7 @@
       <c r="K262" s="7"/>
       <c r="L262" s="7"/>
       <c r="M262" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N262" s="11" t="n">
         <v>4607042434877</v>
@@ -24205,14 +24203,14 @@
       <c r="V262" s="7"/>
       <c r="W262" s="7"/>
       <c r="X262" s="7" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="Y262" s="7"/>
       <c r="Z262" s="7"/>
       <c r="AA262" s="19"/>
       <c r="AB262" s="7"/>
       <c r="AC262" s="7" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="AD262" s="7" t="s">
         <v>97</v>
@@ -24244,16 +24242,16 @@
         <v>40</v>
       </c>
       <c r="D263" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E263" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F263" s="7" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="G263" s="7" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H263" s="7" t="s">
         <v>92</v>
@@ -24265,7 +24263,7 @@
       <c r="K263" s="7"/>
       <c r="L263" s="7"/>
       <c r="M263" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N263" s="11" t="n">
         <v>4607042434891</v>
@@ -24284,14 +24282,14 @@
       <c r="V263" s="7"/>
       <c r="W263" s="7"/>
       <c r="X263" s="7" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="Y263" s="7"/>
       <c r="Z263" s="7"/>
       <c r="AA263" s="19"/>
       <c r="AB263" s="7"/>
       <c r="AC263" s="7" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="AD263" s="7" t="s">
         <v>97</v>
@@ -24323,16 +24321,16 @@
         <v>40</v>
       </c>
       <c r="D264" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E264" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F264" s="7" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="G264" s="7" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H264" s="7" t="s">
         <v>92</v>
@@ -24344,7 +24342,7 @@
       <c r="K264" s="7"/>
       <c r="L264" s="7"/>
       <c r="M264" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N264" s="11" t="n">
         <v>4607042438738</v>
@@ -24363,14 +24361,14 @@
       <c r="V264" s="7"/>
       <c r="W264" s="7"/>
       <c r="X264" s="7" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="Y264" s="7"/>
       <c r="Z264" s="7"/>
       <c r="AA264" s="19"/>
       <c r="AB264" s="7"/>
       <c r="AC264" s="7" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="AD264" s="7" t="s">
         <v>97</v>
@@ -24402,16 +24400,16 @@
         <v>40</v>
       </c>
       <c r="D265" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E265" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F265" s="7" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="G265" s="7" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H265" s="7" t="s">
         <v>92</v>
@@ -24423,7 +24421,7 @@
       <c r="K265" s="7"/>
       <c r="L265" s="7"/>
       <c r="M265" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N265" s="11" t="n">
         <v>4607042439155</v>
@@ -24442,14 +24440,14 @@
       <c r="V265" s="7"/>
       <c r="W265" s="7"/>
       <c r="X265" s="7" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="Y265" s="7"/>
       <c r="Z265" s="7"/>
       <c r="AA265" s="19"/>
       <c r="AB265" s="7"/>
       <c r="AC265" s="7" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="AD265" s="7" t="s">
         <v>97</v>
@@ -24481,16 +24479,16 @@
         <v>40</v>
       </c>
       <c r="D266" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E266" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F266" s="7" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="G266" s="7" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="H266" s="7" t="s">
         <v>92</v>
@@ -24502,7 +24500,7 @@
       <c r="K266" s="7"/>
       <c r="L266" s="7"/>
       <c r="M266" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N266" s="11" t="n">
         <v>4607042439216</v>
@@ -24521,14 +24519,14 @@
       <c r="V266" s="7"/>
       <c r="W266" s="7"/>
       <c r="X266" s="7" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="Y266" s="7"/>
       <c r="Z266" s="7"/>
       <c r="AA266" s="19"/>
       <c r="AB266" s="7"/>
       <c r="AC266" s="7" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="AD266" s="7" t="s">
         <v>97</v>
@@ -24563,16 +24561,16 @@
         <v>41</v>
       </c>
       <c r="E267" s="7" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F267" s="7" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="G267" s="7" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H267" s="7" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="I267" s="7"/>
       <c r="J267" s="8" t="n">
@@ -24581,26 +24579,26 @@
       <c r="K267" s="7"/>
       <c r="L267" s="7"/>
       <c r="M267" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N267" s="11" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="O267" s="11" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="P267" s="11"/>
       <c r="Q267" s="7"/>
       <c r="R267" s="7"/>
       <c r="S267" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="T267" s="7"/>
       <c r="U267" s="7"/>
       <c r="V267" s="7"/>
       <c r="W267" s="7"/>
       <c r="X267" s="7" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="Y267" s="7"/>
       <c r="Z267" s="7"/>
@@ -24608,7 +24606,7 @@
       <c r="AB267" s="7"/>
       <c r="AC267" s="7"/>
       <c r="AD267" s="7" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AE267" s="16" t="n">
         <v>0.0225</v>
@@ -24639,19 +24637,19 @@
         <v>40</v>
       </c>
       <c r="D268" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E268" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F268" s="7" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="G268" s="7" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H268" s="7" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="I268" s="7"/>
       <c r="J268" s="7" t="n">
@@ -24665,7 +24663,7 @@
       <c r="P268" s="11"/>
       <c r="Q268" s="7"/>
       <c r="R268" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="S268" s="7"/>
       <c r="T268" s="7"/>
@@ -24673,14 +24671,14 @@
       <c r="V268" s="7"/>
       <c r="W268" s="7"/>
       <c r="X268" s="7" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="Y268" s="7"/>
       <c r="Z268" s="7"/>
       <c r="AA268" s="19"/>
       <c r="AB268" s="7"/>
       <c r="AC268" s="7" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="AD268" s="7" t="s">
         <v>97</v>
@@ -24716,13 +24714,13 @@
         <v>40</v>
       </c>
       <c r="D269" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E269" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F269" s="7" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="G269" s="7" t="s">
         <v>197</v>
@@ -24756,14 +24754,14 @@
       <c r="V269" s="7"/>
       <c r="W269" s="7"/>
       <c r="X269" s="7" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="Y269" s="7"/>
       <c r="Z269" s="7"/>
       <c r="AA269" s="19"/>
       <c r="AB269" s="7"/>
       <c r="AC269" s="7" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="AD269" s="7" t="s">
         <v>97</v>
@@ -24798,16 +24796,16 @@
         <v>41</v>
       </c>
       <c r="E270" s="7" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="F270" s="7" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="G270" s="7" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H270" s="7" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="I270" s="7"/>
       <c r="J270" s="8" t="n">
@@ -24816,26 +24814,26 @@
       <c r="K270" s="7"/>
       <c r="L270" s="7"/>
       <c r="M270" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N270" s="11" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="O270" s="11" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="P270" s="11"/>
       <c r="Q270" s="7"/>
       <c r="R270" s="7"/>
       <c r="S270" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="T270" s="7"/>
       <c r="U270" s="7"/>
       <c r="V270" s="7"/>
       <c r="W270" s="7"/>
       <c r="X270" s="7" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="Y270" s="7"/>
       <c r="Z270" s="7"/>
@@ -24843,7 +24841,7 @@
       <c r="AB270" s="7"/>
       <c r="AC270" s="7"/>
       <c r="AD270" s="7" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AE270" s="16" t="n">
         <v>0.0425</v>
@@ -24874,19 +24872,19 @@
         <v>40</v>
       </c>
       <c r="D271" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E271" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F271" s="7" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="G271" s="7" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H271" s="7" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="I271" s="7"/>
       <c r="J271" s="7" t="n">
@@ -24900,7 +24898,7 @@
       <c r="P271" s="11"/>
       <c r="Q271" s="7"/>
       <c r="R271" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="S271" s="7"/>
       <c r="T271" s="7"/>
@@ -24908,14 +24906,14 @@
       <c r="V271" s="7"/>
       <c r="W271" s="7"/>
       <c r="X271" s="7" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="Y271" s="7"/>
       <c r="Z271" s="7"/>
       <c r="AA271" s="19"/>
       <c r="AB271" s="7"/>
       <c r="AC271" s="7" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="AD271" s="7" t="s">
         <v>97</v>
@@ -24934,7 +24932,7 @@
         <v>254</v>
       </c>
       <c r="AL271" s="13" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="AM271" s="23" t="n">
         <v>504</v>
@@ -24951,16 +24949,16 @@
         <v>40</v>
       </c>
       <c r="D272" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E272" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F272" s="7" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="G272" s="7" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H272" s="7" t="s">
         <v>92</v>
@@ -24975,7 +24973,7 @@
         <v>277</v>
       </c>
       <c r="N272" s="11" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="O272" s="11"/>
       <c r="P272" s="11"/>
@@ -24991,14 +24989,14 @@
       <c r="V272" s="7"/>
       <c r="W272" s="7"/>
       <c r="X272" s="7" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="Y272" s="7"/>
       <c r="Z272" s="7"/>
       <c r="AA272" s="19"/>
       <c r="AB272" s="7"/>
       <c r="AC272" s="7" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="AD272" s="7" t="s">
         <v>97</v>
@@ -25030,16 +25028,16 @@
         <v>40</v>
       </c>
       <c r="D273" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E273" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F273" s="7" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="G273" s="7" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H273" s="7" t="s">
         <v>92</v>
@@ -25070,14 +25068,14 @@
       <c r="V273" s="7"/>
       <c r="W273" s="7"/>
       <c r="X273" s="7" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="Y273" s="7"/>
       <c r="Z273" s="7"/>
       <c r="AA273" s="19"/>
       <c r="AB273" s="7"/>
       <c r="AC273" s="7" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="AD273" s="7" t="s">
         <v>97</v>
@@ -25112,16 +25110,16 @@
         <v>41</v>
       </c>
       <c r="E274" s="7" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="F274" s="7" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="G274" s="7" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="H274" s="7" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="I274" s="7"/>
       <c r="J274" s="8" t="n">
@@ -25130,26 +25128,26 @@
       <c r="K274" s="7"/>
       <c r="L274" s="7"/>
       <c r="M274" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N274" s="11" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="O274" s="11" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="P274" s="11"/>
       <c r="Q274" s="7"/>
       <c r="R274" s="7"/>
       <c r="S274" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="T274" s="7"/>
       <c r="U274" s="7"/>
       <c r="V274" s="7"/>
       <c r="W274" s="7"/>
       <c r="X274" s="7" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="Y274" s="7"/>
       <c r="Z274" s="7"/>
@@ -25157,7 +25155,7 @@
       <c r="AB274" s="7"/>
       <c r="AC274" s="7"/>
       <c r="AD274" s="7" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AE274" s="16" t="n">
         <v>0.04</v>
@@ -25191,16 +25189,16 @@
         <v>41</v>
       </c>
       <c r="E275" s="7" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="F275" s="7" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="G275" s="7" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H275" s="7" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="I275" s="7"/>
       <c r="J275" s="7"/>
@@ -25212,7 +25210,7 @@
       <c r="P275" s="11"/>
       <c r="Q275" s="11"/>
       <c r="R275" s="7" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="S275" s="7"/>
       <c r="T275" s="7"/>
@@ -25226,7 +25224,7 @@
       <c r="AB275" s="7"/>
       <c r="AC275" s="7"/>
       <c r="AD275" s="7" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AE275" s="16" t="n">
         <v>0.065</v>
@@ -25234,7 +25232,7 @@
       <c r="AF275" s="7"/>
       <c r="AG275" s="7"/>
       <c r="AH275" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="AI275" s="7"/>
       <c r="AJ275" s="7" t="n">
@@ -25244,7 +25242,7 @@
         <v>258</v>
       </c>
       <c r="AL275" s="13" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="AM275" s="14" t="n">
         <v>311</v>
@@ -25264,16 +25262,16 @@
         <v>41</v>
       </c>
       <c r="E276" s="7" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="F276" s="7" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="G276" s="7" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="H276" s="7" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="I276" s="7"/>
       <c r="J276" s="7" t="n">
@@ -25284,24 +25282,24 @@
       </c>
       <c r="L276" s="7"/>
       <c r="M276" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N276" s="11" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="O276" s="11"/>
       <c r="P276" s="11"/>
       <c r="Q276" s="11"/>
       <c r="R276" s="7"/>
       <c r="S276" s="7" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="T276" s="7"/>
       <c r="U276" s="7"/>
       <c r="V276" s="7"/>
       <c r="W276" s="7"/>
       <c r="X276" s="25" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="Y276" s="7"/>
       <c r="Z276" s="7"/>
@@ -25341,16 +25339,16 @@
         <v>41</v>
       </c>
       <c r="E277" s="7" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="F277" s="7" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="G277" s="7" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="H277" s="7" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="I277" s="7"/>
       <c r="J277" s="7" t="n">
@@ -25359,24 +25357,24 @@
       <c r="K277" s="7"/>
       <c r="L277" s="7"/>
       <c r="M277" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N277" s="11" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="O277" s="11"/>
       <c r="P277" s="11"/>
       <c r="Q277" s="11"/>
       <c r="R277" s="7"/>
       <c r="S277" s="7" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="T277" s="7"/>
       <c r="U277" s="7"/>
       <c r="V277" s="7"/>
       <c r="W277" s="7"/>
       <c r="X277" s="25" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="Y277" s="7"/>
       <c r="Z277" s="7"/>
@@ -25416,16 +25414,16 @@
         <v>41</v>
       </c>
       <c r="E278" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F278" s="7" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="G278" s="7" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H278" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="I278" s="7"/>
       <c r="J278" s="7" t="n">
@@ -25440,16 +25438,16 @@
       <c r="Q278" s="11"/>
       <c r="R278" s="7"/>
       <c r="S278" s="7" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="T278" s="7"/>
       <c r="U278" s="7"/>
       <c r="V278" s="7" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="W278" s="7"/>
       <c r="X278" s="7" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="Y278" s="7"/>
       <c r="Z278" s="7"/>
@@ -25465,10 +25463,10 @@
       <c r="AF278" s="7"/>
       <c r="AG278" s="7"/>
       <c r="AH278" s="7" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="AI278" s="7" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="AJ278" s="7" t="n">
         <v>2</v>
@@ -25495,16 +25493,16 @@
         <v>41</v>
       </c>
       <c r="E279" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F279" s="7" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="G279" s="7" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H279" s="27" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="I279" s="7"/>
       <c r="J279" s="7"/>
@@ -25515,24 +25513,24 @@
         <v>15</v>
       </c>
       <c r="M279" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N279" s="11" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="O279" s="11"/>
       <c r="P279" s="11"/>
       <c r="Q279" s="11"/>
       <c r="R279" s="7"/>
       <c r="S279" s="7" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="T279" s="7"/>
       <c r="U279" s="7"/>
       <c r="V279" s="7"/>
       <c r="W279" s="7"/>
       <c r="X279" s="7" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="Y279" s="7"/>
       <c r="Z279" s="7"/>
@@ -25548,10 +25546,10 @@
       <c r="AF279" s="7"/>
       <c r="AG279" s="7"/>
       <c r="AH279" s="7" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="AI279" s="7" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="AJ279" s="7" t="n">
         <v>2</v>
@@ -25578,13 +25576,13 @@
         <v>41</v>
       </c>
       <c r="E280" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F280" s="7" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="G280" s="7" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="H280" s="7" t="s">
         <v>87</v>
@@ -25599,7 +25597,7 @@
       <c r="P280" s="11"/>
       <c r="Q280" s="11"/>
       <c r="R280" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="S280" s="7"/>
       <c r="T280" s="7"/>
@@ -25607,7 +25605,7 @@
       <c r="V280" s="7"/>
       <c r="W280" s="7"/>
       <c r="X280" s="7" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="Y280" s="7"/>
       <c r="Z280" s="7"/>
@@ -25615,7 +25613,7 @@
       <c r="AB280" s="7"/>
       <c r="AC280" s="7"/>
       <c r="AD280" s="7" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="AE280" s="16" t="n">
         <v>0.01625</v>
@@ -25625,10 +25623,10 @@
         <v>1</v>
       </c>
       <c r="AH280" s="7" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="AI280" s="7" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="AJ280" s="7" t="n">
         <v>2</v>
@@ -25637,7 +25635,7 @@
         <v>263</v>
       </c>
       <c r="AL280" s="13" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="AM280" s="26" t="n">
         <v>312</v>
@@ -25658,10 +25656,10 @@
       </c>
       <c r="E281" s="7"/>
       <c r="F281" s="7" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="G281" s="7" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H281" s="7" t="s">
         <v>87</v>
@@ -25684,7 +25682,7 @@
       <c r="V281" s="7"/>
       <c r="W281" s="7"/>
       <c r="X281" s="7" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="Y281" s="7"/>
       <c r="Z281" s="7"/>
@@ -25698,10 +25696,10 @@
       <c r="AF281" s="28"/>
       <c r="AG281" s="7"/>
       <c r="AH281" s="7" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="AI281" s="7" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="AJ281" s="7" t="n">
         <v>3</v>
@@ -25710,7 +25708,7 @@
         <v>264</v>
       </c>
       <c r="AL281" s="13" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="AM281" s="7" t="n">
         <v>263</v>
@@ -25731,13 +25729,13 @@
       </c>
       <c r="E282" s="7"/>
       <c r="F282" s="7" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="G282" s="7" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="H282" s="7" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="I282" s="7"/>
       <c r="J282" s="7" t="n">
@@ -25746,47 +25744,47 @@
       <c r="K282" s="7"/>
       <c r="L282" s="7"/>
       <c r="M282" s="7" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="N282" s="11" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="O282" s="11"/>
       <c r="P282" s="11"/>
       <c r="Q282" s="11" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="R282" s="7" t="s">
         <v>93</v>
       </c>
       <c r="S282" s="14" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="T282" s="7"/>
       <c r="U282" s="7"/>
       <c r="V282" s="7"/>
       <c r="W282" s="7"/>
       <c r="X282" s="7" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="Y282" s="7" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="Z282" s="7"/>
       <c r="AA282" s="7"/>
       <c r="AB282" s="7"/>
       <c r="AC282" s="7"/>
       <c r="AD282" s="7" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="AE282" s="10"/>
       <c r="AF282" s="7"/>
       <c r="AG282" s="7"/>
       <c r="AH282" s="7" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="AI282" s="7" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="AJ282" s="7" t="n">
         <v>4</v>
@@ -25814,13 +25812,13 @@
       </c>
       <c r="E283" s="7"/>
       <c r="F283" s="7" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="G283" s="7" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H283" s="7" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="I283" s="7"/>
       <c r="J283" s="7" t="n">
@@ -25829,47 +25827,47 @@
       <c r="K283" s="7"/>
       <c r="L283" s="7"/>
       <c r="M283" s="7" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="N283" s="11" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="O283" s="11"/>
       <c r="P283" s="11"/>
       <c r="Q283" s="11" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="R283" s="7" t="s">
         <v>93</v>
       </c>
       <c r="S283" s="14" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="T283" s="7"/>
       <c r="U283" s="7"/>
       <c r="V283" s="7"/>
       <c r="W283" s="7"/>
       <c r="X283" s="7" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="Y283" s="7" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="Z283" s="7"/>
       <c r="AA283" s="7"/>
       <c r="AB283" s="7"/>
       <c r="AC283" s="7"/>
       <c r="AD283" s="7" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="AE283" s="10"/>
       <c r="AF283" s="7"/>
       <c r="AG283" s="7"/>
       <c r="AH283" s="7" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="AI283" s="7" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="AJ283" s="7" t="n">
         <v>4</v>
@@ -25897,13 +25895,13 @@
       </c>
       <c r="E284" s="7"/>
       <c r="F284" s="7" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="G284" s="7" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="H284" s="7" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="I284" s="7"/>
       <c r="J284" s="7" t="n">
@@ -25917,7 +25915,7 @@
       <c r="P284" s="11"/>
       <c r="Q284" s="11"/>
       <c r="R284" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="S284" s="7"/>
       <c r="T284" s="7"/>
@@ -25925,7 +25923,7 @@
       <c r="V284" s="7"/>
       <c r="W284" s="7"/>
       <c r="X284" s="7" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="Y284" s="7"/>
       <c r="Z284" s="7"/>
@@ -25933,16 +25931,16 @@
       <c r="AB284" s="7"/>
       <c r="AC284" s="7"/>
       <c r="AD284" s="7" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="AE284" s="10"/>
       <c r="AF284" s="7"/>
       <c r="AG284" s="7"/>
       <c r="AH284" s="7" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="AI284" s="7" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="AJ284" s="7" t="n">
         <v>3</v>
@@ -25951,7 +25949,7 @@
         <v>267</v>
       </c>
       <c r="AL284" s="13" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="AM284" s="7" t="n">
         <v>263</v>
@@ -25972,10 +25970,10 @@
       </c>
       <c r="E285" s="7"/>
       <c r="F285" s="7" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="G285" s="7" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="H285" s="7" t="s">
         <v>92</v>
@@ -25987,35 +25985,35 @@
       <c r="K285" s="7"/>
       <c r="L285" s="7"/>
       <c r="M285" s="7" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="N285" s="11" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="O285" s="11"/>
       <c r="P285" s="11"/>
       <c r="Q285" s="11" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="R285" s="7" t="s">
         <v>93</v>
       </c>
       <c r="S285" s="14" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="T285" s="7"/>
       <c r="U285" s="7"/>
       <c r="V285" s="7"/>
       <c r="W285" s="7"/>
       <c r="X285" s="7" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="Y285" s="7"/>
       <c r="Z285" s="7"/>
       <c r="AA285" s="7"/>
       <c r="AB285" s="7"/>
       <c r="AC285" s="7" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="AD285" s="7" t="s">
         <v>97</v>
@@ -26024,10 +26022,10 @@
       <c r="AF285" s="7"/>
       <c r="AG285" s="7"/>
       <c r="AH285" s="7" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="AI285" s="7" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="AJ285" s="7" t="n">
         <v>4</v>
@@ -26055,10 +26053,10 @@
       </c>
       <c r="E286" s="0"/>
       <c r="F286" s="7" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="G286" s="7" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H286" s="7" t="s">
         <v>92</v>
@@ -26070,35 +26068,35 @@
       <c r="K286" s="7"/>
       <c r="L286" s="7"/>
       <c r="M286" s="7" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="N286" s="11" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="O286" s="11"/>
       <c r="P286" s="11"/>
       <c r="Q286" s="11" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="R286" s="7" t="s">
         <v>93</v>
       </c>
       <c r="S286" s="14" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="T286" s="7"/>
       <c r="U286" s="7"/>
       <c r="V286" s="7"/>
       <c r="W286" s="7"/>
       <c r="X286" s="7" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="Y286" s="7"/>
       <c r="Z286" s="7"/>
       <c r="AA286" s="7"/>
       <c r="AB286" s="7"/>
       <c r="AC286" s="7" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="AD286" s="7" t="s">
         <v>97</v>
@@ -26107,10 +26105,10 @@
       <c r="AF286" s="7"/>
       <c r="AG286" s="7"/>
       <c r="AH286" s="7" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="AI286" s="7" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="AJ286" s="7" t="n">
         <v>4</v>
@@ -26138,13 +26136,13 @@
       </c>
       <c r="E287" s="7"/>
       <c r="F287" s="7" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="G287" s="7" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="H287" s="27" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="I287" s="7"/>
       <c r="J287" s="7" t="n">
@@ -26153,10 +26151,10 @@
       <c r="K287" s="7"/>
       <c r="L287" s="7"/>
       <c r="M287" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N287" s="11" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="O287" s="11"/>
       <c r="P287" s="11"/>
@@ -26165,14 +26163,14 @@
         <v>93</v>
       </c>
       <c r="S287" s="14" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="T287" s="7"/>
       <c r="U287" s="7"/>
       <c r="V287" s="7"/>
       <c r="W287" s="7"/>
       <c r="X287" s="7" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="Y287" s="7"/>
       <c r="Z287" s="7"/>
@@ -26186,10 +26184,10 @@
       <c r="AF287" s="7"/>
       <c r="AG287" s="7"/>
       <c r="AH287" s="7" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="AI287" s="7" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="AJ287" s="7" t="n">
         <v>3</v>
@@ -26216,16 +26214,16 @@
         <v>41</v>
       </c>
       <c r="E288" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F288" s="7" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="G288" s="7" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="H288" s="7" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="I288" s="7"/>
       <c r="J288" s="7"/>
@@ -26233,21 +26231,21 @@
       <c r="L288" s="7"/>
       <c r="M288" s="7"/>
       <c r="N288" s="11" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="O288" s="11"/>
       <c r="P288" s="11"/>
       <c r="Q288" s="11"/>
       <c r="R288" s="7"/>
       <c r="S288" s="7" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="T288" s="7"/>
       <c r="U288" s="7"/>
       <c r="V288" s="7"/>
       <c r="W288" s="7"/>
       <c r="X288" s="7" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="Y288" s="7"/>
       <c r="Z288" s="7"/>
@@ -26255,7 +26253,7 @@
       <c r="AB288" s="7"/>
       <c r="AC288" s="7"/>
       <c r="AD288" s="7" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AE288" s="16" t="n">
         <v>0.01625</v>
@@ -26263,10 +26261,10 @@
       <c r="AF288" s="7"/>
       <c r="AG288" s="7"/>
       <c r="AH288" s="7" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="AI288" s="7" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="AJ288" s="7" t="n">
         <v>2</v>
@@ -26290,19 +26288,19 @@
         <v>40</v>
       </c>
       <c r="D289" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E289" s="29" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F289" s="7" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="G289" s="7" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="H289" s="7" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="I289" s="7"/>
       <c r="J289" s="7" t="n">
@@ -26324,7 +26322,7 @@
       <c r="V289" s="7"/>
       <c r="W289" s="7"/>
       <c r="X289" s="25" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="Y289" s="7"/>
       <c r="Z289" s="7"/>
@@ -26332,7 +26330,7 @@
       <c r="AB289" s="7"/>
       <c r="AC289" s="7"/>
       <c r="AD289" s="7" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AE289" s="16" t="n">
         <v>0.03</v>
@@ -26365,19 +26363,19 @@
         <v>40</v>
       </c>
       <c r="D290" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E290" s="29" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F290" s="7" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="G290" s="7" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="H290" s="7" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="I290" s="7"/>
       <c r="J290" s="7" t="n">
@@ -26388,10 +26386,10 @@
       </c>
       <c r="L290" s="7"/>
       <c r="M290" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N290" s="11" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="O290" s="11"/>
       <c r="P290" s="11"/>
@@ -26400,14 +26398,14 @@
         <v>93</v>
       </c>
       <c r="S290" s="7" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="T290" s="7"/>
       <c r="U290" s="7"/>
       <c r="V290" s="7"/>
       <c r="W290" s="7"/>
       <c r="X290" s="25" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="Y290" s="7"/>
       <c r="Z290" s="7"/>
@@ -26415,13 +26413,13 @@
       <c r="AB290" s="7"/>
       <c r="AC290" s="7"/>
       <c r="AD290" s="7" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="AE290" s="10"/>
       <c r="AF290" s="7"/>
       <c r="AG290" s="7"/>
       <c r="AH290" s="7" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="AI290" s="7"/>
       <c r="AJ290" s="7" t="n">
@@ -26446,14 +26444,14 @@
         <v>40</v>
       </c>
       <c r="D291" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E291" s="7"/>
       <c r="F291" s="7" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="G291" s="7" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="H291" s="7" t="s">
         <v>87</v>
@@ -26494,7 +26492,7 @@
         <v>274</v>
       </c>
       <c r="AL291" s="13" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="AM291" s="26" t="n">
         <v>400</v>
@@ -26511,19 +26509,19 @@
         <v>40</v>
       </c>
       <c r="D292" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E292" s="7" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="F292" s="7" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="G292" s="7" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="H292" s="7" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="I292" s="7"/>
       <c r="J292" s="7" t="n">
@@ -26533,7 +26531,7 @@
       <c r="L292" s="7"/>
       <c r="M292" s="7"/>
       <c r="N292" s="7" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="O292" s="11"/>
       <c r="P292" s="11"/>
@@ -26542,7 +26540,7 @@
         <v>93</v>
       </c>
       <c r="S292" s="7" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="T292" s="7"/>
       <c r="U292" s="7"/>
@@ -26550,7 +26548,7 @@
       <c r="W292" s="7"/>
       <c r="X292" s="7"/>
       <c r="Y292" s="7" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="Z292" s="7"/>
       <c r="AA292" s="19"/>
@@ -26588,19 +26586,19 @@
         <v>40</v>
       </c>
       <c r="D293" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E293" s="7" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="F293" s="7" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="G293" s="7" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="H293" s="7" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="I293" s="7"/>
       <c r="J293" s="7" t="n">
@@ -26610,7 +26608,7 @@
       <c r="L293" s="7"/>
       <c r="M293" s="7"/>
       <c r="N293" s="7" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="O293" s="11"/>
       <c r="P293" s="11"/>
@@ -26619,7 +26617,7 @@
         <v>93</v>
       </c>
       <c r="S293" s="7" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="T293" s="7"/>
       <c r="U293" s="7"/>
@@ -26627,7 +26625,7 @@
       <c r="W293" s="7"/>
       <c r="X293" s="7"/>
       <c r="Y293" s="7" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="Z293" s="7"/>
       <c r="AA293" s="19"/>
@@ -26665,19 +26663,19 @@
         <v>40</v>
       </c>
       <c r="D294" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E294" s="7" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="F294" s="7" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="G294" s="7" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="H294" s="7" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="I294" s="7"/>
       <c r="J294" s="7" t="n">
@@ -26687,7 +26685,7 @@
       <c r="L294" s="7"/>
       <c r="M294" s="7"/>
       <c r="N294" s="7" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="O294" s="11"/>
       <c r="P294" s="11"/>
@@ -26696,7 +26694,7 @@
         <v>93</v>
       </c>
       <c r="S294" s="7" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="T294" s="7"/>
       <c r="U294" s="7"/>
@@ -26704,7 +26702,7 @@
       <c r="W294" s="7"/>
       <c r="X294" s="7"/>
       <c r="Y294" s="7" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="Z294" s="7"/>
       <c r="AA294" s="19"/>
@@ -26742,22 +26740,22 @@
         <v>40</v>
       </c>
       <c r="D295" s="7" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="E295" s="29" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="F295" s="26" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G295" s="7" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="H295" s="7" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="I295" s="7" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="J295" s="7"/>
       <c r="K295" s="7"/>
@@ -26769,7 +26767,7 @@
       <c r="Q295" s="7"/>
       <c r="R295" s="7"/>
       <c r="S295" s="7" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="T295" s="7"/>
       <c r="U295" s="7"/>
@@ -26792,7 +26790,7 @@
         <v>278</v>
       </c>
       <c r="AL295" s="13" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="AM295" s="7"/>
     </row>
@@ -26807,22 +26805,22 @@
         <v>40</v>
       </c>
       <c r="D296" s="7" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="E296" s="7" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="F296" s="23" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="G296" s="24" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H296" s="7" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="I296" s="7" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="J296" s="7"/>
       <c r="K296" s="7"/>
@@ -26834,7 +26832,7 @@
       <c r="Q296" s="7"/>
       <c r="R296" s="7"/>
       <c r="S296" s="7" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="T296" s="7"/>
       <c r="U296" s="7"/>
@@ -26857,7 +26855,7 @@
         <v>279</v>
       </c>
       <c r="AL296" s="13" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="AM296" s="7"/>
     </row>
@@ -26872,22 +26870,22 @@
         <v>40</v>
       </c>
       <c r="D297" s="7" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="E297" s="29" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="F297" s="26" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="G297" s="7" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="H297" s="7" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="I297" s="7" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="J297" s="7"/>
       <c r="K297" s="7"/>
@@ -26899,7 +26897,7 @@
       <c r="Q297" s="7"/>
       <c r="R297" s="7"/>
       <c r="S297" s="7" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="T297" s="7"/>
       <c r="U297" s="7"/>
@@ -26922,7 +26920,7 @@
         <v>280</v>
       </c>
       <c r="AL297" s="13" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="AM297" s="7"/>
     </row>
@@ -26937,22 +26935,22 @@
         <v>40</v>
       </c>
       <c r="D298" s="7" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="E298" s="29" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="F298" s="26" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="G298" s="24" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H298" s="7" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="I298" s="7" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="J298" s="7"/>
       <c r="K298" s="7"/>
@@ -26964,7 +26962,7 @@
       <c r="Q298" s="7"/>
       <c r="R298" s="7"/>
       <c r="S298" s="7" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="T298" s="7"/>
       <c r="U298" s="7"/>
@@ -27002,22 +27000,22 @@
         <v>40</v>
       </c>
       <c r="D299" s="7" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="E299" s="29" t="s">
+        <v>893</v>
+      </c>
+      <c r="F299" s="26" t="s">
+        <v>894</v>
+      </c>
+      <c r="G299" s="24" t="s">
+        <v>895</v>
+      </c>
+      <c r="H299" s="7" t="s">
+        <v>896</v>
+      </c>
+      <c r="I299" s="7" t="s">
         <v>892</v>
-      </c>
-      <c r="F299" s="26" t="s">
-        <v>893</v>
-      </c>
-      <c r="G299" s="24" t="s">
-        <v>894</v>
-      </c>
-      <c r="H299" s="7" t="s">
-        <v>895</v>
-      </c>
-      <c r="I299" s="7" t="s">
-        <v>891</v>
       </c>
       <c r="J299" s="7"/>
       <c r="K299" s="7"/>
@@ -27029,7 +27027,7 @@
       <c r="Q299" s="7"/>
       <c r="R299" s="7"/>
       <c r="S299" s="7" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="T299" s="7"/>
       <c r="U299" s="7"/>
@@ -27067,36 +27065,36 @@
         <v>40</v>
       </c>
       <c r="D300" s="7" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="E300" s="29" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="F300" s="26" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="G300" s="7" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="H300" s="7" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="I300" s="7" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="J300" s="7"/>
       <c r="K300" s="7"/>
       <c r="L300" s="7"/>
       <c r="M300" s="7"/>
       <c r="N300" s="7" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="O300" s="7"/>
       <c r="P300" s="7"/>
       <c r="Q300" s="7"/>
       <c r="R300" s="7"/>
       <c r="S300" s="7" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="T300" s="7"/>
       <c r="U300" s="7"/>
@@ -27132,36 +27130,36 @@
         <v>40</v>
       </c>
       <c r="D301" s="7" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="E301" s="29" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="F301" s="26" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="G301" s="7" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="H301" s="7" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="I301" s="7" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="J301" s="7"/>
       <c r="K301" s="7"/>
       <c r="L301" s="7"/>
       <c r="M301" s="7"/>
       <c r="N301" s="7" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="O301" s="7"/>
       <c r="P301" s="7"/>
       <c r="Q301" s="7"/>
       <c r="R301" s="7"/>
       <c r="S301" s="7" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="T301" s="7"/>
       <c r="U301" s="7"/>
@@ -27197,38 +27195,38 @@
         <v>40</v>
       </c>
       <c r="D302" s="7" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="E302" s="29" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="F302" s="26" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="G302" s="7" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="H302" s="7" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="I302" s="7" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="J302" s="7"/>
       <c r="K302" s="7"/>
       <c r="L302" s="7"/>
       <c r="M302" s="14" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="N302" s="13" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="O302" s="7"/>
       <c r="P302" s="7"/>
       <c r="Q302" s="7"/>
       <c r="R302" s="7"/>
       <c r="S302" s="7" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="T302" s="7"/>
       <c r="U302" s="7"/>
@@ -27266,38 +27264,38 @@
         <v>40</v>
       </c>
       <c r="D303" s="7" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="E303" s="29" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="F303" s="26" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="G303" s="7" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="H303" s="7" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="I303" s="7" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="J303" s="7"/>
       <c r="K303" s="7"/>
       <c r="L303" s="7"/>
       <c r="M303" s="14" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="N303" s="13" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="O303" s="7"/>
       <c r="P303" s="7"/>
       <c r="Q303" s="7"/>
       <c r="R303" s="7"/>
       <c r="S303" s="7" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="T303" s="7"/>
       <c r="U303" s="7"/>
@@ -27333,38 +27331,38 @@
         <v>40</v>
       </c>
       <c r="D304" s="7" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="E304" s="29" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="F304" s="26" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="G304" s="7" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="H304" s="7" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="I304" s="7" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="J304" s="7"/>
       <c r="K304" s="7"/>
       <c r="L304" s="7"/>
       <c r="M304" s="14" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="N304" s="13" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="O304" s="7"/>
       <c r="P304" s="7"/>
       <c r="Q304" s="7"/>
       <c r="R304" s="7"/>
       <c r="S304" s="7" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="T304" s="7"/>
       <c r="U304" s="7"/>
@@ -27400,38 +27398,38 @@
         <v>40</v>
       </c>
       <c r="D305" s="7" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="E305" s="29" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="F305" s="26" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="G305" s="7" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="H305" s="7" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="I305" s="7" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="J305" s="7"/>
       <c r="K305" s="7"/>
       <c r="L305" s="7"/>
       <c r="M305" s="14" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="N305" s="30" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="O305" s="7"/>
       <c r="P305" s="7"/>
       <c r="Q305" s="7"/>
       <c r="R305" s="7"/>
       <c r="S305" s="7" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="T305" s="7"/>
       <c r="U305" s="7"/>
@@ -27467,38 +27465,38 @@
         <v>40</v>
       </c>
       <c r="D306" s="7" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="E306" s="29" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="F306" s="26" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="G306" s="7" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="H306" s="7" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="I306" s="7" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="J306" s="7"/>
       <c r="K306" s="7"/>
       <c r="L306" s="7"/>
       <c r="M306" s="14" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="N306" s="30" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="O306" s="7"/>
       <c r="P306" s="7"/>
       <c r="Q306" s="7"/>
       <c r="R306" s="7"/>
       <c r="S306" s="7" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="T306" s="7"/>
       <c r="U306" s="7"/>
@@ -27534,38 +27532,38 @@
         <v>40</v>
       </c>
       <c r="D307" s="7" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="E307" s="29" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="F307" s="26" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="G307" s="7" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="H307" s="7" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="I307" s="7" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="J307" s="7"/>
       <c r="K307" s="7"/>
       <c r="L307" s="7"/>
       <c r="M307" s="14" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="N307" s="13" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="O307" s="7"/>
       <c r="P307" s="7"/>
       <c r="Q307" s="7"/>
       <c r="R307" s="7"/>
       <c r="S307" s="7" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="T307" s="7"/>
       <c r="U307" s="7"/>
@@ -27601,38 +27599,38 @@
         <v>40</v>
       </c>
       <c r="D308" s="7" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="E308" s="29" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="F308" s="26" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="G308" s="7" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="H308" s="7" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="I308" s="7" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="J308" s="7"/>
       <c r="K308" s="7"/>
       <c r="L308" s="7"/>
       <c r="M308" s="14" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="N308" s="13" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="O308" s="7"/>
       <c r="P308" s="7"/>
       <c r="Q308" s="7"/>
       <c r="R308" s="7"/>
       <c r="S308" s="7" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="T308" s="7"/>
       <c r="U308" s="7"/>
@@ -27658,7 +27656,6 @@
       <c r="AM308" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM308"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -27666,7 +27663,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -27706,10 +27702,10 @@
         <v>12</v>
       </c>
       <c r="G1" s="32" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="H1" s="32" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="I1" s="32" t="s">
         <v>33</v>
@@ -27718,18 +27714,18 @@
         <v>30</v>
       </c>
       <c r="K1" s="32" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="L1" s="32" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="M1" s="32" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="33" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Hypermarket - CAP.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Hypermarket - CAP.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Alcomarket" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AN$309</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Hypermarket!$A$1:$AN$309</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">Hypermarket!$A$1:$AN$309</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AN$309</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3937" uniqueCount="925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3945" uniqueCount="928">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -3054,6 +3055,15 @@
   <si>
     <t xml:space="preserve">MeTimeAtH
 No_O_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RD38000019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan</t>
   </si>
   <si>
     <t xml:space="preserve">Scene</t>
@@ -3306,7 +3316,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3515,6 +3525,18 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="2" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3600,56 +3622,60 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AN309"/>
+  <dimension ref="1:310"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A292" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G134" activeCellId="0" sqref="G134:H134"/>
+      <selection pane="bottomLeft" activeCell="A310" activeCellId="0" sqref="A310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="49.3805668016194"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="96.4089068825911"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="47.7732793522267"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="49.7044534412956"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="97.2631578947368"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="48.2024291497976"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="3" width="9"/>
     <col collapsed="false" hidden="false" max="13" min="12" style="3" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="43.8097165991903"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="44.1336032388664"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="1" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="82.0526315789474"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="53.0242914979757"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="82.6963562753036"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="53.4534412955466"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="25.9230769230769"/>
     <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="61.4858299595142"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="61.914979757085"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="22.2793522267206"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="39" min="39" style="1" width="10.6032388663968"/>
@@ -28090,7 +28116,79 @@
       </c>
       <c r="AN309" s="11"/>
     </row>
+    <row r="310" s="54" customFormat="true" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A310" s="12" t="n">
+        <v>521</v>
+      </c>
+      <c r="B310" s="11" t="s">
+        <v>919</v>
+      </c>
+      <c r="C310" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D310" s="12" t="s">
+        <v>865</v>
+      </c>
+      <c r="E310" s="44"/>
+      <c r="F310" s="44" t="s">
+        <v>920</v>
+      </c>
+      <c r="G310" s="44" t="s">
+        <v>921</v>
+      </c>
+      <c r="H310" s="12" t="s">
+        <v>921</v>
+      </c>
+      <c r="I310" s="12" t="s">
+        <v>921</v>
+      </c>
+      <c r="J310" s="12"/>
+      <c r="K310" s="12"/>
+      <c r="L310" s="12"/>
+      <c r="M310" s="12"/>
+      <c r="N310" s="52"/>
+      <c r="O310" s="12"/>
+      <c r="P310" s="12"/>
+      <c r="Q310" s="12"/>
+      <c r="R310" s="12"/>
+      <c r="S310" s="12"/>
+      <c r="T310" s="12" t="s">
+        <v>871</v>
+      </c>
+      <c r="U310" s="12"/>
+      <c r="V310" s="12"/>
+      <c r="W310" s="12"/>
+      <c r="X310" s="12"/>
+      <c r="Y310" s="12"/>
+      <c r="Z310" s="12"/>
+      <c r="AA310" s="12"/>
+      <c r="AB310" s="12"/>
+      <c r="AC310" s="12"/>
+      <c r="AD310" s="12"/>
+      <c r="AE310" s="53"/>
+      <c r="AF310" s="12"/>
+      <c r="AG310" s="12"/>
+      <c r="AH310" s="12"/>
+      <c r="AI310" s="12"/>
+      <c r="AJ310" s="12"/>
+      <c r="AK310" s="12"/>
+      <c r="AL310" s="12" t="n">
+        <v>521</v>
+      </c>
+      <c r="AM310" s="12"/>
+      <c r="AN310" s="12"/>
+      <c r="AMB310" s="0"/>
+      <c r="AMC310" s="0"/>
+      <c r="AMD310" s="0"/>
+      <c r="AME310" s="0"/>
+      <c r="AMF310" s="0"/>
+      <c r="AMG310" s="0"/>
+      <c r="AMH310" s="0"/>
+      <c r="AMI310" s="0"/>
+      <c r="AMJ310" s="0"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:AN309"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -28098,6 +28196,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -28109,7 +28208,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="G134:H134 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28118,49 +28217,49 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="53" t="s">
-        <v>919</v>
-      </c>
-      <c r="H1" s="53" t="s">
-        <v>920</v>
-      </c>
-      <c r="I1" s="53" t="s">
+      <c r="G1" s="56" t="s">
+        <v>922</v>
+      </c>
+      <c r="H1" s="56" t="s">
+        <v>923</v>
+      </c>
+      <c r="I1" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="53" t="s">
+      <c r="J1" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="53" t="s">
-        <v>921</v>
-      </c>
-      <c r="L1" s="53" t="s">
-        <v>922</v>
-      </c>
-      <c r="M1" s="53" t="s">
-        <v>923</v>
+      <c r="K1" s="56" t="s">
+        <v>924</v>
+      </c>
+      <c r="L1" s="56" t="s">
+        <v>925</v>
+      </c>
+      <c r="M1" s="56" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="54" t="s">
-        <v>924</v>
+      <c r="B4" s="57" t="s">
+        <v>927</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Hypermarket - CAP.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Hypermarket - CAP.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Alcomarket" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AN$309</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Hypermarket!$A$1:$AN$309</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">Hypermarket!$A$1:$AN$309</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AN$309</definedName>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3945" uniqueCount="928">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3937" uniqueCount="925">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -3055,15 +3054,6 @@
   <si>
     <t xml:space="preserve">MeTimeAtH
 No_O_A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RD38000019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plan</t>
   </si>
   <si>
     <t xml:space="preserve">Scene</t>
@@ -3316,7 +3306,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="55">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3525,18 +3515,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="2" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3622,60 +3600,56 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:310"/>
+  <dimension ref="A1:AN309"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A292" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A310" activeCellId="0" sqref="A310"/>
+      <selection pane="bottomLeft" activeCell="G134" activeCellId="0" sqref="G134:H134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="49.7044534412956"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="97.2631578947368"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="48.2024291497976"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="49.3805668016194"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="96.4089068825911"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="47.7732793522267"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="3" width="9"/>
     <col collapsed="false" hidden="false" max="13" min="12" style="3" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="44.1336032388664"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="31.17004048583"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="43.8097165991903"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="1" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="82.6963562753036"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="53.4534412955466"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="82.0526315789474"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="53.0242914979757"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="25.8137651821862"/>
     <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="61.914979757085"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="61.4858299595142"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="22.0647773279352"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="39" min="39" style="1" width="10.6032388663968"/>
@@ -28116,79 +28090,7 @@
       </c>
       <c r="AN309" s="11"/>
     </row>
-    <row r="310" s="54" customFormat="true" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A310" s="12" t="n">
-        <v>521</v>
-      </c>
-      <c r="B310" s="11" t="s">
-        <v>919</v>
-      </c>
-      <c r="C310" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D310" s="12" t="s">
-        <v>865</v>
-      </c>
-      <c r="E310" s="44"/>
-      <c r="F310" s="44" t="s">
-        <v>920</v>
-      </c>
-      <c r="G310" s="44" t="s">
-        <v>921</v>
-      </c>
-      <c r="H310" s="12" t="s">
-        <v>921</v>
-      </c>
-      <c r="I310" s="12" t="s">
-        <v>921</v>
-      </c>
-      <c r="J310" s="12"/>
-      <c r="K310" s="12"/>
-      <c r="L310" s="12"/>
-      <c r="M310" s="12"/>
-      <c r="N310" s="52"/>
-      <c r="O310" s="12"/>
-      <c r="P310" s="12"/>
-      <c r="Q310" s="12"/>
-      <c r="R310" s="12"/>
-      <c r="S310" s="12"/>
-      <c r="T310" s="12" t="s">
-        <v>871</v>
-      </c>
-      <c r="U310" s="12"/>
-      <c r="V310" s="12"/>
-      <c r="W310" s="12"/>
-      <c r="X310" s="12"/>
-      <c r="Y310" s="12"/>
-      <c r="Z310" s="12"/>
-      <c r="AA310" s="12"/>
-      <c r="AB310" s="12"/>
-      <c r="AC310" s="12"/>
-      <c r="AD310" s="12"/>
-      <c r="AE310" s="53"/>
-      <c r="AF310" s="12"/>
-      <c r="AG310" s="12"/>
-      <c r="AH310" s="12"/>
-      <c r="AI310" s="12"/>
-      <c r="AJ310" s="12"/>
-      <c r="AK310" s="12"/>
-      <c r="AL310" s="12" t="n">
-        <v>521</v>
-      </c>
-      <c r="AM310" s="12"/>
-      <c r="AN310" s="12"/>
-      <c r="AMB310" s="0"/>
-      <c r="AMC310" s="0"/>
-      <c r="AMD310" s="0"/>
-      <c r="AME310" s="0"/>
-      <c r="AMF310" s="0"/>
-      <c r="AMG310" s="0"/>
-      <c r="AMH310" s="0"/>
-      <c r="AMI310" s="0"/>
-      <c r="AMJ310" s="0"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AN309"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -28196,7 +28098,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -28208,7 +28109,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="G134:H134 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28217,49 +28118,49 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="53" t="s">
+        <v>919</v>
+      </c>
+      <c r="H1" s="53" t="s">
+        <v>920</v>
+      </c>
+      <c r="I1" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="53" t="s">
+        <v>921</v>
+      </c>
+      <c r="L1" s="53" t="s">
         <v>922</v>
       </c>
-      <c r="H1" s="56" t="s">
+      <c r="M1" s="53" t="s">
         <v>923</v>
       </c>
-      <c r="I1" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="56" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="54" t="s">
         <v>924</v>
-      </c>
-      <c r="L1" s="56" t="s">
-        <v>925</v>
-      </c>
-      <c r="M1" s="56" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="57" t="s">
-        <v>927</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Hypermarket - CAP.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Hypermarket - CAP.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Hypermarket" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Alcomarket" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AN$310</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Hypermarket!$A$1:$AN$309</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">Hypermarket!$A$1:$AN$309</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AN$309</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3937" uniqueCount="925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3945" uniqueCount="927">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -3054,6 +3055,12 @@
   <si>
     <t xml:space="preserve">MeTimeAtH
 No_O_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan</t>
   </si>
   <si>
     <t xml:space="preserve">Scene</t>
@@ -3306,7 +3313,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3515,6 +3522,18 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3600,56 +3619,60 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AN309"/>
+  <dimension ref="1:310"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A292" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G134" activeCellId="0" sqref="G134:H134"/>
+      <selection pane="bottomLeft" activeCell="F314" activeCellId="0" sqref="F314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="49.3805668016194"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="96.4089068825911"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="47.7732793522267"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="49.7044534412956"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="97.2631578947368"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="48.2024291497976"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="3" width="9"/>
     <col collapsed="false" hidden="false" max="13" min="12" style="3" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="43.8097165991903"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="44.1336032388664"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="1" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="82.0526315789474"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="53.0242914979757"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="82.6963562753036"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="53.4534412955466"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="25.9230769230769"/>
     <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="61.4858299595142"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="61.914979757085"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="22.2793522267206"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="39" min="39" style="1" width="10.6032388663968"/>
@@ -28090,7 +28113,71 @@
       </c>
       <c r="AN309" s="11"/>
     </row>
+    <row r="310" s="54" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="11" t="n">
+        <v>521</v>
+      </c>
+      <c r="B310" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C310" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D310" s="11" t="s">
+        <v>865</v>
+      </c>
+      <c r="E310" s="52"/>
+      <c r="F310" s="44"/>
+      <c r="G310" s="52" t="s">
+        <v>919</v>
+      </c>
+      <c r="H310" s="52" t="s">
+        <v>920</v>
+      </c>
+      <c r="I310" s="11" t="s">
+        <v>920</v>
+      </c>
+      <c r="J310" s="11" t="s">
+        <v>870</v>
+      </c>
+      <c r="K310" s="53"/>
+      <c r="L310" s="53"/>
+      <c r="M310" s="11"/>
+      <c r="N310" s="51"/>
+      <c r="O310" s="11"/>
+      <c r="P310" s="11"/>
+      <c r="Q310" s="11"/>
+      <c r="R310" s="11"/>
+      <c r="S310" s="11"/>
+      <c r="T310" s="11" t="s">
+        <v>871</v>
+      </c>
+      <c r="U310" s="11"/>
+      <c r="V310" s="11"/>
+      <c r="W310" s="11"/>
+      <c r="X310" s="11"/>
+      <c r="Y310" s="11"/>
+      <c r="Z310" s="11"/>
+      <c r="AA310" s="11"/>
+      <c r="AB310" s="11"/>
+      <c r="AC310" s="11"/>
+      <c r="AD310" s="16"/>
+      <c r="AE310" s="11"/>
+      <c r="AF310" s="11"/>
+      <c r="AG310" s="11"/>
+      <c r="AH310" s="11"/>
+      <c r="AI310" s="11"/>
+      <c r="AJ310" s="11"/>
+      <c r="AK310" s="11"/>
+      <c r="AL310" s="11" t="n">
+        <v>521</v>
+      </c>
+      <c r="AM310" s="11"/>
+      <c r="AN310" s="11"/>
+      <c r="AMJ310" s="0"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:AN310"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -28098,6 +28185,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -28109,7 +28197,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="G134:H134 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28118,49 +28206,49 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="53" t="s">
-        <v>919</v>
-      </c>
-      <c r="H1" s="53" t="s">
-        <v>920</v>
-      </c>
-      <c r="I1" s="53" t="s">
+      <c r="G1" s="56" t="s">
+        <v>921</v>
+      </c>
+      <c r="H1" s="56" t="s">
+        <v>922</v>
+      </c>
+      <c r="I1" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="53" t="s">
+      <c r="J1" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="53" t="s">
-        <v>921</v>
-      </c>
-      <c r="L1" s="53" t="s">
-        <v>922</v>
-      </c>
-      <c r="M1" s="53" t="s">
+      <c r="K1" s="56" t="s">
         <v>923</v>
       </c>
+      <c r="L1" s="56" t="s">
+        <v>924</v>
+      </c>
+      <c r="M1" s="56" t="s">
+        <v>925</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="54" t="s">
-        <v>924</v>
+      <c r="B4" s="57" t="s">
+        <v>926</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Hypermarket - CAP.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Hypermarket - CAP.xlsx
@@ -14,6 +14,7 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AM$310</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AM$310</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hypermarket!$A$1:$AM$310</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3943" uniqueCount="926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3943" uniqueCount="925">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -929,15 +930,12 @@
     <t xml:space="preserve">5449000189301, 5449000235947</t>
   </si>
   <si>
-    <t xml:space="preserve">Fuze Peach-Rose - 1.0L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фьюз Персик-Роза - 1.0л</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fuze Peach-Rose - 1L</t>
   </si>
   <si>
+    <t xml:space="preserve">Фьюз Персик-Роза – 1л</t>
+  </si>
+  <si>
     <t xml:space="preserve">5449000193070, 5449000235794</t>
   </si>
   <si>
@@ -1028,8 +1026,7 @@
     <t xml:space="preserve">Представленность Сока</t>
   </si>
   <si>
-    <t xml:space="preserve">85
-86
+    <t xml:space="preserve">86
 87
 88
 89
@@ -3262,7 +3259,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3324,6 +3321,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3415,53 +3416,53 @@
   </sheetPr>
   <dimension ref="A1:AM310"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A264" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="V1" activeCellId="0" sqref="V1"/>
-      <selection pane="bottomLeft" activeCell="Y281" activeCellId="0" sqref="Y281"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="G93" activeCellId="0" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8542510121458"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="52.3805668016194"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="79.0526315789474"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="50.3441295546559"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.8178137651822"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="52.8097165991903"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="79.6963562753036"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="50.7732793522267"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.1376518218624"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.4615384615385"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="60.2024291497976"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="33.1012145748988"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.7125506072875"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="60.7368421052632"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="33.4210526315789"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.8178137651822"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="7.39271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="86.7651821862348"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="125.971659919028"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="55.8097165991903"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="26.6720647773279"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="27.1012145748988"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="16.8178137651822"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="7.49797570850202"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="87.5141700404858"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="127.14979757085"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="56.2388663967611"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="26.8866396761134"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="27.3157894736842"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="17.6761133603239"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="0" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="33" min="33" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="63.6275303643725"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="64.165991902834"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="22.8178137651822"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="0" width="8.03238866396761"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="9.85425101214575"/>
     <col collapsed="false" hidden="false" max="1025" min="40" style="0" width="9.31983805668016"/>
   </cols>
   <sheetData>
@@ -10536,7 +10537,7 @@
       <c r="E92" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="F92" s="5" t="s">
+      <c r="F92" s="16" t="s">
         <v>264</v>
       </c>
       <c r="G92" s="10" t="s">
@@ -10551,11 +10552,11 @@
       </c>
       <c r="K92" s="7"/>
       <c r="L92" s="7"/>
-      <c r="M92" s="16" t="s">
+      <c r="M92" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="N92" s="15" t="s">
         <v>266</v>
-      </c>
-      <c r="N92" s="15" t="s">
-        <v>267</v>
       </c>
       <c r="O92" s="10"/>
       <c r="P92" s="10"/>
@@ -10618,10 +10619,10 @@
         <v>188</v>
       </c>
       <c r="F93" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="G93" s="10" t="s">
         <v>268</v>
-      </c>
-      <c r="G93" s="10" t="s">
-        <v>269</v>
       </c>
       <c r="H93" s="5" t="s">
         <v>92</v>
@@ -10633,10 +10634,10 @@
       <c r="K93" s="7"/>
       <c r="L93" s="7"/>
       <c r="M93" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N93" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O93" s="10"/>
       <c r="P93" s="10"/>
@@ -10699,10 +10700,10 @@
         <v>188</v>
       </c>
       <c r="F94" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="G94" s="10" t="s">
         <v>271</v>
-      </c>
-      <c r="G94" s="10" t="s">
-        <v>272</v>
       </c>
       <c r="H94" s="5" t="s">
         <v>92</v>
@@ -10714,10 +10715,10 @@
       <c r="K94" s="7"/>
       <c r="L94" s="7"/>
       <c r="M94" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N94" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O94" s="10"/>
       <c r="P94" s="10"/>
@@ -10780,10 +10781,10 @@
         <v>188</v>
       </c>
       <c r="F95" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="G95" s="10" t="s">
         <v>274</v>
-      </c>
-      <c r="G95" s="10" t="s">
-        <v>275</v>
       </c>
       <c r="H95" s="5" t="s">
         <v>92</v>
@@ -10795,7 +10796,7 @@
       <c r="K95" s="7"/>
       <c r="L95" s="7"/>
       <c r="M95" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N95" s="10" t="n">
         <v>5449000233615</v>
@@ -10861,10 +10862,10 @@
         <v>188</v>
       </c>
       <c r="F96" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="G96" s="10" t="s">
         <v>276</v>
-      </c>
-      <c r="G96" s="10" t="s">
-        <v>277</v>
       </c>
       <c r="H96" s="5" t="s">
         <v>92</v>
@@ -10876,10 +10877,10 @@
       <c r="K96" s="7"/>
       <c r="L96" s="7"/>
       <c r="M96" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="N96" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O96" s="10"/>
       <c r="P96" s="10"/>
@@ -10942,10 +10943,10 @@
         <v>188</v>
       </c>
       <c r="F97" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="G97" s="10" t="s">
         <v>279</v>
-      </c>
-      <c r="G97" s="10" t="s">
-        <v>280</v>
       </c>
       <c r="H97" s="5" t="s">
         <v>92</v>
@@ -10957,10 +10958,10 @@
       <c r="K97" s="7"/>
       <c r="L97" s="7"/>
       <c r="M97" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N97" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O97" s="10"/>
       <c r="P97" s="10"/>
@@ -11023,10 +11024,10 @@
         <v>188</v>
       </c>
       <c r="F98" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="G98" s="10" t="s">
         <v>282</v>
-      </c>
-      <c r="G98" s="10" t="s">
-        <v>283</v>
       </c>
       <c r="H98" s="5" t="s">
         <v>92</v>
@@ -11038,10 +11039,10 @@
       <c r="K98" s="7"/>
       <c r="L98" s="7"/>
       <c r="M98" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N98" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O98" s="10"/>
       <c r="P98" s="10"/>
@@ -11104,10 +11105,10 @@
         <v>188</v>
       </c>
       <c r="F99" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="G99" s="10" t="s">
         <v>285</v>
-      </c>
-      <c r="G99" s="10" t="s">
-        <v>286</v>
       </c>
       <c r="H99" s="5" t="s">
         <v>92</v>
@@ -11119,10 +11120,10 @@
       <c r="K99" s="7"/>
       <c r="L99" s="7"/>
       <c r="M99" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N99" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O99" s="10"/>
       <c r="P99" s="10"/>
@@ -11185,10 +11186,10 @@
         <v>188</v>
       </c>
       <c r="F100" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="G100" s="10" t="s">
         <v>288</v>
-      </c>
-      <c r="G100" s="10" t="s">
-        <v>289</v>
       </c>
       <c r="H100" s="5" t="s">
         <v>92</v>
@@ -11200,10 +11201,10 @@
       <c r="K100" s="7"/>
       <c r="L100" s="7"/>
       <c r="M100" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N100" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O100" s="10"/>
       <c r="P100" s="10"/>
@@ -11266,10 +11267,10 @@
         <v>188</v>
       </c>
       <c r="F101" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="G101" s="10" t="s">
         <v>291</v>
-      </c>
-      <c r="G101" s="10" t="s">
-        <v>292</v>
       </c>
       <c r="H101" s="5" t="s">
         <v>92</v>
@@ -11281,10 +11282,10 @@
       <c r="K101" s="7"/>
       <c r="L101" s="7"/>
       <c r="M101" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="N101" s="15" t="s">
         <v>293</v>
-      </c>
-      <c r="N101" s="15" t="s">
-        <v>294</v>
       </c>
       <c r="O101" s="10"/>
       <c r="P101" s="10"/>
@@ -11347,10 +11348,10 @@
         <v>188</v>
       </c>
       <c r="F102" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="G102" s="10" t="s">
         <v>295</v>
-      </c>
-      <c r="G102" s="10" t="s">
-        <v>296</v>
       </c>
       <c r="H102" s="5" t="s">
         <v>87</v>
@@ -11391,7 +11392,7 @@
         <v>85</v>
       </c>
       <c r="AL102" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AM102" s="10" t="n">
         <v>300</v>
@@ -11414,10 +11415,10 @@
         <v>188</v>
       </c>
       <c r="F103" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="G103" s="5" t="s">
         <v>298</v>
-      </c>
-      <c r="G103" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="H103" s="5" t="s">
         <v>92</v>
@@ -11429,10 +11430,10 @@
       <c r="K103" s="7"/>
       <c r="L103" s="7"/>
       <c r="M103" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N103" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O103" s="10"/>
       <c r="P103" s="10"/>
@@ -11495,10 +11496,10 @@
         <v>188</v>
       </c>
       <c r="F104" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="G104" s="5" t="s">
         <v>301</v>
-      </c>
-      <c r="G104" s="5" t="s">
-        <v>302</v>
       </c>
       <c r="H104" s="5" t="s">
         <v>92</v>
@@ -11510,10 +11511,10 @@
       <c r="K104" s="7"/>
       <c r="L104" s="7"/>
       <c r="M104" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N104" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O104" s="10"/>
       <c r="P104" s="10"/>
@@ -11576,10 +11577,10 @@
         <v>188</v>
       </c>
       <c r="F105" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="G105" s="5" t="s">
         <v>304</v>
-      </c>
-      <c r="G105" s="5" t="s">
-        <v>305</v>
       </c>
       <c r="H105" s="5" t="s">
         <v>92</v>
@@ -11591,10 +11592,10 @@
       <c r="K105" s="7"/>
       <c r="L105" s="7"/>
       <c r="M105" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N105" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O105" s="10"/>
       <c r="P105" s="10"/>
@@ -11657,10 +11658,10 @@
         <v>188</v>
       </c>
       <c r="F106" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G106" s="5" t="s">
         <v>307</v>
-      </c>
-      <c r="G106" s="5" t="s">
-        <v>308</v>
       </c>
       <c r="H106" s="5" t="s">
         <v>92</v>
@@ -11672,10 +11673,10 @@
       <c r="K106" s="7"/>
       <c r="L106" s="7"/>
       <c r="M106" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N106" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O106" s="10"/>
       <c r="P106" s="10"/>
@@ -11738,10 +11739,10 @@
         <v>188</v>
       </c>
       <c r="F107" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="G107" s="5" t="s">
         <v>310</v>
-      </c>
-      <c r="G107" s="5" t="s">
-        <v>311</v>
       </c>
       <c r="H107" s="5" t="s">
         <v>92</v>
@@ -11753,10 +11754,10 @@
       <c r="K107" s="7"/>
       <c r="L107" s="7"/>
       <c r="M107" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N107" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O107" s="10"/>
       <c r="P107" s="10"/>
@@ -11819,10 +11820,10 @@
         <v>188</v>
       </c>
       <c r="F108" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="G108" s="5" t="s">
         <v>313</v>
-      </c>
-      <c r="G108" s="5" t="s">
-        <v>314</v>
       </c>
       <c r="H108" s="5" t="s">
         <v>92</v>
@@ -11834,10 +11835,10 @@
       <c r="K108" s="7"/>
       <c r="L108" s="7"/>
       <c r="M108" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="N108" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O108" s="10"/>
       <c r="P108" s="10"/>
@@ -11900,10 +11901,10 @@
         <v>188</v>
       </c>
       <c r="F109" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="G109" s="5" t="s">
         <v>316</v>
-      </c>
-      <c r="G109" s="5" t="s">
-        <v>317</v>
       </c>
       <c r="H109" s="5" t="s">
         <v>92</v>
@@ -11915,10 +11916,10 @@
       <c r="K109" s="7"/>
       <c r="L109" s="7"/>
       <c r="M109" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N109" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O109" s="10"/>
       <c r="P109" s="10"/>
@@ -11981,10 +11982,10 @@
         <v>188</v>
       </c>
       <c r="F110" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="G110" s="5" t="s">
         <v>319</v>
-      </c>
-      <c r="G110" s="5" t="s">
-        <v>320</v>
       </c>
       <c r="H110" s="5" t="s">
         <v>92</v>
@@ -11996,10 +11997,10 @@
       <c r="K110" s="7"/>
       <c r="L110" s="7"/>
       <c r="M110" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="N110" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O110" s="10"/>
       <c r="P110" s="10"/>
@@ -12062,10 +12063,10 @@
         <v>188</v>
       </c>
       <c r="F111" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="G111" s="5" t="s">
         <v>322</v>
-      </c>
-      <c r="G111" s="5" t="s">
-        <v>323</v>
       </c>
       <c r="H111" s="5" t="s">
         <v>92</v>
@@ -12077,10 +12078,10 @@
       <c r="K111" s="7"/>
       <c r="L111" s="7"/>
       <c r="M111" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="N111" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O111" s="10"/>
       <c r="P111" s="10"/>
@@ -12143,10 +12144,10 @@
         <v>188</v>
       </c>
       <c r="F112" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="G112" s="5" t="s">
         <v>325</v>
-      </c>
-      <c r="G112" s="5" t="s">
-        <v>326</v>
       </c>
       <c r="H112" s="5" t="s">
         <v>92</v>
@@ -12158,10 +12159,10 @@
       <c r="K112" s="7"/>
       <c r="L112" s="7"/>
       <c r="M112" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N112" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O112" s="10"/>
       <c r="P112" s="10"/>
@@ -12224,10 +12225,10 @@
         <v>188</v>
       </c>
       <c r="F113" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="G113" s="5" t="s">
         <v>328</v>
-      </c>
-      <c r="G113" s="5" t="s">
-        <v>329</v>
       </c>
       <c r="H113" s="5" t="s">
         <v>92</v>
@@ -12239,10 +12240,10 @@
       <c r="K113" s="7"/>
       <c r="L113" s="7"/>
       <c r="M113" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N113" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O113" s="10"/>
       <c r="P113" s="10"/>
@@ -12305,10 +12306,10 @@
         <v>188</v>
       </c>
       <c r="F114" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="G114" s="5" t="s">
         <v>331</v>
-      </c>
-      <c r="G114" s="5" t="s">
-        <v>332</v>
       </c>
       <c r="H114" s="5" t="s">
         <v>92</v>
@@ -12320,10 +12321,10 @@
       <c r="K114" s="7"/>
       <c r="L114" s="7"/>
       <c r="M114" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="N114" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O114" s="10"/>
       <c r="P114" s="10"/>
@@ -12386,10 +12387,10 @@
         <v>188</v>
       </c>
       <c r="F115" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="G115" s="5" t="s">
         <v>334</v>
-      </c>
-      <c r="G115" s="5" t="s">
-        <v>335</v>
       </c>
       <c r="H115" s="5" t="s">
         <v>92</v>
@@ -12401,10 +12402,10 @@
       <c r="K115" s="7"/>
       <c r="L115" s="7"/>
       <c r="M115" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N115" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O115" s="10"/>
       <c r="P115" s="10"/>
@@ -12467,10 +12468,10 @@
         <v>188</v>
       </c>
       <c r="F116" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="G116" s="5" t="s">
         <v>337</v>
-      </c>
-      <c r="G116" s="5" t="s">
-        <v>338</v>
       </c>
       <c r="H116" s="5" t="s">
         <v>92</v>
@@ -12482,10 +12483,10 @@
       <c r="K116" s="7"/>
       <c r="L116" s="7"/>
       <c r="M116" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N116" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O116" s="10"/>
       <c r="P116" s="10"/>
@@ -12548,10 +12549,10 @@
         <v>188</v>
       </c>
       <c r="F117" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="G117" s="5" t="s">
         <v>340</v>
-      </c>
-      <c r="G117" s="5" t="s">
-        <v>341</v>
       </c>
       <c r="H117" s="5" t="s">
         <v>92</v>
@@ -12563,10 +12564,10 @@
       <c r="K117" s="7"/>
       <c r="L117" s="7"/>
       <c r="M117" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N117" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="O117" s="10"/>
       <c r="P117" s="10"/>
@@ -12629,10 +12630,10 @@
         <v>188</v>
       </c>
       <c r="F118" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="G118" s="5" t="s">
         <v>343</v>
-      </c>
-      <c r="G118" s="5" t="s">
-        <v>344</v>
       </c>
       <c r="H118" s="5" t="s">
         <v>92</v>
@@ -12644,10 +12645,10 @@
       <c r="K118" s="7"/>
       <c r="L118" s="7"/>
       <c r="M118" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N118" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="O118" s="10"/>
       <c r="P118" s="10"/>
@@ -12710,10 +12711,10 @@
         <v>188</v>
       </c>
       <c r="F119" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="G119" s="5" t="s">
         <v>346</v>
-      </c>
-      <c r="G119" s="5" t="s">
-        <v>347</v>
       </c>
       <c r="H119" s="5" t="s">
         <v>92</v>
@@ -12725,10 +12726,10 @@
       <c r="K119" s="7"/>
       <c r="L119" s="7"/>
       <c r="M119" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N119" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O119" s="10"/>
       <c r="P119" s="10"/>
@@ -12791,10 +12792,10 @@
         <v>188</v>
       </c>
       <c r="F120" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="G120" s="5" t="s">
         <v>349</v>
-      </c>
-      <c r="G120" s="5" t="s">
-        <v>350</v>
       </c>
       <c r="H120" s="5" t="s">
         <v>92</v>
@@ -12806,10 +12807,10 @@
       <c r="K120" s="7"/>
       <c r="L120" s="7"/>
       <c r="M120" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N120" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="O120" s="10"/>
       <c r="P120" s="10"/>
@@ -12872,10 +12873,10 @@
         <v>188</v>
       </c>
       <c r="F121" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="G121" s="5" t="s">
         <v>352</v>
-      </c>
-      <c r="G121" s="5" t="s">
-        <v>353</v>
       </c>
       <c r="H121" s="5" t="s">
         <v>92</v>
@@ -12887,10 +12888,10 @@
       <c r="K121" s="7"/>
       <c r="L121" s="7"/>
       <c r="M121" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N121" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O121" s="10"/>
       <c r="P121" s="10"/>
@@ -12953,10 +12954,10 @@
         <v>188</v>
       </c>
       <c r="F122" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="G122" s="5" t="s">
         <v>355</v>
-      </c>
-      <c r="G122" s="5" t="s">
-        <v>356</v>
       </c>
       <c r="H122" s="5" t="s">
         <v>92</v>
@@ -12968,10 +12969,10 @@
       <c r="K122" s="7"/>
       <c r="L122" s="7"/>
       <c r="M122" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N122" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O122" s="10"/>
       <c r="P122" s="10"/>
@@ -13034,10 +13035,10 @@
         <v>188</v>
       </c>
       <c r="F123" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="G123" s="5" t="s">
         <v>358</v>
-      </c>
-      <c r="G123" s="5" t="s">
-        <v>359</v>
       </c>
       <c r="H123" s="5" t="s">
         <v>92</v>
@@ -13049,10 +13050,10 @@
       <c r="K123" s="7"/>
       <c r="L123" s="7"/>
       <c r="M123" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N123" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O123" s="10"/>
       <c r="P123" s="10"/>
@@ -13115,10 +13116,10 @@
         <v>188</v>
       </c>
       <c r="F124" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="G124" s="5" t="s">
         <v>361</v>
-      </c>
-      <c r="G124" s="5" t="s">
-        <v>362</v>
       </c>
       <c r="H124" s="5" t="s">
         <v>92</v>
@@ -13130,10 +13131,10 @@
       <c r="K124" s="7"/>
       <c r="L124" s="7"/>
       <c r="M124" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N124" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="O124" s="10"/>
       <c r="P124" s="10"/>
@@ -13196,10 +13197,10 @@
         <v>188</v>
       </c>
       <c r="F125" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="G125" s="5" t="s">
         <v>364</v>
-      </c>
-      <c r="G125" s="5" t="s">
-        <v>365</v>
       </c>
       <c r="H125" s="5" t="s">
         <v>92</v>
@@ -13211,10 +13212,10 @@
       <c r="K125" s="7"/>
       <c r="L125" s="7"/>
       <c r="M125" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="N125" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="O125" s="10"/>
       <c r="P125" s="10"/>
@@ -13277,10 +13278,10 @@
         <v>188</v>
       </c>
       <c r="F126" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="G126" s="5" t="s">
         <v>367</v>
-      </c>
-      <c r="G126" s="5" t="s">
-        <v>368</v>
       </c>
       <c r="H126" s="5" t="s">
         <v>92</v>
@@ -13292,10 +13293,10 @@
       <c r="K126" s="7"/>
       <c r="L126" s="7"/>
       <c r="M126" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N126" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="O126" s="10"/>
       <c r="P126" s="10"/>
@@ -13358,10 +13359,10 @@
         <v>188</v>
       </c>
       <c r="F127" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G127" s="5" t="s">
         <v>370</v>
-      </c>
-      <c r="G127" s="5" t="s">
-        <v>371</v>
       </c>
       <c r="H127" s="5" t="s">
         <v>92</v>
@@ -13373,10 +13374,10 @@
       <c r="K127" s="7"/>
       <c r="L127" s="7"/>
       <c r="M127" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="N127" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="O127" s="10"/>
       <c r="P127" s="10"/>
@@ -13439,10 +13440,10 @@
         <v>188</v>
       </c>
       <c r="F128" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="G128" s="5" t="s">
         <v>373</v>
-      </c>
-      <c r="G128" s="5" t="s">
-        <v>374</v>
       </c>
       <c r="H128" s="5" t="s">
         <v>92</v>
@@ -13454,10 +13455,10 @@
       <c r="K128" s="7"/>
       <c r="L128" s="7"/>
       <c r="M128" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N128" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O128" s="10"/>
       <c r="P128" s="10"/>
@@ -13520,10 +13521,10 @@
         <v>188</v>
       </c>
       <c r="F129" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="G129" s="5" t="s">
         <v>376</v>
-      </c>
-      <c r="G129" s="5" t="s">
-        <v>377</v>
       </c>
       <c r="H129" s="5" t="s">
         <v>92</v>
@@ -13535,10 +13536,10 @@
       <c r="K129" s="7"/>
       <c r="L129" s="7"/>
       <c r="M129" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N129" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O129" s="10"/>
       <c r="P129" s="10"/>
@@ -13601,10 +13602,10 @@
         <v>188</v>
       </c>
       <c r="F130" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="G130" s="5" t="s">
         <v>379</v>
-      </c>
-      <c r="G130" s="5" t="s">
-        <v>380</v>
       </c>
       <c r="H130" s="5" t="s">
         <v>92</v>
@@ -13616,7 +13617,7 @@
       <c r="K130" s="7"/>
       <c r="L130" s="7"/>
       <c r="M130" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N130" s="10" t="n">
         <v>4650075422922</v>
@@ -13641,7 +13642,7 @@
       <c r="Z130" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="AA130" s="17"/>
+      <c r="AA130" s="18"/>
       <c r="AB130" s="5"/>
       <c r="AC130" s="5"/>
       <c r="AD130" s="5" t="s">
@@ -13682,10 +13683,10 @@
         <v>188</v>
       </c>
       <c r="F131" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="G131" s="5" t="s">
         <v>381</v>
-      </c>
-      <c r="G131" s="5" t="s">
-        <v>382</v>
       </c>
       <c r="H131" s="5" t="s">
         <v>92</v>
@@ -13697,7 +13698,7 @@
       <c r="K131" s="7"/>
       <c r="L131" s="7"/>
       <c r="M131" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N131" s="10" t="n">
         <v>4650075420249</v>
@@ -13763,10 +13764,10 @@
         <v>188</v>
       </c>
       <c r="F132" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="G132" s="5" t="s">
         <v>383</v>
-      </c>
-      <c r="G132" s="5" t="s">
-        <v>384</v>
       </c>
       <c r="H132" s="5" t="s">
         <v>92</v>
@@ -13778,10 +13779,10 @@
       <c r="K132" s="7"/>
       <c r="L132" s="7"/>
       <c r="M132" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N132" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="O132" s="10"/>
       <c r="P132" s="10"/>
@@ -13844,10 +13845,10 @@
         <v>188</v>
       </c>
       <c r="F133" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="G133" s="5" t="s">
         <v>386</v>
-      </c>
-      <c r="G133" s="5" t="s">
-        <v>387</v>
       </c>
       <c r="H133" s="5" t="s">
         <v>92</v>
@@ -13859,10 +13860,10 @@
       <c r="K133" s="7"/>
       <c r="L133" s="7"/>
       <c r="M133" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="N133" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O133" s="10"/>
       <c r="P133" s="10"/>
@@ -13925,10 +13926,10 @@
         <v>188</v>
       </c>
       <c r="F134" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="G134" s="5" t="s">
         <v>389</v>
-      </c>
-      <c r="G134" s="5" t="s">
-        <v>390</v>
       </c>
       <c r="H134" s="5" t="s">
         <v>92</v>
@@ -13940,7 +13941,7 @@
       <c r="K134" s="7"/>
       <c r="L134" s="7"/>
       <c r="M134" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="N134" s="10" t="n">
         <v>4650075422809</v>
@@ -14006,10 +14007,10 @@
         <v>188</v>
       </c>
       <c r="F135" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="G135" s="5" t="s">
         <v>391</v>
-      </c>
-      <c r="G135" s="5" t="s">
-        <v>392</v>
       </c>
       <c r="H135" s="5" t="s">
         <v>92</v>
@@ -14021,7 +14022,7 @@
       <c r="K135" s="7"/>
       <c r="L135" s="7"/>
       <c r="M135" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="N135" s="10" t="n">
         <v>4650075420263</v>
@@ -14087,10 +14088,10 @@
         <v>188</v>
       </c>
       <c r="F136" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="G136" s="5" t="s">
         <v>393</v>
-      </c>
-      <c r="G136" s="5" t="s">
-        <v>394</v>
       </c>
       <c r="H136" s="5" t="s">
         <v>92</v>
@@ -14102,7 +14103,7 @@
       <c r="K136" s="7"/>
       <c r="L136" s="7"/>
       <c r="M136" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="N136" s="10" t="n">
         <v>111111</v>
@@ -14168,10 +14169,10 @@
         <v>188</v>
       </c>
       <c r="F137" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="G137" s="5" t="s">
         <v>395</v>
-      </c>
-      <c r="G137" s="5" t="s">
-        <v>396</v>
       </c>
       <c r="H137" s="5" t="s">
         <v>92</v>
@@ -14183,10 +14184,10 @@
       <c r="K137" s="7"/>
       <c r="L137" s="7"/>
       <c r="M137" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N137" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="O137" s="10"/>
       <c r="P137" s="10"/>
@@ -14249,10 +14250,10 @@
         <v>188</v>
       </c>
       <c r="F138" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G138" s="5" t="s">
         <v>398</v>
-      </c>
-      <c r="G138" s="5" t="s">
-        <v>399</v>
       </c>
       <c r="H138" s="5" t="s">
         <v>92</v>
@@ -14264,10 +14265,10 @@
       <c r="K138" s="7"/>
       <c r="L138" s="7"/>
       <c r="M138" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="N138" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="O138" s="10"/>
       <c r="P138" s="10"/>
@@ -14330,10 +14331,10 @@
         <v>188</v>
       </c>
       <c r="F139" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="G139" s="5" t="s">
         <v>401</v>
-      </c>
-      <c r="G139" s="5" t="s">
-        <v>402</v>
       </c>
       <c r="H139" s="5" t="s">
         <v>92</v>
@@ -14345,10 +14346,10 @@
       <c r="K139" s="7"/>
       <c r="L139" s="7"/>
       <c r="M139" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="N139" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="O139" s="10"/>
       <c r="P139" s="10"/>
@@ -14411,10 +14412,10 @@
         <v>188</v>
       </c>
       <c r="F140" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="G140" s="5" t="s">
         <v>404</v>
-      </c>
-      <c r="G140" s="5" t="s">
-        <v>405</v>
       </c>
       <c r="H140" s="5" t="s">
         <v>92</v>
@@ -14426,10 +14427,10 @@
       <c r="K140" s="7"/>
       <c r="L140" s="7"/>
       <c r="M140" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="N140" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="O140" s="10"/>
       <c r="P140" s="10"/>
@@ -14492,10 +14493,10 @@
         <v>188</v>
       </c>
       <c r="F141" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="G141" s="5" t="s">
         <v>407</v>
-      </c>
-      <c r="G141" s="5" t="s">
-        <v>408</v>
       </c>
       <c r="H141" s="5" t="s">
         <v>92</v>
@@ -14507,10 +14508,10 @@
       <c r="K141" s="7"/>
       <c r="L141" s="7"/>
       <c r="M141" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="N141" s="10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="O141" s="10"/>
       <c r="P141" s="10"/>
@@ -14573,10 +14574,10 @@
         <v>188</v>
       </c>
       <c r="F142" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="G142" s="5" t="s">
         <v>410</v>
-      </c>
-      <c r="G142" s="5" t="s">
-        <v>411</v>
       </c>
       <c r="H142" s="5" t="s">
         <v>92</v>
@@ -14588,7 +14589,7 @@
       <c r="K142" s="7"/>
       <c r="L142" s="7"/>
       <c r="M142" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="N142" s="10" t="n">
         <v>111111</v>
@@ -14654,10 +14655,10 @@
         <v>188</v>
       </c>
       <c r="F143" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="G143" s="5" t="s">
         <v>412</v>
-      </c>
-      <c r="G143" s="5" t="s">
-        <v>413</v>
       </c>
       <c r="H143" s="5" t="s">
         <v>92</v>
@@ -14669,10 +14670,10 @@
       <c r="K143" s="7"/>
       <c r="L143" s="7"/>
       <c r="M143" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="N143" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O143" s="10"/>
       <c r="P143" s="10"/>
@@ -14732,13 +14733,13 @@
         <v>41</v>
       </c>
       <c r="E144" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="F144" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="F144" s="5" t="s">
+      <c r="G144" s="5" t="s">
         <v>416</v>
-      </c>
-      <c r="G144" s="5" t="s">
-        <v>417</v>
       </c>
       <c r="H144" s="5" t="s">
         <v>92</v>
@@ -14750,10 +14751,10 @@
       <c r="K144" s="7"/>
       <c r="L144" s="7"/>
       <c r="M144" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="N144" s="10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="O144" s="10"/>
       <c r="P144" s="10"/>
@@ -14816,10 +14817,10 @@
         <v>188</v>
       </c>
       <c r="F145" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="G145" s="5" t="s">
         <v>419</v>
-      </c>
-      <c r="G145" s="5" t="s">
-        <v>420</v>
       </c>
       <c r="H145" s="5" t="s">
         <v>92</v>
@@ -14831,10 +14832,10 @@
       <c r="K145" s="7"/>
       <c r="L145" s="7"/>
       <c r="M145" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N145" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O145" s="10"/>
       <c r="P145" s="10"/>
@@ -14897,10 +14898,10 @@
         <v>188</v>
       </c>
       <c r="F146" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="G146" s="5" t="s">
         <v>422</v>
-      </c>
-      <c r="G146" s="5" t="s">
-        <v>423</v>
       </c>
       <c r="H146" s="5" t="s">
         <v>92</v>
@@ -14912,10 +14913,10 @@
       <c r="K146" s="7"/>
       <c r="L146" s="7"/>
       <c r="M146" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N146" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O146" s="10"/>
       <c r="P146" s="10"/>
@@ -14978,10 +14979,10 @@
         <v>188</v>
       </c>
       <c r="F147" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="G147" s="5" t="s">
         <v>425</v>
-      </c>
-      <c r="G147" s="5" t="s">
-        <v>426</v>
       </c>
       <c r="H147" s="5" t="s">
         <v>92</v>
@@ -14993,10 +14994,10 @@
       <c r="K147" s="7"/>
       <c r="L147" s="7"/>
       <c r="M147" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N147" s="10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="O147" s="10"/>
       <c r="P147" s="10"/>
@@ -15059,10 +15060,10 @@
         <v>188</v>
       </c>
       <c r="F148" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="G148" s="5" t="s">
         <v>428</v>
-      </c>
-      <c r="G148" s="5" t="s">
-        <v>429</v>
       </c>
       <c r="H148" s="5" t="s">
         <v>92</v>
@@ -15074,10 +15075,10 @@
       <c r="K148" s="7"/>
       <c r="L148" s="7"/>
       <c r="M148" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N148" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="O148" s="10"/>
       <c r="P148" s="10"/>
@@ -15140,10 +15141,10 @@
         <v>188</v>
       </c>
       <c r="F149" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="G149" s="5" t="s">
         <v>431</v>
-      </c>
-      <c r="G149" s="5" t="s">
-        <v>432</v>
       </c>
       <c r="H149" s="5" t="s">
         <v>92</v>
@@ -15155,10 +15156,10 @@
       <c r="K149" s="7"/>
       <c r="L149" s="7"/>
       <c r="M149" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="N149" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="O149" s="10"/>
       <c r="P149" s="10"/>
@@ -15221,10 +15222,10 @@
         <v>188</v>
       </c>
       <c r="F150" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="G150" s="5" t="s">
         <v>434</v>
-      </c>
-      <c r="G150" s="5" t="s">
-        <v>435</v>
       </c>
       <c r="H150" s="5" t="s">
         <v>92</v>
@@ -15236,10 +15237,10 @@
       <c r="K150" s="7"/>
       <c r="L150" s="7"/>
       <c r="M150" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="N150" s="10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="O150" s="10"/>
       <c r="P150" s="10"/>
@@ -15302,10 +15303,10 @@
         <v>188</v>
       </c>
       <c r="F151" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="G151" s="5" t="s">
         <v>437</v>
-      </c>
-      <c r="G151" s="5" t="s">
-        <v>438</v>
       </c>
       <c r="H151" s="5" t="s">
         <v>92</v>
@@ -15317,10 +15318,10 @@
       <c r="K151" s="7"/>
       <c r="L151" s="7"/>
       <c r="M151" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="N151" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="O151" s="10"/>
       <c r="P151" s="10"/>
@@ -15380,13 +15381,13 @@
         <v>41</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F152" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="G152" s="5" t="s">
         <v>440</v>
-      </c>
-      <c r="G152" s="5" t="s">
-        <v>441</v>
       </c>
       <c r="H152" s="5" t="s">
         <v>92</v>
@@ -15398,10 +15399,10 @@
       <c r="K152" s="7"/>
       <c r="L152" s="7"/>
       <c r="M152" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="N152" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="O152" s="10"/>
       <c r="P152" s="10"/>
@@ -15464,10 +15465,10 @@
         <v>188</v>
       </c>
       <c r="F153" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="G153" s="5" t="s">
         <v>443</v>
-      </c>
-      <c r="G153" s="5" t="s">
-        <v>444</v>
       </c>
       <c r="H153" s="5" t="s">
         <v>92</v>
@@ -15479,10 +15480,10 @@
       <c r="K153" s="7"/>
       <c r="L153" s="7"/>
       <c r="M153" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="N153" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="O153" s="10"/>
       <c r="P153" s="10"/>
@@ -15545,10 +15546,10 @@
         <v>188</v>
       </c>
       <c r="F154" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="G154" s="5" t="s">
         <v>446</v>
-      </c>
-      <c r="G154" s="5" t="s">
-        <v>447</v>
       </c>
       <c r="H154" s="5" t="s">
         <v>92</v>
@@ -15560,10 +15561,10 @@
       <c r="K154" s="7"/>
       <c r="L154" s="7"/>
       <c r="M154" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="N154" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="O154" s="10"/>
       <c r="P154" s="10"/>
@@ -15626,10 +15627,10 @@
         <v>188</v>
       </c>
       <c r="F155" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="G155" s="5" t="s">
         <v>449</v>
-      </c>
-      <c r="G155" s="5" t="s">
-        <v>450</v>
       </c>
       <c r="H155" s="5" t="s">
         <v>92</v>
@@ -15641,10 +15642,10 @@
       <c r="K155" s="7"/>
       <c r="L155" s="7"/>
       <c r="M155" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="N155" s="10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="O155" s="10"/>
       <c r="P155" s="10"/>
@@ -15707,10 +15708,10 @@
         <v>188</v>
       </c>
       <c r="F156" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="G156" s="5" t="s">
         <v>452</v>
-      </c>
-      <c r="G156" s="5" t="s">
-        <v>453</v>
       </c>
       <c r="H156" s="5" t="s">
         <v>92</v>
@@ -15722,7 +15723,7 @@
       <c r="K156" s="7"/>
       <c r="L156" s="7"/>
       <c r="M156" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N156" s="10" t="n">
         <v>111111</v>
@@ -15788,10 +15789,10 @@
         <v>188</v>
       </c>
       <c r="F157" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="G157" s="5" t="s">
         <v>454</v>
-      </c>
-      <c r="G157" s="5" t="s">
-        <v>455</v>
       </c>
       <c r="H157" s="5" t="s">
         <v>92</v>
@@ -15803,7 +15804,7 @@
       <c r="K157" s="7"/>
       <c r="L157" s="7"/>
       <c r="M157" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="N157" s="10" t="n">
         <v>111111</v>
@@ -15866,13 +15867,13 @@
         <v>41</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F158" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="G158" s="5" t="s">
         <v>456</v>
-      </c>
-      <c r="G158" s="5" t="s">
-        <v>457</v>
       </c>
       <c r="H158" s="5" t="s">
         <v>92</v>
@@ -15884,10 +15885,10 @@
       <c r="K158" s="7"/>
       <c r="L158" s="7"/>
       <c r="M158" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="N158" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="O158" s="10"/>
       <c r="P158" s="10"/>
@@ -15947,13 +15948,13 @@
         <v>41</v>
       </c>
       <c r="E159" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="F159" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="F159" s="5" t="s">
+      <c r="G159" s="5" t="s">
         <v>460</v>
-      </c>
-      <c r="G159" s="5" t="s">
-        <v>461</v>
       </c>
       <c r="H159" s="5" t="s">
         <v>92</v>
@@ -15965,10 +15966,10 @@
       <c r="K159" s="7"/>
       <c r="L159" s="7"/>
       <c r="M159" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N159" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O159" s="10"/>
       <c r="P159" s="10"/>
@@ -16031,10 +16032,10 @@
         <v>188</v>
       </c>
       <c r="F160" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="G160" s="5" t="s">
         <v>463</v>
-      </c>
-      <c r="G160" s="5" t="s">
-        <v>464</v>
       </c>
       <c r="H160" s="5" t="s">
         <v>92</v>
@@ -16046,10 +16047,10 @@
       <c r="K160" s="7"/>
       <c r="L160" s="7"/>
       <c r="M160" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="N160" s="10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="O160" s="10"/>
       <c r="P160" s="10"/>
@@ -16112,10 +16113,10 @@
         <v>188</v>
       </c>
       <c r="F161" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="G161" s="5" t="s">
         <v>466</v>
-      </c>
-      <c r="G161" s="5" t="s">
-        <v>467</v>
       </c>
       <c r="H161" s="5" t="s">
         <v>92</v>
@@ -16127,10 +16128,10 @@
       <c r="K161" s="7"/>
       <c r="L161" s="7"/>
       <c r="M161" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N161" s="10" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="O161" s="10"/>
       <c r="P161" s="10"/>
@@ -16193,10 +16194,10 @@
         <v>188</v>
       </c>
       <c r="F162" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="G162" s="5" t="s">
         <v>469</v>
-      </c>
-      <c r="G162" s="5" t="s">
-        <v>470</v>
       </c>
       <c r="H162" s="5" t="s">
         <v>92</v>
@@ -16208,7 +16209,7 @@
       <c r="K162" s="7"/>
       <c r="L162" s="7"/>
       <c r="M162" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="N162" s="10" t="n">
         <v>4650075421475</v>
@@ -16274,10 +16275,10 @@
         <v>188</v>
       </c>
       <c r="F163" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="G163" s="5" t="s">
         <v>471</v>
-      </c>
-      <c r="G163" s="5" t="s">
-        <v>472</v>
       </c>
       <c r="H163" s="5" t="s">
         <v>92</v>
@@ -16289,10 +16290,10 @@
       <c r="K163" s="7"/>
       <c r="L163" s="7"/>
       <c r="M163" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="N163" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="O163" s="10"/>
       <c r="P163" s="10"/>
@@ -16355,10 +16356,10 @@
         <v>188</v>
       </c>
       <c r="F164" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="G164" s="5" t="s">
         <v>474</v>
-      </c>
-      <c r="G164" s="5" t="s">
-        <v>475</v>
       </c>
       <c r="H164" s="5" t="s">
         <v>92</v>
@@ -16370,10 +16371,10 @@
       <c r="K164" s="7"/>
       <c r="L164" s="7"/>
       <c r="M164" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="N164" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O164" s="10"/>
       <c r="P164" s="10"/>
@@ -16436,10 +16437,10 @@
         <v>188</v>
       </c>
       <c r="F165" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="G165" s="5" t="s">
         <v>477</v>
-      </c>
-      <c r="G165" s="5" t="s">
-        <v>478</v>
       </c>
       <c r="H165" s="5" t="s">
         <v>92</v>
@@ -16451,10 +16452,10 @@
       <c r="K165" s="7"/>
       <c r="L165" s="7"/>
       <c r="M165" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N165" s="10" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="O165" s="10"/>
       <c r="P165" s="10"/>
@@ -16517,10 +16518,10 @@
         <v>188</v>
       </c>
       <c r="F166" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="G166" s="5" t="s">
         <v>480</v>
-      </c>
-      <c r="G166" s="5" t="s">
-        <v>481</v>
       </c>
       <c r="H166" s="5" t="s">
         <v>92</v>
@@ -16532,10 +16533,10 @@
       <c r="K166" s="7"/>
       <c r="L166" s="7"/>
       <c r="M166" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="N166" s="10" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="O166" s="10"/>
       <c r="P166" s="10"/>
@@ -16598,10 +16599,10 @@
         <v>188</v>
       </c>
       <c r="F167" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="G167" s="5" t="s">
         <v>483</v>
-      </c>
-      <c r="G167" s="5" t="s">
-        <v>484</v>
       </c>
       <c r="H167" s="5" t="s">
         <v>92</v>
@@ -16613,10 +16614,10 @@
       <c r="K167" s="7"/>
       <c r="L167" s="7"/>
       <c r="M167" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="N167" s="10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="O167" s="10"/>
       <c r="P167" s="10"/>
@@ -16679,10 +16680,10 @@
         <v>188</v>
       </c>
       <c r="F168" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="G168" s="5" t="s">
         <v>486</v>
-      </c>
-      <c r="G168" s="5" t="s">
-        <v>487</v>
       </c>
       <c r="H168" s="5" t="s">
         <v>92</v>
@@ -16694,7 +16695,7 @@
       <c r="K168" s="7"/>
       <c r="L168" s="7"/>
       <c r="M168" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="N168" s="10" t="n">
         <v>4650075422847</v>
@@ -16760,10 +16761,10 @@
         <v>188</v>
       </c>
       <c r="F169" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="G169" s="5" t="s">
         <v>488</v>
-      </c>
-      <c r="G169" s="5" t="s">
-        <v>489</v>
       </c>
       <c r="H169" s="5" t="s">
         <v>92</v>
@@ -16775,10 +16776,10 @@
       <c r="K169" s="7"/>
       <c r="L169" s="7"/>
       <c r="M169" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="N169" s="10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="O169" s="10"/>
       <c r="P169" s="10"/>
@@ -16841,10 +16842,10 @@
         <v>188</v>
       </c>
       <c r="F170" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="G170" s="5" t="s">
         <v>491</v>
-      </c>
-      <c r="G170" s="5" t="s">
-        <v>492</v>
       </c>
       <c r="H170" s="5" t="s">
         <v>92</v>
@@ -16856,7 +16857,7 @@
       <c r="K170" s="7"/>
       <c r="L170" s="7"/>
       <c r="M170" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="N170" s="10" t="n">
         <v>4650075421277</v>
@@ -16922,10 +16923,10 @@
         <v>188</v>
       </c>
       <c r="F171" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="G171" s="5" t="s">
         <v>493</v>
-      </c>
-      <c r="G171" s="5" t="s">
-        <v>494</v>
       </c>
       <c r="H171" s="5" t="s">
         <v>92</v>
@@ -16937,10 +16938,10 @@
       <c r="K171" s="7"/>
       <c r="L171" s="7"/>
       <c r="M171" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="N171" s="10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="O171" s="10"/>
       <c r="P171" s="10"/>
@@ -17003,10 +17004,10 @@
         <v>188</v>
       </c>
       <c r="F172" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="G172" s="5" t="s">
         <v>496</v>
-      </c>
-      <c r="G172" s="5" t="s">
-        <v>497</v>
       </c>
       <c r="H172" s="5" t="s">
         <v>92</v>
@@ -17018,7 +17019,7 @@
       <c r="K172" s="7"/>
       <c r="L172" s="7"/>
       <c r="M172" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="N172" s="10" t="n">
         <v>4650075421550</v>
@@ -17084,10 +17085,10 @@
         <v>188</v>
       </c>
       <c r="F173" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="G173" s="5" t="s">
         <v>498</v>
-      </c>
-      <c r="G173" s="5" t="s">
-        <v>499</v>
       </c>
       <c r="H173" s="5" t="s">
         <v>92</v>
@@ -17099,10 +17100,10 @@
       <c r="K173" s="7"/>
       <c r="L173" s="7"/>
       <c r="M173" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N173" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="O173" s="10"/>
       <c r="P173" s="10"/>
@@ -17165,10 +17166,10 @@
         <v>188</v>
       </c>
       <c r="F174" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="G174" s="5" t="s">
         <v>501</v>
-      </c>
-      <c r="G174" s="5" t="s">
-        <v>502</v>
       </c>
       <c r="H174" s="5" t="s">
         <v>92</v>
@@ -17180,10 +17181,10 @@
       <c r="K174" s="7"/>
       <c r="L174" s="7"/>
       <c r="M174" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="N174" s="10" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="O174" s="10"/>
       <c r="P174" s="10"/>
@@ -17246,10 +17247,10 @@
         <v>188</v>
       </c>
       <c r="F175" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="G175" s="5" t="s">
         <v>504</v>
-      </c>
-      <c r="G175" s="5" t="s">
-        <v>505</v>
       </c>
       <c r="H175" s="5" t="s">
         <v>92</v>
@@ -17261,10 +17262,10 @@
       <c r="K175" s="7"/>
       <c r="L175" s="7"/>
       <c r="M175" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N175" s="10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="O175" s="10"/>
       <c r="P175" s="10"/>
@@ -17327,10 +17328,10 @@
         <v>188</v>
       </c>
       <c r="F176" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="G176" s="5" t="s">
         <v>507</v>
-      </c>
-      <c r="G176" s="5" t="s">
-        <v>508</v>
       </c>
       <c r="H176" s="5" t="s">
         <v>92</v>
@@ -17342,10 +17343,10 @@
       <c r="K176" s="7"/>
       <c r="L176" s="7"/>
       <c r="M176" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N176" s="10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="O176" s="10"/>
       <c r="P176" s="10"/>
@@ -17408,10 +17409,10 @@
         <v>188</v>
       </c>
       <c r="F177" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="G177" s="5" t="s">
         <v>510</v>
-      </c>
-      <c r="G177" s="5" t="s">
-        <v>511</v>
       </c>
       <c r="H177" s="5" t="s">
         <v>92</v>
@@ -17423,10 +17424,10 @@
       <c r="K177" s="7"/>
       <c r="L177" s="7"/>
       <c r="M177" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="N177" s="10" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="O177" s="10"/>
       <c r="P177" s="10"/>
@@ -17489,10 +17490,10 @@
         <v>188</v>
       </c>
       <c r="F178" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="G178" s="5" t="s">
         <v>513</v>
-      </c>
-      <c r="G178" s="5" t="s">
-        <v>514</v>
       </c>
       <c r="H178" s="5" t="s">
         <v>92</v>
@@ -17504,10 +17505,10 @@
       <c r="K178" s="7"/>
       <c r="L178" s="7"/>
       <c r="M178" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="N178" s="10" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="O178" s="10"/>
       <c r="P178" s="10"/>
@@ -17570,10 +17571,10 @@
         <v>188</v>
       </c>
       <c r="F179" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="G179" s="5" t="s">
         <v>516</v>
-      </c>
-      <c r="G179" s="5" t="s">
-        <v>517</v>
       </c>
       <c r="H179" s="5" t="s">
         <v>92</v>
@@ -17585,10 +17586,10 @@
       <c r="K179" s="7"/>
       <c r="L179" s="7"/>
       <c r="M179" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="N179" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="O179" s="10"/>
       <c r="P179" s="10"/>
@@ -17651,10 +17652,10 @@
         <v>188</v>
       </c>
       <c r="F180" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="G180" s="5" t="s">
         <v>519</v>
-      </c>
-      <c r="G180" s="5" t="s">
-        <v>520</v>
       </c>
       <c r="H180" s="5" t="s">
         <v>92</v>
@@ -17666,10 +17667,10 @@
       <c r="K180" s="7"/>
       <c r="L180" s="7"/>
       <c r="M180" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="N180" s="10" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="O180" s="10"/>
       <c r="P180" s="10"/>
@@ -17732,10 +17733,10 @@
         <v>188</v>
       </c>
       <c r="F181" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="G181" s="5" t="s">
         <v>522</v>
-      </c>
-      <c r="G181" s="5" t="s">
-        <v>523</v>
       </c>
       <c r="H181" s="5" t="s">
         <v>92</v>
@@ -17747,10 +17748,10 @@
       <c r="K181" s="7"/>
       <c r="L181" s="7"/>
       <c r="M181" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N181" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="O181" s="10"/>
       <c r="P181" s="10"/>
@@ -17813,10 +17814,10 @@
         <v>188</v>
       </c>
       <c r="F182" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G182" s="5" t="s">
         <v>525</v>
-      </c>
-      <c r="G182" s="5" t="s">
-        <v>526</v>
       </c>
       <c r="H182" s="5" t="s">
         <v>92</v>
@@ -17828,10 +17829,10 @@
       <c r="K182" s="7"/>
       <c r="L182" s="7"/>
       <c r="M182" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="N182" s="10" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="O182" s="10"/>
       <c r="P182" s="10"/>
@@ -17894,10 +17895,10 @@
         <v>188</v>
       </c>
       <c r="F183" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="G183" s="5" t="s">
         <v>528</v>
-      </c>
-      <c r="G183" s="5" t="s">
-        <v>529</v>
       </c>
       <c r="H183" s="5" t="s">
         <v>92</v>
@@ -17909,10 +17910,10 @@
       <c r="K183" s="7"/>
       <c r="L183" s="7"/>
       <c r="M183" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="N183" s="10" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="O183" s="10"/>
       <c r="P183" s="10"/>
@@ -17975,10 +17976,10 @@
         <v>188</v>
       </c>
       <c r="F184" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="G184" s="5" t="s">
         <v>531</v>
-      </c>
-      <c r="G184" s="5" t="s">
-        <v>532</v>
       </c>
       <c r="H184" s="5" t="s">
         <v>92</v>
@@ -17990,10 +17991,10 @@
       <c r="K184" s="7"/>
       <c r="L184" s="7"/>
       <c r="M184" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="N184" s="10" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="O184" s="10"/>
       <c r="P184" s="10"/>
@@ -18056,10 +18057,10 @@
         <v>188</v>
       </c>
       <c r="F185" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="G185" s="5" t="s">
         <v>534</v>
-      </c>
-      <c r="G185" s="5" t="s">
-        <v>535</v>
       </c>
       <c r="H185" s="5" t="s">
         <v>92</v>
@@ -18071,10 +18072,10 @@
       <c r="K185" s="7"/>
       <c r="L185" s="7"/>
       <c r="M185" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="N185" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="O185" s="10"/>
       <c r="P185" s="10"/>
@@ -18137,10 +18138,10 @@
         <v>188</v>
       </c>
       <c r="F186" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="G186" s="5" t="s">
         <v>537</v>
-      </c>
-      <c r="G186" s="5" t="s">
-        <v>538</v>
       </c>
       <c r="H186" s="5" t="s">
         <v>92</v>
@@ -18152,10 +18153,10 @@
       <c r="K186" s="7"/>
       <c r="L186" s="7"/>
       <c r="M186" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="N186" s="10" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="O186" s="10"/>
       <c r="P186" s="10"/>
@@ -18218,10 +18219,10 @@
         <v>188</v>
       </c>
       <c r="F187" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="G187" s="5" t="s">
         <v>540</v>
-      </c>
-      <c r="G187" s="5" t="s">
-        <v>541</v>
       </c>
       <c r="H187" s="5" t="s">
         <v>92</v>
@@ -18233,10 +18234,10 @@
       <c r="K187" s="7"/>
       <c r="L187" s="7"/>
       <c r="M187" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="N187" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="O187" s="10"/>
       <c r="P187" s="10"/>
@@ -18299,10 +18300,10 @@
         <v>188</v>
       </c>
       <c r="F188" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="G188" s="5" t="s">
         <v>543</v>
-      </c>
-      <c r="G188" s="5" t="s">
-        <v>544</v>
       </c>
       <c r="H188" s="5" t="s">
         <v>92</v>
@@ -18314,10 +18315,10 @@
       <c r="K188" s="7"/>
       <c r="L188" s="7"/>
       <c r="M188" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="N188" s="10" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="O188" s="10"/>
       <c r="P188" s="10"/>
@@ -18380,10 +18381,10 @@
         <v>188</v>
       </c>
       <c r="F189" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="G189" s="5" t="s">
         <v>546</v>
-      </c>
-      <c r="G189" s="5" t="s">
-        <v>547</v>
       </c>
       <c r="H189" s="5" t="s">
         <v>92</v>
@@ -18395,7 +18396,7 @@
       <c r="K189" s="7"/>
       <c r="L189" s="7"/>
       <c r="M189" s="5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="N189" s="10" t="n">
         <v>4607042439186</v>
@@ -18461,10 +18462,10 @@
         <v>188</v>
       </c>
       <c r="F190" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="G190" s="5" t="s">
         <v>548</v>
-      </c>
-      <c r="G190" s="5" t="s">
-        <v>549</v>
       </c>
       <c r="H190" s="5" t="s">
         <v>92</v>
@@ -18476,10 +18477,10 @@
       <c r="K190" s="7"/>
       <c r="L190" s="7"/>
       <c r="M190" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="N190" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O190" s="10"/>
       <c r="P190" s="10"/>
@@ -18542,10 +18543,10 @@
         <v>188</v>
       </c>
       <c r="F191" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G191" s="5" t="s">
         <v>551</v>
-      </c>
-      <c r="G191" s="5" t="s">
-        <v>552</v>
       </c>
       <c r="H191" s="5" t="s">
         <v>92</v>
@@ -18557,10 +18558,10 @@
       <c r="K191" s="7"/>
       <c r="L191" s="7"/>
       <c r="M191" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="N191" s="10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="O191" s="10"/>
       <c r="P191" s="10"/>
@@ -18623,10 +18624,10 @@
         <v>188</v>
       </c>
       <c r="F192" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="G192" s="5" t="s">
         <v>554</v>
-      </c>
-      <c r="G192" s="5" t="s">
-        <v>555</v>
       </c>
       <c r="H192" s="5" t="s">
         <v>92</v>
@@ -18638,10 +18639,10 @@
       <c r="K192" s="7"/>
       <c r="L192" s="7"/>
       <c r="M192" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N192" s="10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="O192" s="10"/>
       <c r="P192" s="10"/>
@@ -18704,10 +18705,10 @@
         <v>188</v>
       </c>
       <c r="F193" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="G193" s="5" t="s">
         <v>557</v>
-      </c>
-      <c r="G193" s="5" t="s">
-        <v>558</v>
       </c>
       <c r="H193" s="5" t="s">
         <v>92</v>
@@ -18719,7 +18720,7 @@
       <c r="K193" s="7"/>
       <c r="L193" s="7"/>
       <c r="M193" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="N193" s="10" t="n">
         <v>4607042439162</v>
@@ -18782,16 +18783,16 @@
         <v>41</v>
       </c>
       <c r="E194" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="F194" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="F194" s="5" t="s">
+      <c r="G194" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="G194" s="5" t="s">
+      <c r="H194" s="5" t="s">
         <v>561</v>
-      </c>
-      <c r="H194" s="5" t="s">
-        <v>562</v>
       </c>
       <c r="I194" s="5"/>
       <c r="J194" s="7" t="n">
@@ -18805,12 +18806,12 @@
       <c r="P194" s="10"/>
       <c r="Q194" s="10"/>
       <c r="R194" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="S194" s="5"/>
       <c r="T194" s="5"/>
       <c r="U194" s="5"/>
-      <c r="V194" s="18"/>
+      <c r="V194" s="19"/>
       <c r="W194" s="5"/>
       <c r="X194" s="5"/>
       <c r="Y194" s="5"/>
@@ -18837,7 +18838,7 @@
         <v>177</v>
       </c>
       <c r="AL194" s="12" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AM194" s="10" t="n">
         <v>302</v>
@@ -18857,13 +18858,13 @@
         <v>41</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F195" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="G195" s="5" t="s">
         <v>565</v>
-      </c>
-      <c r="G195" s="5" t="s">
-        <v>566</v>
       </c>
       <c r="H195" s="5" t="s">
         <v>92</v>
@@ -18875,13 +18876,13 @@
       <c r="K195" s="7"/>
       <c r="L195" s="7"/>
       <c r="M195" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="N195" s="10" t="s">
         <v>567</v>
       </c>
-      <c r="N195" s="10" t="s">
-        <v>568</v>
-      </c>
       <c r="O195" s="10" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P195" s="10"/>
       <c r="Q195" s="10"/>
@@ -18889,11 +18890,11 @@
         <v>93</v>
       </c>
       <c r="S195" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="T195" s="5"/>
       <c r="U195" s="5"/>
-      <c r="V195" s="18"/>
+      <c r="V195" s="19"/>
       <c r="W195" s="5"/>
       <c r="X195" s="5"/>
       <c r="Y195" s="5"/>
@@ -18936,16 +18937,16 @@
         <v>41</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F196" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="G196" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="G196" s="5" t="s">
+      <c r="H196" s="5" t="s">
         <v>571</v>
-      </c>
-      <c r="H196" s="5" t="s">
-        <v>572</v>
       </c>
       <c r="I196" s="5"/>
       <c r="J196" s="7" t="n">
@@ -18962,12 +18963,12 @@
         <v>93</v>
       </c>
       <c r="S196" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="T196" s="5"/>
       <c r="U196" s="5"/>
       <c r="V196" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="W196" s="5"/>
       <c r="X196" s="5"/>
@@ -19011,16 +19012,16 @@
         <v>41</v>
       </c>
       <c r="E197" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F197" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="G197" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="G197" s="5" t="s">
+      <c r="H197" s="5" t="s">
         <v>576</v>
-      </c>
-      <c r="H197" s="5" t="s">
-        <v>577</v>
       </c>
       <c r="I197" s="5"/>
       <c r="J197" s="7"/>
@@ -19033,7 +19034,7 @@
         <v>5449000000439</v>
       </c>
       <c r="O197" s="10" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P197" s="10"/>
       <c r="Q197" s="10"/>
@@ -19045,7 +19046,7 @@
       </c>
       <c r="T197" s="5"/>
       <c r="U197" s="5"/>
-      <c r="V197" s="18"/>
+      <c r="V197" s="19"/>
       <c r="W197" s="5"/>
       <c r="X197" s="5"/>
       <c r="Y197" s="5"/>
@@ -19062,7 +19063,7 @@
       <c r="AF197" s="5"/>
       <c r="AG197" s="5"/>
       <c r="AH197" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AI197" s="5"/>
       <c r="AJ197" s="5" t="n">
@@ -19087,17 +19088,17 @@
         <v>40</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E198" s="5"/>
       <c r="F198" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="G198" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="G198" s="5" t="s">
-        <v>581</v>
-      </c>
       <c r="H198" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I198" s="5"/>
       <c r="J198" s="7" t="n">
@@ -19111,12 +19112,12 @@
       <c r="P198" s="10"/>
       <c r="Q198" s="10"/>
       <c r="R198" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="S198" s="5"/>
       <c r="T198" s="5"/>
       <c r="U198" s="5"/>
-      <c r="V198" s="18"/>
+      <c r="V198" s="19"/>
       <c r="W198" s="5"/>
       <c r="X198" s="5"/>
       <c r="Y198" s="5"/>
@@ -19135,10 +19136,10 @@
       <c r="AF198" s="5"/>
       <c r="AG198" s="5"/>
       <c r="AH198" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AI198" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AJ198" s="5" t="n">
         <v>2</v>
@@ -19147,7 +19148,7 @@
         <v>181</v>
       </c>
       <c r="AL198" s="12" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AM198" s="10" t="n">
         <v>302</v>
@@ -19164,16 +19165,16 @@
         <v>40</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E199" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="F199" s="5" t="s">
         <v>584</v>
       </c>
-      <c r="F199" s="5" t="s">
+      <c r="G199" s="5" t="s">
         <v>585</v>
-      </c>
-      <c r="G199" s="5" t="s">
-        <v>586</v>
       </c>
       <c r="H199" s="5" t="s">
         <v>92</v>
@@ -19201,7 +19202,7 @@
       </c>
       <c r="T199" s="5"/>
       <c r="U199" s="5"/>
-      <c r="V199" s="18"/>
+      <c r="V199" s="19"/>
       <c r="W199" s="5"/>
       <c r="X199" s="5"/>
       <c r="Y199" s="5"/>
@@ -19241,16 +19242,16 @@
         <v>40</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F200" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="G200" s="5" t="s">
         <v>587</v>
-      </c>
-      <c r="G200" s="5" t="s">
-        <v>588</v>
       </c>
       <c r="H200" s="5" t="s">
         <v>92</v>
@@ -19278,7 +19279,7 @@
       </c>
       <c r="T200" s="5"/>
       <c r="U200" s="5"/>
-      <c r="V200" s="18"/>
+      <c r="V200" s="19"/>
       <c r="W200" s="5"/>
       <c r="X200" s="5"/>
       <c r="Y200" s="5"/>
@@ -19318,16 +19319,16 @@
         <v>40</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F201" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="G201" s="5" t="s">
         <v>589</v>
-      </c>
-      <c r="G201" s="5" t="s">
-        <v>590</v>
       </c>
       <c r="H201" s="5" t="s">
         <v>92</v>
@@ -19355,7 +19356,7 @@
       </c>
       <c r="T201" s="5"/>
       <c r="U201" s="5"/>
-      <c r="V201" s="18"/>
+      <c r="V201" s="19"/>
       <c r="W201" s="5"/>
       <c r="X201" s="5"/>
       <c r="Y201" s="5"/>
@@ -19398,16 +19399,16 @@
         <v>41</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F202" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="G202" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="G202" s="5" t="s">
-        <v>592</v>
-      </c>
       <c r="H202" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I202" s="5"/>
       <c r="J202" s="7" t="n">
@@ -19421,12 +19422,12 @@
       <c r="P202" s="10"/>
       <c r="Q202" s="10"/>
       <c r="R202" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="S202" s="5"/>
       <c r="T202" s="5"/>
       <c r="U202" s="5"/>
-      <c r="V202" s="18"/>
+      <c r="V202" s="19"/>
       <c r="W202" s="5"/>
       <c r="X202" s="5"/>
       <c r="Y202" s="5"/>
@@ -19453,7 +19454,7 @@
         <v>185</v>
       </c>
       <c r="AL202" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AM202" s="5" t="n">
         <v>303</v>
@@ -19473,13 +19474,13 @@
         <v>41</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F203" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="G203" s="5" t="s">
         <v>594</v>
-      </c>
-      <c r="G203" s="5" t="s">
-        <v>595</v>
       </c>
       <c r="H203" s="5" t="s">
         <v>92</v>
@@ -19491,13 +19492,13 @@
       <c r="K203" s="7"/>
       <c r="L203" s="7"/>
       <c r="M203" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N203" s="10" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="O203" s="10" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="P203" s="10"/>
       <c r="Q203" s="10"/>
@@ -19505,11 +19506,11 @@
         <v>93</v>
       </c>
       <c r="S203" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="T203" s="5"/>
       <c r="U203" s="5"/>
-      <c r="V203" s="18"/>
+      <c r="V203" s="19"/>
       <c r="W203" s="5"/>
       <c r="X203" s="5"/>
       <c r="Y203" s="5"/>
@@ -19552,16 +19553,16 @@
         <v>41</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F204" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="G204" s="5" t="s">
         <v>597</v>
       </c>
-      <c r="G204" s="5" t="s">
-        <v>598</v>
-      </c>
       <c r="H204" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I204" s="5"/>
       <c r="J204" s="7" t="n">
@@ -19578,12 +19579,12 @@
         <v>93</v>
       </c>
       <c r="S204" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="T204" s="5"/>
       <c r="U204" s="5"/>
       <c r="V204" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="W204" s="5"/>
       <c r="X204" s="5"/>
@@ -19627,16 +19628,16 @@
         <v>41</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F205" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="G205" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="G205" s="5" t="s">
+      <c r="H205" s="5" t="s">
         <v>601</v>
-      </c>
-      <c r="H205" s="5" t="s">
-        <v>602</v>
       </c>
       <c r="I205" s="5"/>
       <c r="J205" s="7" t="n">
@@ -19655,7 +19656,7 @@
       <c r="S205" s="5"/>
       <c r="T205" s="5"/>
       <c r="U205" s="5"/>
-      <c r="V205" s="18"/>
+      <c r="V205" s="19"/>
       <c r="W205" s="5"/>
       <c r="X205" s="5"/>
       <c r="Y205" s="5"/>
@@ -19680,7 +19681,7 @@
         <v>188</v>
       </c>
       <c r="AL205" s="12" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AM205" s="5" t="n">
         <v>185</v>
@@ -19700,23 +19701,23 @@
         <v>41</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F206" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="G206" s="5" t="s">
         <v>604</v>
       </c>
-      <c r="G206" s="5" t="s">
-        <v>605</v>
-      </c>
       <c r="H206" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I206" s="5"/>
       <c r="J206" s="7"/>
       <c r="K206" s="7"/>
       <c r="L206" s="7"/>
       <c r="M206" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N206" s="10" t="n">
         <v>4607042434877</v>
@@ -19732,7 +19733,7 @@
       </c>
       <c r="T206" s="5"/>
       <c r="U206" s="5"/>
-      <c r="V206" s="18"/>
+      <c r="V206" s="19"/>
       <c r="W206" s="5"/>
       <c r="X206" s="5"/>
       <c r="Y206" s="5"/>
@@ -19749,7 +19750,7 @@
       <c r="AF206" s="5"/>
       <c r="AG206" s="5"/>
       <c r="AH206" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AI206" s="5"/>
       <c r="AJ206" s="5" t="n">
@@ -19777,23 +19778,23 @@
         <v>41</v>
       </c>
       <c r="E207" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F207" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="G207" s="5" t="s">
         <v>607</v>
       </c>
-      <c r="G207" s="5" t="s">
-        <v>608</v>
-      </c>
       <c r="H207" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I207" s="5"/>
       <c r="J207" s="7"/>
       <c r="K207" s="7"/>
       <c r="L207" s="7"/>
       <c r="M207" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N207" s="10" t="n">
         <v>4607042434891</v>
@@ -19809,7 +19810,7 @@
       </c>
       <c r="T207" s="5"/>
       <c r="U207" s="5"/>
-      <c r="V207" s="18"/>
+      <c r="V207" s="19"/>
       <c r="W207" s="5"/>
       <c r="X207" s="5"/>
       <c r="Y207" s="5"/>
@@ -19826,7 +19827,7 @@
       <c r="AF207" s="5"/>
       <c r="AG207" s="5"/>
       <c r="AH207" s="5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AI207" s="5"/>
       <c r="AJ207" s="5" t="n">
@@ -19851,19 +19852,19 @@
         <v>40</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E208" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F208" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="G208" s="5" t="s">
         <v>610</v>
       </c>
-      <c r="G208" s="5" t="s">
-        <v>611</v>
-      </c>
       <c r="H208" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I208" s="5"/>
       <c r="J208" s="7" t="n">
@@ -19877,12 +19878,12 @@
       <c r="P208" s="10"/>
       <c r="Q208" s="10"/>
       <c r="R208" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="S208" s="5"/>
       <c r="T208" s="5"/>
       <c r="U208" s="5"/>
-      <c r="V208" s="18"/>
+      <c r="V208" s="19"/>
       <c r="W208" s="5"/>
       <c r="X208" s="5"/>
       <c r="Y208" s="5"/>
@@ -19901,10 +19902,10 @@
       <c r="AF208" s="5"/>
       <c r="AG208" s="5"/>
       <c r="AH208" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AI208" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AJ208" s="5" t="n">
         <v>2</v>
@@ -19913,7 +19914,7 @@
         <v>191</v>
       </c>
       <c r="AL208" s="12" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AM208" s="5" t="n">
         <v>303</v>
@@ -19930,16 +19931,16 @@
         <v>40</v>
       </c>
       <c r="D209" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E209" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F209" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="G209" s="5" t="s">
         <v>614</v>
-      </c>
-      <c r="G209" s="5" t="s">
-        <v>615</v>
       </c>
       <c r="H209" s="5" t="s">
         <v>92</v>
@@ -19951,7 +19952,7 @@
       <c r="K209" s="7"/>
       <c r="L209" s="7"/>
       <c r="M209" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N209" s="10" t="n">
         <v>4607042434877</v>
@@ -19967,7 +19968,7 @@
       </c>
       <c r="T209" s="5"/>
       <c r="U209" s="5"/>
-      <c r="V209" s="18"/>
+      <c r="V209" s="19"/>
       <c r="W209" s="5"/>
       <c r="X209" s="5"/>
       <c r="Y209" s="5"/>
@@ -20007,16 +20008,16 @@
         <v>40</v>
       </c>
       <c r="D210" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E210" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F210" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="G210" s="5" t="s">
         <v>616</v>
-      </c>
-      <c r="G210" s="5" t="s">
-        <v>617</v>
       </c>
       <c r="H210" s="5" t="s">
         <v>92</v>
@@ -20028,7 +20029,7 @@
       <c r="K210" s="7"/>
       <c r="L210" s="7"/>
       <c r="M210" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N210" s="10" t="n">
         <v>4607042434891</v>
@@ -20044,7 +20045,7 @@
       </c>
       <c r="T210" s="5"/>
       <c r="U210" s="5"/>
-      <c r="V210" s="18"/>
+      <c r="V210" s="19"/>
       <c r="W210" s="5"/>
       <c r="X210" s="5"/>
       <c r="Y210" s="5"/>
@@ -20084,16 +20085,16 @@
         <v>40</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E211" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F211" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="G211" s="5" t="s">
         <v>618</v>
-      </c>
-      <c r="G211" s="5" t="s">
-        <v>619</v>
       </c>
       <c r="H211" s="5" t="s">
         <v>92</v>
@@ -20105,7 +20106,7 @@
       <c r="K211" s="7"/>
       <c r="L211" s="7"/>
       <c r="M211" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N211" s="10" t="n">
         <v>4607042438738</v>
@@ -20121,7 +20122,7 @@
       </c>
       <c r="T211" s="5"/>
       <c r="U211" s="5"/>
-      <c r="V211" s="18"/>
+      <c r="V211" s="19"/>
       <c r="W211" s="5"/>
       <c r="X211" s="5"/>
       <c r="Y211" s="5"/>
@@ -20161,16 +20162,16 @@
         <v>40</v>
       </c>
       <c r="D212" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F212" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="G212" s="5" t="s">
         <v>620</v>
-      </c>
-      <c r="G212" s="5" t="s">
-        <v>621</v>
       </c>
       <c r="H212" s="5" t="s">
         <v>92</v>
@@ -20182,10 +20183,10 @@
       <c r="K212" s="7"/>
       <c r="L212" s="7"/>
       <c r="M212" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N212" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O212" s="10"/>
       <c r="P212" s="10"/>
@@ -20198,7 +20199,7 @@
       </c>
       <c r="T212" s="5"/>
       <c r="U212" s="5"/>
-      <c r="V212" s="18"/>
+      <c r="V212" s="19"/>
       <c r="W212" s="5"/>
       <c r="X212" s="5"/>
       <c r="Y212" s="5"/>
@@ -20238,16 +20239,16 @@
         <v>40</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E213" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F213" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="G213" s="5" t="s">
         <v>622</v>
-      </c>
-      <c r="G213" s="5" t="s">
-        <v>623</v>
       </c>
       <c r="H213" s="5" t="s">
         <v>92</v>
@@ -20259,7 +20260,7 @@
       <c r="K213" s="7"/>
       <c r="L213" s="7"/>
       <c r="M213" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N213" s="10" t="n">
         <v>4607042438950</v>
@@ -20275,7 +20276,7 @@
       </c>
       <c r="T213" s="5"/>
       <c r="U213" s="5"/>
-      <c r="V213" s="18"/>
+      <c r="V213" s="19"/>
       <c r="W213" s="5"/>
       <c r="X213" s="5"/>
       <c r="Y213" s="5"/>
@@ -20318,16 +20319,16 @@
         <v>41</v>
       </c>
       <c r="E214" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F214" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="G214" s="5" t="s">
         <v>624</v>
       </c>
-      <c r="G214" s="5" t="s">
-        <v>625</v>
-      </c>
       <c r="H214" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I214" s="5"/>
       <c r="J214" s="7" t="n">
@@ -20341,12 +20342,12 @@
       <c r="P214" s="10"/>
       <c r="Q214" s="10"/>
       <c r="R214" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="S214" s="5"/>
       <c r="T214" s="5"/>
       <c r="U214" s="5"/>
-      <c r="V214" s="18"/>
+      <c r="V214" s="19"/>
       <c r="W214" s="5"/>
       <c r="X214" s="5"/>
       <c r="Y214" s="5"/>
@@ -20373,7 +20374,7 @@
         <v>197</v>
       </c>
       <c r="AL214" s="12" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AM214" s="10" t="n">
         <v>302</v>
@@ -20393,13 +20394,13 @@
         <v>41</v>
       </c>
       <c r="E215" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F215" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="G215" s="5" t="s">
         <v>627</v>
-      </c>
-      <c r="G215" s="5" t="s">
-        <v>628</v>
       </c>
       <c r="H215" s="5" t="s">
         <v>92</v>
@@ -20411,13 +20412,13 @@
       <c r="K215" s="7"/>
       <c r="L215" s="7"/>
       <c r="M215" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="N215" s="10" t="s">
         <v>567</v>
       </c>
-      <c r="N215" s="10" t="s">
-        <v>568</v>
-      </c>
       <c r="O215" s="10" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P215" s="10"/>
       <c r="Q215" s="10"/>
@@ -20425,11 +20426,11 @@
         <v>93</v>
       </c>
       <c r="S215" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="T215" s="5"/>
       <c r="U215" s="5"/>
-      <c r="V215" s="18"/>
+      <c r="V215" s="19"/>
       <c r="W215" s="5"/>
       <c r="X215" s="5"/>
       <c r="Y215" s="5"/>
@@ -20472,16 +20473,16 @@
         <v>41</v>
       </c>
       <c r="E216" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F216" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="G216" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="G216" s="5" t="s">
-        <v>630</v>
-      </c>
       <c r="H216" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I216" s="5"/>
       <c r="J216" s="7" t="n">
@@ -20498,12 +20499,12 @@
         <v>93</v>
       </c>
       <c r="S216" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="T216" s="5"/>
       <c r="U216" s="5"/>
       <c r="V216" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="W216" s="5"/>
       <c r="X216" s="5"/>
@@ -20547,16 +20548,16 @@
         <v>41</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F217" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="G217" s="5" t="s">
         <v>632</v>
       </c>
-      <c r="G217" s="5" t="s">
-        <v>633</v>
-      </c>
       <c r="H217" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I217" s="5"/>
       <c r="J217" s="7"/>
@@ -20569,7 +20570,7 @@
         <v>5449000000439</v>
       </c>
       <c r="O217" s="10" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P217" s="10"/>
       <c r="Q217" s="10"/>
@@ -20581,7 +20582,7 @@
       </c>
       <c r="T217" s="5"/>
       <c r="U217" s="5"/>
-      <c r="V217" s="18"/>
+      <c r="V217" s="19"/>
       <c r="W217" s="5"/>
       <c r="X217" s="5"/>
       <c r="Y217" s="5"/>
@@ -20598,7 +20599,7 @@
       <c r="AF217" s="5"/>
       <c r="AG217" s="5"/>
       <c r="AH217" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AI217" s="5"/>
       <c r="AJ217" s="5" t="n">
@@ -20626,16 +20627,16 @@
         <v>41</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F218" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="G218" s="5" t="s">
         <v>635</v>
       </c>
-      <c r="G218" s="5" t="s">
-        <v>636</v>
-      </c>
       <c r="H218" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I218" s="5"/>
       <c r="J218" s="7" t="n">
@@ -20649,12 +20650,12 @@
       <c r="P218" s="10"/>
       <c r="Q218" s="10"/>
       <c r="R218" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="S218" s="5"/>
       <c r="T218" s="5"/>
       <c r="U218" s="5"/>
-      <c r="V218" s="18"/>
+      <c r="V218" s="19"/>
       <c r="W218" s="5"/>
       <c r="X218" s="5"/>
       <c r="Y218" s="5"/>
@@ -20681,7 +20682,7 @@
         <v>201</v>
       </c>
       <c r="AL218" s="12" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AM218" s="5" t="n">
         <v>303</v>
@@ -20701,13 +20702,13 @@
         <v>41</v>
       </c>
       <c r="E219" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F219" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="G219" s="5" t="s">
         <v>638</v>
-      </c>
-      <c r="G219" s="5" t="s">
-        <v>639</v>
       </c>
       <c r="H219" s="5" t="s">
         <v>92</v>
@@ -20719,13 +20720,13 @@
       <c r="K219" s="7"/>
       <c r="L219" s="7"/>
       <c r="M219" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N219" s="10" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="O219" s="10" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="P219" s="10"/>
       <c r="Q219" s="10"/>
@@ -20733,11 +20734,11 @@
         <v>93</v>
       </c>
       <c r="S219" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="T219" s="5"/>
       <c r="U219" s="5"/>
-      <c r="V219" s="18"/>
+      <c r="V219" s="19"/>
       <c r="W219" s="5"/>
       <c r="X219" s="5"/>
       <c r="Y219" s="5"/>
@@ -20780,16 +20781,16 @@
         <v>41</v>
       </c>
       <c r="E220" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F220" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="G220" s="5" t="s">
         <v>640</v>
       </c>
-      <c r="G220" s="5" t="s">
-        <v>641</v>
-      </c>
       <c r="H220" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I220" s="5"/>
       <c r="J220" s="7" t="n">
@@ -20806,12 +20807,12 @@
         <v>93</v>
       </c>
       <c r="S220" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="T220" s="5"/>
       <c r="U220" s="5"/>
       <c r="V220" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="W220" s="5"/>
       <c r="X220" s="5"/>
@@ -20854,16 +20855,16 @@
         <v>41</v>
       </c>
       <c r="E221" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F221" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="G221" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="G221" s="5" t="s">
-        <v>644</v>
-      </c>
       <c r="H221" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I221" s="5"/>
       <c r="J221" s="7" t="n">
@@ -20882,7 +20883,7 @@
       <c r="S221" s="5"/>
       <c r="T221" s="5"/>
       <c r="U221" s="5"/>
-      <c r="V221" s="18"/>
+      <c r="V221" s="19"/>
       <c r="W221" s="5"/>
       <c r="X221" s="5"/>
       <c r="Y221" s="5"/>
@@ -20907,7 +20908,7 @@
         <v>204</v>
       </c>
       <c r="AL221" s="12" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AM221" s="5" t="n">
         <v>201</v>
@@ -20927,23 +20928,23 @@
         <v>41</v>
       </c>
       <c r="E222" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F222" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="G222" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="G222" s="5" t="s">
-        <v>647</v>
-      </c>
       <c r="H222" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I222" s="5"/>
       <c r="J222" s="7"/>
       <c r="K222" s="7"/>
       <c r="L222" s="7"/>
       <c r="M222" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N222" s="10" t="n">
         <v>4607042434877</v>
@@ -20959,7 +20960,7 @@
       </c>
       <c r="T222" s="5"/>
       <c r="U222" s="5"/>
-      <c r="V222" s="18"/>
+      <c r="V222" s="19"/>
       <c r="W222" s="5"/>
       <c r="X222" s="5"/>
       <c r="Y222" s="5"/>
@@ -20976,7 +20977,7 @@
       <c r="AF222" s="5"/>
       <c r="AG222" s="5"/>
       <c r="AH222" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AI222" s="5"/>
       <c r="AJ222" s="5" t="n">
@@ -21004,23 +21005,23 @@
         <v>41</v>
       </c>
       <c r="E223" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F223" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="G223" s="5" t="s">
         <v>648</v>
       </c>
-      <c r="G223" s="5" t="s">
-        <v>649</v>
-      </c>
       <c r="H223" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I223" s="5"/>
       <c r="J223" s="7"/>
       <c r="K223" s="7"/>
       <c r="L223" s="7"/>
       <c r="M223" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N223" s="10" t="n">
         <v>4607042434891</v>
@@ -21036,7 +21037,7 @@
       </c>
       <c r="T223" s="5"/>
       <c r="U223" s="5"/>
-      <c r="V223" s="18"/>
+      <c r="V223" s="19"/>
       <c r="W223" s="5"/>
       <c r="X223" s="5"/>
       <c r="Y223" s="5"/>
@@ -21053,7 +21054,7 @@
       <c r="AF223" s="5"/>
       <c r="AG223" s="5"/>
       <c r="AH223" s="5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AI223" s="5"/>
       <c r="AJ223" s="5" t="n">
@@ -21081,16 +21082,16 @@
         <v>41</v>
       </c>
       <c r="E224" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F224" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="G224" s="5" t="s">
         <v>650</v>
       </c>
-      <c r="G224" s="5" t="s">
-        <v>651</v>
-      </c>
       <c r="H224" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I224" s="5"/>
       <c r="J224" s="7" t="n">
@@ -21104,14 +21105,14 @@
       <c r="P224" s="10"/>
       <c r="Q224" s="10"/>
       <c r="R224" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="S224" s="5"/>
       <c r="T224" s="5"/>
       <c r="U224" s="5"/>
-      <c r="V224" s="18"/>
+      <c r="V224" s="19"/>
       <c r="W224" s="5"/>
-      <c r="X224" s="19" t="s">
+      <c r="X224" s="20" t="s">
         <v>77</v>
       </c>
       <c r="Y224" s="5"/>
@@ -21136,7 +21137,7 @@
         <v>207</v>
       </c>
       <c r="AL224" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AM224" s="5" t="n">
         <v>320</v>
@@ -21156,13 +21157,13 @@
         <v>41</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F225" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="G225" s="5" t="s">
         <v>653</v>
-      </c>
-      <c r="G225" s="5" t="s">
-        <v>654</v>
       </c>
       <c r="H225" s="5" t="s">
         <v>92</v>
@@ -21174,29 +21175,29 @@
       <c r="K225" s="7"/>
       <c r="L225" s="7"/>
       <c r="M225" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N225" s="10" t="s">
+        <v>654</v>
+      </c>
+      <c r="O225" s="10" t="s">
         <v>655</v>
       </c>
-      <c r="O225" s="10" t="s">
-        <v>656</v>
-      </c>
       <c r="P225" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="Q225" s="10"/>
       <c r="R225" s="5" t="s">
         <v>93</v>
       </c>
       <c r="S225" s="5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="T225" s="5"/>
       <c r="U225" s="5"/>
-      <c r="V225" s="18"/>
+      <c r="V225" s="19"/>
       <c r="W225" s="5"/>
-      <c r="X225" s="19" t="s">
+      <c r="X225" s="20" t="s">
         <v>77</v>
       </c>
       <c r="Y225" s="5"/>
@@ -21237,16 +21238,16 @@
         <v>41</v>
       </c>
       <c r="E226" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F226" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="G226" s="5" t="s">
         <v>658</v>
       </c>
-      <c r="G226" s="5" t="s">
-        <v>659</v>
-      </c>
       <c r="H226" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I226" s="5"/>
       <c r="J226" s="7" t="n">
@@ -21263,15 +21264,15 @@
         <v>93</v>
       </c>
       <c r="S226" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="T226" s="5"/>
       <c r="U226" s="5"/>
       <c r="V226" s="5" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="W226" s="5"/>
-      <c r="X226" s="19" t="s">
+      <c r="X226" s="20" t="s">
         <v>77</v>
       </c>
       <c r="Y226" s="5"/>
@@ -21312,16 +21313,16 @@
         <v>41</v>
       </c>
       <c r="E227" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F227" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="G227" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="G227" s="5" t="s">
-        <v>662</v>
-      </c>
       <c r="H227" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I227" s="5"/>
       <c r="J227" s="7" t="n">
@@ -21340,9 +21341,9 @@
       <c r="S227" s="5"/>
       <c r="T227" s="5"/>
       <c r="U227" s="5"/>
-      <c r="V227" s="18"/>
+      <c r="V227" s="19"/>
       <c r="W227" s="5"/>
-      <c r="X227" s="19" t="s">
+      <c r="X227" s="20" t="s">
         <v>77</v>
       </c>
       <c r="Y227" s="5"/>
@@ -21365,7 +21366,7 @@
         <v>210</v>
       </c>
       <c r="AL227" s="12" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AM227" s="5" t="n">
         <v>207</v>
@@ -21385,23 +21386,23 @@
         <v>41</v>
       </c>
       <c r="E228" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F228" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="G228" s="10" t="s">
         <v>664</v>
       </c>
-      <c r="G228" s="10" t="s">
-        <v>665</v>
-      </c>
       <c r="H228" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I228" s="5"/>
       <c r="J228" s="7"/>
       <c r="K228" s="7"/>
       <c r="L228" s="7"/>
       <c r="M228" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="N228" s="15" t="s">
         <v>263</v>
@@ -21417,9 +21418,9 @@
       </c>
       <c r="T228" s="5"/>
       <c r="U228" s="5"/>
-      <c r="V228" s="18"/>
+      <c r="V228" s="19"/>
       <c r="W228" s="5"/>
-      <c r="X228" s="19" t="s">
+      <c r="X228" s="20" t="s">
         <v>77</v>
       </c>
       <c r="Y228" s="5"/>
@@ -21434,7 +21435,7 @@
       <c r="AF228" s="5"/>
       <c r="AG228" s="5"/>
       <c r="AH228" s="5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="AI228" s="5"/>
       <c r="AJ228" s="5" t="n">
@@ -21462,26 +21463,26 @@
         <v>41</v>
       </c>
       <c r="E229" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F229" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="G229" s="10" t="s">
         <v>668</v>
       </c>
-      <c r="G229" s="10" t="s">
-        <v>669</v>
-      </c>
       <c r="H229" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I229" s="5"/>
       <c r="J229" s="7"/>
       <c r="K229" s="7"/>
       <c r="L229" s="7"/>
       <c r="M229" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N229" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O229" s="10"/>
       <c r="P229" s="10"/>
@@ -21494,9 +21495,9 @@
       </c>
       <c r="T229" s="5"/>
       <c r="U229" s="5"/>
-      <c r="V229" s="18"/>
+      <c r="V229" s="19"/>
       <c r="W229" s="5"/>
-      <c r="X229" s="19" t="s">
+      <c r="X229" s="20" t="s">
         <v>77</v>
       </c>
       <c r="Y229" s="5"/>
@@ -21511,7 +21512,7 @@
       <c r="AF229" s="5"/>
       <c r="AG229" s="5"/>
       <c r="AH229" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="AI229" s="5"/>
       <c r="AJ229" s="5" t="n">
@@ -21539,16 +21540,16 @@
         <v>41</v>
       </c>
       <c r="E230" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F230" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="G230" s="10" t="s">
         <v>671</v>
       </c>
-      <c r="G230" s="10" t="s">
-        <v>672</v>
-      </c>
       <c r="H230" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I230" s="5"/>
       <c r="J230" s="7"/>
@@ -21571,9 +21572,9 @@
       </c>
       <c r="T230" s="5"/>
       <c r="U230" s="5"/>
-      <c r="V230" s="18"/>
+      <c r="V230" s="19"/>
       <c r="W230" s="5"/>
-      <c r="X230" s="19" t="s">
+      <c r="X230" s="20" t="s">
         <v>77</v>
       </c>
       <c r="Y230" s="5"/>
@@ -21588,7 +21589,7 @@
       <c r="AF230" s="5"/>
       <c r="AG230" s="5"/>
       <c r="AH230" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="AI230" s="5"/>
       <c r="AJ230" s="5" t="n">
@@ -21616,16 +21617,16 @@
         <v>41</v>
       </c>
       <c r="E231" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F231" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="G231" s="5" t="s">
         <v>674</v>
       </c>
-      <c r="G231" s="5" t="s">
-        <v>675</v>
-      </c>
       <c r="H231" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I231" s="5"/>
       <c r="J231" s="7" t="n">
@@ -21639,12 +21640,12 @@
       <c r="P231" s="10"/>
       <c r="Q231" s="10"/>
       <c r="R231" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="S231" s="5"/>
       <c r="T231" s="5"/>
       <c r="U231" s="5"/>
-      <c r="V231" s="18"/>
+      <c r="V231" s="19"/>
       <c r="W231" s="5"/>
       <c r="X231" s="5"/>
       <c r="Y231" s="5"/>
@@ -21671,7 +21672,7 @@
         <v>214</v>
       </c>
       <c r="AL231" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AM231" s="10" t="n">
         <v>302</v>
@@ -21691,13 +21692,13 @@
         <v>41</v>
       </c>
       <c r="E232" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F232" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="G232" s="5" t="s">
         <v>677</v>
-      </c>
-      <c r="G232" s="5" t="s">
-        <v>678</v>
       </c>
       <c r="H232" s="5" t="s">
         <v>92</v>
@@ -21709,13 +21710,13 @@
       <c r="K232" s="7"/>
       <c r="L232" s="7"/>
       <c r="M232" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="N232" s="10" t="s">
         <v>567</v>
       </c>
-      <c r="N232" s="10" t="s">
-        <v>568</v>
-      </c>
       <c r="O232" s="10" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P232" s="10"/>
       <c r="Q232" s="10"/>
@@ -21723,11 +21724,11 @@
         <v>93</v>
       </c>
       <c r="S232" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="T232" s="5"/>
       <c r="U232" s="5"/>
-      <c r="V232" s="18"/>
+      <c r="V232" s="19"/>
       <c r="W232" s="5"/>
       <c r="X232" s="5"/>
       <c r="Y232" s="5"/>
@@ -21770,16 +21771,16 @@
         <v>41</v>
       </c>
       <c r="E233" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F233" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="G233" s="5" t="s">
         <v>679</v>
       </c>
-      <c r="G233" s="5" t="s">
-        <v>680</v>
-      </c>
       <c r="H233" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I233" s="5"/>
       <c r="J233" s="7" t="n">
@@ -21796,12 +21797,12 @@
         <v>93</v>
       </c>
       <c r="S233" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="T233" s="5"/>
       <c r="U233" s="5"/>
       <c r="V233" s="5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="W233" s="5"/>
       <c r="X233" s="5"/>
@@ -21845,16 +21846,16 @@
         <v>41</v>
       </c>
       <c r="E234" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F234" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="G234" s="5" t="s">
         <v>682</v>
       </c>
-      <c r="G234" s="5" t="s">
-        <v>683</v>
-      </c>
       <c r="H234" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I234" s="5"/>
       <c r="J234" s="7" t="n">
@@ -21873,7 +21874,7 @@
       <c r="S234" s="5"/>
       <c r="T234" s="5"/>
       <c r="U234" s="5"/>
-      <c r="V234" s="18"/>
+      <c r="V234" s="19"/>
       <c r="W234" s="5"/>
       <c r="X234" s="5"/>
       <c r="Y234" s="5"/>
@@ -21918,16 +21919,16 @@
         <v>41</v>
       </c>
       <c r="E235" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F235" s="5" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G235" s="10" t="s">
         <v>133</v>
       </c>
       <c r="H235" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I235" s="5"/>
       <c r="J235" s="7"/>
@@ -21940,7 +21941,7 @@
         <v>5449000044808</v>
       </c>
       <c r="O235" s="10" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P235" s="10"/>
       <c r="Q235" s="10"/>
@@ -21952,7 +21953,7 @@
       </c>
       <c r="T235" s="5"/>
       <c r="U235" s="5"/>
-      <c r="V235" s="18"/>
+      <c r="V235" s="19"/>
       <c r="W235" s="5"/>
       <c r="X235" s="5"/>
       <c r="Y235" s="5"/>
@@ -21969,7 +21970,7 @@
       <c r="AF235" s="5"/>
       <c r="AG235" s="5"/>
       <c r="AH235" s="5" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AI235" s="5"/>
       <c r="AJ235" s="5" t="n">
@@ -21997,16 +21998,16 @@
         <v>41</v>
       </c>
       <c r="E236" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F236" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="G236" s="5" t="s">
         <v>686</v>
       </c>
-      <c r="G236" s="5" t="s">
-        <v>687</v>
-      </c>
       <c r="H236" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I236" s="5"/>
       <c r="J236" s="7" t="n">
@@ -22020,12 +22021,12 @@
       <c r="P236" s="10"/>
       <c r="Q236" s="10"/>
       <c r="R236" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="S236" s="5"/>
       <c r="T236" s="5"/>
       <c r="U236" s="5"/>
-      <c r="V236" s="18"/>
+      <c r="V236" s="19"/>
       <c r="W236" s="5"/>
       <c r="X236" s="5"/>
       <c r="Y236" s="5"/>
@@ -22052,7 +22053,7 @@
         <v>219</v>
       </c>
       <c r="AL236" s="12" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="AM236" s="5" t="n">
         <v>303</v>
@@ -22072,13 +22073,13 @@
         <v>41</v>
       </c>
       <c r="E237" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F237" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="G237" s="5" t="s">
         <v>689</v>
-      </c>
-      <c r="G237" s="5" t="s">
-        <v>690</v>
       </c>
       <c r="H237" s="5" t="s">
         <v>92</v>
@@ -22090,13 +22091,13 @@
       <c r="K237" s="7"/>
       <c r="L237" s="7"/>
       <c r="M237" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N237" s="10" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="O237" s="10" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="P237" s="10"/>
       <c r="Q237" s="10"/>
@@ -22104,11 +22105,11 @@
         <v>93</v>
       </c>
       <c r="S237" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="T237" s="5"/>
       <c r="U237" s="5"/>
-      <c r="V237" s="18"/>
+      <c r="V237" s="19"/>
       <c r="W237" s="5"/>
       <c r="X237" s="5"/>
       <c r="Y237" s="5"/>
@@ -22151,16 +22152,16 @@
         <v>41</v>
       </c>
       <c r="E238" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F238" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="G238" s="5" t="s">
         <v>691</v>
       </c>
-      <c r="G238" s="5" t="s">
-        <v>692</v>
-      </c>
       <c r="H238" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I238" s="5"/>
       <c r="J238" s="7" t="n">
@@ -22177,12 +22178,12 @@
         <v>93</v>
       </c>
       <c r="S238" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="T238" s="5"/>
       <c r="U238" s="5"/>
       <c r="V238" s="5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="W238" s="5"/>
       <c r="X238" s="5"/>
@@ -22226,13 +22227,13 @@
         <v>41</v>
       </c>
       <c r="E239" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F239" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="G239" s="10" t="s">
         <v>693</v>
-      </c>
-      <c r="G239" s="10" t="s">
-        <v>694</v>
       </c>
       <c r="H239" s="5" t="s">
         <v>92</v>
@@ -22244,7 +22245,7 @@
       <c r="K239" s="7"/>
       <c r="L239" s="7"/>
       <c r="M239" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="N239" s="10" t="n">
         <v>4607042439155</v>
@@ -22260,7 +22261,7 @@
       </c>
       <c r="T239" s="5"/>
       <c r="U239" s="5"/>
-      <c r="V239" s="18"/>
+      <c r="V239" s="19"/>
       <c r="W239" s="5"/>
       <c r="X239" s="5"/>
       <c r="Y239" s="5"/>
@@ -22277,7 +22278,7 @@
       <c r="AF239" s="5"/>
       <c r="AG239" s="5"/>
       <c r="AH239" s="5" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="AI239" s="5"/>
       <c r="AJ239" s="5" t="n">
@@ -22305,16 +22306,16 @@
         <v>41</v>
       </c>
       <c r="E240" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F240" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="G240" s="5" t="s">
         <v>696</v>
       </c>
-      <c r="G240" s="5" t="s">
-        <v>697</v>
-      </c>
       <c r="H240" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I240" s="5"/>
       <c r="J240" s="7" t="n">
@@ -22328,12 +22329,12 @@
       <c r="P240" s="10"/>
       <c r="Q240" s="10"/>
       <c r="R240" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="S240" s="5"/>
       <c r="T240" s="5"/>
       <c r="U240" s="5"/>
-      <c r="V240" s="18"/>
+      <c r="V240" s="19"/>
       <c r="W240" s="5"/>
       <c r="X240" s="5" t="s">
         <v>82</v>
@@ -22360,7 +22361,7 @@
         <v>223</v>
       </c>
       <c r="AL240" s="12" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AM240" s="5" t="n">
         <v>321</v>
@@ -22380,13 +22381,13 @@
         <v>41</v>
       </c>
       <c r="E241" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F241" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="G241" s="5" t="s">
         <v>699</v>
-      </c>
-      <c r="G241" s="5" t="s">
-        <v>700</v>
       </c>
       <c r="H241" s="5" t="s">
         <v>92</v>
@@ -22398,13 +22399,13 @@
       <c r="K241" s="7"/>
       <c r="L241" s="7"/>
       <c r="M241" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N241" s="10" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="O241" s="10" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="P241" s="10"/>
       <c r="Q241" s="10"/>
@@ -22412,11 +22413,11 @@
         <v>93</v>
       </c>
       <c r="S241" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="T241" s="5"/>
       <c r="U241" s="5"/>
-      <c r="V241" s="18"/>
+      <c r="V241" s="19"/>
       <c r="W241" s="5"/>
       <c r="X241" s="5" t="s">
         <v>82</v>
@@ -22459,16 +22460,16 @@
         <v>41</v>
       </c>
       <c r="E242" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F242" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="G242" s="5" t="s">
         <v>702</v>
       </c>
-      <c r="G242" s="5" t="s">
-        <v>703</v>
-      </c>
       <c r="H242" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I242" s="5"/>
       <c r="J242" s="7" t="n">
@@ -22485,12 +22486,12 @@
         <v>93</v>
       </c>
       <c r="S242" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="T242" s="5"/>
       <c r="U242" s="5"/>
       <c r="V242" s="5" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="W242" s="5"/>
       <c r="X242" s="5" t="s">
@@ -22534,16 +22535,16 @@
         <v>41</v>
       </c>
       <c r="E243" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F243" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="G243" s="5" t="s">
         <v>705</v>
       </c>
-      <c r="G243" s="5" t="s">
-        <v>706</v>
-      </c>
       <c r="H243" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I243" s="5"/>
       <c r="J243" s="7" t="n">
@@ -22562,7 +22563,7 @@
       <c r="S243" s="5"/>
       <c r="T243" s="5"/>
       <c r="U243" s="5"/>
-      <c r="V243" s="18"/>
+      <c r="V243" s="19"/>
       <c r="W243" s="5"/>
       <c r="X243" s="5" t="s">
         <v>82</v>
@@ -22587,7 +22588,7 @@
         <v>226</v>
       </c>
       <c r="AL243" s="12" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AM243" s="5" t="n">
         <v>223</v>
@@ -22607,16 +22608,16 @@
         <v>41</v>
       </c>
       <c r="E244" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F244" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="G244" s="5" t="s">
         <v>708</v>
       </c>
-      <c r="G244" s="5" t="s">
-        <v>709</v>
-      </c>
       <c r="H244" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I244" s="5"/>
       <c r="J244" s="7"/>
@@ -22639,7 +22640,7 @@
       </c>
       <c r="T244" s="5"/>
       <c r="U244" s="5"/>
-      <c r="V244" s="18"/>
+      <c r="V244" s="19"/>
       <c r="W244" s="5"/>
       <c r="X244" s="5" t="s">
         <v>82</v>
@@ -22656,7 +22657,7 @@
       <c r="AF244" s="5"/>
       <c r="AG244" s="5"/>
       <c r="AH244" s="5" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AI244" s="5"/>
       <c r="AJ244" s="5" t="n">
@@ -22684,16 +22685,16 @@
         <v>41</v>
       </c>
       <c r="E245" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F245" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="G245" s="5" t="s">
         <v>711</v>
       </c>
-      <c r="G245" s="5" t="s">
-        <v>712</v>
-      </c>
       <c r="H245" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I245" s="5"/>
       <c r="J245" s="7"/>
@@ -22716,7 +22717,7 @@
       </c>
       <c r="T245" s="5"/>
       <c r="U245" s="5"/>
-      <c r="V245" s="18"/>
+      <c r="V245" s="19"/>
       <c r="W245" s="5"/>
       <c r="X245" s="5" t="s">
         <v>82</v>
@@ -22733,7 +22734,7 @@
       <c r="AF245" s="5"/>
       <c r="AG245" s="5"/>
       <c r="AH245" s="5" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="AI245" s="5"/>
       <c r="AJ245" s="5" t="n">
@@ -22761,16 +22762,16 @@
         <v>41</v>
       </c>
       <c r="E246" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F246" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="G246" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="G246" s="5" t="s">
-        <v>715</v>
-      </c>
       <c r="H246" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I246" s="5"/>
       <c r="J246" s="7" t="n">
@@ -22784,18 +22785,18 @@
       <c r="P246" s="10"/>
       <c r="Q246" s="5"/>
       <c r="R246" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="S246" s="5"/>
       <c r="T246" s="5"/>
       <c r="U246" s="5"/>
-      <c r="V246" s="18"/>
+      <c r="V246" s="19"/>
       <c r="W246" s="5"/>
       <c r="X246" s="5"/>
       <c r="Y246" s="5"/>
       <c r="Z246" s="5"/>
-      <c r="AA246" s="17" t="s">
-        <v>716</v>
+      <c r="AA246" s="18" t="s">
+        <v>715</v>
       </c>
       <c r="AB246" s="5"/>
       <c r="AC246" s="5"/>
@@ -22816,7 +22817,7 @@
         <v>229</v>
       </c>
       <c r="AL246" s="12" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AM246" s="10" t="n">
         <v>302</v>
@@ -22836,13 +22837,13 @@
         <v>41</v>
       </c>
       <c r="E247" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F247" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="G247" s="5" t="s">
         <v>718</v>
-      </c>
-      <c r="G247" s="5" t="s">
-        <v>719</v>
       </c>
       <c r="H247" s="5" t="s">
         <v>92</v>
@@ -22854,13 +22855,13 @@
       <c r="K247" s="7"/>
       <c r="L247" s="7"/>
       <c r="M247" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="N247" s="10" t="s">
         <v>567</v>
       </c>
-      <c r="N247" s="10" t="s">
-        <v>568</v>
-      </c>
       <c r="O247" s="10" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P247" s="10"/>
       <c r="Q247" s="5"/>
@@ -22868,17 +22869,17 @@
         <v>93</v>
       </c>
       <c r="S247" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="T247" s="5"/>
       <c r="U247" s="5"/>
-      <c r="V247" s="18"/>
+      <c r="V247" s="19"/>
       <c r="W247" s="5"/>
       <c r="X247" s="5"/>
       <c r="Y247" s="5"/>
       <c r="Z247" s="5"/>
-      <c r="AA247" s="17" t="s">
-        <v>716</v>
+      <c r="AA247" s="18" t="s">
+        <v>715</v>
       </c>
       <c r="AB247" s="5"/>
       <c r="AC247" s="5"/>
@@ -22915,16 +22916,16 @@
         <v>41</v>
       </c>
       <c r="E248" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F248" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="G248" s="5" t="s">
         <v>720</v>
       </c>
-      <c r="G248" s="5" t="s">
-        <v>721</v>
-      </c>
       <c r="H248" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I248" s="5"/>
       <c r="J248" s="7" t="n">
@@ -22941,19 +22942,19 @@
         <v>93</v>
       </c>
       <c r="S248" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="T248" s="5"/>
       <c r="U248" s="5"/>
       <c r="V248" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="W248" s="5"/>
       <c r="X248" s="5"/>
       <c r="Y248" s="5"/>
       <c r="Z248" s="5"/>
-      <c r="AA248" s="17" t="s">
-        <v>716</v>
+      <c r="AA248" s="18" t="s">
+        <v>715</v>
       </c>
       <c r="AB248" s="5"/>
       <c r="AC248" s="5"/>
@@ -22990,29 +22991,29 @@
         <v>41</v>
       </c>
       <c r="E249" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F249" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="G249" s="5" t="s">
         <v>723</v>
       </c>
-      <c r="G249" s="5" t="s">
-        <v>724</v>
-      </c>
       <c r="H249" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I249" s="5"/>
       <c r="J249" s="7"/>
       <c r="K249" s="7"/>
       <c r="L249" s="7"/>
       <c r="M249" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="N249" s="10" t="s">
         <v>102</v>
       </c>
       <c r="O249" s="10" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P249" s="10"/>
       <c r="Q249" s="5"/>
@@ -23024,13 +23025,13 @@
       </c>
       <c r="T249" s="5"/>
       <c r="U249" s="5"/>
-      <c r="V249" s="18"/>
+      <c r="V249" s="19"/>
       <c r="W249" s="5"/>
       <c r="X249" s="5"/>
       <c r="Y249" s="5"/>
       <c r="Z249" s="5"/>
-      <c r="AA249" s="17" t="s">
-        <v>716</v>
+      <c r="AA249" s="18" t="s">
+        <v>715</v>
       </c>
       <c r="AB249" s="5"/>
       <c r="AC249" s="5"/>
@@ -23041,7 +23042,7 @@
       <c r="AF249" s="5"/>
       <c r="AG249" s="5"/>
       <c r="AH249" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="AI249" s="5"/>
       <c r="AJ249" s="5" t="n">
@@ -23066,19 +23067,19 @@
         <v>40</v>
       </c>
       <c r="D250" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E250" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="F250" s="5" t="s">
         <v>727</v>
       </c>
-      <c r="F250" s="5" t="s">
+      <c r="G250" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="G250" s="5" t="s">
+      <c r="H250" s="5" t="s">
         <v>729</v>
-      </c>
-      <c r="H250" s="5" t="s">
-        <v>730</v>
       </c>
       <c r="I250" s="5"/>
       <c r="J250" s="7" t="n">
@@ -23087,34 +23088,34 @@
       <c r="K250" s="7"/>
       <c r="L250" s="7"/>
       <c r="M250" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="N250" s="10" t="s">
         <v>567</v>
       </c>
-      <c r="N250" s="10" t="s">
-        <v>568</v>
-      </c>
       <c r="O250" s="10" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P250" s="10"/>
       <c r="Q250" s="5"/>
       <c r="R250" s="5"/>
       <c r="S250" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="T250" s="5"/>
       <c r="U250" s="5"/>
       <c r="V250" s="5"/>
       <c r="W250" s="5"/>
       <c r="X250" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="Y250" s="5"/>
       <c r="Z250" s="5"/>
-      <c r="AA250" s="17"/>
+      <c r="AA250" s="18"/>
       <c r="AB250" s="5"/>
       <c r="AC250" s="5"/>
       <c r="AD250" s="5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AE250" s="9" t="n">
         <v>0.0725</v>
@@ -23145,19 +23146,19 @@
         <v>40</v>
       </c>
       <c r="D251" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E251" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F251" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="G251" s="5" t="s">
         <v>733</v>
       </c>
-      <c r="G251" s="5" t="s">
+      <c r="H251" s="5" t="s">
         <v>734</v>
-      </c>
-      <c r="H251" s="5" t="s">
-        <v>735</v>
       </c>
       <c r="I251" s="5"/>
       <c r="J251" s="7" t="n">
@@ -23171,7 +23172,7 @@
       <c r="P251" s="10"/>
       <c r="Q251" s="5"/>
       <c r="R251" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="S251" s="5"/>
       <c r="T251" s="5"/>
@@ -23179,14 +23180,14 @@
       <c r="V251" s="5"/>
       <c r="W251" s="5"/>
       <c r="X251" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="Y251" s="5"/>
       <c r="Z251" s="5"/>
-      <c r="AA251" s="17"/>
+      <c r="AA251" s="18"/>
       <c r="AB251" s="5"/>
       <c r="AC251" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AD251" s="5" t="s">
         <v>97</v>
@@ -23205,9 +23206,9 @@
         <v>234</v>
       </c>
       <c r="AL251" s="12" t="s">
-        <v>737</v>
-      </c>
-      <c r="AM251" s="20" t="n">
+        <v>736</v>
+      </c>
+      <c r="AM251" s="21" t="n">
         <v>501</v>
       </c>
     </row>
@@ -23222,16 +23223,16 @@
         <v>40</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E252" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F252" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="G252" s="5" t="s">
         <v>738</v>
-      </c>
-      <c r="G252" s="5" t="s">
-        <v>739</v>
       </c>
       <c r="H252" s="5" t="s">
         <v>92</v>
@@ -23262,14 +23263,14 @@
       <c r="V252" s="5"/>
       <c r="W252" s="5"/>
       <c r="X252" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="Y252" s="5"/>
       <c r="Z252" s="5"/>
-      <c r="AA252" s="17"/>
+      <c r="AA252" s="18"/>
       <c r="AB252" s="5"/>
       <c r="AC252" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AD252" s="5" t="s">
         <v>97</v>
@@ -23301,16 +23302,16 @@
         <v>40</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E253" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F253" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="G253" s="5" t="s">
         <v>740</v>
-      </c>
-      <c r="G253" s="5" t="s">
-        <v>741</v>
       </c>
       <c r="H253" s="5" t="s">
         <v>92</v>
@@ -23322,7 +23323,7 @@
       <c r="K253" s="7"/>
       <c r="L253" s="7"/>
       <c r="M253" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="N253" s="10" t="s">
         <v>102</v>
@@ -23341,14 +23342,14 @@
       <c r="V253" s="5"/>
       <c r="W253" s="5"/>
       <c r="X253" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="Y253" s="5"/>
       <c r="Z253" s="5"/>
-      <c r="AA253" s="17"/>
+      <c r="AA253" s="18"/>
       <c r="AB253" s="5"/>
       <c r="AC253" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AD253" s="5" t="s">
         <v>97</v>
@@ -23380,16 +23381,16 @@
         <v>40</v>
       </c>
       <c r="D254" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E254" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F254" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G254" s="5" t="s">
         <v>742</v>
-      </c>
-      <c r="G254" s="5" t="s">
-        <v>743</v>
       </c>
       <c r="H254" s="5" t="s">
         <v>92</v>
@@ -23420,14 +23421,14 @@
       <c r="V254" s="5"/>
       <c r="W254" s="5"/>
       <c r="X254" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="Y254" s="5"/>
       <c r="Z254" s="5"/>
-      <c r="AA254" s="17"/>
+      <c r="AA254" s="18"/>
       <c r="AB254" s="5"/>
       <c r="AC254" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AD254" s="5" t="s">
         <v>97</v>
@@ -23459,16 +23460,16 @@
         <v>40</v>
       </c>
       <c r="D255" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E255" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F255" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="G255" s="5" t="s">
         <v>744</v>
-      </c>
-      <c r="G255" s="5" t="s">
-        <v>745</v>
       </c>
       <c r="H255" s="5" t="s">
         <v>92</v>
@@ -23499,14 +23500,14 @@
       <c r="V255" s="5"/>
       <c r="W255" s="5"/>
       <c r="X255" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="Y255" s="5"/>
       <c r="Z255" s="5"/>
-      <c r="AA255" s="17"/>
+      <c r="AA255" s="18"/>
       <c r="AB255" s="5"/>
       <c r="AC255" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AD255" s="5" t="s">
         <v>97</v>
@@ -23538,16 +23539,16 @@
         <v>40</v>
       </c>
       <c r="D256" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E256" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F256" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="G256" s="5" t="s">
         <v>746</v>
-      </c>
-      <c r="G256" s="5" t="s">
-        <v>747</v>
       </c>
       <c r="H256" s="5" t="s">
         <v>92</v>
@@ -23578,14 +23579,14 @@
       <c r="V256" s="5"/>
       <c r="W256" s="5"/>
       <c r="X256" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="Y256" s="5"/>
       <c r="Z256" s="5"/>
-      <c r="AA256" s="17"/>
+      <c r="AA256" s="18"/>
       <c r="AB256" s="5"/>
       <c r="AC256" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AD256" s="5" t="s">
         <v>97</v>
@@ -23617,16 +23618,16 @@
         <v>40</v>
       </c>
       <c r="D257" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E257" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F257" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="G257" s="5" t="s">
         <v>748</v>
-      </c>
-      <c r="G257" s="5" t="s">
-        <v>749</v>
       </c>
       <c r="H257" s="5" t="s">
         <v>92</v>
@@ -23638,7 +23639,7 @@
       <c r="K257" s="7"/>
       <c r="L257" s="7"/>
       <c r="M257" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="N257" s="10" t="s">
         <v>138</v>
@@ -23657,14 +23658,14 @@
       <c r="V257" s="5"/>
       <c r="W257" s="5"/>
       <c r="X257" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="Y257" s="5"/>
       <c r="Z257" s="5"/>
-      <c r="AA257" s="17"/>
+      <c r="AA257" s="18"/>
       <c r="AB257" s="5"/>
       <c r="AC257" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AD257" s="5" t="s">
         <v>97</v>
@@ -23696,16 +23697,16 @@
         <v>40</v>
       </c>
       <c r="D258" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E258" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F258" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="G258" s="5" t="s">
         <v>751</v>
-      </c>
-      <c r="G258" s="5" t="s">
-        <v>752</v>
       </c>
       <c r="H258" s="5" t="s">
         <v>92</v>
@@ -23736,14 +23737,14 @@
       <c r="V258" s="5"/>
       <c r="W258" s="5"/>
       <c r="X258" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="Y258" s="5"/>
       <c r="Z258" s="5"/>
-      <c r="AA258" s="17"/>
+      <c r="AA258" s="18"/>
       <c r="AB258" s="5"/>
       <c r="AC258" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AD258" s="5" t="s">
         <v>97</v>
@@ -23775,16 +23776,16 @@
         <v>40</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E259" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F259" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="G259" s="5" t="s">
         <v>753</v>
-      </c>
-      <c r="G259" s="5" t="s">
-        <v>754</v>
       </c>
       <c r="H259" s="5" t="s">
         <v>92</v>
@@ -23815,14 +23816,14 @@
       <c r="V259" s="5"/>
       <c r="W259" s="5"/>
       <c r="X259" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="Y259" s="5"/>
       <c r="Z259" s="5"/>
-      <c r="AA259" s="17"/>
+      <c r="AA259" s="18"/>
       <c r="AB259" s="5"/>
       <c r="AC259" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AD259" s="5" t="s">
         <v>97</v>
@@ -23857,16 +23858,16 @@
         <v>41</v>
       </c>
       <c r="E260" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="F260" s="5" t="s">
         <v>755</v>
       </c>
-      <c r="F260" s="5" t="s">
+      <c r="G260" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="G260" s="5" t="s">
-        <v>757</v>
-      </c>
       <c r="H260" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I260" s="5"/>
       <c r="J260" s="7" t="n">
@@ -23875,34 +23876,34 @@
       <c r="K260" s="7"/>
       <c r="L260" s="7"/>
       <c r="M260" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N260" s="10" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="O260" s="10" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="P260" s="10"/>
       <c r="Q260" s="5"/>
       <c r="R260" s="5"/>
       <c r="S260" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="T260" s="5"/>
       <c r="U260" s="5"/>
       <c r="V260" s="5"/>
       <c r="W260" s="5"/>
       <c r="X260" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="Y260" s="5"/>
       <c r="Z260" s="5"/>
-      <c r="AA260" s="17"/>
+      <c r="AA260" s="18"/>
       <c r="AB260" s="5"/>
       <c r="AC260" s="5"/>
       <c r="AD260" s="5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AE260" s="9" t="n">
         <v>0.0625</v>
@@ -23933,19 +23934,19 @@
         <v>40</v>
       </c>
       <c r="D261" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E261" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F261" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="G261" s="5" t="s">
         <v>758</v>
       </c>
-      <c r="G261" s="5" t="s">
-        <v>759</v>
-      </c>
       <c r="H261" s="5" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I261" s="5"/>
       <c r="J261" s="7" t="n">
@@ -23959,7 +23960,7 @@
       <c r="P261" s="10"/>
       <c r="Q261" s="5"/>
       <c r="R261" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="S261" s="5"/>
       <c r="T261" s="5"/>
@@ -23967,14 +23968,14 @@
       <c r="V261" s="5"/>
       <c r="W261" s="5"/>
       <c r="X261" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="Y261" s="5"/>
       <c r="Z261" s="5"/>
-      <c r="AA261" s="17"/>
+      <c r="AA261" s="18"/>
       <c r="AB261" s="5"/>
       <c r="AC261" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AD261" s="5" t="s">
         <v>97</v>
@@ -23993,9 +23994,9 @@
         <v>244</v>
       </c>
       <c r="AL261" s="12" t="s">
-        <v>760</v>
-      </c>
-      <c r="AM261" s="20" t="n">
+        <v>759</v>
+      </c>
+      <c r="AM261" s="21" t="n">
         <v>502</v>
       </c>
     </row>
@@ -24010,16 +24011,16 @@
         <v>40</v>
       </c>
       <c r="D262" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E262" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F262" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="G262" s="5" t="s">
         <v>761</v>
-      </c>
-      <c r="G262" s="5" t="s">
-        <v>762</v>
       </c>
       <c r="H262" s="5" t="s">
         <v>92</v>
@@ -24031,7 +24032,7 @@
       <c r="K262" s="7"/>
       <c r="L262" s="7"/>
       <c r="M262" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N262" s="10" t="n">
         <v>4607042434877</v>
@@ -24050,14 +24051,14 @@
       <c r="V262" s="5"/>
       <c r="W262" s="5"/>
       <c r="X262" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="Y262" s="5"/>
       <c r="Z262" s="5"/>
-      <c r="AA262" s="17"/>
+      <c r="AA262" s="18"/>
       <c r="AB262" s="5"/>
       <c r="AC262" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AD262" s="5" t="s">
         <v>97</v>
@@ -24089,16 +24090,16 @@
         <v>40</v>
       </c>
       <c r="D263" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E263" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F263" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="G263" s="5" t="s">
         <v>763</v>
-      </c>
-      <c r="G263" s="5" t="s">
-        <v>764</v>
       </c>
       <c r="H263" s="5" t="s">
         <v>92</v>
@@ -24110,7 +24111,7 @@
       <c r="K263" s="7"/>
       <c r="L263" s="7"/>
       <c r="M263" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N263" s="10" t="n">
         <v>4607042434891</v>
@@ -24129,14 +24130,14 @@
       <c r="V263" s="5"/>
       <c r="W263" s="5"/>
       <c r="X263" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="Y263" s="5"/>
       <c r="Z263" s="5"/>
-      <c r="AA263" s="17"/>
+      <c r="AA263" s="18"/>
       <c r="AB263" s="5"/>
       <c r="AC263" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AD263" s="5" t="s">
         <v>97</v>
@@ -24168,16 +24169,16 @@
         <v>40</v>
       </c>
       <c r="D264" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E264" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F264" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="G264" s="5" t="s">
         <v>765</v>
-      </c>
-      <c r="G264" s="5" t="s">
-        <v>766</v>
       </c>
       <c r="H264" s="5" t="s">
         <v>92</v>
@@ -24189,7 +24190,7 @@
       <c r="K264" s="7"/>
       <c r="L264" s="7"/>
       <c r="M264" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N264" s="10" t="n">
         <v>4607042438738</v>
@@ -24208,14 +24209,14 @@
       <c r="V264" s="5"/>
       <c r="W264" s="5"/>
       <c r="X264" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="Y264" s="5"/>
       <c r="Z264" s="5"/>
-      <c r="AA264" s="17"/>
+      <c r="AA264" s="18"/>
       <c r="AB264" s="5"/>
       <c r="AC264" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AD264" s="5" t="s">
         <v>97</v>
@@ -24247,16 +24248,16 @@
         <v>40</v>
       </c>
       <c r="D265" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E265" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F265" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="G265" s="5" t="s">
         <v>767</v>
-      </c>
-      <c r="G265" s="5" t="s">
-        <v>768</v>
       </c>
       <c r="H265" s="5" t="s">
         <v>92</v>
@@ -24268,7 +24269,7 @@
       <c r="K265" s="7"/>
       <c r="L265" s="7"/>
       <c r="M265" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="N265" s="10" t="n">
         <v>4607042439155</v>
@@ -24287,14 +24288,14 @@
       <c r="V265" s="5"/>
       <c r="W265" s="5"/>
       <c r="X265" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="Y265" s="5"/>
       <c r="Z265" s="5"/>
-      <c r="AA265" s="17"/>
+      <c r="AA265" s="18"/>
       <c r="AB265" s="5"/>
       <c r="AC265" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AD265" s="5" t="s">
         <v>97</v>
@@ -24326,16 +24327,16 @@
         <v>40</v>
       </c>
       <c r="D266" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E266" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F266" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="G266" s="5" t="s">
         <v>769</v>
-      </c>
-      <c r="G266" s="5" t="s">
-        <v>770</v>
       </c>
       <c r="H266" s="5" t="s">
         <v>92</v>
@@ -24347,7 +24348,7 @@
       <c r="K266" s="7"/>
       <c r="L266" s="7"/>
       <c r="M266" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N266" s="10" t="n">
         <v>4607042439216</v>
@@ -24366,14 +24367,14 @@
       <c r="V266" s="5"/>
       <c r="W266" s="5"/>
       <c r="X266" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="Y266" s="5"/>
       <c r="Z266" s="5"/>
-      <c r="AA266" s="17"/>
+      <c r="AA266" s="18"/>
       <c r="AB266" s="5"/>
       <c r="AC266" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AD266" s="5" t="s">
         <v>97</v>
@@ -24408,16 +24409,16 @@
         <v>41</v>
       </c>
       <c r="E267" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="F267" s="5" t="s">
         <v>771</v>
       </c>
-      <c r="F267" s="5" t="s">
+      <c r="G267" s="5" t="s">
         <v>772</v>
       </c>
-      <c r="G267" s="5" t="s">
-        <v>773</v>
-      </c>
       <c r="H267" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I267" s="5"/>
       <c r="J267" s="7" t="n">
@@ -24426,34 +24427,34 @@
       <c r="K267" s="7"/>
       <c r="L267" s="7"/>
       <c r="M267" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N267" s="10" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="O267" s="10" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="P267" s="10"/>
       <c r="Q267" s="5"/>
       <c r="R267" s="5"/>
       <c r="S267" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="T267" s="5"/>
       <c r="U267" s="5"/>
       <c r="V267" s="5"/>
       <c r="W267" s="5"/>
       <c r="X267" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="Y267" s="5"/>
       <c r="Z267" s="5"/>
-      <c r="AA267" s="17"/>
+      <c r="AA267" s="18"/>
       <c r="AB267" s="5"/>
       <c r="AC267" s="5"/>
       <c r="AD267" s="5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AE267" s="9" t="n">
         <v>0.0225</v>
@@ -24484,19 +24485,19 @@
         <v>40</v>
       </c>
       <c r="D268" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E268" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F268" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="G268" s="5" t="s">
         <v>775</v>
       </c>
-      <c r="G268" s="5" t="s">
-        <v>776</v>
-      </c>
       <c r="H268" s="5" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I268" s="5"/>
       <c r="J268" s="7" t="n">
@@ -24510,7 +24511,7 @@
       <c r="P268" s="10"/>
       <c r="Q268" s="5"/>
       <c r="R268" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="S268" s="5"/>
       <c r="T268" s="5"/>
@@ -24518,14 +24519,14 @@
       <c r="V268" s="5"/>
       <c r="W268" s="5"/>
       <c r="X268" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="Y268" s="5"/>
       <c r="Z268" s="5"/>
-      <c r="AA268" s="17"/>
+      <c r="AA268" s="18"/>
       <c r="AB268" s="5"/>
       <c r="AC268" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AD268" s="5" t="s">
         <v>97</v>
@@ -24543,10 +24544,10 @@
       <c r="AK268" s="5" t="n">
         <v>251</v>
       </c>
-      <c r="AL268" s="17" t="n">
+      <c r="AL268" s="18" t="n">
         <v>252</v>
       </c>
-      <c r="AM268" s="20" t="n">
+      <c r="AM268" s="21" t="n">
         <v>503</v>
       </c>
     </row>
@@ -24561,13 +24562,13 @@
         <v>40</v>
       </c>
       <c r="D269" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E269" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F269" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G269" s="5" t="s">
         <v>197</v>
@@ -24601,14 +24602,14 @@
       <c r="V269" s="5"/>
       <c r="W269" s="5"/>
       <c r="X269" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="Y269" s="5"/>
       <c r="Z269" s="5"/>
-      <c r="AA269" s="17"/>
+      <c r="AA269" s="18"/>
       <c r="AB269" s="5"/>
       <c r="AC269" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AD269" s="5" t="s">
         <v>97</v>
@@ -24643,16 +24644,16 @@
         <v>41</v>
       </c>
       <c r="E270" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="F270" s="5" t="s">
         <v>778</v>
       </c>
-      <c r="F270" s="5" t="s">
+      <c r="G270" s="5" t="s">
         <v>779</v>
       </c>
-      <c r="G270" s="5" t="s">
-        <v>780</v>
-      </c>
       <c r="H270" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I270" s="5"/>
       <c r="J270" s="7" t="n">
@@ -24661,34 +24662,34 @@
       <c r="K270" s="7"/>
       <c r="L270" s="7"/>
       <c r="M270" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N270" s="10" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="O270" s="10" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="P270" s="10"/>
       <c r="Q270" s="5"/>
       <c r="R270" s="5"/>
       <c r="S270" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="T270" s="5"/>
       <c r="U270" s="5"/>
       <c r="V270" s="5"/>
       <c r="W270" s="5"/>
       <c r="X270" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="Y270" s="5"/>
       <c r="Z270" s="5"/>
-      <c r="AA270" s="17"/>
+      <c r="AA270" s="18"/>
       <c r="AB270" s="5"/>
       <c r="AC270" s="5"/>
       <c r="AD270" s="5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AE270" s="9" t="n">
         <v>0.0425</v>
@@ -24719,19 +24720,19 @@
         <v>40</v>
       </c>
       <c r="D271" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E271" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F271" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="G271" s="5" t="s">
         <v>782</v>
       </c>
-      <c r="G271" s="5" t="s">
-        <v>783</v>
-      </c>
       <c r="H271" s="5" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I271" s="5"/>
       <c r="J271" s="7" t="n">
@@ -24745,7 +24746,7 @@
       <c r="P271" s="10"/>
       <c r="Q271" s="5"/>
       <c r="R271" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="S271" s="5"/>
       <c r="T271" s="5"/>
@@ -24753,14 +24754,14 @@
       <c r="V271" s="5"/>
       <c r="W271" s="5"/>
       <c r="X271" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="Y271" s="5"/>
       <c r="Z271" s="5"/>
-      <c r="AA271" s="17"/>
+      <c r="AA271" s="18"/>
       <c r="AB271" s="5"/>
       <c r="AC271" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AD271" s="5" t="s">
         <v>97</v>
@@ -24779,9 +24780,9 @@
         <v>254</v>
       </c>
       <c r="AL271" s="12" t="s">
-        <v>784</v>
-      </c>
-      <c r="AM271" s="20" t="n">
+        <v>783</v>
+      </c>
+      <c r="AM271" s="21" t="n">
         <v>504</v>
       </c>
     </row>
@@ -24796,16 +24797,16 @@
         <v>40</v>
       </c>
       <c r="D272" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E272" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F272" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="G272" s="5" t="s">
         <v>785</v>
-      </c>
-      <c r="G272" s="5" t="s">
-        <v>786</v>
       </c>
       <c r="H272" s="5" t="s">
         <v>92</v>
@@ -24817,10 +24818,10 @@
       <c r="K272" s="7"/>
       <c r="L272" s="7"/>
       <c r="M272" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="N272" s="10" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="O272" s="10"/>
       <c r="P272" s="10"/>
@@ -24836,14 +24837,14 @@
       <c r="V272" s="5"/>
       <c r="W272" s="5"/>
       <c r="X272" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="Y272" s="5"/>
       <c r="Z272" s="5"/>
-      <c r="AA272" s="17"/>
+      <c r="AA272" s="18"/>
       <c r="AB272" s="5"/>
       <c r="AC272" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AD272" s="5" t="s">
         <v>97</v>
@@ -24875,16 +24876,16 @@
         <v>40</v>
       </c>
       <c r="D273" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E273" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F273" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="G273" s="5" t="s">
         <v>788</v>
-      </c>
-      <c r="G273" s="5" t="s">
-        <v>789</v>
       </c>
       <c r="H273" s="5" t="s">
         <v>92</v>
@@ -24895,11 +24896,11 @@
       </c>
       <c r="K273" s="7"/>
       <c r="L273" s="7"/>
-      <c r="M273" s="20" t="s">
-        <v>268</v>
+      <c r="M273" s="21" t="s">
+        <v>267</v>
       </c>
       <c r="N273" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O273" s="10"/>
       <c r="P273" s="10"/>
@@ -24915,14 +24916,14 @@
       <c r="V273" s="5"/>
       <c r="W273" s="5"/>
       <c r="X273" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="Y273" s="5"/>
       <c r="Z273" s="5"/>
-      <c r="AA273" s="17"/>
+      <c r="AA273" s="18"/>
       <c r="AB273" s="5"/>
       <c r="AC273" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AD273" s="5" t="s">
         <v>97</v>
@@ -24957,16 +24958,16 @@
         <v>41</v>
       </c>
       <c r="E274" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="F274" s="5" t="s">
         <v>790</v>
       </c>
-      <c r="F274" s="5" t="s">
+      <c r="G274" s="5" t="s">
         <v>791</v>
       </c>
-      <c r="G274" s="5" t="s">
-        <v>792</v>
-      </c>
       <c r="H274" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I274" s="5"/>
       <c r="J274" s="7" t="n">
@@ -24975,34 +24976,34 @@
       <c r="K274" s="7"/>
       <c r="L274" s="7"/>
       <c r="M274" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N274" s="10" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="O274" s="10" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="P274" s="10"/>
       <c r="Q274" s="5"/>
       <c r="R274" s="5"/>
       <c r="S274" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="T274" s="5"/>
       <c r="U274" s="5"/>
       <c r="V274" s="5"/>
       <c r="W274" s="5"/>
       <c r="X274" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="Y274" s="5"/>
       <c r="Z274" s="5"/>
-      <c r="AA274" s="17"/>
+      <c r="AA274" s="18"/>
       <c r="AB274" s="5"/>
       <c r="AC274" s="5"/>
       <c r="AD274" s="5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AE274" s="9" t="n">
         <v>0.04</v>
@@ -25036,16 +25037,16 @@
         <v>41</v>
       </c>
       <c r="E275" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="F275" s="5" t="s">
         <v>793</v>
       </c>
-      <c r="F275" s="5" t="s">
+      <c r="G275" s="5" t="s">
         <v>794</v>
       </c>
-      <c r="G275" s="5" t="s">
+      <c r="H275" s="5" t="s">
         <v>795</v>
-      </c>
-      <c r="H275" s="5" t="s">
-        <v>796</v>
       </c>
       <c r="I275" s="5"/>
       <c r="J275" s="7"/>
@@ -25057,7 +25058,7 @@
       <c r="P275" s="10"/>
       <c r="Q275" s="10"/>
       <c r="R275" s="5" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="S275" s="5"/>
       <c r="T275" s="5"/>
@@ -25071,7 +25072,7 @@
       <c r="AB275" s="5"/>
       <c r="AC275" s="5"/>
       <c r="AD275" s="5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AE275" s="9" t="n">
         <v>0.065</v>
@@ -25079,7 +25080,7 @@
       <c r="AF275" s="5"/>
       <c r="AG275" s="5"/>
       <c r="AH275" s="5" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="AI275" s="5"/>
       <c r="AJ275" s="5" t="n">
@@ -25089,7 +25090,7 @@
         <v>258</v>
       </c>
       <c r="AL275" s="12" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AM275" s="5" t="n">
         <v>311</v>
@@ -25109,16 +25110,16 @@
         <v>41</v>
       </c>
       <c r="E276" s="5" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F276" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="G276" s="5" t="s">
         <v>800</v>
       </c>
-      <c r="G276" s="5" t="s">
+      <c r="H276" s="5" t="s">
         <v>801</v>
-      </c>
-      <c r="H276" s="5" t="s">
-        <v>802</v>
       </c>
       <c r="I276" s="5"/>
       <c r="J276" s="7" t="n">
@@ -25129,24 +25130,24 @@
       </c>
       <c r="L276" s="7"/>
       <c r="M276" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N276" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="O276" s="10"/>
       <c r="P276" s="10"/>
       <c r="Q276" s="10"/>
       <c r="R276" s="5"/>
       <c r="S276" s="5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="T276" s="5"/>
       <c r="U276" s="5"/>
       <c r="V276" s="5"/>
       <c r="W276" s="5"/>
       <c r="X276" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="Y276" s="5"/>
       <c r="Z276" s="5"/>
@@ -25186,16 +25187,16 @@
         <v>41</v>
       </c>
       <c r="E277" s="5" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F277" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="G277" s="5" t="s">
         <v>804</v>
       </c>
-      <c r="G277" s="5" t="s">
+      <c r="H277" s="5" t="s">
         <v>805</v>
-      </c>
-      <c r="H277" s="5" t="s">
-        <v>806</v>
       </c>
       <c r="I277" s="5"/>
       <c r="J277" s="7" t="n">
@@ -25204,24 +25205,24 @@
       <c r="K277" s="7"/>
       <c r="L277" s="7"/>
       <c r="M277" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N277" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="O277" s="10"/>
       <c r="P277" s="10"/>
       <c r="Q277" s="10"/>
       <c r="R277" s="5"/>
       <c r="S277" s="5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="T277" s="5"/>
       <c r="U277" s="5"/>
       <c r="V277" s="5"/>
       <c r="W277" s="5"/>
       <c r="X277" s="5" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="Y277" s="5"/>
       <c r="Z277" s="5"/>
@@ -25261,16 +25262,16 @@
         <v>41</v>
       </c>
       <c r="E278" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F278" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="G278" s="5" t="s">
         <v>808</v>
       </c>
-      <c r="G278" s="5" t="s">
-        <v>809</v>
-      </c>
       <c r="H278" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I278" s="5"/>
       <c r="J278" s="7" t="n">
@@ -25285,16 +25286,16 @@
       <c r="Q278" s="10"/>
       <c r="R278" s="5"/>
       <c r="S278" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="T278" s="5"/>
       <c r="U278" s="5"/>
       <c r="V278" s="5" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="W278" s="5"/>
       <c r="X278" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="Y278" s="5"/>
       <c r="Z278" s="5"/>
@@ -25310,10 +25311,10 @@
       <c r="AF278" s="5"/>
       <c r="AG278" s="5"/>
       <c r="AH278" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="AI278" s="5" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="AJ278" s="5" t="n">
         <v>2</v>
@@ -25322,7 +25323,7 @@
         <v>261</v>
       </c>
       <c r="AL278" s="5"/>
-      <c r="AM278" s="21" t="n">
+      <c r="AM278" s="22" t="n">
         <v>312</v>
       </c>
     </row>
@@ -25340,16 +25341,16 @@
         <v>41</v>
       </c>
       <c r="E279" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F279" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="G279" s="5" t="s">
         <v>813</v>
       </c>
-      <c r="G279" s="5" t="s">
+      <c r="H279" s="5" t="s">
         <v>814</v>
-      </c>
-      <c r="H279" s="5" t="s">
-        <v>815</v>
       </c>
       <c r="I279" s="5"/>
       <c r="J279" s="7"/>
@@ -25360,24 +25361,24 @@
         <v>15</v>
       </c>
       <c r="M279" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N279" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="O279" s="10"/>
       <c r="P279" s="10"/>
       <c r="Q279" s="10"/>
       <c r="R279" s="5"/>
       <c r="S279" s="5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="T279" s="5"/>
       <c r="U279" s="5"/>
       <c r="V279" s="5"/>
       <c r="W279" s="5"/>
       <c r="X279" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="Y279" s="5"/>
       <c r="Z279" s="5"/>
@@ -25393,10 +25394,10 @@
       <c r="AF279" s="5"/>
       <c r="AG279" s="5"/>
       <c r="AH279" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="AI279" s="5" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="AJ279" s="5" t="n">
         <v>2</v>
@@ -25405,7 +25406,7 @@
         <v>262</v>
       </c>
       <c r="AL279" s="5"/>
-      <c r="AM279" s="21" t="n">
+      <c r="AM279" s="22" t="n">
         <v>312</v>
       </c>
     </row>
@@ -25423,13 +25424,13 @@
         <v>41</v>
       </c>
       <c r="E280" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F280" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="G280" s="5" t="s">
         <v>816</v>
-      </c>
-      <c r="G280" s="5" t="s">
-        <v>817</v>
       </c>
       <c r="H280" s="5" t="s">
         <v>87</v>
@@ -25444,7 +25445,7 @@
       <c r="P280" s="10"/>
       <c r="Q280" s="10"/>
       <c r="R280" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="S280" s="5"/>
       <c r="T280" s="5"/>
@@ -25452,7 +25453,7 @@
       <c r="V280" s="5"/>
       <c r="W280" s="5"/>
       <c r="X280" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="Y280" s="5"/>
       <c r="Z280" s="5"/>
@@ -25460,18 +25461,18 @@
       <c r="AB280" s="5"/>
       <c r="AC280" s="5"/>
       <c r="AD280" s="5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AE280" s="9" t="n">
         <v>0.01625</v>
       </c>
-      <c r="AF280" s="22"/>
+      <c r="AF280" s="23"/>
       <c r="AG280" s="5"/>
       <c r="AH280" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="AI280" s="5" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="AJ280" s="5" t="n">
         <v>2</v>
@@ -25480,9 +25481,9 @@
         <v>263</v>
       </c>
       <c r="AL280" s="12" t="s">
-        <v>818</v>
-      </c>
-      <c r="AM280" s="21" t="n">
+        <v>817</v>
+      </c>
+      <c r="AM280" s="22" t="n">
         <v>312</v>
       </c>
     </row>
@@ -25501,13 +25502,13 @@
       </c>
       <c r="E281" s="5"/>
       <c r="F281" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="G281" s="5" t="s">
         <v>819</v>
       </c>
-      <c r="G281" s="5" t="s">
-        <v>820</v>
-      </c>
       <c r="H281" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I281" s="5"/>
       <c r="J281" s="7" t="n">
@@ -25516,31 +25517,31 @@
       <c r="K281" s="7"/>
       <c r="L281" s="7"/>
       <c r="M281" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="N281" s="10" t="s">
         <v>821</v>
-      </c>
-      <c r="N281" s="10" t="s">
-        <v>822</v>
       </c>
       <c r="O281" s="10"/>
       <c r="P281" s="10"/>
       <c r="Q281" s="10" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="R281" s="5" t="s">
         <v>93</v>
       </c>
       <c r="S281" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="T281" s="5"/>
       <c r="U281" s="5"/>
       <c r="V281" s="5"/>
       <c r="W281" s="5"/>
       <c r="X281" s="5" t="s">
-        <v>803</v>
-      </c>
-      <c r="Y281" s="23" t="s">
-        <v>824</v>
+        <v>802</v>
+      </c>
+      <c r="Y281" s="24" t="s">
+        <v>823</v>
       </c>
       <c r="Z281" s="5"/>
       <c r="AA281" s="5"/>
@@ -25553,10 +25554,10 @@
       <c r="AF281" s="5"/>
       <c r="AG281" s="5"/>
       <c r="AH281" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="AI281" s="5" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="AJ281" s="5" t="n">
         <v>3</v>
@@ -25584,13 +25585,13 @@
       </c>
       <c r="E282" s="5"/>
       <c r="F282" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="G282" s="5" t="s">
         <v>825</v>
       </c>
-      <c r="G282" s="5" t="s">
-        <v>826</v>
-      </c>
       <c r="H282" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I282" s="5"/>
       <c r="J282" s="7" t="n">
@@ -25599,31 +25600,31 @@
       <c r="K282" s="7"/>
       <c r="L282" s="7"/>
       <c r="M282" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="N282" s="10" t="s">
         <v>821</v>
-      </c>
-      <c r="N282" s="10" t="s">
-        <v>822</v>
       </c>
       <c r="O282" s="10"/>
       <c r="P282" s="10"/>
       <c r="Q282" s="10" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="R282" s="5" t="s">
         <v>93</v>
       </c>
       <c r="S282" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="T282" s="5"/>
       <c r="U282" s="5"/>
       <c r="V282" s="5"/>
       <c r="W282" s="5"/>
       <c r="X282" s="5" t="s">
-        <v>803</v>
-      </c>
-      <c r="Y282" s="16" t="s">
-        <v>827</v>
+        <v>802</v>
+      </c>
+      <c r="Y282" s="17" t="s">
+        <v>826</v>
       </c>
       <c r="Z282" s="5"/>
       <c r="AA282" s="5"/>
@@ -25636,10 +25637,10 @@
       <c r="AF282" s="5"/>
       <c r="AG282" s="5"/>
       <c r="AH282" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="AI282" s="5" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="AJ282" s="5" t="n">
         <v>3</v>
@@ -25667,13 +25668,13 @@
       </c>
       <c r="E283" s="5"/>
       <c r="F283" s="5" t="s">
+        <v>827</v>
+      </c>
+      <c r="G283" s="5" t="s">
         <v>828</v>
       </c>
-      <c r="G283" s="5" t="s">
-        <v>829</v>
-      </c>
       <c r="H283" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I283" s="5"/>
       <c r="J283" s="7" t="n">
@@ -25687,7 +25688,7 @@
       <c r="P283" s="10"/>
       <c r="Q283" s="10"/>
       <c r="R283" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="S283" s="5"/>
       <c r="T283" s="5"/>
@@ -25695,7 +25696,7 @@
       <c r="V283" s="5"/>
       <c r="W283" s="5"/>
       <c r="X283" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="Y283" s="5"/>
       <c r="Z283" s="5"/>
@@ -25709,10 +25710,10 @@
       <c r="AF283" s="5"/>
       <c r="AG283" s="5"/>
       <c r="AH283" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="AI283" s="5" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="AJ283" s="5" t="n">
         <v>3</v>
@@ -25721,7 +25722,7 @@
         <v>267</v>
       </c>
       <c r="AL283" s="12" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="AM283" s="5" t="n">
         <v>263</v>
@@ -25742,10 +25743,10 @@
       </c>
       <c r="E284" s="5"/>
       <c r="F284" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="G284" s="5" t="s">
         <v>831</v>
-      </c>
-      <c r="G284" s="5" t="s">
-        <v>832</v>
       </c>
       <c r="H284" s="5" t="s">
         <v>92</v>
@@ -25757,35 +25758,35 @@
       <c r="K284" s="7"/>
       <c r="L284" s="7"/>
       <c r="M284" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="N284" s="10" t="s">
         <v>821</v>
-      </c>
-      <c r="N284" s="10" t="s">
-        <v>822</v>
       </c>
       <c r="O284" s="10"/>
       <c r="P284" s="10"/>
       <c r="Q284" s="10" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="R284" s="5" t="s">
         <v>93</v>
       </c>
       <c r="S284" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="T284" s="5"/>
       <c r="U284" s="5"/>
       <c r="V284" s="5"/>
       <c r="W284" s="5"/>
       <c r="X284" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="Y284" s="5"/>
       <c r="Z284" s="5"/>
       <c r="AA284" s="5"/>
       <c r="AB284" s="5"/>
       <c r="AC284" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AD284" s="5" t="s">
         <v>97</v>
@@ -25794,10 +25795,10 @@
       <c r="AF284" s="5"/>
       <c r="AG284" s="5"/>
       <c r="AH284" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="AI284" s="5" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="AJ284" s="5" t="n">
         <v>4</v>
@@ -25824,10 +25825,10 @@
         <v>41</v>
       </c>
       <c r="F285" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="G285" s="5" t="s">
         <v>833</v>
-      </c>
-      <c r="G285" s="5" t="s">
-        <v>834</v>
       </c>
       <c r="H285" s="5" t="s">
         <v>92</v>
@@ -25839,35 +25840,35 @@
       <c r="K285" s="7"/>
       <c r="L285" s="7"/>
       <c r="M285" s="5" t="s">
+        <v>834</v>
+      </c>
+      <c r="N285" s="10" t="s">
         <v>835</v>
-      </c>
-      <c r="N285" s="10" t="s">
-        <v>836</v>
       </c>
       <c r="O285" s="10"/>
       <c r="P285" s="10"/>
       <c r="Q285" s="10" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="R285" s="5" t="s">
         <v>93</v>
       </c>
       <c r="S285" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="T285" s="5"/>
       <c r="U285" s="5"/>
       <c r="V285" s="5"/>
       <c r="W285" s="5"/>
       <c r="X285" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="Y285" s="5"/>
       <c r="Z285" s="5"/>
       <c r="AA285" s="5"/>
       <c r="AB285" s="5"/>
       <c r="AC285" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AD285" s="5" t="s">
         <v>97</v>
@@ -25876,10 +25877,10 @@
       <c r="AF285" s="5"/>
       <c r="AG285" s="5"/>
       <c r="AH285" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="AI285" s="5" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="AJ285" s="5" t="n">
         <v>4</v>
@@ -25907,13 +25908,13 @@
       </c>
       <c r="E286" s="5"/>
       <c r="F286" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="G286" s="5" t="s">
         <v>837</v>
       </c>
-      <c r="G286" s="5" t="s">
+      <c r="H286" s="5" t="s">
         <v>838</v>
-      </c>
-      <c r="H286" s="5" t="s">
-        <v>839</v>
       </c>
       <c r="I286" s="5"/>
       <c r="J286" s="7" t="n">
@@ -25922,10 +25923,10 @@
       <c r="K286" s="7"/>
       <c r="L286" s="7"/>
       <c r="M286" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N286" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="O286" s="10"/>
       <c r="P286" s="10"/>
@@ -25934,14 +25935,14 @@
         <v>93</v>
       </c>
       <c r="S286" s="5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="T286" s="5"/>
       <c r="U286" s="5"/>
       <c r="V286" s="5"/>
       <c r="W286" s="5"/>
       <c r="X286" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="Y286" s="5"/>
       <c r="Z286" s="5"/>
@@ -25955,10 +25956,10 @@
       <c r="AF286" s="5"/>
       <c r="AG286" s="5"/>
       <c r="AH286" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="AI286" s="5" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="AJ286" s="5" t="n">
         <v>3</v>
@@ -25985,16 +25986,16 @@
         <v>41</v>
       </c>
       <c r="E287" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F287" s="5" t="s">
+        <v>839</v>
+      </c>
+      <c r="G287" s="5" t="s">
         <v>840</v>
       </c>
-      <c r="G287" s="5" t="s">
+      <c r="H287" s="5" t="s">
         <v>841</v>
-      </c>
-      <c r="H287" s="5" t="s">
-        <v>842</v>
       </c>
       <c r="I287" s="5"/>
       <c r="J287" s="7"/>
@@ -26002,21 +26003,21 @@
       <c r="L287" s="7"/>
       <c r="M287" s="5"/>
       <c r="N287" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="O287" s="10"/>
       <c r="P287" s="10"/>
       <c r="Q287" s="10"/>
       <c r="R287" s="5"/>
       <c r="S287" s="5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="T287" s="5"/>
       <c r="U287" s="5"/>
       <c r="V287" s="5"/>
       <c r="W287" s="5"/>
       <c r="X287" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="Y287" s="5"/>
       <c r="Z287" s="5"/>
@@ -26024,7 +26025,7 @@
       <c r="AB287" s="5"/>
       <c r="AC287" s="5"/>
       <c r="AD287" s="5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AE287" s="9" t="n">
         <v>0.01625</v>
@@ -26032,10 +26033,10 @@
       <c r="AF287" s="5"/>
       <c r="AG287" s="5"/>
       <c r="AH287" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="AI287" s="5" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="AJ287" s="5" t="n">
         <v>2</v>
@@ -26044,7 +26045,7 @@
         <v>271</v>
       </c>
       <c r="AL287" s="5"/>
-      <c r="AM287" s="21" t="n">
+      <c r="AM287" s="22" t="n">
         <v>312</v>
       </c>
     </row>
@@ -26059,19 +26060,19 @@
         <v>40</v>
       </c>
       <c r="D288" s="5" t="s">
-        <v>579</v>
-      </c>
-      <c r="E288" s="21" t="s">
-        <v>584</v>
+        <v>578</v>
+      </c>
+      <c r="E288" s="22" t="s">
+        <v>583</v>
       </c>
       <c r="F288" s="5" t="s">
+        <v>842</v>
+      </c>
+      <c r="G288" s="5" t="s">
         <v>843</v>
       </c>
-      <c r="G288" s="5" t="s">
-        <v>844</v>
-      </c>
       <c r="H288" s="5" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="I288" s="5"/>
       <c r="J288" s="7" t="n">
@@ -26093,7 +26094,7 @@
       <c r="V288" s="5"/>
       <c r="W288" s="5"/>
       <c r="X288" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="Y288" s="5"/>
       <c r="Z288" s="5"/>
@@ -26101,7 +26102,7 @@
       <c r="AB288" s="5"/>
       <c r="AC288" s="5"/>
       <c r="AD288" s="5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AE288" s="9" t="n">
         <v>0.03</v>
@@ -26116,10 +26117,10 @@
       <c r="AK288" s="5" t="n">
         <v>272</v>
       </c>
-      <c r="AL288" s="17" t="n">
+      <c r="AL288" s="18" t="n">
         <v>273</v>
       </c>
-      <c r="AM288" s="21" t="n">
+      <c r="AM288" s="22" t="n">
         <v>301</v>
       </c>
     </row>
@@ -26134,19 +26135,19 @@
         <v>40</v>
       </c>
       <c r="D289" s="5" t="s">
-        <v>579</v>
-      </c>
-      <c r="E289" s="21" t="s">
-        <v>584</v>
+        <v>578</v>
+      </c>
+      <c r="E289" s="22" t="s">
+        <v>583</v>
       </c>
       <c r="F289" s="5" t="s">
+        <v>844</v>
+      </c>
+      <c r="G289" s="5" t="s">
         <v>845</v>
       </c>
-      <c r="G289" s="5" t="s">
+      <c r="H289" s="5" t="s">
         <v>846</v>
-      </c>
-      <c r="H289" s="5" t="s">
-        <v>847</v>
       </c>
       <c r="I289" s="5"/>
       <c r="J289" s="7" t="n">
@@ -26157,10 +26158,10 @@
       </c>
       <c r="L289" s="7"/>
       <c r="M289" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N289" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="O289" s="10"/>
       <c r="P289" s="10"/>
@@ -26169,14 +26170,14 @@
         <v>93</v>
       </c>
       <c r="S289" s="5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="T289" s="5"/>
       <c r="U289" s="5"/>
       <c r="V289" s="5"/>
       <c r="W289" s="5"/>
       <c r="X289" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="Y289" s="5"/>
       <c r="Z289" s="5"/>
@@ -26184,13 +26185,13 @@
       <c r="AB289" s="5"/>
       <c r="AC289" s="5"/>
       <c r="AD289" s="5" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="AE289" s="9"/>
       <c r="AF289" s="5"/>
       <c r="AG289" s="5"/>
       <c r="AH289" s="5" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="AI289" s="5"/>
       <c r="AJ289" s="5" t="n">
@@ -26215,14 +26216,14 @@
         <v>40</v>
       </c>
       <c r="D290" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E290" s="5"/>
       <c r="F290" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="G290" s="5" t="s">
         <v>850</v>
-      </c>
-      <c r="G290" s="5" t="s">
-        <v>851</v>
       </c>
       <c r="H290" s="5" t="s">
         <v>87</v>
@@ -26245,7 +26246,7 @@
       <c r="X290" s="5"/>
       <c r="Y290" s="5"/>
       <c r="Z290" s="5"/>
-      <c r="AA290" s="17"/>
+      <c r="AA290" s="18"/>
       <c r="AB290" s="5"/>
       <c r="AC290" s="5"/>
       <c r="AD290" s="5" t="s">
@@ -26263,9 +26264,9 @@
         <v>274</v>
       </c>
       <c r="AL290" s="12" t="s">
-        <v>852</v>
-      </c>
-      <c r="AM290" s="21" t="n">
+        <v>851</v>
+      </c>
+      <c r="AM290" s="22" t="n">
         <v>400</v>
       </c>
     </row>
@@ -26280,19 +26281,19 @@
         <v>40</v>
       </c>
       <c r="D291" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E291" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="F291" s="5" t="s">
         <v>853</v>
       </c>
-      <c r="F291" s="5" t="s">
+      <c r="G291" s="5" t="s">
         <v>854</v>
       </c>
-      <c r="G291" s="5" t="s">
+      <c r="H291" s="5" t="s">
         <v>855</v>
-      </c>
-      <c r="H291" s="5" t="s">
-        <v>856</v>
       </c>
       <c r="I291" s="5"/>
       <c r="J291" s="7" t="n">
@@ -26302,7 +26303,7 @@
       <c r="L291" s="7"/>
       <c r="M291" s="5"/>
       <c r="N291" s="5" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="O291" s="10"/>
       <c r="P291" s="10"/>
@@ -26311,7 +26312,7 @@
         <v>93</v>
       </c>
       <c r="S291" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="T291" s="5"/>
       <c r="U291" s="5"/>
@@ -26319,10 +26320,10 @@
       <c r="W291" s="5"/>
       <c r="X291" s="5"/>
       <c r="Y291" s="5" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="Z291" s="5"/>
-      <c r="AA291" s="17"/>
+      <c r="AA291" s="18"/>
       <c r="AB291" s="5"/>
       <c r="AC291" s="5"/>
       <c r="AD291" s="5" t="s">
@@ -26357,19 +26358,19 @@
         <v>40</v>
       </c>
       <c r="D292" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E292" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F292" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="G292" s="5" t="s">
         <v>858</v>
       </c>
-      <c r="G292" s="5" t="s">
-        <v>859</v>
-      </c>
       <c r="H292" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I292" s="5"/>
       <c r="J292" s="7" t="n">
@@ -26379,7 +26380,7 @@
       <c r="L292" s="7"/>
       <c r="M292" s="5"/>
       <c r="N292" s="5" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="O292" s="10"/>
       <c r="P292" s="10"/>
@@ -26388,7 +26389,7 @@
         <v>93</v>
       </c>
       <c r="S292" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="T292" s="5"/>
       <c r="U292" s="5"/>
@@ -26396,10 +26397,10 @@
       <c r="W292" s="5"/>
       <c r="X292" s="5"/>
       <c r="Y292" s="5" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="Z292" s="5"/>
-      <c r="AA292" s="17"/>
+      <c r="AA292" s="18"/>
       <c r="AB292" s="5"/>
       <c r="AC292" s="5"/>
       <c r="AD292" s="5" t="s">
@@ -26434,19 +26435,19 @@
         <v>40</v>
       </c>
       <c r="D293" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E293" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F293" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="G293" s="5" t="s">
         <v>861</v>
       </c>
-      <c r="G293" s="5" t="s">
-        <v>862</v>
-      </c>
       <c r="H293" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I293" s="5"/>
       <c r="J293" s="7" t="n">
@@ -26456,7 +26457,7 @@
       <c r="L293" s="7"/>
       <c r="M293" s="5"/>
       <c r="N293" s="5" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="O293" s="10"/>
       <c r="P293" s="10"/>
@@ -26465,7 +26466,7 @@
         <v>93</v>
       </c>
       <c r="S293" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="T293" s="5"/>
       <c r="U293" s="5"/>
@@ -26473,10 +26474,10 @@
       <c r="W293" s="5"/>
       <c r="X293" s="5"/>
       <c r="Y293" s="5" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="Z293" s="5"/>
-      <c r="AA293" s="17"/>
+      <c r="AA293" s="18"/>
       <c r="AB293" s="5"/>
       <c r="AC293" s="5"/>
       <c r="AD293" s="5" t="s">
@@ -26511,22 +26512,22 @@
         <v>40</v>
       </c>
       <c r="D294" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="E294" s="22" t="s">
         <v>864</v>
       </c>
-      <c r="E294" s="21" t="s">
+      <c r="F294" s="22" t="s">
         <v>865</v>
       </c>
-      <c r="F294" s="21" t="s">
+      <c r="G294" s="5" t="s">
         <v>866</v>
       </c>
-      <c r="G294" s="5" t="s">
+      <c r="H294" s="5" t="s">
         <v>867</v>
       </c>
-      <c r="H294" s="5" t="s">
+      <c r="I294" s="5" t="s">
         <v>868</v>
-      </c>
-      <c r="I294" s="5" t="s">
-        <v>869</v>
       </c>
       <c r="J294" s="7"/>
       <c r="K294" s="7"/>
@@ -26538,7 +26539,7 @@
       <c r="Q294" s="5"/>
       <c r="R294" s="5"/>
       <c r="S294" s="5" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="T294" s="5"/>
       <c r="U294" s="5"/>
@@ -26561,7 +26562,7 @@
         <v>278</v>
       </c>
       <c r="AL294" s="12" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="AM294" s="5"/>
     </row>
@@ -26576,34 +26577,34 @@
         <v>40</v>
       </c>
       <c r="D295" s="5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E295" s="5" t="s">
+        <v>871</v>
+      </c>
+      <c r="F295" s="21" t="s">
         <v>872</v>
       </c>
-      <c r="F295" s="20" t="s">
+      <c r="G295" s="21" t="s">
         <v>873</v>
       </c>
-      <c r="G295" s="20" t="s">
-        <v>874</v>
-      </c>
       <c r="H295" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="I295" s="5" t="s">
         <v>868</v>
-      </c>
-      <c r="I295" s="5" t="s">
-        <v>869</v>
       </c>
       <c r="J295" s="7"/>
       <c r="K295" s="7"/>
       <c r="L295" s="7"/>
       <c r="M295" s="5"/>
-      <c r="N295" s="24"/>
+      <c r="N295" s="25"/>
       <c r="O295" s="5"/>
       <c r="P295" s="5"/>
       <c r="Q295" s="5"/>
       <c r="R295" s="5"/>
       <c r="S295" s="5" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="T295" s="5"/>
       <c r="U295" s="5"/>
@@ -26626,7 +26627,7 @@
         <v>279</v>
       </c>
       <c r="AL295" s="12" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="AM295" s="5"/>
     </row>
@@ -26641,38 +26642,38 @@
         <v>40</v>
       </c>
       <c r="D296" s="5" t="s">
-        <v>864</v>
-      </c>
-      <c r="E296" s="21" t="s">
+        <v>863</v>
+      </c>
+      <c r="E296" s="22" t="s">
+        <v>875</v>
+      </c>
+      <c r="F296" s="22" t="s">
         <v>876</v>
       </c>
-      <c r="F296" s="21" t="s">
+      <c r="G296" s="5" t="s">
         <v>877</v>
       </c>
-      <c r="G296" s="5" t="s">
+      <c r="H296" s="5" t="s">
         <v>878</v>
       </c>
-      <c r="H296" s="5" t="s">
+      <c r="I296" s="5" t="s">
         <v>879</v>
-      </c>
-      <c r="I296" s="5" t="s">
-        <v>880</v>
       </c>
       <c r="J296" s="7"/>
       <c r="K296" s="7"/>
       <c r="L296" s="7"/>
       <c r="M296" s="5" t="s">
+        <v>880</v>
+      </c>
+      <c r="N296" s="26" t="s">
         <v>881</v>
       </c>
-      <c r="N296" s="25" t="s">
-        <v>882</v>
-      </c>
-      <c r="O296" s="26"/>
+      <c r="O296" s="27"/>
       <c r="P296" s="5"/>
       <c r="Q296" s="5"/>
       <c r="R296" s="5"/>
       <c r="S296" s="5" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="T296" s="5"/>
       <c r="U296" s="5"/>
@@ -26710,38 +26711,38 @@
         <v>40</v>
       </c>
       <c r="D297" s="5" t="s">
-        <v>864</v>
-      </c>
-      <c r="E297" s="21" t="s">
+        <v>863</v>
+      </c>
+      <c r="E297" s="22" t="s">
+        <v>875</v>
+      </c>
+      <c r="F297" s="22" t="s">
         <v>876</v>
       </c>
-      <c r="F297" s="21" t="s">
+      <c r="G297" s="5" t="s">
         <v>877</v>
       </c>
-      <c r="G297" s="5" t="s">
+      <c r="H297" s="5" t="s">
         <v>878</v>
       </c>
-      <c r="H297" s="5" t="s">
+      <c r="I297" s="5" t="s">
         <v>879</v>
-      </c>
-      <c r="I297" s="5" t="s">
-        <v>880</v>
       </c>
       <c r="J297" s="7"/>
       <c r="K297" s="7"/>
       <c r="L297" s="7"/>
       <c r="M297" s="5" t="s">
-        <v>881</v>
-      </c>
-      <c r="N297" s="25" t="s">
-        <v>883</v>
-      </c>
-      <c r="O297" s="26"/>
+        <v>880</v>
+      </c>
+      <c r="N297" s="26" t="s">
+        <v>882</v>
+      </c>
+      <c r="O297" s="27"/>
       <c r="P297" s="5"/>
       <c r="Q297" s="5"/>
       <c r="R297" s="5"/>
       <c r="S297" s="5" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="T297" s="5"/>
       <c r="U297" s="5"/>
@@ -26779,38 +26780,38 @@
         <v>40</v>
       </c>
       <c r="D298" s="5" t="s">
-        <v>864</v>
-      </c>
-      <c r="E298" s="21" t="s">
+        <v>863</v>
+      </c>
+      <c r="E298" s="22" t="s">
+        <v>875</v>
+      </c>
+      <c r="F298" s="22" t="s">
         <v>876</v>
       </c>
-      <c r="F298" s="21" t="s">
+      <c r="G298" s="5" t="s">
         <v>877</v>
       </c>
-      <c r="G298" s="5" t="s">
+      <c r="H298" s="5" t="s">
         <v>878</v>
       </c>
-      <c r="H298" s="5" t="s">
+      <c r="I298" s="5" t="s">
         <v>879</v>
-      </c>
-      <c r="I298" s="5" t="s">
-        <v>880</v>
       </c>
       <c r="J298" s="7"/>
       <c r="K298" s="7"/>
       <c r="L298" s="7"/>
       <c r="M298" s="5" t="s">
-        <v>881</v>
-      </c>
-      <c r="N298" s="25" t="s">
-        <v>884</v>
-      </c>
-      <c r="O298" s="26"/>
+        <v>880</v>
+      </c>
+      <c r="N298" s="26" t="s">
+        <v>883</v>
+      </c>
+      <c r="O298" s="27"/>
       <c r="P298" s="5"/>
       <c r="Q298" s="5"/>
       <c r="R298" s="5"/>
       <c r="S298" s="5" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="T298" s="5"/>
       <c r="U298" s="5"/>
@@ -26848,34 +26849,34 @@
         <v>40</v>
       </c>
       <c r="D299" s="5" t="s">
-        <v>864</v>
-      </c>
-      <c r="E299" s="21" t="s">
+        <v>863</v>
+      </c>
+      <c r="E299" s="22" t="s">
+        <v>884</v>
+      </c>
+      <c r="F299" s="22" t="s">
         <v>885</v>
       </c>
-      <c r="F299" s="21" t="s">
+      <c r="G299" s="21" t="s">
         <v>886</v>
       </c>
-      <c r="G299" s="20" t="s">
+      <c r="H299" s="5" t="s">
         <v>887</v>
       </c>
-      <c r="H299" s="5" t="s">
+      <c r="I299" s="5" t="s">
         <v>888</v>
-      </c>
-      <c r="I299" s="5" t="s">
-        <v>889</v>
       </c>
       <c r="J299" s="7"/>
       <c r="K299" s="7"/>
       <c r="L299" s="7"/>
       <c r="M299" s="5"/>
-      <c r="N299" s="27"/>
+      <c r="N299" s="28"/>
       <c r="O299" s="5"/>
       <c r="P299" s="5"/>
       <c r="Q299" s="5"/>
       <c r="R299" s="5"/>
       <c r="S299" s="5" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="T299" s="5"/>
       <c r="U299" s="5"/>
@@ -26913,22 +26914,22 @@
         <v>40</v>
       </c>
       <c r="D300" s="5" t="s">
-        <v>864</v>
-      </c>
-      <c r="E300" s="21" t="s">
+        <v>863</v>
+      </c>
+      <c r="E300" s="22" t="s">
+        <v>889</v>
+      </c>
+      <c r="F300" s="22" t="s">
         <v>890</v>
       </c>
-      <c r="F300" s="21" t="s">
+      <c r="G300" s="21" t="s">
         <v>891</v>
       </c>
-      <c r="G300" s="20" t="s">
+      <c r="H300" s="5" t="s">
         <v>892</v>
       </c>
-      <c r="H300" s="5" t="s">
-        <v>893</v>
-      </c>
       <c r="I300" s="5" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="J300" s="7"/>
       <c r="K300" s="7"/>
@@ -26940,7 +26941,7 @@
       <c r="Q300" s="5"/>
       <c r="R300" s="5"/>
       <c r="S300" s="5" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="T300" s="5"/>
       <c r="U300" s="5"/>
@@ -26978,43 +26979,43 @@
         <v>40</v>
       </c>
       <c r="D301" s="5" t="s">
-        <v>864</v>
-      </c>
-      <c r="E301" s="21" t="s">
+        <v>863</v>
+      </c>
+      <c r="E301" s="22" t="s">
+        <v>893</v>
+      </c>
+      <c r="F301" s="22" t="s">
         <v>894</v>
       </c>
-      <c r="F301" s="21" t="s">
+      <c r="G301" s="5" t="s">
         <v>895</v>
       </c>
-      <c r="G301" s="5" t="s">
+      <c r="H301" s="5" t="s">
         <v>896</v>
       </c>
-      <c r="H301" s="5" t="s">
-        <v>897</v>
-      </c>
       <c r="I301" s="5" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="J301" s="7"/>
       <c r="K301" s="7"/>
       <c r="L301" s="7"/>
       <c r="M301" s="5"/>
       <c r="N301" s="5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="O301" s="5"/>
       <c r="P301" s="5"/>
       <c r="Q301" s="5"/>
       <c r="R301" s="5"/>
       <c r="S301" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="T301" s="5"/>
       <c r="U301" s="5"/>
       <c r="V301" s="5"/>
       <c r="W301" s="5"/>
       <c r="X301" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="Y301" s="5"/>
       <c r="Z301" s="5"/>
@@ -27045,43 +27046,43 @@
         <v>40</v>
       </c>
       <c r="D302" s="5" t="s">
-        <v>864</v>
-      </c>
-      <c r="E302" s="21" t="s">
+        <v>863</v>
+      </c>
+      <c r="E302" s="22" t="s">
+        <v>899</v>
+      </c>
+      <c r="F302" s="22" t="s">
         <v>900</v>
       </c>
-      <c r="F302" s="21" t="s">
+      <c r="G302" s="5" t="s">
         <v>901</v>
       </c>
-      <c r="G302" s="5" t="s">
+      <c r="H302" s="5" t="s">
         <v>902</v>
       </c>
-      <c r="H302" s="5" t="s">
-        <v>903</v>
-      </c>
       <c r="I302" s="5" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="J302" s="7"/>
       <c r="K302" s="7"/>
       <c r="L302" s="7"/>
       <c r="M302" s="5"/>
       <c r="N302" s="5" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="O302" s="5"/>
       <c r="P302" s="5"/>
       <c r="Q302" s="5"/>
       <c r="R302" s="5"/>
       <c r="S302" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="T302" s="5"/>
       <c r="U302" s="5"/>
       <c r="V302" s="5"/>
       <c r="W302" s="5"/>
       <c r="X302" s="5" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="Y302" s="5"/>
       <c r="Z302" s="5"/>
@@ -27112,38 +27113,38 @@
         <v>40</v>
       </c>
       <c r="D303" s="5" t="s">
-        <v>864</v>
-      </c>
-      <c r="E303" s="21" t="s">
+        <v>863</v>
+      </c>
+      <c r="E303" s="22" t="s">
+        <v>905</v>
+      </c>
+      <c r="F303" s="22" t="s">
         <v>906</v>
       </c>
-      <c r="F303" s="21" t="s">
+      <c r="G303" s="5" t="s">
         <v>907</v>
       </c>
-      <c r="G303" s="5" t="s">
-        <v>908</v>
-      </c>
       <c r="H303" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="I303" s="5" t="s">
         <v>879</v>
-      </c>
-      <c r="I303" s="5" t="s">
-        <v>880</v>
       </c>
       <c r="J303" s="7"/>
       <c r="K303" s="7"/>
       <c r="L303" s="7"/>
       <c r="M303" s="5" t="s">
+        <v>908</v>
+      </c>
+      <c r="N303" s="12" t="s">
         <v>909</v>
-      </c>
-      <c r="N303" s="12" t="s">
-        <v>910</v>
       </c>
       <c r="O303" s="5"/>
       <c r="P303" s="5"/>
       <c r="Q303" s="5"/>
       <c r="R303" s="5"/>
       <c r="S303" s="5" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="T303" s="5"/>
       <c r="U303" s="5"/>
@@ -27181,38 +27182,38 @@
         <v>40</v>
       </c>
       <c r="D304" s="5" t="s">
-        <v>864</v>
-      </c>
-      <c r="E304" s="21" t="s">
+        <v>863</v>
+      </c>
+      <c r="E304" s="22" t="s">
+        <v>905</v>
+      </c>
+      <c r="F304" s="22" t="s">
         <v>906</v>
       </c>
-      <c r="F304" s="21" t="s">
+      <c r="G304" s="5" t="s">
         <v>907</v>
       </c>
-      <c r="G304" s="5" t="s">
-        <v>908</v>
-      </c>
       <c r="H304" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="I304" s="5" t="s">
         <v>879</v>
-      </c>
-      <c r="I304" s="5" t="s">
-        <v>880</v>
       </c>
       <c r="J304" s="7"/>
       <c r="K304" s="7"/>
       <c r="L304" s="7"/>
       <c r="M304" s="5" t="s">
+        <v>908</v>
+      </c>
+      <c r="N304" s="12" t="s">
         <v>909</v>
-      </c>
-      <c r="N304" s="12" t="s">
-        <v>910</v>
       </c>
       <c r="O304" s="5"/>
       <c r="P304" s="5"/>
       <c r="Q304" s="5"/>
       <c r="R304" s="5"/>
       <c r="S304" s="5" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="T304" s="5"/>
       <c r="U304" s="5"/>
@@ -27250,38 +27251,38 @@
         <v>40</v>
       </c>
       <c r="D305" s="5" t="s">
-        <v>864</v>
-      </c>
-      <c r="E305" s="21" t="s">
+        <v>863</v>
+      </c>
+      <c r="E305" s="22" t="s">
+        <v>905</v>
+      </c>
+      <c r="F305" s="22" t="s">
         <v>906</v>
       </c>
-      <c r="F305" s="21" t="s">
+      <c r="G305" s="5" t="s">
         <v>907</v>
       </c>
-      <c r="G305" s="5" t="s">
-        <v>908</v>
-      </c>
       <c r="H305" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="I305" s="5" t="s">
         <v>879</v>
-      </c>
-      <c r="I305" s="5" t="s">
-        <v>880</v>
       </c>
       <c r="J305" s="7"/>
       <c r="K305" s="7"/>
       <c r="L305" s="7"/>
       <c r="M305" s="5" t="s">
+        <v>908</v>
+      </c>
+      <c r="N305" s="12" t="s">
         <v>909</v>
-      </c>
-      <c r="N305" s="12" t="s">
-        <v>910</v>
       </c>
       <c r="O305" s="5"/>
       <c r="P305" s="5"/>
       <c r="Q305" s="5"/>
       <c r="R305" s="5"/>
       <c r="S305" s="5" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="T305" s="5"/>
       <c r="U305" s="5"/>
@@ -27319,38 +27320,38 @@
         <v>40</v>
       </c>
       <c r="D306" s="5" t="s">
-        <v>864</v>
-      </c>
-      <c r="E306" s="21" t="s">
+        <v>863</v>
+      </c>
+      <c r="E306" s="22" t="s">
+        <v>905</v>
+      </c>
+      <c r="F306" s="22" t="s">
         <v>906</v>
       </c>
-      <c r="F306" s="21" t="s">
+      <c r="G306" s="5" t="s">
         <v>907</v>
       </c>
-      <c r="G306" s="5" t="s">
-        <v>908</v>
-      </c>
       <c r="H306" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="I306" s="5" t="s">
         <v>879</v>
-      </c>
-      <c r="I306" s="5" t="s">
-        <v>880</v>
       </c>
       <c r="J306" s="7"/>
       <c r="K306" s="7"/>
       <c r="L306" s="7"/>
       <c r="M306" s="5" t="s">
-        <v>909</v>
-      </c>
-      <c r="N306" s="28" t="s">
-        <v>911</v>
+        <v>908</v>
+      </c>
+      <c r="N306" s="29" t="s">
+        <v>910</v>
       </c>
       <c r="O306" s="5"/>
       <c r="P306" s="5"/>
       <c r="Q306" s="5"/>
       <c r="R306" s="5"/>
       <c r="S306" s="5" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="T306" s="5"/>
       <c r="U306" s="5"/>
@@ -27388,38 +27389,38 @@
         <v>40</v>
       </c>
       <c r="D307" s="5" t="s">
-        <v>864</v>
-      </c>
-      <c r="E307" s="21" t="s">
+        <v>863</v>
+      </c>
+      <c r="E307" s="22" t="s">
+        <v>905</v>
+      </c>
+      <c r="F307" s="22" t="s">
         <v>906</v>
       </c>
-      <c r="F307" s="21" t="s">
-        <v>907</v>
-      </c>
       <c r="G307" s="5" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H307" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="I307" s="5" t="s">
         <v>879</v>
-      </c>
-      <c r="I307" s="5" t="s">
-        <v>880</v>
       </c>
       <c r="J307" s="7"/>
       <c r="K307" s="7"/>
       <c r="L307" s="7"/>
       <c r="M307" s="5" t="s">
-        <v>909</v>
-      </c>
-      <c r="N307" s="28" t="s">
-        <v>913</v>
+        <v>908</v>
+      </c>
+      <c r="N307" s="29" t="s">
+        <v>912</v>
       </c>
       <c r="O307" s="5"/>
       <c r="P307" s="5"/>
       <c r="Q307" s="5"/>
       <c r="R307" s="5"/>
       <c r="S307" s="5" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="T307" s="5"/>
       <c r="U307" s="5"/>
@@ -27442,7 +27443,7 @@
         <v>291</v>
       </c>
       <c r="AL307" s="12" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="AM307" s="5"/>
     </row>
@@ -27457,38 +27458,38 @@
         <v>40</v>
       </c>
       <c r="D308" s="5" t="s">
-        <v>864</v>
-      </c>
-      <c r="E308" s="21" t="s">
+        <v>863</v>
+      </c>
+      <c r="E308" s="22" t="s">
+        <v>905</v>
+      </c>
+      <c r="F308" s="22" t="s">
         <v>906</v>
       </c>
-      <c r="F308" s="21" t="s">
-        <v>907</v>
-      </c>
       <c r="G308" s="5" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H308" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="I308" s="5" t="s">
         <v>879</v>
-      </c>
-      <c r="I308" s="5" t="s">
-        <v>880</v>
       </c>
       <c r="J308" s="7"/>
       <c r="K308" s="7"/>
       <c r="L308" s="7"/>
       <c r="M308" s="5" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="N308" s="12" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="O308" s="5"/>
       <c r="P308" s="5"/>
       <c r="Q308" s="5"/>
       <c r="R308" s="5"/>
       <c r="S308" s="5" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="T308" s="5"/>
       <c r="U308" s="5"/>
@@ -27511,7 +27512,7 @@
         <v>292</v>
       </c>
       <c r="AL308" s="12" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="AM308" s="5"/>
     </row>
@@ -27526,38 +27527,38 @@
         <v>40</v>
       </c>
       <c r="D309" s="5" t="s">
-        <v>864</v>
-      </c>
-      <c r="E309" s="21" t="s">
+        <v>863</v>
+      </c>
+      <c r="E309" s="22" t="s">
+        <v>905</v>
+      </c>
+      <c r="F309" s="22" t="s">
         <v>906</v>
       </c>
-      <c r="F309" s="21" t="s">
+      <c r="G309" s="5" t="s">
         <v>907</v>
       </c>
-      <c r="G309" s="5" t="s">
-        <v>908</v>
-      </c>
       <c r="H309" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="I309" s="5" t="s">
         <v>879</v>
-      </c>
-      <c r="I309" s="5" t="s">
-        <v>880</v>
       </c>
       <c r="J309" s="7"/>
       <c r="K309" s="7"/>
       <c r="L309" s="7"/>
       <c r="M309" s="5" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="N309" s="12" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="O309" s="5"/>
       <c r="P309" s="5"/>
       <c r="Q309" s="5"/>
       <c r="R309" s="5"/>
       <c r="S309" s="5" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="T309" s="5"/>
       <c r="U309" s="5"/>
@@ -27595,32 +27596,32 @@
         <v>40</v>
       </c>
       <c r="D310" s="5" t="s">
-        <v>864</v>
-      </c>
-      <c r="E310" s="21"/>
-      <c r="F310" s="21" t="s">
+        <v>863</v>
+      </c>
+      <c r="E310" s="22"/>
+      <c r="F310" s="22" t="s">
+        <v>917</v>
+      </c>
+      <c r="G310" s="22" t="s">
         <v>918</v>
       </c>
-      <c r="G310" s="21" t="s">
-        <v>919</v>
-      </c>
       <c r="H310" s="5" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="I310" s="5" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="J310" s="7"/>
       <c r="K310" s="7"/>
       <c r="L310" s="5"/>
-      <c r="M310" s="28"/>
+      <c r="M310" s="29"/>
       <c r="N310" s="5"/>
       <c r="O310" s="5"/>
       <c r="P310" s="5"/>
       <c r="Q310" s="5"/>
       <c r="R310" s="5"/>
       <c r="S310" s="5" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="T310" s="5"/>
       <c r="U310" s="5"/>
@@ -27675,49 +27676,49 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="31" t="s">
+        <v>919</v>
+      </c>
+      <c r="H1" s="31" t="s">
         <v>920</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="I1" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="31" t="s">
         <v>921</v>
       </c>
-      <c r="I1" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="30" t="s">
+      <c r="L1" s="31" t="s">
         <v>922</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="M1" s="31" t="s">
         <v>923</v>
       </c>
-      <c r="M1" s="30" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="32" t="s">
         <v>924</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="31" t="s">
-        <v>925</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Hypermarket - CAP.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Hypermarket - CAP.xlsx
@@ -15,6 +15,7 @@
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AM$310</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AM$310</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hypermarket!$A$1:$AM$310</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Hypermarket!$A$1:$AM$310</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1404,10 +1405,10 @@
     <t xml:space="preserve">Добрый Уголки - Слива-Смородина-Яблоко-Вишня - 1л</t>
   </si>
   <si>
-    <t xml:space="preserve">NEW SKU 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Новый вкус 6</t>
+    <t xml:space="preserve">Pulpy - Guava-Passion Fruit - 0.45L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Гуава-Маракуйя - 0.45л</t>
   </si>
   <si>
     <t xml:space="preserve">Dobriy - Apple Blackashberry Raspberry - 1L</t>
@@ -1455,10 +1456,10 @@
     <t xml:space="preserve">4607174579729</t>
   </si>
   <si>
-    <t xml:space="preserve">NEW SKU 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Новый вкус 8</t>
+    <t xml:space="preserve">Pulpy - Watermelon-Strawberry - 0.45L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Арбуз-Клубника - 0.45л</t>
   </si>
   <si>
     <t xml:space="preserve">Dobriy - Peach-Apple - 0.2L</t>
@@ -3157,7 +3158,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3168,6 +3169,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
     <fill>
@@ -3259,7 +3266,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3336,6 +3343,14 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="172" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3356,7 +3371,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3402,6 +3417,66 @@
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
     <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF00B050"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -3417,52 +3492,52 @@
   <dimension ref="A1:AM310"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G93" activeCellId="0" sqref="G93"/>
+      <selection pane="bottomLeft" activeCell="F142" activeCellId="0" sqref="F142:AM142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.9595141700405"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.8178137651822"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="52.8097165991903"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="79.6963562753036"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="50.7732793522267"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="53.2388663967611"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="80.3400809716599"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="51.2024291497976"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.246963562753"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="60.7368421052632"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="33.4210526315789"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.8178137651822"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="61.2712550607287"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="33.7408906882591"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.9230769230769"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.7085020242915"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="14.1417004048583"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="87.5141700404858"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="127.14979757085"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="56.2388663967611"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="26.8866396761134"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="27.3157894736842"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="16.9230769230769"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="88.3724696356275"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="128.222672064777"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="56.663967611336"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="27.1012145748988"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="27.5303643724696"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="17.7813765182186"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="0" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="33" min="33" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="64.165991902834"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="64.7004048582996"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="22.9230769230769"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="0" width="8.03238866396761"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="9.96356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="40" style="0" width="9.31983805668016"/>
   </cols>
   <sheetData>
@@ -14087,10 +14162,10 @@
       <c r="E136" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="F136" s="5" t="s">
+      <c r="F136" s="19" t="s">
         <v>392</v>
       </c>
-      <c r="G136" s="5" t="s">
+      <c r="G136" s="19" t="s">
         <v>393</v>
       </c>
       <c r="H136" s="5" t="s">
@@ -14102,11 +14177,11 @@
       </c>
       <c r="K136" s="7"/>
       <c r="L136" s="7"/>
-      <c r="M136" s="5" t="s">
+      <c r="M136" s="19" t="s">
         <v>392</v>
       </c>
-      <c r="N136" s="10" t="n">
-        <v>111111</v>
+      <c r="N136" s="20" t="n">
+        <v>4650075423257</v>
       </c>
       <c r="O136" s="10"/>
       <c r="P136" s="10"/>
@@ -14573,10 +14648,10 @@
       <c r="E142" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="F142" s="5" t="s">
+      <c r="F142" s="19" t="s">
         <v>409</v>
       </c>
-      <c r="G142" s="5" t="s">
+      <c r="G142" s="19" t="s">
         <v>410</v>
       </c>
       <c r="H142" s="5" t="s">
@@ -14588,11 +14663,11 @@
       </c>
       <c r="K142" s="7"/>
       <c r="L142" s="7"/>
-      <c r="M142" s="5" t="s">
+      <c r="M142" s="19" t="s">
         <v>409</v>
       </c>
-      <c r="N142" s="10" t="n">
-        <v>111111</v>
+      <c r="N142" s="20" t="n">
+        <v>4650075423233</v>
       </c>
       <c r="O142" s="10"/>
       <c r="P142" s="10"/>
@@ -18811,7 +18886,7 @@
       <c r="S194" s="5"/>
       <c r="T194" s="5"/>
       <c r="U194" s="5"/>
-      <c r="V194" s="19"/>
+      <c r="V194" s="21"/>
       <c r="W194" s="5"/>
       <c r="X194" s="5"/>
       <c r="Y194" s="5"/>
@@ -18894,7 +18969,7 @@
       </c>
       <c r="T195" s="5"/>
       <c r="U195" s="5"/>
-      <c r="V195" s="19"/>
+      <c r="V195" s="21"/>
       <c r="W195" s="5"/>
       <c r="X195" s="5"/>
       <c r="Y195" s="5"/>
@@ -19046,7 +19121,7 @@
       </c>
       <c r="T197" s="5"/>
       <c r="U197" s="5"/>
-      <c r="V197" s="19"/>
+      <c r="V197" s="21"/>
       <c r="W197" s="5"/>
       <c r="X197" s="5"/>
       <c r="Y197" s="5"/>
@@ -19117,7 +19192,7 @@
       <c r="S198" s="5"/>
       <c r="T198" s="5"/>
       <c r="U198" s="5"/>
-      <c r="V198" s="19"/>
+      <c r="V198" s="21"/>
       <c r="W198" s="5"/>
       <c r="X198" s="5"/>
       <c r="Y198" s="5"/>
@@ -19202,7 +19277,7 @@
       </c>
       <c r="T199" s="5"/>
       <c r="U199" s="5"/>
-      <c r="V199" s="19"/>
+      <c r="V199" s="21"/>
       <c r="W199" s="5"/>
       <c r="X199" s="5"/>
       <c r="Y199" s="5"/>
@@ -19279,7 +19354,7 @@
       </c>
       <c r="T200" s="5"/>
       <c r="U200" s="5"/>
-      <c r="V200" s="19"/>
+      <c r="V200" s="21"/>
       <c r="W200" s="5"/>
       <c r="X200" s="5"/>
       <c r="Y200" s="5"/>
@@ -19356,7 +19431,7 @@
       </c>
       <c r="T201" s="5"/>
       <c r="U201" s="5"/>
-      <c r="V201" s="19"/>
+      <c r="V201" s="21"/>
       <c r="W201" s="5"/>
       <c r="X201" s="5"/>
       <c r="Y201" s="5"/>
@@ -19427,7 +19502,7 @@
       <c r="S202" s="5"/>
       <c r="T202" s="5"/>
       <c r="U202" s="5"/>
-      <c r="V202" s="19"/>
+      <c r="V202" s="21"/>
       <c r="W202" s="5"/>
       <c r="X202" s="5"/>
       <c r="Y202" s="5"/>
@@ -19510,7 +19585,7 @@
       </c>
       <c r="T203" s="5"/>
       <c r="U203" s="5"/>
-      <c r="V203" s="19"/>
+      <c r="V203" s="21"/>
       <c r="W203" s="5"/>
       <c r="X203" s="5"/>
       <c r="Y203" s="5"/>
@@ -19656,7 +19731,7 @@
       <c r="S205" s="5"/>
       <c r="T205" s="5"/>
       <c r="U205" s="5"/>
-      <c r="V205" s="19"/>
+      <c r="V205" s="21"/>
       <c r="W205" s="5"/>
       <c r="X205" s="5"/>
       <c r="Y205" s="5"/>
@@ -19733,7 +19808,7 @@
       </c>
       <c r="T206" s="5"/>
       <c r="U206" s="5"/>
-      <c r="V206" s="19"/>
+      <c r="V206" s="21"/>
       <c r="W206" s="5"/>
       <c r="X206" s="5"/>
       <c r="Y206" s="5"/>
@@ -19810,7 +19885,7 @@
       </c>
       <c r="T207" s="5"/>
       <c r="U207" s="5"/>
-      <c r="V207" s="19"/>
+      <c r="V207" s="21"/>
       <c r="W207" s="5"/>
       <c r="X207" s="5"/>
       <c r="Y207" s="5"/>
@@ -19883,7 +19958,7 @@
       <c r="S208" s="5"/>
       <c r="T208" s="5"/>
       <c r="U208" s="5"/>
-      <c r="V208" s="19"/>
+      <c r="V208" s="21"/>
       <c r="W208" s="5"/>
       <c r="X208" s="5"/>
       <c r="Y208" s="5"/>
@@ -19968,7 +20043,7 @@
       </c>
       <c r="T209" s="5"/>
       <c r="U209" s="5"/>
-      <c r="V209" s="19"/>
+      <c r="V209" s="21"/>
       <c r="W209" s="5"/>
       <c r="X209" s="5"/>
       <c r="Y209" s="5"/>
@@ -20045,7 +20120,7 @@
       </c>
       <c r="T210" s="5"/>
       <c r="U210" s="5"/>
-      <c r="V210" s="19"/>
+      <c r="V210" s="21"/>
       <c r="W210" s="5"/>
       <c r="X210" s="5"/>
       <c r="Y210" s="5"/>
@@ -20122,7 +20197,7 @@
       </c>
       <c r="T211" s="5"/>
       <c r="U211" s="5"/>
-      <c r="V211" s="19"/>
+      <c r="V211" s="21"/>
       <c r="W211" s="5"/>
       <c r="X211" s="5"/>
       <c r="Y211" s="5"/>
@@ -20199,7 +20274,7 @@
       </c>
       <c r="T212" s="5"/>
       <c r="U212" s="5"/>
-      <c r="V212" s="19"/>
+      <c r="V212" s="21"/>
       <c r="W212" s="5"/>
       <c r="X212" s="5"/>
       <c r="Y212" s="5"/>
@@ -20276,7 +20351,7 @@
       </c>
       <c r="T213" s="5"/>
       <c r="U213" s="5"/>
-      <c r="V213" s="19"/>
+      <c r="V213" s="21"/>
       <c r="W213" s="5"/>
       <c r="X213" s="5"/>
       <c r="Y213" s="5"/>
@@ -20347,7 +20422,7 @@
       <c r="S214" s="5"/>
       <c r="T214" s="5"/>
       <c r="U214" s="5"/>
-      <c r="V214" s="19"/>
+      <c r="V214" s="21"/>
       <c r="W214" s="5"/>
       <c r="X214" s="5"/>
       <c r="Y214" s="5"/>
@@ -20430,7 +20505,7 @@
       </c>
       <c r="T215" s="5"/>
       <c r="U215" s="5"/>
-      <c r="V215" s="19"/>
+      <c r="V215" s="21"/>
       <c r="W215" s="5"/>
       <c r="X215" s="5"/>
       <c r="Y215" s="5"/>
@@ -20582,7 +20657,7 @@
       </c>
       <c r="T217" s="5"/>
       <c r="U217" s="5"/>
-      <c r="V217" s="19"/>
+      <c r="V217" s="21"/>
       <c r="W217" s="5"/>
       <c r="X217" s="5"/>
       <c r="Y217" s="5"/>
@@ -20655,7 +20730,7 @@
       <c r="S218" s="5"/>
       <c r="T218" s="5"/>
       <c r="U218" s="5"/>
-      <c r="V218" s="19"/>
+      <c r="V218" s="21"/>
       <c r="W218" s="5"/>
       <c r="X218" s="5"/>
       <c r="Y218" s="5"/>
@@ -20738,7 +20813,7 @@
       </c>
       <c r="T219" s="5"/>
       <c r="U219" s="5"/>
-      <c r="V219" s="19"/>
+      <c r="V219" s="21"/>
       <c r="W219" s="5"/>
       <c r="X219" s="5"/>
       <c r="Y219" s="5"/>
@@ -20883,7 +20958,7 @@
       <c r="S221" s="5"/>
       <c r="T221" s="5"/>
       <c r="U221" s="5"/>
-      <c r="V221" s="19"/>
+      <c r="V221" s="21"/>
       <c r="W221" s="5"/>
       <c r="X221" s="5"/>
       <c r="Y221" s="5"/>
@@ -20960,7 +21035,7 @@
       </c>
       <c r="T222" s="5"/>
       <c r="U222" s="5"/>
-      <c r="V222" s="19"/>
+      <c r="V222" s="21"/>
       <c r="W222" s="5"/>
       <c r="X222" s="5"/>
       <c r="Y222" s="5"/>
@@ -21037,7 +21112,7 @@
       </c>
       <c r="T223" s="5"/>
       <c r="U223" s="5"/>
-      <c r="V223" s="19"/>
+      <c r="V223" s="21"/>
       <c r="W223" s="5"/>
       <c r="X223" s="5"/>
       <c r="Y223" s="5"/>
@@ -21110,9 +21185,9 @@
       <c r="S224" s="5"/>
       <c r="T224" s="5"/>
       <c r="U224" s="5"/>
-      <c r="V224" s="19"/>
+      <c r="V224" s="21"/>
       <c r="W224" s="5"/>
-      <c r="X224" s="20" t="s">
+      <c r="X224" s="22" t="s">
         <v>77</v>
       </c>
       <c r="Y224" s="5"/>
@@ -21195,9 +21270,9 @@
       </c>
       <c r="T225" s="5"/>
       <c r="U225" s="5"/>
-      <c r="V225" s="19"/>
+      <c r="V225" s="21"/>
       <c r="W225" s="5"/>
-      <c r="X225" s="20" t="s">
+      <c r="X225" s="22" t="s">
         <v>77</v>
       </c>
       <c r="Y225" s="5"/>
@@ -21272,7 +21347,7 @@
         <v>659</v>
       </c>
       <c r="W226" s="5"/>
-      <c r="X226" s="20" t="s">
+      <c r="X226" s="22" t="s">
         <v>77</v>
       </c>
       <c r="Y226" s="5"/>
@@ -21341,9 +21416,9 @@
       <c r="S227" s="5"/>
       <c r="T227" s="5"/>
       <c r="U227" s="5"/>
-      <c r="V227" s="19"/>
+      <c r="V227" s="21"/>
       <c r="W227" s="5"/>
-      <c r="X227" s="20" t="s">
+      <c r="X227" s="22" t="s">
         <v>77</v>
       </c>
       <c r="Y227" s="5"/>
@@ -21418,9 +21493,9 @@
       </c>
       <c r="T228" s="5"/>
       <c r="U228" s="5"/>
-      <c r="V228" s="19"/>
+      <c r="V228" s="21"/>
       <c r="W228" s="5"/>
-      <c r="X228" s="20" t="s">
+      <c r="X228" s="22" t="s">
         <v>77</v>
       </c>
       <c r="Y228" s="5"/>
@@ -21495,9 +21570,9 @@
       </c>
       <c r="T229" s="5"/>
       <c r="U229" s="5"/>
-      <c r="V229" s="19"/>
+      <c r="V229" s="21"/>
       <c r="W229" s="5"/>
-      <c r="X229" s="20" t="s">
+      <c r="X229" s="22" t="s">
         <v>77</v>
       </c>
       <c r="Y229" s="5"/>
@@ -21572,9 +21647,9 @@
       </c>
       <c r="T230" s="5"/>
       <c r="U230" s="5"/>
-      <c r="V230" s="19"/>
+      <c r="V230" s="21"/>
       <c r="W230" s="5"/>
-      <c r="X230" s="20" t="s">
+      <c r="X230" s="22" t="s">
         <v>77</v>
       </c>
       <c r="Y230" s="5"/>
@@ -21645,7 +21720,7 @@
       <c r="S231" s="5"/>
       <c r="T231" s="5"/>
       <c r="U231" s="5"/>
-      <c r="V231" s="19"/>
+      <c r="V231" s="21"/>
       <c r="W231" s="5"/>
       <c r="X231" s="5"/>
       <c r="Y231" s="5"/>
@@ -21728,7 +21803,7 @@
       </c>
       <c r="T232" s="5"/>
       <c r="U232" s="5"/>
-      <c r="V232" s="19"/>
+      <c r="V232" s="21"/>
       <c r="W232" s="5"/>
       <c r="X232" s="5"/>
       <c r="Y232" s="5"/>
@@ -21874,7 +21949,7 @@
       <c r="S234" s="5"/>
       <c r="T234" s="5"/>
       <c r="U234" s="5"/>
-      <c r="V234" s="19"/>
+      <c r="V234" s="21"/>
       <c r="W234" s="5"/>
       <c r="X234" s="5"/>
       <c r="Y234" s="5"/>
@@ -21953,7 +22028,7 @@
       </c>
       <c r="T235" s="5"/>
       <c r="U235" s="5"/>
-      <c r="V235" s="19"/>
+      <c r="V235" s="21"/>
       <c r="W235" s="5"/>
       <c r="X235" s="5"/>
       <c r="Y235" s="5"/>
@@ -22026,7 +22101,7 @@
       <c r="S236" s="5"/>
       <c r="T236" s="5"/>
       <c r="U236" s="5"/>
-      <c r="V236" s="19"/>
+      <c r="V236" s="21"/>
       <c r="W236" s="5"/>
       <c r="X236" s="5"/>
       <c r="Y236" s="5"/>
@@ -22109,7 +22184,7 @@
       </c>
       <c r="T237" s="5"/>
       <c r="U237" s="5"/>
-      <c r="V237" s="19"/>
+      <c r="V237" s="21"/>
       <c r="W237" s="5"/>
       <c r="X237" s="5"/>
       <c r="Y237" s="5"/>
@@ -22261,7 +22336,7 @@
       </c>
       <c r="T239" s="5"/>
       <c r="U239" s="5"/>
-      <c r="V239" s="19"/>
+      <c r="V239" s="21"/>
       <c r="W239" s="5"/>
       <c r="X239" s="5"/>
       <c r="Y239" s="5"/>
@@ -22334,7 +22409,7 @@
       <c r="S240" s="5"/>
       <c r="T240" s="5"/>
       <c r="U240" s="5"/>
-      <c r="V240" s="19"/>
+      <c r="V240" s="21"/>
       <c r="W240" s="5"/>
       <c r="X240" s="5" t="s">
         <v>82</v>
@@ -22417,7 +22492,7 @@
       </c>
       <c r="T241" s="5"/>
       <c r="U241" s="5"/>
-      <c r="V241" s="19"/>
+      <c r="V241" s="21"/>
       <c r="W241" s="5"/>
       <c r="X241" s="5" t="s">
         <v>82</v>
@@ -22563,7 +22638,7 @@
       <c r="S243" s="5"/>
       <c r="T243" s="5"/>
       <c r="U243" s="5"/>
-      <c r="V243" s="19"/>
+      <c r="V243" s="21"/>
       <c r="W243" s="5"/>
       <c r="X243" s="5" t="s">
         <v>82</v>
@@ -22640,7 +22715,7 @@
       </c>
       <c r="T244" s="5"/>
       <c r="U244" s="5"/>
-      <c r="V244" s="19"/>
+      <c r="V244" s="21"/>
       <c r="W244" s="5"/>
       <c r="X244" s="5" t="s">
         <v>82</v>
@@ -22717,7 +22792,7 @@
       </c>
       <c r="T245" s="5"/>
       <c r="U245" s="5"/>
-      <c r="V245" s="19"/>
+      <c r="V245" s="21"/>
       <c r="W245" s="5"/>
       <c r="X245" s="5" t="s">
         <v>82</v>
@@ -22790,7 +22865,7 @@
       <c r="S246" s="5"/>
       <c r="T246" s="5"/>
       <c r="U246" s="5"/>
-      <c r="V246" s="19"/>
+      <c r="V246" s="21"/>
       <c r="W246" s="5"/>
       <c r="X246" s="5"/>
       <c r="Y246" s="5"/>
@@ -22873,7 +22948,7 @@
       </c>
       <c r="T247" s="5"/>
       <c r="U247" s="5"/>
-      <c r="V247" s="19"/>
+      <c r="V247" s="21"/>
       <c r="W247" s="5"/>
       <c r="X247" s="5"/>
       <c r="Y247" s="5"/>
@@ -23025,7 +23100,7 @@
       </c>
       <c r="T249" s="5"/>
       <c r="U249" s="5"/>
-      <c r="V249" s="19"/>
+      <c r="V249" s="21"/>
       <c r="W249" s="5"/>
       <c r="X249" s="5"/>
       <c r="Y249" s="5"/>
@@ -23208,7 +23283,7 @@
       <c r="AL251" s="12" t="s">
         <v>736</v>
       </c>
-      <c r="AM251" s="21" t="n">
+      <c r="AM251" s="23" t="n">
         <v>501</v>
       </c>
     </row>
@@ -23996,7 +24071,7 @@
       <c r="AL261" s="12" t="s">
         <v>759</v>
       </c>
-      <c r="AM261" s="21" t="n">
+      <c r="AM261" s="23" t="n">
         <v>502</v>
       </c>
     </row>
@@ -24547,7 +24622,7 @@
       <c r="AL268" s="18" t="n">
         <v>252</v>
       </c>
-      <c r="AM268" s="21" t="n">
+      <c r="AM268" s="23" t="n">
         <v>503</v>
       </c>
     </row>
@@ -24782,7 +24857,7 @@
       <c r="AL271" s="12" t="s">
         <v>783</v>
       </c>
-      <c r="AM271" s="21" t="n">
+      <c r="AM271" s="23" t="n">
         <v>504</v>
       </c>
     </row>
@@ -24896,7 +24971,7 @@
       </c>
       <c r="K273" s="7"/>
       <c r="L273" s="7"/>
-      <c r="M273" s="21" t="s">
+      <c r="M273" s="23" t="s">
         <v>267</v>
       </c>
       <c r="N273" s="15" t="s">
@@ -25323,7 +25398,7 @@
         <v>261</v>
       </c>
       <c r="AL278" s="5"/>
-      <c r="AM278" s="22" t="n">
+      <c r="AM278" s="24" t="n">
         <v>312</v>
       </c>
     </row>
@@ -25406,7 +25481,7 @@
         <v>262</v>
       </c>
       <c r="AL279" s="5"/>
-      <c r="AM279" s="22" t="n">
+      <c r="AM279" s="24" t="n">
         <v>312</v>
       </c>
     </row>
@@ -25466,7 +25541,7 @@
       <c r="AE280" s="9" t="n">
         <v>0.01625</v>
       </c>
-      <c r="AF280" s="23"/>
+      <c r="AF280" s="25"/>
       <c r="AG280" s="5"/>
       <c r="AH280" s="5" t="s">
         <v>811</v>
@@ -25483,7 +25558,7 @@
       <c r="AL280" s="12" t="s">
         <v>817</v>
       </c>
-      <c r="AM280" s="22" t="n">
+      <c r="AM280" s="24" t="n">
         <v>312</v>
       </c>
     </row>
@@ -25540,7 +25615,7 @@
       <c r="X281" s="5" t="s">
         <v>802</v>
       </c>
-      <c r="Y281" s="24" t="s">
+      <c r="Y281" s="26" t="s">
         <v>823</v>
       </c>
       <c r="Z281" s="5"/>
@@ -26045,7 +26120,7 @@
         <v>271</v>
       </c>
       <c r="AL287" s="5"/>
-      <c r="AM287" s="22" t="n">
+      <c r="AM287" s="24" t="n">
         <v>312</v>
       </c>
     </row>
@@ -26062,7 +26137,7 @@
       <c r="D288" s="5" t="s">
         <v>578</v>
       </c>
-      <c r="E288" s="22" t="s">
+      <c r="E288" s="24" t="s">
         <v>583</v>
       </c>
       <c r="F288" s="5" t="s">
@@ -26120,7 +26195,7 @@
       <c r="AL288" s="18" t="n">
         <v>273</v>
       </c>
-      <c r="AM288" s="22" t="n">
+      <c r="AM288" s="24" t="n">
         <v>301</v>
       </c>
     </row>
@@ -26137,7 +26212,7 @@
       <c r="D289" s="5" t="s">
         <v>578</v>
       </c>
-      <c r="E289" s="22" t="s">
+      <c r="E289" s="24" t="s">
         <v>583</v>
       </c>
       <c r="F289" s="5" t="s">
@@ -26266,7 +26341,7 @@
       <c r="AL290" s="12" t="s">
         <v>851</v>
       </c>
-      <c r="AM290" s="22" t="n">
+      <c r="AM290" s="24" t="n">
         <v>400</v>
       </c>
     </row>
@@ -26514,10 +26589,10 @@
       <c r="D294" s="5" t="s">
         <v>863</v>
       </c>
-      <c r="E294" s="22" t="s">
+      <c r="E294" s="24" t="s">
         <v>864</v>
       </c>
-      <c r="F294" s="22" t="s">
+      <c r="F294" s="24" t="s">
         <v>865</v>
       </c>
       <c r="G294" s="5" t="s">
@@ -26582,10 +26657,10 @@
       <c r="E295" s="5" t="s">
         <v>871</v>
       </c>
-      <c r="F295" s="21" t="s">
+      <c r="F295" s="23" t="s">
         <v>872</v>
       </c>
-      <c r="G295" s="21" t="s">
+      <c r="G295" s="23" t="s">
         <v>873</v>
       </c>
       <c r="H295" s="5" t="s">
@@ -26598,7 +26673,7 @@
       <c r="K295" s="7"/>
       <c r="L295" s="7"/>
       <c r="M295" s="5"/>
-      <c r="N295" s="25"/>
+      <c r="N295" s="27"/>
       <c r="O295" s="5"/>
       <c r="P295" s="5"/>
       <c r="Q295" s="5"/>
@@ -26644,10 +26719,10 @@
       <c r="D296" s="5" t="s">
         <v>863</v>
       </c>
-      <c r="E296" s="22" t="s">
+      <c r="E296" s="24" t="s">
         <v>875</v>
       </c>
-      <c r="F296" s="22" t="s">
+      <c r="F296" s="24" t="s">
         <v>876</v>
       </c>
       <c r="G296" s="5" t="s">
@@ -26665,10 +26740,10 @@
       <c r="M296" s="5" t="s">
         <v>880</v>
       </c>
-      <c r="N296" s="26" t="s">
+      <c r="N296" s="28" t="s">
         <v>881</v>
       </c>
-      <c r="O296" s="27"/>
+      <c r="O296" s="29"/>
       <c r="P296" s="5"/>
       <c r="Q296" s="5"/>
       <c r="R296" s="5"/>
@@ -26713,10 +26788,10 @@
       <c r="D297" s="5" t="s">
         <v>863</v>
       </c>
-      <c r="E297" s="22" t="s">
+      <c r="E297" s="24" t="s">
         <v>875</v>
       </c>
-      <c r="F297" s="22" t="s">
+      <c r="F297" s="24" t="s">
         <v>876</v>
       </c>
       <c r="G297" s="5" t="s">
@@ -26734,10 +26809,10 @@
       <c r="M297" s="5" t="s">
         <v>880</v>
       </c>
-      <c r="N297" s="26" t="s">
+      <c r="N297" s="28" t="s">
         <v>882</v>
       </c>
-      <c r="O297" s="27"/>
+      <c r="O297" s="29"/>
       <c r="P297" s="5"/>
       <c r="Q297" s="5"/>
       <c r="R297" s="5"/>
@@ -26782,10 +26857,10 @@
       <c r="D298" s="5" t="s">
         <v>863</v>
       </c>
-      <c r="E298" s="22" t="s">
+      <c r="E298" s="24" t="s">
         <v>875</v>
       </c>
-      <c r="F298" s="22" t="s">
+      <c r="F298" s="24" t="s">
         <v>876</v>
       </c>
       <c r="G298" s="5" t="s">
@@ -26803,10 +26878,10 @@
       <c r="M298" s="5" t="s">
         <v>880</v>
       </c>
-      <c r="N298" s="26" t="s">
+      <c r="N298" s="28" t="s">
         <v>883</v>
       </c>
-      <c r="O298" s="27"/>
+      <c r="O298" s="29"/>
       <c r="P298" s="5"/>
       <c r="Q298" s="5"/>
       <c r="R298" s="5"/>
@@ -26851,13 +26926,13 @@
       <c r="D299" s="5" t="s">
         <v>863</v>
       </c>
-      <c r="E299" s="22" t="s">
+      <c r="E299" s="24" t="s">
         <v>884</v>
       </c>
-      <c r="F299" s="22" t="s">
+      <c r="F299" s="24" t="s">
         <v>885</v>
       </c>
-      <c r="G299" s="21" t="s">
+      <c r="G299" s="23" t="s">
         <v>886</v>
       </c>
       <c r="H299" s="5" t="s">
@@ -26870,7 +26945,7 @@
       <c r="K299" s="7"/>
       <c r="L299" s="7"/>
       <c r="M299" s="5"/>
-      <c r="N299" s="28"/>
+      <c r="N299" s="30"/>
       <c r="O299" s="5"/>
       <c r="P299" s="5"/>
       <c r="Q299" s="5"/>
@@ -26916,13 +26991,13 @@
       <c r="D300" s="5" t="s">
         <v>863</v>
       </c>
-      <c r="E300" s="22" t="s">
+      <c r="E300" s="24" t="s">
         <v>889</v>
       </c>
-      <c r="F300" s="22" t="s">
+      <c r="F300" s="24" t="s">
         <v>890</v>
       </c>
-      <c r="G300" s="21" t="s">
+      <c r="G300" s="23" t="s">
         <v>891</v>
       </c>
       <c r="H300" s="5" t="s">
@@ -26981,10 +27056,10 @@
       <c r="D301" s="5" t="s">
         <v>863</v>
       </c>
-      <c r="E301" s="22" t="s">
+      <c r="E301" s="24" t="s">
         <v>893</v>
       </c>
-      <c r="F301" s="22" t="s">
+      <c r="F301" s="24" t="s">
         <v>894</v>
       </c>
       <c r="G301" s="5" t="s">
@@ -27048,10 +27123,10 @@
       <c r="D302" s="5" t="s">
         <v>863</v>
       </c>
-      <c r="E302" s="22" t="s">
+      <c r="E302" s="24" t="s">
         <v>899</v>
       </c>
-      <c r="F302" s="22" t="s">
+      <c r="F302" s="24" t="s">
         <v>900</v>
       </c>
       <c r="G302" s="5" t="s">
@@ -27115,10 +27190,10 @@
       <c r="D303" s="5" t="s">
         <v>863</v>
       </c>
-      <c r="E303" s="22" t="s">
+      <c r="E303" s="24" t="s">
         <v>905</v>
       </c>
-      <c r="F303" s="22" t="s">
+      <c r="F303" s="24" t="s">
         <v>906</v>
       </c>
       <c r="G303" s="5" t="s">
@@ -27184,10 +27259,10 @@
       <c r="D304" s="5" t="s">
         <v>863</v>
       </c>
-      <c r="E304" s="22" t="s">
+      <c r="E304" s="24" t="s">
         <v>905</v>
       </c>
-      <c r="F304" s="22" t="s">
+      <c r="F304" s="24" t="s">
         <v>906</v>
       </c>
       <c r="G304" s="5" t="s">
@@ -27253,10 +27328,10 @@
       <c r="D305" s="5" t="s">
         <v>863</v>
       </c>
-      <c r="E305" s="22" t="s">
+      <c r="E305" s="24" t="s">
         <v>905</v>
       </c>
-      <c r="F305" s="22" t="s">
+      <c r="F305" s="24" t="s">
         <v>906</v>
       </c>
       <c r="G305" s="5" t="s">
@@ -27322,10 +27397,10 @@
       <c r="D306" s="5" t="s">
         <v>863</v>
       </c>
-      <c r="E306" s="22" t="s">
+      <c r="E306" s="24" t="s">
         <v>905</v>
       </c>
-      <c r="F306" s="22" t="s">
+      <c r="F306" s="24" t="s">
         <v>906</v>
       </c>
       <c r="G306" s="5" t="s">
@@ -27343,7 +27418,7 @@
       <c r="M306" s="5" t="s">
         <v>908</v>
       </c>
-      <c r="N306" s="29" t="s">
+      <c r="N306" s="31" t="s">
         <v>910</v>
       </c>
       <c r="O306" s="5"/>
@@ -27391,10 +27466,10 @@
       <c r="D307" s="5" t="s">
         <v>863</v>
       </c>
-      <c r="E307" s="22" t="s">
+      <c r="E307" s="24" t="s">
         <v>905</v>
       </c>
-      <c r="F307" s="22" t="s">
+      <c r="F307" s="24" t="s">
         <v>906</v>
       </c>
       <c r="G307" s="5" t="s">
@@ -27412,7 +27487,7 @@
       <c r="M307" s="5" t="s">
         <v>908</v>
       </c>
-      <c r="N307" s="29" t="s">
+      <c r="N307" s="31" t="s">
         <v>912</v>
       </c>
       <c r="O307" s="5"/>
@@ -27460,10 +27535,10 @@
       <c r="D308" s="5" t="s">
         <v>863</v>
       </c>
-      <c r="E308" s="22" t="s">
+      <c r="E308" s="24" t="s">
         <v>905</v>
       </c>
-      <c r="F308" s="22" t="s">
+      <c r="F308" s="24" t="s">
         <v>906</v>
       </c>
       <c r="G308" s="5" t="s">
@@ -27529,10 +27604,10 @@
       <c r="D309" s="5" t="s">
         <v>863</v>
       </c>
-      <c r="E309" s="22" t="s">
+      <c r="E309" s="24" t="s">
         <v>905</v>
       </c>
-      <c r="F309" s="22" t="s">
+      <c r="F309" s="24" t="s">
         <v>906</v>
       </c>
       <c r="G309" s="5" t="s">
@@ -27598,11 +27673,11 @@
       <c r="D310" s="5" t="s">
         <v>863</v>
       </c>
-      <c r="E310" s="22"/>
-      <c r="F310" s="22" t="s">
+      <c r="E310" s="24"/>
+      <c r="F310" s="24" t="s">
         <v>917</v>
       </c>
-      <c r="G310" s="22" t="s">
+      <c r="G310" s="24" t="s">
         <v>918</v>
       </c>
       <c r="H310" s="5" t="s">
@@ -27614,7 +27689,7 @@
       <c r="J310" s="7"/>
       <c r="K310" s="7"/>
       <c r="L310" s="5"/>
-      <c r="M310" s="29"/>
+      <c r="M310" s="31"/>
       <c r="N310" s="5"/>
       <c r="O310" s="5"/>
       <c r="P310" s="5"/>
@@ -27667,7 +27742,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F142:AM142 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27676,48 +27751,48 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="33" t="s">
         <v>919</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="33" t="s">
         <v>920</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="33" t="s">
         <v>921</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="33" t="s">
         <v>922</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="M1" s="33" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="34" t="s">
         <v>924</v>
       </c>
     </row>
